--- a/builtins/data/helpdoc/DND/05_瓦罗怪物指南VGM.xlsx
+++ b/builtins/data/helpdoc/DND/05_瓦罗怪物指南VGM.xlsx
@@ -4,13 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="1"/>
+    <workbookView windowWidth="20955" windowHeight="11475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VGM种族" sheetId="1" r:id="rId1"/>
     <sheet name="VGM物品" sheetId="2" r:id="rId2"/>
+    <sheet name="VGM怪物" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,8 +192,90 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DicePP</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>查询关键字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 关键字同义词, 用/分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>词条内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 对于词条的简短描述</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 该词条被归在哪一个目录下, 用/分割父子目录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 内容的Tag, 如#核心 #法术</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="540">
   <si>
     <t>Key</t>
   </si>
@@ -1001,11 +1097,3447 @@
 一只擅长制造魔法武器的夺心魔能够通过从一名智能类人生物的身上获取一只眼睛，并把它奇妙地植入一面非魔法盾牌的表面，以此创造出一面远视之盾。一旦眼睛被植入，盾牌就会变成魔法物品，夺心魔可以把它交给一个奴仆或者把它挂在巢穴的墙上，只要盾牌和其创造者在同一个位面上，夺心魔就能通过这面盾牌的眼睛看到东西。并且该盾牌的眼睛具有60尺的黑暗视觉。当夺心魔通过这只魔法眼睛窥视时，它可以使用动作心灵震爆，就好像它正站在盾牌后一样。
 如果远视之盾被摧毁，创造它的夺心魔将失明2d12小时。</t>
   </si>
+  <si>
+    <t>眼魔:简述</t>
+  </si>
+  <si>
+    <t>眼魔 Beholders
+真眼魔大多独立生活并鄙视其他的同类。不过，它们的梦境会唤起各种各样跟眼魔相似的低阶生物。以下介绍其中的几个种类。</t>
+  </si>
+  <si>
+    <t>死吻眼魔:简述</t>
+  </si>
+  <si>
+    <t>死吻眼魔 Death Kiss
+死吻眼魔是从眼魔关于失血的清晰噩梦中产生的低阶眼魔。它没有眼波射线，取而代之的是十根末端长着尖牙大嘴的长触须。而其外观颜色与梦见它的本体眼魔相似，只是颜色更为暗淡。
+饮血者 Blood Drinker。死吻眼魔靠吸食血液维持生存，其所吸 收的血液会在身体里转化成电能供其利用。由于偏执般的惧怕饿 死，死吻眼魔饥不择食，连老鼠一样的小生物都会被着魔般的吸尽血液。而猎物被吸干的尸体则会被留下让腐食者处理。死吻眼魔喜欢独自狩猎。当遇到另一只死吻眼魔时，视当时双方的健康状态和心情可能会发生打斗、逃跑或者合作等状况。死吻眼魔在地底时会使用触须的触觉试探检查周围的环境，而在地面时则通常将触须缩回身体，然后在敌人疏忽时瞬间将触须完全伸长以捕获对方。
+冒充暴君 False Tyrant。在光线不足的环境中，一只将触须伸长的死吻眼魔会被误认为是一只真眼魔。它也会在一些不明真相的生物面前假装自己是一只真眼魔。只是它们不像真眼魔那样偏执自大，而相对更专注于狩猎，因而它这种习性并不多见。 其触须上的任一张嘴都可以发出音调尖锐且带着鼻音的话语。真眼魔可以轻易的在死吻眼魔进入近战范围前将其杀死或压制，因此丝毫不把死吻眼魔放在眼里。而死吻眼魔除自保外通常都会服 从所遭遇眼魔的支配，然后尽可能的在其主人分神时逃跑。
+单纯战术 Simple Tactics。 死吻眼魔没有眼魔那样的战斗技巧和高智商。不过，它会尝试用不同的方法控制猎物（比如在擒抱 同时飞起），而大多数情况下，它只会尽量将触须贴上猎物，然后直接吸血至猎物倒下。当自身处于制高点而对手又不构成威胁时，它就会肆意玩弄这些到口的食粮，慢慢的将该生物的生命挤干吸净。</t>
+  </si>
+  <si>
+    <t>死吻眼魔</t>
+  </si>
+  <si>
+    <t>死吻眼魔 Death Kiss 
+大型异怪，中立邪恶 
+AC 16（天生护甲）
+HP 161（17d10+68）
+速度 0尺，飞行30尺（悬浮） 
+力量18（+4）    敏捷14（+2）    体质18（+4）
+智力10（+0）    感知12（+1）    魅力10（+0）
+豁免 体质+8，感知+5
+技能 觉察+5
+伤害免疫 闪电
+状态免疫 倒地
+感官 黑暗视觉 120尺，被动觉察15
+语言 深潜语，地底通用语
+挑战 10（5900XP）
+闪电之血 Lightning Blood。身处死吻眼魔身边5尺范围内的生物，使用近战攻击对其造成穿刺或挥斩伤害时，该生物将受到5（1d10）的闪电伤害。 
+动作
+多重攻击 Multiattack。死吻眼魔进行三次触须攻击。其中至多三次攻击可以替换为“吸血”攻击，所替换的每次攻击必须对应有一根正擒抱某生物的触须。
+触须 Tentacle。近战武器攻击：命中+8，触及20尺，单一目标 。命中：14（3d6+4）穿刺伤害，如果目标体型不大于巨型，则 该目标被擒抱（逃脱DC14）。目标陷入束缚状态直至擒抱结束， 此时死吻眼魔无法使用同一根触须擒抱另一个生物。死吻眼魔共 拥有十根触须。
+吸血 Blood Drain。一个正受死吻眼魔触须擒抱的生物必须进行 一次DC16的体质豁免。豁免失败则受22（4d10）的闪电伤害，同 时死吻眼魔恢复该伤害值一半的HP。</t>
+  </si>
+  <si>
+    <t>高斯眼魔:简述</t>
+  </si>
+  <si>
+    <t>高斯眼魔 Gauth
+高斯眼魔与真眼魔相似，是一种饥渴、残暴的生物。它时刻想要吞噬魔法，并试图从任何比自己弱的生物身上勒索贡品。它的身体直径大约4尺上下，拥有六只眼柄、一个主眼（有时主眼周围还会长着一些小眼），嘴巴旁长着四根用于擒抱的小触须。其外观颜色和质感都跟一只真眼魔非常相似。
+意外召唤 Accidental Summoning。当召唤观察者眼魔的仪式出错时，高斯眼魔可能会自己挤进有瑕疵的位面连接处，并立即或延迟几分钟后出现在仪式中。它会在不知情者面前假装是一只真眼魔并以此威胁对方，又或者假装自己是一只观察者眼魔，以试图将对方希望自己护卫的魔法物品吸收殆尽。
+低等暴君 Inferior Tyrant。真眼魔通常会将高斯眼魔从其领地赶走或者杀死，有时也会选择奴役它们或者将它们用作副官。高斯眼魔不像真眼魔般心存戒心，因此他们会组成互相协作的小团体，只是在团体活动时它们互相之间会完全无视对方。</t>
+  </si>
+  <si>
+    <t>高斯眼魔</t>
+  </si>
+  <si>
+    <t>高斯眼魔 Gauth
+中型异怪，守序邪恶
+AC 15（天生护甲）
+HP 67（9d8+27）
+速度 0尺，飞行20尺（悬浮）
+力量10（+0）    敏捷14（+2）    体质16（+3）
+智力15（+2）    感知15（+2）    魅力13（+1）
+豁免 智力+5，感知+5，魅力+4
+技能 察觉+5
+状态免疫 倒地
+感官 黑暗视觉120尺，被动察觉15
+语言 深潜语，地底通用语
+挑战 6（2300XP）
+震慑凝视 Stunning Gaze。高斯眼魔身边30尺内看到其主眼的生物在其回合开始时，如果高斯眼魔未处于乏力状态且可以看到该生物，则高斯眼魔可以迫使该生物进行一次DC14 的感知豁免，豁免失败者将陷入震慑状态。该状态持续至其下回合开始时结束。
+除非受突袭，否则任何生物都可以在其回合开始时自主避开高斯眼魔的眼睛从而免除进行该豁免检定。此时该生物不能看到高斯眼魔，直至其下回合开始时，他可以重新决定是否避开其眼睛。该生物任何时候看向高斯眼魔时，都必须立即进行该豁免。
+垂死挣扎 Death Throes。高斯眼魔死亡时，其体内的魔法力量炸裂开来。其身边10尺范围内的每个生物必须进行一次DC14的敏捷豁免，豁免失败者将受到13（3d8）的力场伤害，豁免成功则伤害减半。
+动作 
+啃咬 Bite。近战武器攻击：命中+6，触及5尺，单一目标。伤害 ：9（2d8）穿刺伤害。 
+眼波射线 Eye Rays。 高斯眼魔从下列选项中随机选择发射三束魔法眼波射线（重复则重骰），并指定其身边120尺内可以看到的一到三个目标。
+吞噬魔法射线 Devour Magic Ray。 目标生物必须进行一次 DC14的敏捷豁免，豁免失败者身上的一件魔法物品将失去其所有魔法属性，并持续至高斯眼魔下一回合开始前。如果该物件是一件充能物品，其将失去1d4的充能次数。随机选择受影响的物品，并忽略所有一次性物品如药水和卷轴。
+衰弱射线 Enervation Ray。 目标生物必须进行一次DC14的体质豁免，豁免失败者将受18（4d8）的黯蚀伤害，豁免成功则伤害减半。
+推压射线 Pushing Ray。 目标生物必须进行一次DC14的力量豁免，豁免失败者将向着高斯眼魔的所在位置推后15尺，且其速度减半并持续至高斯眼魔下回合开始时结束。
+火焰射线 Fire Ray。 目标生物必须进行一次DC14的敏捷豁免 ，豁免失败者将受22（4d10）的火焰伤害。
+麻痹射线 Pralyzing Ray。 目标生物必须进行一次DC14的体质豁免，豁免失败者将陷入麻痹状态并持续1分钟。此后该生物可以在其每回合结束时再进行一次该豁免，豁免成功则自行结束该效应。
+催眠射线 Sleep Ray。 目标生物必须进行一次DC14的感知豁免 ，豁免失败者将陷入睡眠及昏迷状态并持续1分钟。此后该生物将在受到伤害时被唤醒，或者也可以由另一个生物用一个动作将其唤醒。该射线无法对构装生物和不死生物生效。</t>
+  </si>
+  <si>
+    <t>凝视者眼魔:简述</t>
+  </si>
+  <si>
+    <t>凝视者眼魔 Gazer 
+凝视者是眼魔梦境一种轻量的显现。它与作梦的本体长得十分相似，只是身体只有8寸宽，且只有四支眼柄。它会像忠心的恶犬一样跟随其创造者，有时还会成群结队的在其主人巢穴内巡逻，并四处清理害虫或骚扰落单的生物。
+恼人的宠物 Nuisance Pet。凝视者眼魔不懂任何语言，但却可以用尖锐讽刺的声调模仿一些单词或语句。真眼魔觉得凝视者有趣，并容许它们作为娇惯的宠物待在身边。除其主人外，凝视者眼魔无法被直接驯服，不过可以依靠魔法实现或是以施法者身份与之订立誓约（见边栏）。某些眼魔的法师手下会被要求以凝视者作为其魔宠，以方便其主子通过这些生物的眼睛作各种观察。
+好斗的食虫者 Aggressive Vermin-Eater。野生的凝视者 （即离开眼魔独立生活的个体）有着领地意识，它们以虫子和小动物为食，还会玩弄自己的猎物。单独行动的凝视者会避免与中型或更大体型的生物发生战斗，但成群结队时却会主动捕猎更大的猎物 。凝视者会尾随其领地内的类人生物，烦人的模仿他们的话语并纠缠不休，直至对方离开该区域为止。不过，当它们遇到自己无法杀害的目标时就会直接选择逃跑。</t>
+  </si>
+  <si>
+    <t>凝视者眼魔</t>
+  </si>
+  <si>
+    <t>凝视者眼魔 Gazer
+微型异怪，中立邪恶
+AC 13
+HP 13（3d4+6）
+速度 0尺，飞行30尺（悬浮）
+力量3（-4）    敏捷17（+3）    体质14（+2）
+智力3（-4）    感知10（+0）    魅力7（-2） 
+豁免 感知+2 
+技能 察觉+4，隐匿+5 
+状态免疫 倒地 
+感官 黑暗视觉60尺，被动察觉14 
+语言 - 
+挑战 1/2（100XP） 
+好斗 Aggressive。以一个附赠动作，凝视者可以向一个它能看到的敌对生物移动至多相当于其速度的距离。
+拟声 Mimicry。 凝视者眼魔能以任何语言模仿它听过的简单声音。听到该声音的生物可以进行一次DC10的感知（洞悉）检定，以辨别出声音是否只是拟声。
+动作
+啃咬 Bite。近战武器攻击：命中+5，触及5尺，单一目标。伤害 ：1穿刺伤害。
+眼波射线 Eye Rays。凝视者眼魔从下列选项中随机选择发射两束魔法眼波射线（重复则重骰），并指定其身边60尺内可以看到的一或两个目标:
+眩晕射线 Dazing Ray。目标生物必须进行一次DC12的感知豁免，豁免失败者将陷入魅惑状态，并持续至凝视者眼魔的下回合开始前。以该方式被魅惑的生物其速度减半，而其进行攻击检定时具有劣势。
+恐惧射线 Fear Ray。目标生物必须进行一次DC12的感知豁免 ，豁免失败者将陷入恐慌状态，并持续至凝视者眼魔的下回合开始前。
+冷冻射线 Frost Ray。目标生物必须进行一次DC12的敏捷豁免 ，豁免失败者将受到10（3d6）的冷冻伤害。
+念力射线 Telekinetic Ray。 如果目标生物体型为中型或更小体型，则其必须进行一次DC12的力量豁免，豁免失败者将向着凝视者眼魔所在位置向后移动30尺。
+如果目标是一个重量不大于10磅的物件且未被着装或携带，则凝视者眼魔可以将其向任意方向移动至多30尺。凝视者眼魔还可以用这种射线精确的控制物件，比如控制简单的工具或者打开某个容器。</t>
+  </si>
+  <si>
+    <t>变体：凝视者魔宠</t>
+  </si>
+  <si>
+    <t>变体：凝视者魔宠
+有些施法者对与众不同的魔宠特别感兴趣，他们发现凝视者眼魔会渴望跟随掌握魔法力量的人，而且特别喜欢其中某些持强凌弱者。然而这些凝视者眼魔好勇斗狠，除非受到主人严厉管教，否则它们会去袭击体型比自己小的生物，还会随意攻击家宠家禽，和镇上的孩童。凝视者眼魔作为魔宠时拥有以下特质。
+魔宠 Familiar。 凝视者眼魔可以作为魔宠为另一生物服务，并与其认定的主人建立一个心灵感应的链接，前提是其主人的施法者等级至少为3级。链接完成后，其主人可以在与其相距不超过1里时，分享凝视者眼魔的各种感官。一旦主人对身体造成伤害，凝视者眼魔将结束其魔宠服务，并中断相应的心 灵感应链接。</t>
+  </si>
+  <si>
+    <t>夺心魔:简述</t>
+  </si>
+  <si>
+    <t>夺心魔 Mind flayers
+可怖的灵吸怪家族的三名成员在这里登场，它们补充了在《怪物图鉴》中关于普通夺心魔的描述。</t>
+  </si>
+  <si>
+    <t>变体：夺心魔巫妖</t>
+  </si>
+  <si>
+    <t>变体：夺心魔巫妖 Mind Flayer Lich（灵吸巫妖 Illithilich）
+通往真正巫妖的道路是只有最强大的夺心魔法师才能追求的，因为这需要制作命匣和施展禁锢术imprisonment的能力。夺心魔巫妖使用 巫妖Lich 的数据面板（参见《怪物图鉴》），并做下列改动：
+夺心魔巫妖的挑战等级为：22（41,000 XP）
+夺心魔巫妖的语言为：深潜语，地底通用语和心灵感应 120 尺
+夺心魔巫妖拥有魔法抗性Magic Resistance和天生施法Innate Spellcasting(灵能Psionics)的特性，以及触须Tentades，采脑Extract Brain和心灵震爆Mind Blast的动作选项（描述均见下方）。只要夺心魔巫妖用俘获的灵魂来祭食它的命匣，它就可以维持它触须的强健力量以及采脑的能力。
+夺心魔巫妖的传奇动作（描述见下）也与普通巫妖不同。
+魔法抗性Magic Resistance。夺心魔巫妖抵抗法术和其他魔法效应所作的豁免检定具有优势。
+天生施法Innate Spellcasting(灵能Psionics)。夺心魔巫妖天生施法的关键属性是智力（法术豁免DC 20）。夺心魔巫妖天生可施展下列法术而不需要相应的法术成分。   
+随意：侦测思想，浮空术
+每项1/每日：支配怪物，异界传送（仅自身）
+动作
+触须Tentacles。近战武器攻击：命中+12，触及 5 尺，单一生物。伤害 ：21（3d10+5）的心灵伤害。如果目标为大型或更小体型生物，则目标被擒抱（逃脱 DC 15）且必须成功通过一次 DC 20 的智力豁免否则在被擒抱的同时被震慑直至该擒抱效应终止。
+采脑Extract Brain。近战武器攻击： 命中+12，触及 5 尺，单一被夺心魔巫妖擒抱且陷入失能的类人生物。 伤害 ：目标受 55（10d10） 的穿刺伤害。如果该伤害使目标的生命值降至 0，则夺心魔巫妖抽出并吃掉目标的大脑并以此杀死目标。      
+心灵震爆Mind Blast（充能5-6）。夺心魔巫妖以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 18 的智力豁免，豁免失败者将受 27（5d8+5）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。
+传奇动作
+夺心魔巫妖获得下列传奇动作项来代替巫妖所有的传奇动作。
+触须Tentacles。夺心魔巫妖用它的触须发动一次攻击。
+采脑Extract Brain（消耗 2 动作）。夺心魔巫妖发动采脑。
+心灵震爆Mind Blast（消耗 3 动作）。夺心魔巫妖将心灵震爆充能并使用它。
+施法（消耗1-3动作）。夺心魔巫妖消耗法术位来施展一个1-3环的已准备法术。每环消耗1传奇动作。</t>
+  </si>
+  <si>
+    <t>慑心魔:简述</t>
+  </si>
+  <si>
+    <t>慑心魔 Alhoon
+追寻奥术魔法的夺心魔被作为离经叛道者放逐，对于它们来说，与主脑的永恒交流是不可能的。通往巫妖之路则提供了一种逃离永恒死亡的方法，但这条道路漫长而孤独。慑心魔是夺心魔中那些走了捷径的存在。
+奥术的诱惑 Arcane Temptation。主脑禁止夺心魔追求灵能以外的魔法力量，但这禁令它们并不一定总是执行。灵吸怪不接受任何意义上的主人，它们只有作为自己同类的伙伴，所以它们的本性不会让它们向任何神明或者异界宗主低头俯首。然而，法术仍是一种罕见的诱惑。
+在一本法术书的纸页中，一只灵吸怪看见了一个能够获得权力的系统。通过写下这本书的法师的字里行间，灵吸怪可以感知到一颗非常聪明的大脑的运作。大多数发现了法术书的夺心魔会对此厌恶或者冷漠，但对有些夺心魔来说，一本法术书是通往新的思维方式的大门。
+在一段时间里，对这类禁书的研究可以对其他灵吸怪甚至是主脑进行隐瞒。对法术的理解像一个活物一样躲开它的脑子。然而，最终，当它理解了的时候，如果它要活下去，一名夺心魔奥术师必须接受它自己是一名异类，然后从社群逃离。
+死亡的恐惧 Existential Fear。那些尝到了离开社群之自由的离经叛道者们会做出各种各样的反应。其中一些珍视自己的隐私，另一些寻求相似心灵的亲密交流，而还有一些寻求统治一个社群，将它们自己提升到通常由主脑占据的领导地位。无论这位奥术师的个人倾向如何 ，它都面临着同样严峻的事实：当它死亡时，它都不会加入主脑的思维主机。离经叛道者永远不会被社群接受。对于它来说，死亡就意味着彻底毁灭。
+可怕的解脱 Dreadful Deliverance。巫妖之路提供了救赎，以及能够无限地追求知识的前景。夺心魔在活着的时候就享用过人的大脑，理所当然地，它们也不会对把灵魂喂给命匣感到内疚。唯一阻碍了夺心魔成为巫妖的障碍是方法，这也是一些夺心魔奥术师不惜一切代价想要知晓的秘密。然而，通向巫妖之路需要一名奥术施法者达到力量的最顶端，许多夺心魔会发现这远非是它们所能达到的。
+面对着这个可怕的现实，9位离经叛道的夺心魔组成了一个团体，用它们的奥术魔法和灵能力量编织了一个崭新的事实。这九位自称为慑心魔 Alhoon，自那以后，所有追随它们脚步的夺心魔都被冠以此名。
+灵能的秘密 A Psionic Secret。慑心魔可以合作制造一个陷灵护符 a periapt of mind trapping——这是一个拳头大小的容器，它由银，翡翠，紫晶制成。这一制作过程需要至少三名夺心魔奥术师，并在为期三日的施法与灵能交织的仪式中，献祭掉同等数目的活祭品的灵魂。当该仪式完成时，具有自由意识的不死特性将被授予夺心魔，将它们转化成慑心魔。
+在一开始，很难将刚转化的慑心魔与正常的夺心魔区分开。最明显的区别就是，慑心魔缺少那种常常覆盖在正常夺心魔表面的粘液层。由于没有这种保护，一只慑心魔的皮肤就会变得干裂。它的眼睛可能显得干瘪凹陷。这两条线索都很容易被没有见过夺心魔的人忽略。但是，在很短的时间内，慑心魔的血肉就会枯萎，它空洞的眼窝会像其他的巫妖一样散发出冰冷的微光。
+不稳定的不朽 Precarious Immortality。与真正巫妖之道不同的是，陷灵护符不能使被摧毁的慑心魔恢复到不死状态。而是在慑心魔被摧毁时将其意识转移到护符内，其在护符内除了能够和被献祭的灵魂进行交流以外，还能够和同样被困其中的其他慑心魔意识交流。
+陷灵护符所授予的不死只在被选择的活祭品的寿命长度内持续有效。因此，一个把200岁的精灵作为祭品的慑心魔比一个献祭35岁的人类的那个维持更长时间的存在。慑心魔可以通过用新的活祭品重复仪式来延长自己的存在，有效地为它们自己重置时钟。
+毁掉陷灵护符会使那些困在里面的灵魂彻底毁灭，因此，慑心魔经常一起为护符和它们偏好的仪式场地制作精心的保护。有时候，一只单独的慑心魔会被托付保管陷灵护符，但这是一个危险的提议。任何持有陷灵护符的人都能在对创造这护符的慑心魔的攻击，豁免，属性检定上获得优势；而这些慑心魔反过来在对持有者的攻击，豁免，属性检定上具有劣势。此外，护符的持有者可以与任何困于其中的祭品灵魂进行心灵感应式交流，而困在护符内的慑心魔也可以与持有者进行心灵传话。携带该护符的生物无法阻止来自慑心魔的交流，但可以让被献祭的灵魂安静下来。</t>
+  </si>
+  <si>
+    <t>慑心魔</t>
+  </si>
+  <si>
+    <t>慑心魔 Alhoon
+中型不死生物，任意邪恶阵营
+AC:15（天生护甲）
+HP：120（16d8+48）
+速度：30尺
+力量 11（+0）   敏捷 12（+1）   体质 16（+3）   
+智力 19（+4）   感知 17（+2）   魅力 17（+3）
+豁免：体质+7，智力+8，感知+7，魅力+7
+技能：奥秘+8，欺瞒+7，历史+8，洞悉+7，察觉+7，隐匿+5
+伤害抗性：冰冻，闪电，黯蚀
+伤害免疫：毒素，非魔法攻击的钝击、穿刺、挥砍
+状态免疫：魅惑，力竭，恐慌，麻痹，中毒
+感官：真实视野 120 尺，被动察觉 17
+语言：深潜语，地底通用语，心灵感应 120 尺
+挑战等级：10（5,900 XP）
+魔法抗性Magic Resistance。慑心魔抵抗法术和其他魔法效应所作的豁免检定具有优势。
+天生施法Innate Spellcasting(灵能Psionics)。慑心魔天生施法的关键属性是智力（法术豁免DC 16）。慑心魔天生可施展下列法术而不需要相应的法术成分。   
+随意：侦测思想，浮空术 
+每项1/每日：支配怪物，异界传送（仅自身） 
+施法Spellcasting。慑心魔作为12级施法者，其施法属性是智力（法术豁免DC 16，法术攻击命中+8）。慑心魔准备了以下法师法术： 
+戏法（随意）：冻寒之触chill touch,舞光术dancing lights，法师之手mage hand，魔法伎俩prestidigitation，电爪shocking grasp 
+1 环（法术位 4）：侦测魔法detect magic，易容术disguise self，魔法飞弹magic missile,，护盾术shield 
+2 环（法术位 3）：隐形术invisibility，镜影术mirror image，灼热射线scorching ray
+3 环（法术位 3）：法术反制counterspell，飞行术fly，闪电束lightning bolt
+4 环（法术位 3）：困惑术confusion，艾伐黑触手Evard's black tentacles，魅影杀手phantasmal killer 
+5 环（法术位 2）：篡改记忆modify memory，力场墙wall of force
+6 环（法术位 1）：解离术disintegrate，法术无效结界globe of invulnerability
+抵抗驱散Turn Resistance。 慑心魔抵抗驱散不死生物效应所做的豁免检定具有优势。
+动作
+冻寒之触Chilling Grasp。近战法术攻击：命中+8，触及5尺，单一生物。命中：10（3d6）点冷冻伤害。
+心灵震爆Mind Blast（充能5-6）。慑心魔以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 16 的智力豁免，豁免失败者将受 22（4d8+4）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。</t>
+  </si>
+  <si>
+    <t>主脑:简述</t>
+  </si>
+  <si>
+    <t>灵吸怪统治的终极表现：主脑卧在粘稠的盐水池中，触须蔓生，触碰着或远或近的生物的思想。它在他们心灵的画布上涂鸦，重写他们的思想，创造他们的梦想。
+精神的渗透者Psychic Infiltrators。当主脑渗透到精神中时，它会修改该生物的感知，欺骗他的感官，使它按主脑的意图去看、听、摸、尝和感受事实。在距离非常远的地方，它植入潜意识的暗示或者微妙地影响其梦想，促使着生物朝着有利于主脑其宏伟计划的方向前进行动。
+当其阴险的暗示无法奏效时，主脑会更直接地彰显自己的统治地位。它夺取反抗的灵魂的控制，像操纵一个木偶一样控制该生物的身体。面对罕见的意志强大的胆敢反抗或者攻击它的坚定者，主脑会发出压倒性心灵能量的震爆来摧毁这自命不凡者的精神，把他变成一个无法思考的淌着口水的躯壳。
+思想的吞食者 Devourer of Thoughts。主脑通过消耗其他生物的大脑来维持自己的生命。当守卫和服侍主脑的夺心魔仆从无法直接把食物送给它时，主脑就会伸出思想的触须，从精神上迫使生物靠近它以便它以之为食。
+当一只夺心魔死亡时，主脑的仆从会将其头骨内容物喂给它们的主人，而主脑则会吸收灵吸怪的大脑以及其中包含的所有知识和经验。通过这种方式，主脑不断地增长它的知识，并将该灵吸怪社群的思想和经验统合为一个整体。夺心魔相信这种“合一”是一种神圣的状态，就像一位人类神明的信徒相信死后在天堂里永生一样——因为主脑可以唤起它所吸收的任何灵吸怪的形象。
+母巢思维 Hive Mind。非灵吸怪的生物称呼其为“主脑”，是因为它是整个夺心魔社群的交流中枢，就像大脑对活体的作用一样。与主脑连接，夺心魔社群就像单一的有机体一样协同行动，仿佛每个灵吸怪都是一只手的手指。
+不受制的自我主义 Ego Unhindered。每一个主脑都认为自己和自己的欲望是多元宇宙中最为重要的事情，夺心魔不过是其意志的延伸。但是没有两个主脑是相同的，每个主脑都以其自己独特的个性和所收集的知识经验来管理自己的社群。一些主脑作为专横的暴君进行统治，而另一些则更仁慈地作为贤者，顾问，信息和知识的宝库为保护和供养它们的夺心魔服务。
+主脑的野心常常受到其相对固定状态的影响。虽然它的心灵感应能力可以达到数哩远的地方，但移动到任何地方都总是一件危险的事情。如果主脑被迫离开它的盐水池，它将很快死去，而在封闭和曲折的地下隧道中运送一只呆在它的盐水池里的主脑往往是困难或不可能的。</t>
+  </si>
+  <si>
+    <t>主脑巢穴</t>
+  </si>
+  <si>
+    <t>主脑巢穴 An Elder Brain's lair
+主脑的巢穴总是深藏在一个夺心魔社群的心脏处。这种思维生活在一个散发出微光的盐水池中，里面充满了脏兮兮的咸水，注入了主脑的所需的重要液体和灵能能量。
+巢穴动作 Lair action
+在它的巢穴中战斗时，主脑可以使用巢穴动作。先攻轮到20时（出现等值时视为后手），主脑可以执行一个巢穴动作并产生下列效应其一，它不能连续两轮里重复使用同一种效应：
+ · 主脑施展法术力场墙wall of force
+ · 主脑指定其周围120尺范围内它能看见的一个友好生物。目标在它下一回合结束前获得激励—在一次攻击检定，属性检定和豁免检定中获得优势。如果目标在时间内没有使用或者不能使用这个好处，激励也会消失。
+ · 主脑指定其周围120尺范围内它能看见的一个生物并用它的纯粹意志力将其固定住。目标必须进行一次 DC 18的魅力豁免并成功，否则将不能离开当前位置。目标可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。
+区域效应 Regional Effects
+主脑附近5哩内的区域被其灵能力量所扭曲，造成了下列一项或多项的效应：
+ · 距离主脑5哩内的生物会感觉他们被跟踪了，即使他们没有被跟踪。
+ · 主脑可以窃听其5哩内发生的任何心灵感应的对话。启动心灵感应的生物在第一次建立心灵感应链接的时候进行一个DC 18的感知（洞悉）检定。如果检定通过，该生物就会意识到有东西在偷听对话。窃听者的本质不会被揭示，而主脑也不能参与该心灵感应的对话，除非它与启动它的生物建立了心灵链接。
+ · 任何与主脑形成心灵联系的生物都会在其内心深处听到微弱而又无法理解的低语。这种精神杂质是由主脑的杂念和与之联接的其他生物的杂念混合而成的。
+主脑死后，这些效应都会立即消失。</t>
+  </si>
+  <si>
+    <t>主脑</t>
+  </si>
+  <si>
+    <t>主脑 Elder Brain
+大型异怪，守序邪恶
+AC:10
+HP：210（20d10+100）
+速度：5尺，游泳10尺
+力量 15（+2）   敏捷 10（+0）   体质 20（+5）   
+智力 21（+5）   感知 19（+4）   魅力 24（+7）
+豁免：智力+10，感知+9，魅力+12
+技能：奥秘+10，欺瞒+12，洞悉+14，威吓+12，游说+12 
+感官：盲视120尺，被动察觉14 
+语言：能理解通用语，深潜语，地底通用语但不会说，心灵感应5哩 
+挑战等级：14(11,500 XP)
+生物感知 Creature Sense。主脑能够感知到5哩范围内智力为4或更高的生物的存在。它可以知晓每个生物的距离和方向，以及每个生物的智力的数值，但它无法知晓除此之外的其他东西。被法术心灵屏障mind blank，回避侦测nondetection或者类似的魔法力量保护的生物不能以这种方式被感知到。 
+天生施法Innate Spellcasting(灵能Psionics)。主脑天生施法的关键属性是智力（法术豁免DC 18）。主脑天生可施展下列法术而不需要相应的法术成分。  
+随意：侦测思想，浮空术
+每项1/每日：支配怪物，异界传送（仅自身） 
+传奇抗性Legendary Resistance（3/每日）。主脑在豁免检定失败时，它可以将结果改为成功。
+魔法抗性Magic Resistance。主脑抵抗法术和其他魔法效应所作的豁免检定具有优势。
+心灵感应中枢Telepathic Hub。主脑可以利用它的心灵感应在同一时间启动和保持与多达10个生物的对话。当这样交流的时候，主脑可以让这些生物通过心灵感应听到彼此的声音。
+动作
+触须Tentacles。近战武器攻击：命中+7，触及 30 尺，单一生物。伤害 ：20（4d8+2）的钝击伤害。如果目标为巨型或更小体型生物，则目标被擒抱（逃脱 DC 15）并且在其每回合开始时受到9（1d8+5）的心灵伤害直至该擒抱效应终止。主脑可以最多同时对4个目标保持擒抱。
+心灵震爆Mind Blast（充能5-6）。主脑以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 18 的智力豁免并通过，豁免失败者将受 32（5d10+5）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。
+心灵链接Psychic Link。主脑指定一个可以被生物感知Creature Sense的特性感知到的失能生物并与该生物建立一个心灵链接。在链接结束之前，主脑可以感知到目标所能感知到的一切。当目标不再处于失能状态，他就会意识到有某种东西与他的心灵相连，而主脑可以随时终止这种联系（不需要消耗动作）。被链接的生物可以在他的回合消耗一个动作，进行一次DC 18的魅力豁免检定并成功来打破这心灵链接。链接打破时，该生物受到10(3d6)点心灵伤害。如果目标和主脑相距超过5哩，这个心灵链接也会终止，且目标不会受到伤害。主脑最多可以同时和10个生物形成心灵链接。
+感知思想Sense Thoughts。主脑指定一个已经形成心灵链接Psychic Link的生物。主脑能够洞悉目标的推理论断，情感状态以及在大脑中突出的想法（包括目标所担心的、所爱的或所恨的事情）。主脑还可以进行一次具有优势的魅力（欺瞒）检定来欺瞒目标的大脑，使其相信某个想法或者感受到某个特定的情绪。目标需要进行一次感知（洞悉）检定与之对抗。如果主脑成功胜出，那么在1小时内或在谎言的证据被直接展示给目标前，目标的大脑会相信这次欺骗的内容。
+传奇动作
+主脑拥有 3 传奇动作，用于选择执行下列动作选项。每次执行传奇动作时，每个选项只可以选用一次，且只能在另一生物的回合结束时执行。主脑在它的回合开始时恢复其所有已消耗的传奇动作数。
+触须Tentacle。主脑进行一次触须攻击。
+打破专注Break Concentration。主脑指定一个它120尺范围内且与之已建立心灵链接的生物。主脑打破该生物对其所施法术的专注。且该生物受到被打破专注法术的每环1d4心灵伤害。
+心灵脉冲Psychic Pulse。主脑指定一个它120尺范围内且与之已建立心灵链接的生物。该生物十尺范围内的主脑敌人都受到10（3d6）点心灵伤害。
+切断心灵链接Sever Psychic Link。主脑指定一个它120尺范围内且与之已建立心灵链接的生物。主脑终止精神链接，使致该生物直到其下一回合结束前，在所有技能检定，攻击检定和豁免检定上处于劣势。</t>
+  </si>
+  <si>
+    <t>噬魂怪:简述</t>
+  </si>
+  <si>
+    <t>噬魂怪 Ulitharid
+很罕见的，从主脑的盐水池诞生的灵吸怪蝌蚪会转变为噬魂怪——一个拥有六条触须的更大更强的夺心魔。
+主宰心灵 Master Minds。灵吸怪天生就知道一名噬魂怪的存活比它们自己的更重要。主脑对一名噬魂怪的崛起的反应各不相同。在大多数社群，噬魂怪成为主脑最宠爱的仆人，被授予力量和权力。在另一些情况下，主脑将噬魂怪视为潜在的力量竞争对手，并巧妙地篡改和破碎噬魂怪的野心。
+社群的诞生 Birth of a  Colony。当一名噬魂怪觉得与主脑分享领导权是无法忍受的时候，它就会脱离社群，并带着一群夺心魔迁移到另一个地方，形成一个新的社群。噬魂怪的身躯死去后，夺心魔把它的大脑放进盐水池里，几天后它就会长成一个主脑。这一过程对自然死亡的噬魂怪的大脑不起作用，因为衰老而死的噬魂怪大脑太过老朽而无法用于创造主脑。
+抽离法杖 Extractor Staff。每一个噬魂怪都携带着一根由黑色金属制成的灵能强化法杖。当噬魂怪准备好放弃它的生命时，它会让这个法杖贴在后脑勺上，法杖就会打开并剥开它的头骨，这样就可以把它的大脑抽取出来。然后，大脑和法杖就会被植入噬魂怪的尸体，使尸体溶解成灵液。这种具有灵能的黏液有助于将该区域转化为一个盐水池，用来安置一个幼年期的主脑。</t>
+  </si>
+  <si>
+    <t>噬魂怪</t>
+  </si>
+  <si>
+    <t>噬魂怪 Ulitharid
+大型异怪，守序邪恶
+AC:15（胸甲）
+HP：127（17d10+34）
+速度：30尺
+力量 15（+2）   敏捷 12（+1）   体质 15（+2）   
+智力 21（+5）   感知 19（+4）   魅力 21（+5）
+豁免：智力+9，感知+8，魅力+9
+技能：奥秘+9，洞悉+8，察觉+8，隐匿+5
+感官：黑暗视觉120尺，被动察觉18
+语言：深潜语，地底通用语，心灵感应2哩
+挑战等级：9(5,000 XP)
+生物感知 Creature Sense。噬魂怪能够感知到2哩范围内智力为4或更高的生物的存在。它可以知晓每个生物的距离和方向，以及每个生物的智力的数值，但它无法知晓除此之外的其他东西。被法术心灵屏障mind blank，回避侦测nondetection或者类似的魔法力量保护的生物不能以这种方式被感知到。
+魔法抗性Magic Resistance。噬魂怪抵抗法术和其他魔法效应所作的豁免检定具有优势。
+灵能枢纽Psionic Hub。如果一个主脑与噬魂怪建立起心灵链接Psychic Link，那么这个主脑就可以与任何噬魂怪使用它的生物感知所感知到的生物形成心灵链接。如果生物同时离开主脑与噬魂怪的心灵感应距离范围，任何这样的链接都将结束。只要它们在同一平面上，噬魂怪就可以维持它和主脑之间的心灵链接而不管距离多远。如果噬魂怪离开主脑超过5哩范围，它就可以随时中断这个心灵链接（不需要消耗动作）。
+天生施法Innate Spellcasting(灵能Psionics)。噬魂怪天生施法的关键属性是智力（法术豁免DC 17）。噬魂怪天生可施展下列法术而不需要相应的法术成分。   
+随意：侦测思想，浮空术
+每项1/每日：困惑术，支配怪物，摄心目光，弱智术，群体暗示术，异界传送（仅自身），投影术，探知，心灵遥控
+动作
+触须Tentacles。近战武器攻击：命中+9，触及 10 尺，单一生物。伤害 ：27（4d10+5）的心灵伤害。如果目标为大型或更小体型生物，则目标被擒抱（逃脱 DC 14）且必须成功通过一次 DC 17 的智力豁免否则在被擒抱的同时被震慑直至该擒抱效应终止。
+采脑Extract Brain。近战武器攻击： 命中+9，触及 5 尺，单一被噬魂怪擒抱且陷入失能的类人生物。 伤害 ：目标受 55（10d10） 的穿刺伤害。如果该伤害使目标的生命值降至 0，则噬魂怪抽出并吃掉目标的大脑并以此杀死目标。      
+心灵震爆Mind Blast（充能5-6）。噬魂怪以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 17 的智力豁免，豁免失败者将受 31（4d12+5）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。</t>
+  </si>
+  <si>
+    <t>证心者:简述</t>
+  </si>
+  <si>
+    <t>证心者 Mindwitness
+如果眼魔被打晕并安全地带到主脑的盐水池中，就可以通过某种仪式将其转化为证心者。仪式过程将会把眼魔的四只眼柄变成触角，类似于灵吸怪的触角，并且会改变眼魔的一部分眼球射线效果。证心者相比眼魔而言失去了部分智能，也更不容易危及群体，他们对主脑有着虔诚的献身精神，并屈从于灵吸怪的命令，使他们几乎和噬脑怪一样听话。
+传心中枢。证心者的主要功能是改善灵吸怪群体的心灵感应交流。通过与证心者的心灵感应交流，生物可以借由心灵感应与证心者所能看到的其他至多七个生物进行意念交流，从而使得命令和其他信息得以快速传递。
+孤独的探求者。如果与它的灵吸怪主人分离，一个证心者会寻找其他心灵感应生物来给予它指令。人们已经得知，证心者与呋噜和心灵感应生物(如恶魔)结盟，他们的世界观、阵营及行为准则随之改变，变得与他们的新主人相匹配。</t>
+  </si>
+  <si>
+    <t>证心者</t>
+  </si>
+  <si>
+    <t>证心者 Mindwitness
+大型异怪，守序邪恶
+AC 15（天生护甲）
+HP 75（10d10+20）
+速度 0尺，飞行20尺（悬浮）
+力量10（+0） 敏捷14（+2） 体质14（+2）
+智力15（+2） 感知15（+2） 魅力10（+0）
+豁免 智力+5，感知+5
+技能 观察+8
+状态免疫 倒地
+感官 黑暗视觉120尺，被动观察18
+语言 深渊语，地底通用语，心灵感应600尺
+挑战等级 5（1800XP）
+心灵感应中枢。当证心者接收到心灵感应信息，它可以通过心灵感应分享该信息给它能看到的600英尺内的其他七个生物。
+动作
+多重攻击。证心者发动两次攻击：一次用触手，一次用啃咬。
+啃咬。近战武器攻击：+5命中，触及5英尺，一个生物。命中：16（4D6+2）穿刺伤害。
+触手。近战武器攻击：+5命中，触及5英尺，一个生物。命中：20（4D8 + 2）精神伤害。如果目标是大体型或更小，它被擒抱（逃避DC13 ），并且需要通过一个DC 13的智力豁免，否则震慑直到擒抱结束。
+眼球射线。证心者发射三道魔法的眼球射线，随机（重复则重骰）选择一至三
+个可以在120英尺以内看到的目标使用射线：
+    1.厌恶射线。目标生物必须通过DC13的魅力豁免，否则目标攻击骰带有劣势，持续1分钟。目标可以在每个自己回合结束时重复豁免，成功则结束对自己的效果。
+    2.恐惧射线。目标生物必须通过DC13的感知豁免，否则恐惧1分钟。目标可以在每一个自己回合结束时重复豁免，成功则结束对自己的效果。
+    3.心灵射线。目标必须通过DC13的智力豁免，否则受到27（6d8）心灵伤害。
+    4.缓慢射线。目标生物必须通过DC13的敏捷豁免，否则目标的速度减半，持续1分钟。此外，该生物不能采取反应，它在自己的回合里可以采取行动或附赠行动，但不能同时进行。该生物可以在自己的每个回合结束时重复豁免，成功则结束对自己的效果。
+    5.震慑射线。目标生物必须通过DC13的体质豁免，否则震慑1分钟。该生物可以在自己的每个回合结束时重复豁免，成功则结束对自己的效果。
+    6.遥控射线。如果目标是一个生物，它必须通过DC13的力量豁免，否则被证心者丢到30尺内的任何方向上，并且受射线束缚直到证心者的下个回合开始或者证心者失能。如果目标是一个重量小于300磅的物体，且没有被佩戴或携带，则被念力移动到30
+尺内的任意方向上。证心者也可以用此射线很好地控制目标物体，比如操作简单的工具或打开门或容器。</t>
+  </si>
+  <si>
+    <t>莫克鱼怪:简述</t>
+  </si>
+  <si>
+    <t>莫克鱼怪 Morkoth
+古老而狡猾的莫克鱼怪是贪婪的收藏家。它们中的每一个都会在位面间旅行，囤积贵重物品、稀奇古怪的玩意和多元宇宙中被丢弃的废品，以使它的收藏更加完整。
+神之子嗣。很久以前，一位贪婪和争斗的神灵在神祇之间的战斗中灭亡了。它的身体在星界飘荡，最终变成一个石化的外壳。这具尸体漂浮到一个珍珠般的、充满了生机和生命魔力的天体残骸上。这次碰撞粉碎了这两个物体，释放出一场混乱的能量风暴。数不清的混合物质形成岛屿被卷入银色空间。对于它们中的一部分来说，有一条类似珍珠的物质构成的地脉，保存着神灵复生的超自然活力，天然地创造出了一个适宜居住的环境。在这些类似的岛屿上，神祇石化的肉体碎片，以触角异怪的形式复活了，并且充满了恶意和贪婪。从那时起，每个莫克鱼怪都有一个异界小岛，被它们称之为家。
+摸不到头脑。莫克鱼怪的小岛如梦似幻，自然和可预见性在这里被奇异和混乱所掩盖。在岛上，随处可见一堆堆杂乱的物体和各种生物，其中有些可以追溯到被遗忘的时代。小岛可能拥有天然照明，但大多数都是在黄昏时分被黑暗笼罩。在任何一个岛上，薄雾和阴影都可以在毫无征兆的情况下出现。这里的环境温暖潮湿，属于某种亚热带或热带气候，使莫克鱼怪和它的“客人”感到舒适。
+岛屿内部的珍珠物质使其能够在位面洋流上漂动，并且维持岛上的环境，使其不受来自外部的有害影响。莫克鱼怪的小岛可能存在于任何地方，从海底到星界的空洞中皆有可能。一个小岛可以漂浮在九层地狱之一的阿弗纳斯的天空中，而不会被摧毁，也不会对岛上的居民造成任何危害。在莫克鱼怪小岛周边一定半径以内，无论是什么，都会在它穿越位面的过程中与它一起转移。因此，来自失落的文明和过去时代的生物或物体的人可能在莫克鱼怪的领地内被发现。
+一些岛屿经过一条特定的路线，在几年的周期内定期到达相同的目的地。另一些则与特定的地点或群体联系在一起，还有一些则不规律地在宇宙中移动。罕见地，有莫克鱼怪学会了控制岛屿的运动轨迹，所以小岛可以载着它的主人抵达其想去的任何地方。
+太古囤积者。莫克鱼怪被贪婪和自私所驱使，混合着对争斗的渴望。他们寻求任何他们不曾拥有的东西，对索取他们想要的东西毫不顾忌，并努力保留他们收集的一切。
+莫克鱼怪会花时间审视自己的收藏品，并谋划着获得更多的财产。他们囤积了大量的财富和知识。此外，它的岛屿上还有许多俘虏，他们认为这是其收藏的一部分。有些居民，例如原囚犯的后裔，可能会把莫克鱼怪看作是统治者或神。当然，莫克鱼怪的财富和知识宝库吸引着那些想要成为掠夺者的人，以及那些寻找莫克鱼怪所拥有或知晓的特定事物之人。莫克鱼怪对那些试图从它那里偷东西的人没有任何怜悯之意，但是当它遇到一个提供它想要的东西的来访者时，可能双方会有一番讨价还价的余地。
+没有莫克鱼怪会免费把它所拥有的东西公之于众。莫克鱼怪存在即是为了获得，只有在某件事能够帮助他们的藏品增加时，他们才会愿意放弃自己的（一部分）财产。
+莫克鱼怪知道收藏中的每一件物品，并能通过藏品的蛛丝马迹在位面间展开追踪。如果有谁胆敢偷取莫克鱼怪的藏品，或违背与莫克鱼怪的交易，将会永远不得安宁，直到莫克鱼怪死亡或所有承诺都得到遵守。</t>
+  </si>
+  <si>
+    <t>莫克鱼怪</t>
+  </si>
+  <si>
+    <t>莫克鱼怪
+中型异怪，混乱邪恶
+AC 17（天生护甲）
+HP 130（20d8+40）
+速度 25尺，游泳50尺
+力量14（+2） 敏捷14（+2） 体质14（+2）
+智力20（+5） 感知15（+2） 魅力13（+1）
+豁免 敏捷+6，智力+9，感知+6
+技能 奥秘+9，历史+9，察觉+10，隐匿+6
+伤害抗性 非魔法攻击的钝击、挥砍、穿刺
+感官 盲视30尺，黑暗视觉120尺，被动察觉20
+语言 心灵感应120尺
+挑战等级 11（7200XP）
+两栖。莫克鱼怪可以在水中或是空气中呼吸。
+施法。莫克鱼怪是一个11级的施法者。其施法能力是智力（豁免DC17，+9法术命中）。莫克鱼怪准备了以下法术：
+戏法（随意）：酸液飞溅，法师之手，修复术，寒冷射线，电爪
+1环（4个）：侦测魔法，鉴定术，护盾术，巫术箭
+2环（3个）：黑暗术，探测思想，粉碎音波
+3环（3个）：解除魔法，闪电束，短讯术
+4环（3个）：任意门，艾伐黑触手
+5环（3个）：指使术、探知术
+6环（1个）：连环闪电
+动作
+多重攻击。莫克鱼怪进行三次攻击：两次啃咬加一次触手，或三次啃咬。
+啃咬。近战武器攻击：+6命中，触及5英尺，一个目标。命中：9（2D6 + 2 }挥砍伤害。
+触手。近战武器攻击：+6命中，触及15英尺，一个目标。命中：15（3d8 + 2）钝击伤害，目标如果是大型或更小的生物则被擒抱（逃脱DC14）。在擒抱结束之前，目标被束缚并在每个莫克鱼怪的回合开始时受到15（3d8+2）钝击伤害，同时莫克鱼怪不能用它的触角擒抱另一个目标。
+催眠。莫克鱼怪发射出30英尺锥形的魔法能量。在该区域内的每一个生物必须通过DC17的感知豁免。否则，这个生物在接下来的l分钟内被莫克鱼怪魅惑。当被此种方式魅惑时，目标试图尽可能地去接近莫克鱼怪，利用其动作来疾行，直到它在距离莫克鱼怪5英尺内。被魅惑的目标可以在受到伤害或者每次自己回合结束时重复豁免，成功则结束对自己的效果。如果一个生物豁免成功或效果结束，这个生物在24小时内对莫克鱼怪的催眠豁免上有优势。
+反应
+法术反射。如果莫克鱼怪在对抗法术的豁免成功了，或对它的法术命中失手，莫克鱼怪可以选择距离它的120英尺以内另一个生物（包括施法者）。法术以选定的生物取代莫克鱼怪作为对象起效。如果咒语强制目标豁免，则选择的生物使用自己的豁免骰。如果法术需要投掷命中，则对所选生物重掷命中骰。</t>
+  </si>
+  <si>
+    <t>莫克鱼怪的巢穴</t>
+  </si>
+  <si>
+    <t>巢穴动作Lair Actions
+当在其巢穴巢穴中战斗时，莫克鱼怪能以其巢穴动作驱使围绕岛屿的魔法。在先攻轮到20时，莫克鱼怪使用一个巢穴动作造成以下效应之一：
+ · 莫克鱼怪以距离其120尺内一个点为源点使用其催眠动作。它不需要看见效应的源点。
+ · 莫克鱼怪释放黑暗术darkness, 解除魔法dispel magic, 或迷踪步 misty step，使用智力作为其施法属性，且不需要消耗法术位。
+莫克鱼怪区域效应
+莫克鱼怪巢穴坐落的岛屿被这一生物的存在扭曲，创造出了如下效应：
+ · 莫克鱼怪能感受到任何它的岛屿或者秘密据点的新来访者，不管是一个物件还是生物。以一个动作，莫克鱼怪能定位任何一个在岛上的生物或者物件。即使在并没有被监视的时候，拜访这座岛屿者也会感受到他们被什么监视着。
+ · 每当一个在岛上待了不到一年时间的生物结束短休或长休时，它不许进行一次DC10的智力（调查）检定。失败的情况下，该生物了丢失了一件财物（当该生物为一位玩家的角色时，由玩家来选择）。这件物品仍然在附近，但在短时间内被隐藏起来，因此能够通过一个成功的DC15感知（察觉）检定来找到。一件丢失但未被找到的物品会在一个小时后到莫克鱼怪的巢穴之中。如果该生物在之后去了莫克鱼怪的巢穴，它丢失的财物会非常易于察觉和发现。
+ · 莫克鱼怪的巢穴入口具有魔力，莫克鱼怪在自己巢穴中且没有失能的时候能随时激活或者压制这一效果。任何距离此出口30尺内并能看到它的生物必须进行DC15的感知豁免检定，失败的情况下，生物会感受到强烈的冲动，在每个回合中使用其移动速度进入巢穴并向着莫克鱼怪移动（目标不会意识到它正在向一个生物前进）。目标会通过最短的路线向莫克鱼怪移动。一旦他能看到莫克鱼怪，它就能重复豁免检定，成功则结束它对自己的影响。目标还能在每个回合结束时和每次受到伤害时重复豁免检定。
+ · 以一个念头（不需要动作），莫克鱼怪可以让巢穴中的水进行一个一分钟后生效的变化。水可以变得像空气一样能够呼吸和透明，也可以变成正常的水（从浑浊到清澈）。
+一旦莫克鱼怪死亡，这些区域效应就会立即结束。</t>
+  </si>
+  <si>
+    <t>纽吉怪:简述</t>
+  </si>
+  <si>
+    <t>纽吉怪 Neogi
+纽吉怪是可憎的奴隶主，将其他大部分生物，甚至弱小的纽吉怪同类，都当做仆人和猎物。纽吉怪看上去像是大号的蜘蛛，长着鳗鱼一样的脖子和脑袋。这种生物能够毒害目标的身体和心灵，能够制服在其他身体能力上比它们更优秀的生物。
+天外暴君Alien Tyrants.纽吉怪通常遍布在物质位面的偏远角落，比如妖精荒野，堕影冥界，以及星界和以太位面。
+很久以前，它们从物质位面的偏远地带入侵了这个世界，抛弃了它们原来的家园去征服和吞并其他世界的生物。为了满足它们远航的需要，纽吉怪首先控制并吞并了另一个失落世界的土巨怪。然后，依靠这些奴隶提供的劳动力，纽吉怪设计并建造了圆滑船只，其中一些能够位面航行，将它们送到新的前线。一些纽吉怪群体仍然在制造和使用一些这样具有古怪蜘蛛外形的交通工具。
+一些纽吉怪使用魔法，这是它们在离开故乡的旅途中与一些异界实体签订契约的结果。这些实体看似群星，却表现出邪恶的本质。它们以以下的名字为人所知：阿卡玛，凯丰，吉拜斯，以及哈达。
+在关于纽吉怪的事情里，没有什么比纽吉怪的心理更加深奥的东西了。因为它们有控制思想的能力，纽吉怪认为这样做是完全合适的。它们的社会没有个体之间的区别，只有一个生物被给予的控制他人的特权，而且它们也无法在情感的方面理解人类和其他类似存在。对于一个纽吉怪来说，仇恨和爱一样是外来的感受，在缺少权威的情况下表现出忠诚是愚蠢的行为。
+生死轮回Cycle  of  Death  and  Life.一只纽吉怪的生命与人类差不多长，而像人类一样，它也需要面对肉体和精神随着年龄的衰弱。当一个个体因为年龄增长变得衰老时，群体中的另一个纽吉怪会制服它并给它注入一种特殊的毒素，这种毒素把年老的纽吉怪转变成了一个被称为“伟大旧主”的臃肿无助的肉块。年轻的纽吉怪在它上面产卵，当孵化出的幼体出现时，它们会吃掉“伟大旧主”，然后是其他新生儿，直到只剩下几个最强壮的新生儿。
+所有权等级Hierarchy  of  Ownership.幸存下来的纽吉怪幼体在成年纽吉怪的控制下开始它们的生活。它们必须了解自己的社会，并在其中为自己挣得一席之地。而每只新生纽吉怪的训练都是从取得一个土巨怪的控制权开始的。
+纽吉怪通过使用染料，变形魔法和纹身来标记它们自己和奴隶。这些纹身旨在宣示等级、成就和所有权。根据这些标记，每个纽吉怪都能识别出更优越者，并且必须服从那些地位更高的人，否则将面临严厉的惩罚。
+除了仆人对主人的义务之外，纽吉怪还乐于进行一切有利可图的活动，而它们在做这些时如魔鬼一般狡猾。纽吉怪进行买卖，但它们可能会轻易奴役潜在的顾客，对他们造成了严重的风险。因此它们的顾客一般都是亡命或邪恶的个体，或是足以与纽吉怪平等交易的强大生物。纽吉怪可能会在一个位面集市、一个卓尔城市的边境或一处夺心魔的领土附近建立商店。在其他地方，当地人更可能联合起来摧毁一个纽吉怪商队，而不是允许它安全经营和交易的权利。</t>
+  </si>
+  <si>
+    <t>纽吉怪幼体</t>
+  </si>
+  <si>
+    <t>纽吉怪幼体 NEOGI  HATCHLING
+微型异怪，守序邪恶 
+AC  11
+生命值  7 (3d4)
+速度  20  尺,  攀爬  20  尺
+力量3 (-4)  敏捷13(+1) 体质10  (+0)
+智力6 (-2) 感知10  (+0) 魅力9（-1）
+感官：黑暗视觉  60  尺,  被动察觉  10
+语言-
+CR  1/8  (25  XP)
+精神坚韧Mental  Fortitude. 幼体在进行对抗魅惑与恐慌的豁免检定时具有优势，并且魔法无法让幼体陷入睡眠。
+蛛行Spider  Climb.幼体可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+行动ACTIONS
+啃咬. 近战武器攻击: 命中 +3  , 触及 5  尺 , 单一目标.
+伤害:  3 (1d4  +  1)  穿刺伤害加7 (2d6) 毒素伤害,并且目标必须成功通过一次DC10的体质豁免，否则陷入1分钟中毒状态。目标可以在每个其回合结束再次进行豁免，成功则结束该效应。</t>
+  </si>
+  <si>
+    <t>纽吉怪</t>
+  </si>
+  <si>
+    <t>纽吉怪NEOGI 
+小型异怪，守序邪恶
+AC  15（天生护甲）
+生命值  33 (6d6+12)
+速度  30  尺,  攀爬  30  尺
+力量6 (-2)  敏捷16(+3) 体质14  (+2)
+智力13(+1) 感知12  (+1) 魅力15（+2）
+技能：威吓+4  察觉+3
+感官：黑暗视觉  60  尺,  被动察觉  10
+语言：通用语，深潜语，地底通用语
+CR  3 (700  XP)
+精神坚韧Mental  Fortitude. 纽吉怪在进行对抗魅惑与恐慌的豁免检定时具有优势，并且魔法无法让纽吉怪陷入睡眠。
+蛛行Spider  Climb.纽吉怪可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+行动ACTIONS
+多重攻击：纽吉怪进行两次攻击，一次使用啃咬，一次使用爪击
+啃咬Bite. 近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  6(1d6  +  3)  穿刺伤害加14(4d6) 毒素伤害,并且目标必须成功通过一次DC12的体质豁免，否则陷入1分钟中毒状态。目标可以在每个其回合结束再次进行豁免，成功则结束该效应。
+爪击Claws.  近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  8(2d4  +  3)  挥砍伤害
+奴役Enslave（长休或短休后充能）。纽吉怪指定一个30尺内它能看见的生物。该生物必须成功通过DC14的感知豁免，或者被纽吉怪魔法性地魅惑一天。被魅惑对象不能违抗纽吉怪的命令，也不能作出反应，纽吉怪和奴役对象能够最远在一英里内心灵交流。无论何时被魅惑对象受到伤害，其可以再次进行豁免检定，成功则自动结束该效应。</t>
+  </si>
+  <si>
+    <t>纽吉怪尊主</t>
+  </si>
+  <si>
+    <t>纽吉怪尊主NEOGI MASTER 
+中型异怪，守序邪恶
+AC  15（天生护甲）
+生命值  71 (11d8+22)
+速度  30  尺,  攀爬  30  尺
+力量6 (-2)  敏捷16(+3) 体质14  (+2)
+智力16(+3) 感知12  (+1) 魅力18（+4）
+豁免：感知+3
+技能：奥秘+5 欺瞒+6  威吓+6  察觉+3 说服+6
+感官：黑暗视觉  60  尺（可以穿透魔法黑暗）,  被动察觉  13
+语言：通用语，深潜语，地底通用语，30尺心灵感应
+CR  4 (1100  XP)
+精神坚韧Mental Fortitude. 纽吉怪在进行对抗魅惑与恐慌的豁免检定时具有优势，并且魔法无法让纽吉怪陷入睡眠。
+施法Spellcasting. 纽吉怪尊主为7级施法者，其施法属性为魅力（豁免DC14，法术攻击命中+6）。它可以在短休或者长休后恢复已消耗的法术位。纽吉怪尊主准备了如下邪术师法术：
+戏法（任意）：魔能爆Elderich blast（300尺射程，每次伤害掷骰+4伤害）
+神导术guidance，法师之手mage hand，次级幻影minor  illusion，魔法伎俩prestidigitation，恶言相向vicious  mockery
+1-4环 (2个四环法术位):  哈达之臂arms  of  Hadar, 法术反制 counterspell,
+次元门dimension  door, 恐惧术 fear, 人类定身术 hold  person, 哈达之欲 hunger  of  Hadar,  隐身术invisibility, 隐形仆役unseen  servant
+蛛行Spider  Climb.纽吉怪可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+行动ACTIONS
+多重攻击：纽吉怪进行两次攻击，一次使用啃咬，一次使用爪击
+啃咬Bite. 近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  6(1d6  +  3)  穿刺伤害加14(4d6) 毒素伤害,并且目标必须成功通过一次DC12的体质豁免，否则陷入1分钟中毒状态。目标可以在每个其回合结束再次进行豁免，成功则结束该效应。
+爪击Claws. 近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  8(2d4  +  3)  挥砍伤害
+奴役Enslave（长休或短休后充能）。纽吉怪指定一个30尺内它能看见的生物。该生物必须成功通过DC14的感知豁免，或者被纽吉怪魔法性地魅惑一天。被魅惑对象不能违抗纽吉怪的命令，也不能作出反应，纽吉怪和奴役对象能够最远在一英里内心灵交流。无论何时被魅惑对象受到伤害，其可以再次进行豁免检定，成功则自动结束该效应。</t>
+  </si>
+  <si>
+    <t>夺心巨虫:简述</t>
+  </si>
+  <si>
+    <t>夺心巨虫 Neothelid
+庞大的沾满粘液的蠕虫，一条夺心巨虫是夺心魔繁殖周期中严重错误的结果。在极少数情况下，一个灵吸怪族群会崩溃，通常是在外部袭击之后，主脑被杀死。当这种情况发生时，族群的蝌蚪们就突然从它们的命运中解脱出来。他们不再充当养料，也不再由看护人喂食。在饥饿的驱使下，他们开始互相残杀。在族群的水池里，成千上万的蝌蚪中只有一条存活下来，它成为了一条夺心巨虫。
+被灵吸怪憎恶。在灵吸怪社会中，最大的禁忌就是允许一条成熟的蝌蚪存活下来而不把它植入供体的大脑中。在通常情况下，任何生长的大于几英寸长度的蝌蚪都会被主脑杀死，成为主脑或未成熟蝌蚪的食物。任何超过那个状态存活下来的蝌蚪都被认为是对族群的威胁，夺心魔组织狩猎队来消灭这种可憎之物。夺心巨虫缺乏足够的智力，无法被主脑感知思维的能力所察觉，因此有理由采取这样的预防措施。
+野蛮巨兽。作为一种野生的东西，夺心巨虫除了它迄今为止的掠食性，生活之外，什么都不知道，并努力去理解它崭新的灵能能力。夺心巨虫在地下通道中徘徊，寻找更多的大脑来满足它们持续的饥饿，变得越来越邪恶。这些生物能将溶解组织的酶从触手导管中喷射出来，使受害者变成一滩黏液，只留下跳动的大脑安然无恙。它们不知道自己和灵吸怪有什么关系，所以他们很可能像捕食其他东西一样捕食夺心魔。</t>
+  </si>
+  <si>
+    <t>夺心巨虫</t>
+  </si>
+  <si>
+    <t>夺心巨虫 NEOTHELID
+超巨型异怪，混乱邪恶
+AC 16(天生护甲）
+HP 325(21d20+105)
+速度 30尺
+力量27（+8）敏捷7（-2）体质21（+5）
+智力3（-4）感知16（+3）魅力12（+1）
+豁免 智力+1，感知+8，魅力+6
+感官 盲感120尺， 被动察觉13
+语言 ----
+挑战等级 13（10000XP）
+生物感应。巨虫能意识到在它1英里范围内智力值大于等于4的生物的存在。它知道每个生物的距离和方向以及每个生物的智力值，但对其他生物没有任何感觉。一个受心灵屏障法术，回避侦查法术，或类似魔法效果保护的生物不能以这种方式感知到。
+天生施法（灵能）。巨虫的天生施法能力基于感知（法术豁免DC16）。它天生即可施展以下法术，无需材料成分：
+随意：浮空术
+1次/日：困惑术，弱智术，心灵遥控
+魔法抗性：巨虫对抗法术和其他魔法效果时有豁免检定的优势。
+动作
+触手。近战武器攻击：命中+13，触及15尺，单一目标。命中21（3d8+8）点钝击伤害加13（3d8）点精神伤害。如果目标是一个大型或更小的生物，他必须成功通过一个DC18的力量豁免否则被巨虫吞噬。一个被吞噬的生物是目盲和被束缚的，它受到巨虫体外的攻击或其他效果时有全身掩护，它受到35（10d6）强酸伤害在巨虫每次开始它的回合时。如果巨虫在一回合内受到来自它体内的一个生物30点或更多的伤害，巨虫必须在回合结束时通过一个DC18的体质豁免否则吐出所有吞下的生物，它落在靠近巨虫10尺的一处空间内倒地。如果巨虫死亡，被吞噬的生物不再受它束缚，可以通过用移动20尺逃离尸体，并陷入倒地。
+强酸喷吐(充能 5-6).巨虫会喷出一道60锥形的强酸，在范围内的每个生物都必须成功通过DC18的敏捷豁免检定，一旦豁免失败便会受到35（10d6）点强酸伤害，或成功便只受到一半的伤害</t>
+  </si>
+  <si>
+    <t>颅鼠:简述</t>
+  </si>
+  <si>
+    <t>颅鼠 Cranium rats
+夺心魔通过以灵能轰击正常老鼠的大脑创造出了颅鼠。
+邪恶集群
+颅鼠并不比通常老鼠聪明，行为也相差无几。然而，如果足够多的颅鼠形成一个集群，它们就会将意识融为一个单一的智慧个体，并拥有集群成员记忆的累加。因此，颅鼠变得更加聪明，只要它们的集群持续存在，他们就能保持这种提升过的智力。集群也会唤醒夺心魔创造者植入每一只颅鼠脑内的潜在灵能，给予鼠群类似法术的灵能力量。
+一只从鼠群中分离出来的鼠变成了一只智力为15的普通颅鼠。与集群分离之后，它每天会失去1点智力。它的智力不能降到4以下，如果它重新回到鼠群或加入另一个鼠群，它的智力就会再次变为15。
+心灵感应害兽
+一只单独的智力低下的颅鼠利用其天然的心灵感应来传达饥饿、恐惧和其他基本情绪。一群颅鼠能够通过心灵感应“说话”，作为一个整体，它们经常用“我们（we）”和“我们（us）”这个集体代词来称呼自己。
+主脑的间谍
+夺心魔群落把颅鼠当做间谍使用。颅鼠侵入地表的群落，充当主脑的耳目。并在主脑的心灵感应范围内作为集群时传递思想。
+颅鼠偶尔会超出主脑的影响范围，这些颅鼠的所作所为与主脑无关，如果灵吸怪愿意的话，它们总是能制造出更多的颅鼠。</t>
+  </si>
+  <si>
+    <t>颅鼠</t>
+  </si>
+  <si>
+    <t>颅鼠CRANIUM  RAT
+微型野兽，守序邪恶
+AC  12
+生命值 2 (1d4)
+速度  30  ft.
+力量2 (-4)  敏捷14(+2) 体质10(+0)
+智力4 (-3)  感知 11(+0)  魅力8（-1）
+感官  黑暗视觉  30  ft., 被动感知  10
+语言  心灵感应  30  ft.
+挑战等级  0 ( 10 XP)
+照明Illumination.以一个附赠动作，颅鼠可以在5尺半径的范围内从其大脑发出微光或者熄灭光芒。
+心灵帷幕Telepathic  Shroud.颅鼠对任何能感知其情绪或阅读其思想的效果以及所有预言法术免疫。
+行动ACTIONS
+啃咬Bite .近战武器攻击：+4命中，触及5尺，单一目标
+伤害：1穿刺伤害</t>
+  </si>
+  <si>
+    <t>颅鼠集群</t>
+  </si>
+  <si>
+    <t>颅鼠集群 SWARM OF CRANIUM  RATS
+微型野兽的中型集群，守序邪恶
+AC  12
+生命值  36  (8d8)
+速度  30  ft.
+力量9 (-1)  敏捷14(+2)  体质10(+0)
+智力15(+2)  感知11(+0)  魅力14（+2）
+伤害抵抗：钝击、穿刺、挥砍
+状态免疫：魅惑，恐慌，擒抱，麻痹，石化，倒地，束缚，震慑
+感官：黑暗视觉 30 尺，被动察觉 10
+语言：心灵感应30尺
+挑战等级：5（1800xp）
+照明Illumination.以一个附赠动作，颅鼠群可以在5尺半径的范围内从其大脑发出微光，把照明提高到5到20尺内明亮光照（同时额外等同于选择范围的微光光照）或者熄灭光芒。
+天生施法（灵能）Innate  Spellcasting  (Psionics)颅鼠群天生的施法属性是智力（法术豁免DC 13）。只要它还有一半以上的生命值，鼠群就可以天生施展以下法术而不需要任何成分。
+任意：命令术command, 通晓语言comprehend  languages,  侦测思想detect thoughts
+每项1/日：困惑术confusion，支配怪物dominate monster
+集群Swarm.集群可以进驻另一生物身处的空间位置，反之亦然。而且集群可以通过任何足够一只微型老鼠通过的通道。集群不能恢复生命值也不能获得临时生命值。
+心灵帷幕Telepathic  Shroud.颅鼠对任何能感知其情绪或阅读其思想的效果以及所有预言法术免疫。
+动作ACTIONS
+啃咬Bite.近战武器攻击：+5命中，触及0尺，单一处于鼠群空间内的目标
+伤害：14（4d6）穿刺伤害，或者当集群剩下一半以下生命值时7（2d6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>恐龙:简述</t>
+  </si>
+  <si>
+    <t>恐龙 Dinosaurs
+《怪物图鉴》中包含了几种恐龙的数据。这一节将为你展示更多恐龙的数据。</t>
+  </si>
+  <si>
+    <t>雷龙:简述</t>
+  </si>
+  <si>
+    <t>雷龙 Brontosaurus 
+这种魁梧的四足恐龙的庞大体型足以使绝大部分的食肉动物望而远之。而它致命的粗壮尾巴能驱赶甚至能杀死这些较小的捕食者。</t>
+  </si>
+  <si>
+    <t>雷龙</t>
+  </si>
+  <si>
+    <t>雷龙 Brontosaurus 
+超巨型野兽，无阵营
+护甲等级：15（天生护甲）
+生命值：121（9d20+27）
+速度：30尺
+力量21（+5） 敏捷9（-1） 体质17（+3）
+智力2（-4） 感知10（+0） 魅力7（-2）
+豁免：体质+6
+感官：被动察觉10
+语言：——
+挑战等级：5（1800XP）
+动作Actions
+重踏Stomp。近战武器攻击：命中+8，触及20尺，单一目标。命中：27（5d8+5）钝击伤害，目标必须成功通过一次DC14的力量豁免检定，否则将应击 倒地Prone 。
+扫尾Tail。近战武器攻击：命中+8，触及20尺，单一目标。命中：32（6d8+5）钝击伤害。</t>
+  </si>
+  <si>
+    <t>恐爪龙:简述</t>
+  </si>
+  <si>
+    <t>恐爪龙 Deinonychus 
+这些伶盗龙的大号表亲常常用它们的爪子与血口生擒它们的猎物。</t>
+  </si>
+  <si>
+    <t>恐爪龙</t>
+  </si>
+  <si>
+    <t>恐爪龙 Deinonychus 
+中型野兽，无阵营
+护甲等级：13（天生护甲）
+生命值：26（4d8+8） 
+速度：40尺
+力量15（+2） 敏捷15（+2） 体质14（+2）
+智力4（-3） 感知12（+1） 魅力6（-2）
+技能：察觉+3
+感官：被动察觉13
+语言：——
+挑战等级：1（200XP）
+猛扑Pounce。如果恐爪龙向一个生物直线移动至少20尺，且在同一回合用它的爪抓攻击命中了该目标，目标必须成功通过一个DC12的力量豁免检定否则将应击 倒地Prone 。如果目标因此倒地，恐爪龙可以以一个附赠动作对它进行一次啃咬攻击。
+动作Actions
+多重攻击Multiattack。恐爪龙可以进行3次攻击：1次用它的啃咬并且2次用它的爪子。
+啃咬Bite。近战武器攻击：命中+4，触及5尺，单一目标。命中：6（1d8+2）穿刺伤害。
+爪抓Claw。近战武器攻击：命中+4，触及5尺，单一目标。命中：6（1d8+2）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>异齿龙:简述</t>
+  </si>
+  <si>
+    <t>异齿龙 Dimetrodon 
+这些背鳍呈帆状的爬行动物通常能在恐龙生活的区域里被找到。它们往往在岸边和浅水中狩猎，在环境中扮演着与鳄鱼类似的角色。</t>
+  </si>
+  <si>
+    <t>异齿龙</t>
+  </si>
+  <si>
+    <t>异齿龙 Dimetrodon 
+中型野兽，无阵营
+护甲等级：12（天生护甲）
+生命值：19（3d8+6）
+速度：30尺，游泳20尺
+力量14（+2） 敏捷10（+0） 体质15（+2）
+智力2（-4） 感知10（+0） 魅力5（-3）
+技能：察觉+2
+感官：被动察觉12
+语言：——
+挑战等级：1/4（50XP）
+动作Actions
+啃咬Bite。近战武器攻击：命中+4，触及5尺，单一目标。命中：9（2d6+2）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>鸭嘴龙:简述</t>
+  </si>
+  <si>
+    <t>鸭嘴龙 Hadrosaurus
+鸭嘴龙是一种长着易被识别的骨状头冠的半四足食草生物。若从孵化开始驯养一只鸭嘴龙，它们就能被训练为一个骑手的优秀载具。</t>
+  </si>
+  <si>
+    <t>鸭嘴龙</t>
+  </si>
+  <si>
+    <t>鸭嘴龙 Hadrosaurus 
+大型野兽，无阵营
+护甲等级：11（天生护甲）
+生命值：19（3d10+3）
+速度：40尺
+力量15（+2） 敏捷10（+0） 体质13（+1）
+智力2（-4） 感知10（+0） 魅力5（-3）
+技能：察觉+2
+感官：被动察觉12
+语言：——
+挑战等级：1/4（50XP）
+动作Actions
+扫尾Tail。近战武器攻击：命中+4，触及5尺，单一目标。命中：7（1d10+2）钝击伤害。</t>
+  </si>
+  <si>
+    <t>风神翼龙:简述</t>
+  </si>
+  <si>
+    <t>风神翼龙 Quetzalcoatlus 
+这种体型比无齿翼龙巨大数倍的生物其翼展超过30尺。虽然它能像四足生物一样在地面上行走，但显然，它在天空中更为自在。</t>
+  </si>
+  <si>
+    <t>风神翼龙</t>
+  </si>
+  <si>
+    <t>风神翼龙 Quetzalcoatlus
+巨型野兽，无阵营 
+护甲等级：13（天生护甲）
+生命值：30（4d12+4）
+速度：10尺，飞行80尺
+力量15（+2） 敏捷13（+1） 体质13（+1）
+智力2（-4） 感知10（+0） 魅力5（-3）
+技能：察觉+2
+感官：被动察觉12
+语言：——
+挑战等级：2（450XP）
+俯冲攻击Dive Attack。如果风神翼龙处于飞行中并且在向一个目标俯冲30尺之后用啃咬攻击命中了它，这次攻击将对它额外造成10（3d6）伤害。
+飞越Flyby。风神翼龙在飞出一个敌人的触及范围时不会引发借机攻击。
+动作Actions
+啃咬Bite。近战武器攻击：命中+4，触及10尺，单一生物。命中：12（3d6+2）穿刺伤害。如果风神翼龙命中生物前，向这一生物俯冲了至少30尺，该生物将额外受到10（3d6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>剑龙:简述</t>
+  </si>
+  <si>
+    <t>剑龙 Stegosaurus 
+这些重型恐龙的后背与尾巴上长着两排骨质的刃板，而它那条灵活的、长有尖刺的长尾巴可以高举迎击食肉动物。他们往往不分年龄，以群体游牧的方式旅行与草原上。</t>
+  </si>
+  <si>
+    <t>剑龙</t>
+  </si>
+  <si>
+    <t>剑龙 Stegosaurus 
+大型野兽，无阵营
+护甲等级：13（天生护甲）
+生命值：76（8d12+24）
+速度：40尺
+力量20（+5） 敏捷9（-1） 体质17（+3）
+智力2（-4） 感知11（+0） 魅力5（-3）
+感官：被动察觉10
+语言：——
+挑战等级：4（1100XP）
+动作Actions
+扫尾Tail。近战武器攻击：命中+7，触及10尺，单一目标。命中：26（6d6+5）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>伶盗龙:简述</t>
+  </si>
+  <si>
+    <t>伶盗龙 Velociraptor
+这种长着羽毛的恐龙其体型看上去只比火鸡大一圈。但它们是凶猛的食肉生物，且常常以群体行动，以狩猎比它们体型更大的猎物。</t>
+  </si>
+  <si>
+    <t>伶盗龙</t>
+  </si>
+  <si>
+    <t>伶盗龙 Velociraptor 
+微型野兽，无阵营 
+护甲等级：13（天生护甲） 
+生命值：10（3d4+3） 
+速度：30尺 
+力量6（-2） 敏捷14（+2） 体质13（+1） 
+智力4（-3） 感知12（+1） 魅力6（-2）
+技能：察觉+3
+感官：被动察觉13 
+语言：——
+挑战等级：1/4（50XP）
+群体战术Pack Tactics。 若伶盗龙的攻击目标周围5尺范围内至少有一个未处于失能的盟友，则它对该目标发动的攻击检定有优势。
+动作Actions
+多重攻击Multiattack。伶盗龙进行一次啃咬攻击与一次爪抓攻击。
+啃咬Bite。近战武器攻击：命中+4，触及5尺，单一生物。命中：5（1d6+2）穿刺伤害。
+爪抓Claw。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>麒麟:简述</t>
+  </si>
+  <si>
+    <t>麒麟 Ki-rin
+麒麟是高贵的天界生物。在外层位面，麒麟效劳于仁慈的神祇，在善与恶的永恒斗争中发挥着直接的作用。在凡间，麒麟是广为人知的命运预言者，神圣的守护者，以及对抗邪恶的力量。
+善良的化身。麒麟是善良的化身，只是简单地注视便能唤起观察者的恐惧或敬畏。一只典型的麒麟看起来像是一只大象大小的健壮雄鹿，金色皮毛的一些地方上覆盖排列着金色的鳞片。它有着暗金色的长鬃毛和尾巴，铜色的蹄子，以及一支螺旋形的铜色长角生在它明亮的紫罗兰色双眼之间。在微风吹拂或在高处时，这生物的鳞片和毛发会造成这样一种印象：麒麟是一团闪耀的圣洁的，金色火焰。
+除了它们的颜色外，麒麟外貌多变，基于对神祇的各自尊崇以及它通常为服务的那位神祇所履行的职责。一些是马形，看上去像是一只巨大的独角兽，常作为保护者。另一些有着龙一般的特征，往往是邪恶力量的好战仇敌。独角是最常见的，不过一只有着强烈风格的麒麟可能会有双角或者一对鹿角，像是一只神骏的雄鹿。
+带来恩赐者。凡人普遍认为麒麟是罕见的自远方而来的幸运使者。目睹麒麟从空中飞过是一种吉兆，在这天发生的事都是特别吉利的。如果一只麒麟降临在一场仪式上，例如诞生祭或者加冕典礼，在场的所有人都会明白，这生物是在告诉他们，大善将至。麒麟带来它的馈赠和预兆，然后飞回天空。麒麟也被认为会出现在一场伟大战役的战场上来鼓舞激励善良的一方，或者从死亡中救回英雄。
+入世的麒麟主张守望着一片领土，一只麒麟保护的地区可能包含着数个国家。在其他位面，麒麟依着所效劳的善神的吩咐前往任何地方，其中也许包括去往主物质位面的任务。一只入世的麒麟经常担任它所服务的神祇的一名侦察员，一名信使，或者一名密探。
+麒麟被崇尚勇气，忠诚，无私，真理，以及公正社会的进步的神祇所吸引。例如，在费伦，麒麟大多聚在托姆麾下，虽然麒麟也服务于祂的盟友提尔和伊尔马特。
+被崇拜者。因为麒麟以其智慧而闻名，其他生物自然会带着疑问和请求来寻找它，如果他们可以的话。因此，这生物将它的巢穴筑在险山峻岭之巅，或者其他一些同样极难到达之处。只有极具毅力，能走完这艰险旅途抵达麒麟之巢的人，才能证明自己有资格与巢穴主人对话。
+许多寻求麒麟的指引的人最终会发誓为其效劳。他们成为了在麒麟指导下学习的僧侣，及其在世上的代言者。一只麒麟的追随者可能会化装出游各地，寻找着邪恶滋生和幕后主使的消息，或者可能因为他们主人的缘故作为战士，前去击败邪恶，无论它是在哪里被发现。</t>
+  </si>
+  <si>
+    <t>堂皇之巢</t>
+  </si>
+  <si>
+    <t>麒麟的巢穴</t>
+  </si>
+  <si>
+    <t>堂皇之巢
+在天界位面，麒麟高居于崇高典雅，满是豪华之物的巢中。在这个世界上，麒麟会选择一处相似的地方，如高山顶峰之上，或者用麒麟的魔法凝实的云中。从外面看时，一处麒麟的巢穴与一片天然地点难以区分，并且入口难以被来访者找到抵达。在里面，巢穴是一个安宁又舒适的地方，混合着宫殿与寺庙的气氛。如果麒麟已经让生物为其效劳，它的巢穴就会成为一片圣洁之处，麒麟不止在其中休息，还会教导神圣的奥秘。
+在它的巢穴，一只麒麟有能力每天最多召唤三次物品。每次使用以下描述中的一种能力。
+1.永久创造足够的，由柔软的植物原料制成的物品——包括人造物，如布匹，枕头，绳索，毛毯，和衣物——以装满一个20立方尺大小的区域。
+2.永久创造出足够的，由木材，或者类似硬质原料制成的物品，以装满一个10立方尺大小的区域。
+3.创造出足够的，由石头或者金属制成的物品，以装满一个2立方尺大小的区域，但是以这种方法创造出的任何材料都只能存在1小时。
+区域效果
+麒麟的天界性质改变了其巢穴周围的区域。旅行者在附近遇到的任何下列魔法效果都是可能的：
+·在麒麟巢穴3英里范围内的流水都是洁净的，任何故意导致的水的腐坏都不会持续超过3分钟。
+·在麒麟巢穴3英里范围内的动物，植物和善良生物都生机勃勃，如同它们朝着理想的方向发展。这种生物很少向通常并非其猎物的他人发动攻击。邪恶生物无法忍受同样范围内的神圣气氛，经常选择远离麒麟的领地居住。
+·在巢穴3英里范围内时，善良阵营生物所受的诅咒、疾病和毒素效果被压制。
+·一只麒麟在其巢穴3英里范围内时，能够操控天气。法术的起发点始终是户外最接近它巢穴的中心点。麒麟不需要维持朝向天空的清晰路线或维持对天气变化的专注。
+·在巢穴3英里范围内，风能托起由于没有麒麟或者其盟友的行动而坠落的非邪恶生物。这样的生物以每轮60尺的速度下降，并且没有坠落伤害。
+当麒麟死亡时，所有这些效果立即消失，但是对动植物的激发生机效果还会持续3年。</t>
+  </si>
+  <si>
+    <t>麒麟</t>
+  </si>
+  <si>
+    <t>麒麟
+巨型天界生物，守序善良
+AC 20（天生护甲）
+HP 152（16d12+48）
+速度 60尺，飞行120尺（悬浮）
+力量21（+5），敏捷16（+3），体质16（+3）
+智力19（+4），感知20（+5），魅力20（+5）
+技能 察觉+9，洞悉+9，宗教+8
+伤害免疫 毒素
+状态免疫 中毒
+感官 盲视30尺，黑暗视觉120尺，被动察觉19
+语言 所有，心灵感应120尺
+挑战等级 12（8400XP）
+天生施法。麒麟的天生施法能力基于魅力（法术豁免DC17），它天生即可施展以下法术，无需材料成分：
+随意：气化形态，强效幻影（6环版本），御风而行
+1次/日：造粮术
+传奇抗性（3次/日）。如果麒麟的豁免掷骰失败，它可以选择用成功代替。
+魔法抗性。麒麟在抵抗魔法以及其他魔法效果的豁免检定骰上有优势。
+魔法武器。麒麟的武器攻击视为魔法攻击。
+施法。麒麟是一名18级的施法者。它的施法属性是感知（法术豁免DC17，法术攻击加值+9）。它准备了以下牧师法术：
+戏法（随意）：光亮术，修复术，圣火术，维生术
+1环（4法术位）：命令术，治疗伤口，侦测善恶，防护善恶，圣域术
+2环（3法术位）：安定心神，次级复原术，沉默术
+3环（3法术位）：解除魔法，移除诅咒，短讯术
+4环（3法术位）：放逐术，行动自如，信仰守卫
+5环（3法术位）：高等复原术，群体疗伤术，探知术
+6环（1法术位）：英雄宴，真知术
+7环（1法术位）：以太化，异界传送
+8环（1法术位）：操控天气
+9环（1法术位）：完全复生术
+动作
+多重攻击。麒麟进行三次攻击：两次蹄踢一次角撞。
+蹄踢。近战武器攻击：命中+9，触及15尺，单一目标。命中：10（2d4+5）钝击伤害。
+角撞。近战武器攻击：命中+9，触及5尺，单一目标。命中：14（2d8+5）穿刺伤害。
+传奇动作
+麒麟可以在下列选择中选择进行三次传奇行动。但同时仅能存在一个传奇行动选项并只有在另一个生物的回合结束后才能使用。
+侦查。麒麟进行一次感知（观察）检定或者一次感知（洞悉）检定。
+猛击。麒麟进行一次蹄踢攻击或者施展圣焰。
+移动。麒麟进行半速移动而不会引发借机攻击。</t>
+  </si>
+  <si>
+    <t>守卫龙兽:简述</t>
+  </si>
+  <si>
+    <t>守卫龙兽 Guard Drake
+守卫龙兽是一种通过诡异而可怕的仪式，从龙鳞中创造出的爬行类生物。如果训练得当，亚龙是听话又忠诚，又能捍卫领地的，这使得它能遵循简单的命令成为优秀的守卫兽。
+龙之馈赠。创造守卫龙兽的仪式是由提亚玛特的狂热崇拜者最早设计的，但是已经传播到了其他熟悉与龙有关的奥秘与合作的团体中了。龙的配合对于仪式的成功是必不可少的，当它打算奖赏它的盟友或者一个有用的仆人崇拜者时，龙通常会提供帮助。
+作为仪式的部分，需要数天时间，需要10磅龙鳞（由与团体合作的龙提供），大量的新鲜肉类和一只铁釜。当这个过程完成后，釜中会出现一枚半身人大小的蛋，并且将在几个小时内孵化。
+渴望学习。一条新孵化的守卫龙兽会记住第一个喂养它的人（通常是计划训练它的人），与那个人建立一份积极而信任的契约。一条守卫龙兽在两到三个星期内完全成熟，并且可以在同样的时间内训练。这相当于是在训练一只看门犬可以做什么。
+一条守卫龙兽类似于创造它的龙的类型，但是无翼，伏行，肌肉发达。守卫龙兽无法繁殖，它的鳞片也不能用于制造其他守卫龙兽。</t>
+  </si>
+  <si>
+    <t>守卫龙兽</t>
+  </si>
+  <si>
+    <t>守卫龙兽 Guard Drake
+中型龙类，无阵营
+AC 14（天生护甲）
+HP 52（7d8+21）
+速度 30尺
+力量16（+3），敏捷11（+0），体质16（+3）
+智力4（-3），感知10（+0），魅力7（-2）
+技能 察觉+2
+感官 黑暗视觉60尺，被动察觉12
+语言 懂龙语但是不会说
+挑战等级 2（450XP）
+动作
+多重攻击。守卫龙兽进行两次攻击：一次啮咬和一次尾击。
+啮咬。近战武器攻击：命中+5，触及5尺，单一目标。命中：7（1d8+3）穿刺伤害。
+尾击。近战武器攻击：命中+5，触及5尺，单一目标。命中：6（1d6+3）钝击伤害。
+边栏：五色守卫龙兽
+每种五色龙的鳞片和血液创造的守卫龙兽类似于无翼矮小版的那种龙，具有与该种类相关的独特能力。每种都有如下描述的特殊能力。
+黑守卫龙兽。黑守卫龙兽是两栖的（可以呼吸空气和水），拥有30尺的游泳速度，并对强酸伤害具有抗力。
+蓝守卫龙兽。蓝守卫龙兽拥有20尺的掘穴速度，并对闪电伤害具有抗力。
+绿守卫龙兽。绿守卫龙兽是两栖的（可以呼吸空气和水），拥有30尺的游泳速度，并对毒素伤害具有抗力。
+红守卫龙兽。红守卫龙兽拥有30尺的攀爬速度，并对火焰伤害具有抗力。
+白守卫龙兽。白守卫龙兽拥有20尺掘穴速度，30尺攀爬速度，并对冷冻伤害具有抗力。</t>
+  </si>
+  <si>
+    <t>连枷蜗牛:简述</t>
+  </si>
+  <si>
+    <t>连枷蜗牛 Flail Snail
+连枷蜗牛是一种由土元素构成的生物，它的多彩外壳是非常珍贵的。猎人在看到这种笨重的，看似毫无敌意的生物时，可能会被欺骗而产生一种虚假的自信感。如果任何其他大到足以构成威胁的生物过于接近时，蜗牛就会释放耀眼的闪光，然后用它类似触手的触角攻击。
+财富之足迹。不受打扰的情况下，连枷蜗牛沿着地面缓缓移动着，消耗着地面上的一切东西，包括岩石，沙子和土壤，也会停下来品味生长的水晶和其他大型矿床。它会留下一道闪闪发光的痕迹，其迅速凝固成一层薄薄的，近乎透明的，对蜗牛来说不可食用的物质。这种玻璃状残余物可以被收集起来并切割成不同透明度的窗玻璃。它也可以被加热并纺成其他种类的玻璃制品。一些人尾随着连枷蜗牛以收集这种玻璃谋生。
+边栏：使用连枷蜗牛壳
+一只连枷蜗牛的壳重约250磅，有着多种用途。一个完整的壳可以卖出5000gp。
+许多猎人寻求着它反魔法特性的外壳。一个熟练的锻造者可以用一个外壳制成三面盾牌。在一个月内，每面盾牌给予它的持有者蜗牛反魔法外壳的特性。当盾牌的魔力消失时，它留下一面奇异的盾牌，是制作一面法术护盾的完美素材。
+连枷蜗牛壳也能用于制作一件色彩耀眼的长袍。在制作衣服时，将壳磨碎并加入到染料中。这种粉末是一种为长袍附魔的仪式的材料部分。</t>
+  </si>
+  <si>
+    <t>连枷蜗牛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">连枷蜗牛 Flail Snail
+大型元素，无阵营
+AC 16（天生护甲）
+HP 52（5d10+25）
+速度 10尺
+力量17（+3） 敏捷5（-3） 体质20（+5）
+智力3（-4） 感知10（+0） 魅力5（-3）
+伤害免疫 火焰，毒素
+状态免疫 中毒
+感官 黑暗视觉60尺，颤动感知60尺，被动察觉10
+语言 ——
+挑战等级 3（700XP）
+反魔法外壳。蜗牛在对法术的豁免检定有优势，任何对蜗牛进行法术攻击的生物都在攻击检定上处于劣势。如果蜗牛成功豁免法术或者法术攻击没有命中它，则可能会产生额外效果，投掷d6决定：
+    1-2。如果该法术影响一个区域或者多个目标，它会失败并且没有效果。如果法术目标只有蜗牛，它对蜗牛没有效果，并反射回给施法者，使用该施法者的法术位等级，法术豁免DC，攻击加值和施法能力。
+    3-4。无额外效果。
+    5-6。蜗牛的外壳将一些法术能量转换为一阵破坏性的力场能量。位于蜗牛半径30尺内的每个生物都必须通过一个DC15的体质豁免检定，豁免失败则受到1d6力场伤害/法术等级，成功则只受一半伤害。
+连枷触手。连枷蜗牛拥有五根连枷状的触手。每当蜗牛在一回合内受到10点或者更多的伤害时，它的一根触手就会死亡。如果还剩一根触手，蜗牛会在1d4天内再生出全部的死去触手。如果所有触手都死亡了，蜗牛会缩进壳里，获得全隐蔽，并开始哀号，声音在600尺内都能听到，只有在它死亡5d6分钟后才会停止。治疗法术可以复原肢体，例如再生术能够停止这个死亡的过程。
+动作
+多重攻击。连枷蜗牛使用它所有的连枷触手尽可能多的攻击同一目标。
+连枷触手。近战武器攻击：命中+5，触及10尺，单一目标。命中：6（1d6+3）钝击伤害。
+闪耀之壳（在短休或长休后充能）。蜗牛的外壳发出耀眼的彩光，直到蜗牛的下一回合结束。在这段时间内，外壳发出半径30尺的明亮光芒和额外30尺的昏暗光芒，可以看到蜗牛的生物在对它的攻击检定上有劣势。此外，任何处于明亮光芒内并能看到蜗牛的生物在这个能力发动时，必须通过DC15的感知豁免检定否则陷入震慑，直到光芒消失。
+壳体防御。连枷蜗牛缩回它的壳中，直到它出现前AC获得+4加值。它能在它的回合以一个附赠动作从壳中出现。
+</t>
+  </si>
+  <si>
+    <t>捣蛋鬼:简述</t>
+  </si>
+  <si>
+    <t>捣蛋鬼 Boggle
+捣蛋鬼是童话中的小妖怪。它们潜伏在妖精荒野的边缘，也可以在物质位面被发现，藏在床底下和壁橱里，等待着用它们的恶作剧来吓唬和折磨人们。
+捣蛋鬼是由孤独感产生的，出现在妖精荒野Feywild与物质世界相连之处，是一个感觉自己被孤立或被遗弃的智慧生物。例如，一个被遗弃的孩子可能会无意中变出一个捣蛋鬼，把它看作是一种想象中的朋友。在一个孤独的鳏夫的阁楼上，或者隐士的洞穴里，也可能会出现一个“捣蛋鬼”。
+讨厌的害虫Irksome Pests。捣蛋鬼会搞些小恶作剧来取乐，以主人为代价打发时间。捣蛋鬼指会把盘子打碎，把工具藏起来，发出吓人的声音以惊吓母牛，使牛奶变酸，或者把婴儿藏在阁楼里。尽管捣蛋鬼的滑稽动作可能会引人不安和造成意外的伤害，但它通常没有自觉，而不是有意为之。如果受到威胁，捣蛋鬼会逃跑，而不会面对战斗。
+油性分泌物Oily Excretions。捣蛋鬼会从毛孔中分泌油脂，使油脂变滑或粘稠。油脂在一小时后干涸消失。
+扭曲的空间Twisting Space。捣蛋鬼可以创造出神奇的开口，让你在短距离内旅行，或者偷走你原本拿不到的东西。要在空间中制造这样的裂缝，捣蛋鬼必须靠近一处被边框圈起的空间，例如打开的窗户或门口、笼子栏杆之间的空隙或床脚与地板之间的开口。裂口是看不见的，几秒钟后就消失了——足够时间让捣蛋鬼跨越，穿过去，或者从裂口攻击。
+不可靠的盟友Unreliable Allies。捣蛋鬼是意志坚强的主人的好仆人，而像废陋巨人和鬼婆这样的邪恶生物有时会把捣蛋鬼藏在巢穴里。与至高妖精达成协议的邪术师也被认为是可以指挥捣蛋鬼的，而那些有魅力的人，只要能做出正确的选择，就能与这些捣蛋鬼们建立暂时的联盟。无聊的捣蛋鬼总能找到自娱自乐的方法。</t>
+  </si>
+  <si>
+    <t>捣蛋鬼</t>
+  </si>
+  <si>
+    <t>捣蛋鬼 Boggle
+小型精类，混乱中立
+护甲等级 14
+生命值 18（6d6+24）
+速度 30尺 攀爬30尺
+力量8（-1） 敏捷18（+4） 体质13（+1）
+智力6（-2） 感知12（+1） 魅力7（-2）
+技能：察觉+3、手上功夫+6、隐匿+6
+伤害抗性：火焰
+伤害免疫：-
+状态免疫：-
+感官：黑暗视觉 60ft，被动察觉 13
+语言：木族语
+挑战等级：1/8（25xp）
+捣蛋油Boggle oil。捣蛋鬼从毛孔中排出不可燃的油。捣蛋鬼可以选择油是滑的还是粘的，并可以将皮肤上的油从一种稠度变为另一种稠度，这是一个额外的动作。
+滑油 Slippery Oil：当涂上滑油后，捣蛋鬼在敏捷（杂技）检定上获得优势，可以逃脱束缚，通过狭窄的空间和挣脱擒抱。
+黏油 Sticky Oil：当涂上粘油时，捣蛋鬼在力量（运动）检定中获得优势，以及在保持对另一个生物、表面或物体的抓握能力检定中获得优势。捣蛋鬼还可以攀爬难度较大的表面，包括倒立在天花板上，无需进行能力检查。
+裂痕 Dimensional Rift。以一个附赠动作动作，捣蛋鬼可以在它能看到的5尺范围内创建一个不可见的、不可移动的裂缝，前提是任何一侧的空间不大于10尺。裂隙连接了该空间与捣蛋鬼可以通过距离和方向看到或指定的30尺内的任何地点（如“30尺垂直向上”）。通过这个裂口，捣蛋鬼可以看到另外一端，也被认为是在目的地的附近，任何由捣蛋鬼所携带而穿过裂口的东西（包括它身体的一部分）都会在目的地出现。只有捣蛋鬼可以使用裂口，它将持续到捣蛋鬼的下一个回合结束。
+不可思议的气味 Uncanny Smell。捣蛋鬼在依靠嗅觉进行的感知（察觉）检定中具有优势。
+动作 Actions
+揍人 Pummel。近战武器攻击：+1命中，触及5尺，一个目标。
+伤害：2（1d6-1）钝击伤害。
+油坑 Oil Puddle。捣蛋鬼会产生一滩油，要么是滑的要么是黏的（由捣蛋鬼选择）。水坑有一寸深，覆盖着一处地表，任何进入水坑区域或开始在其中开始回合的生物必须成功于 DC 11 的敏捷豁免，否则就会摔倒在地。
+如果油是粘的，任何进入水坑区域或开始在其中开始回合的生物必须成功于 DC 11 的力量豁免，否则陷入束缚状态。在该生物的回合，它可以用一个动作进行一次 DC 11 的力量豁免，试图从黏糊糊的水坑中解脱出来，结束束缚状态，并移动到最近的未被占据的空间。</t>
+  </si>
+  <si>
+    <t>暗灵:简述</t>
+  </si>
+  <si>
+    <t>暗灵 Darklings
+在古老的传说中，一个光明妖精出卖了仲夏女王（缇坦尼亚）。如今他的真名已从历史中被抹去，但故事中叫他Dubh Catha（通称“暗鸦”）。仲夏女王的愤怒是如此强烈，以至于她诅咒叛徒家族的每一个成员。其他妖精提到Dubh Catha家的子孙时会用“暗灵”来代指。大多数暗灵都偏好居住在隐蔽的洞穴或者其他种族的城镇角落里。在这些地方，他们悄悄地充当着盗贼和刺客。
+死于光明。仲夏女王的诅咒导致暗灵的身体吸收光线，这样做会对生物造成类似快速老化的效果。因此，当暗灵有暴露在阳光下的风险时，他们会用衣服密实地包裹住身体的每一部分。暗灵死亡时，在其一生中吸收的光能会猛烈爆开，把它连同所携带的大部分物品都烧为灰烬。
+喜爱艺术。尽管他们受到诅咒，暗灵仍保留着对艺术之美的喜爱。暗灵的可能冒着风险偷看日落或点燃一支小蜡烛以便能瞥见画作或珠宝上的色彩。
+长者晋升。一个聪明的、受人尊敬的暗灵有资格成为一名长者。其他暗灵长者会在他身上刻下发光的纹身，连通一部分暗灵体内所吸收的光能。如果仪式成功，该暗灵将会成长为一个高大而美丽的形象，就像一个灰皮肤精灵。如果仪式失败，这个暗灵将会丧命。</t>
+  </si>
+  <si>
+    <t>暗灵</t>
+  </si>
+  <si>
+    <t>暗灵
+小型精类，混乱中立
+AC 14（皮甲）
+HP 13（3d6+3）
+速度 30尺
+力量9（-1） 敏捷16（+3） 体质12（+1）
+智力10（+0） 感知12（+1） 魅力10（+0）
+技能：特技+5，欺瞒+2，察觉+5，隐匿+7
+感官：盲视30尺，黑暗视觉120尺，被动察觉15
+语言：精灵语，木族语
+挑战等级：1/2（100xp）
+死亡焚耀. Death Flash 当暗灵死亡时，它的身体和除了金属和魔法物体的持有物将闪耀出10尺半径的非魔法光芒，并随之焚烧成灰。任何在闪光范围内且能够看见该光芒的生物必须成功通过一次DC 10的体质豁免，否则将陷入目盲状态直到该生物的下个回合结束。
+阳光敏感。当位于明亮光照下时，暗灵在攻击骰，以及依靠视觉的感知（察觉）检定上有劣势。
+动作
+匕首。近战或远程武器攻击：+5命中，触及5尺或射程20/60尺，一个目标。命中：5（1d4 + 3）穿刺伤害。如果暗灵已经在攻击骰上具有优势，则造成额外的7（2d6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>暗灵长者</t>
+  </si>
+  <si>
+    <t>暗灵长者
+中型精类，混乱中立
+AC 15（镶嵌皮甲）
+HP 27（5d8+5）
+速度 30尺
+力量13（+1） 敏捷17（+3） 体质12（+1）
+智力10（+0） 感知14（+2） 魅力13（+1）
+技能：特技+5，欺瞒+3，察觉+6，隐匿+7
+感官：盲视30尺，黑暗视觉120尺，被动察觉16
+语言：精灵语，木族语
+挑战等级：2（450xp）
+死亡焚焰. Death Burn 当暗灵长老死亡时，它的身体和除了金属和魔法物体的持有物将闪耀出10尺半径的魔法光芒，并随之焚烧成灰。任何在闪光范围内的生物必须进行一次DC 11的体质豁免。若豁免失败将受到陷入7 (2d6)光耀伤害，且若该生物可以看见该光芒，则它将陷入目盲状态直到它的下个回合结束。若豁免成功，则该生物只受到一半的伤害且不会陷入目盲。
+行动
+多重攻击。暗灵长者进行两次近战攻击。
+短剑。近战武器攻击：+5命中，触及5尺，一个目标。命中：5（1d6+ 3）穿刺伤害。如果暗灵已经在攻击骰上具有优势，则造成额外的10（3d6）穿刺伤害。
+黑暗术（长或短休后充能）。 暗灵长者施展无需任何成分的黑暗术。感知是其施法主属性。</t>
+  </si>
+  <si>
+    <t>鬼婆:简述</t>
+  </si>
+  <si>
+    <t>鬼婆 Hags
+鬼婆们时常因为给世界带来毁灭和痛苦而感到欣慰。恶毒是她们在转换自己物理形态和塑造魔法力量时的核心部分。</t>
+  </si>
+  <si>
+    <t>妖鬼婆:简述</t>
+  </si>
+  <si>
+    <t>妖鬼婆 Annis Hag
+妖鬼婆的巢穴往往在山脉和丘陵之中。尽管她们通常以弯腰驼背的形象出现，但仍然有8英尺左右的站立高度，是鬼婆当中最高大健壮的一种。
+折磨弱者。虽然妖鬼婆能轻易地将一个成年男子撕成碎片，但她们更喜欢狩猎儿童，更愿意享用他们的血肉。她们把这些受害者的皮肤剥下做成柔软的皮革，一个鬼婆的巢穴往往留现出这种工业的迹象。
+妖鬼婆往往会为她们自己的残忍行为留下记号，这通常在森林边缘或者是其他宣称属于她们的区域中。通过这种方式，她们在附近的村庄城镇中引发恐惧和妄想。对于一个妖鬼婆而言，没有什么比用恐怖手段将一个充满活力的社区瘫痪更为甜美，住在那里的人们夜晚从来不会冒险外出，陌生人受到无来由的愤怒和猜疑，家长会对他们的孩子说“听话，否则妖怪会吃了你。”
+腐化孩童。当一个妖怪被听起来太过残酷时，她会将自己伪装成一个和蔼可亲的老妇人，在较为偏远的地区接近一个儿童，并给他们一个铁徽记，让他们可以通过徽记对自己倾吐秘密。随着时间的推移，“奶奶”会渐渐说服孩子拥有一些糟糕的想法和做一些坏事是可以的——从打坏东西和未经许可擅自外出开始，然后渐变至将某人推下楼梯或者是在屋内放火的程度。迟早有一天，孩子们的家庭和社区会因为他们被埋下“坏的种子”而陷入恐惧，并且不得不面对将他们流放或作出惩罚的可怕决定。
+部落主母。虽然妖鬼婆们友善对待孩子但实际上的目的是为了腐化他们。妖鬼婆倾向收养一群食人魔、巨魔或其他粗野的生物，用蛮力、谩骂和迷信统治他们。
+集会。当妖鬼婆作为鬼婆集会的一员时（参考MM中的“鬼婆集会”边栏）拥有挑战等级8（3900xp）。</t>
+  </si>
+  <si>
+    <t>妖鬼婆</t>
+  </si>
+  <si>
+    <t>妖鬼婆
+大型精类，混乱邪恶
+AC 17（天生护甲）
+HP 75（10d10+20）
+速度 40尺
+力量21（+5） 敏捷12（+1） 体质14（+2） 
+智力13（+1） 感知14（+2） 魅力15（+2）
+豁免 体质+5
+技能 欺瞒+5，察觉+5
+伤害抗性 寒冷，来自非魔法攻击的钝击、穿刺和挥砍
+感官 黑暗视觉60尺，被动察觉15
+语言 通用语，巨人语，木族语
+挑战等级 6（2300XP）
+天生施法。妖鬼婆的天生施法能力基于魅力（豁免DC13）。它可以如天赋般施展以下法术：
+每项3次/日：易容术disguise self（包括中型类人生物的形态），云雾术fog cloud
+动作
+多重攻击。妖鬼婆可以进行3次攻击：一次使用她的啮咬，两次使用她的爪抓。
+啮咬。近战武器攻击：命中+8，触及5尺，单一目标。命中：15（3d8+5）穿刺伤害。
+爪抓。近战武器攻击：命中+8，触及5尺，单一目标。命中：15（3d8+5）挥砍伤害。
+碾压拥抱。近战武器攻击：命中+8，触及5尺，单一目标。命中：36（9d6+5）钝击伤害。如果目标为大型或更小的生物，则目标被擒抱（挣脱DC15）。直到擒抱结束，目标在妖鬼婆每个回合开始的时候都要受到36（9d6+5）钝击伤害。在用这个方式擒抱生物时，妖鬼婆无法做出攻击。
+边栏：铁徽记
+一个妖鬼婆可以拔下她的一颗铁牙齿或者指甲并且花费1分钟将它打磨为一个硬币、一枚戒指或者是一面小镜子的形态。此后，任何持有这个徽记的生物都可以与这个鬼婆低声交谈，只要他们在同一位面上且相互间的距离不超过10英里。徽记的持有者只能听到鬼婆的声音，不包括鬼婆周围的其他生物或其他环境所产生的杂音。同样，鬼婆也只能听见持有者的声音而不包括周围的噪音。
+一个妖鬼婆在同一时间内最多拥有3个铁徽记。以一个动作，妖鬼婆可以辨别所有徽记的方位和从她到徽记的大致距离。她可以在任何距离上立即停止她的任何徽记而无需动作，因此徽记将保留它的当前形态但失去魔法特性。</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆:简述</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆 Bheur hags
+冬灵鬼婆生活在寒冷的土地上，偏爱白雪皑皑的群山。她们在冬季会变得更加活跃，使用她们操弄冰雪和气候的魔法向附近的聚居地降下惨剧。
+冬灵鬼婆的皮肤像冻死者一样呈蓝白色。她有惨白的头发，身形瘦削，仿佛一个靠着啃食树皮和皮革在严冬里幸存的人。她的眼色苍白，周围的皮肤带着深色的瘀痕。冬灵鬼婆带着一根扭曲的灰色木杖，她能像飞天扫帚一样骑乘它，并用其增强她的法术力量。
+冻寒之心Cold Hearts.冬灵鬼婆们被由致命寒冷所驱使的自私举动吸引，比如为了冬衣谋杀一个旅行者，为了柴火砍倒一位树精的丛林，等等。如果它们甚至毫无理由，比如一位贪婪的商人为冬季在他人挨饿时囤积了比他能吃的还多的食物，这些行为对一位冬灵鬼婆来说尤为甘甜。冬灵鬼婆喜爱将这些念头植入凡人的心中。她们使用她们的力量来操纵天气，让降雪和严寒袭击村落，希望能够灌输绝望的情绪，使村民们互相敌对。
+冬灵鬼婆喜爱看到毫无准备的人在冬季因为他们的错误受苦和死亡。当凡人为了生存而做一些琐碎的、可悲的尝试时，比如在没有实际食物的时候吃靴子和皮屑，她也会感到欣喜。
+不堪目视Awful  to  Behold。当一个冬灵鬼婆在这战斗中被完全地伤害，并刚刚得以杀死了她的其中一个敌人时，她常常会放弃攻击她剩下的敌人，而是花费一点时间来吞食尸体，将其肢解并把肉从骨头上剥离。看到这种野蛮的行为足以让目击者陷入暂时的疯狂之中。
+鬼婆集会Covens。冬灵鬼婆作为鬼婆集会的一员（见怪物图鉴中“鬼婆集会”边栏）具有挑战等级9（5000XP）。</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆
+中型精类，混乱邪恶 
+AC  17  (天生护甲) 
+HP 91  (14d8+28) 
+速度  30尺 
+力量 13(+1）   敏捷 16(+3)   体质 14(+2) 
+智力 12(+1)  感知 13(+1)   魅力 16(+3) 
+豁免：感知 +4
+技能：自然 +4,  察觉 +4,  潜行 +6,  生存 +4
+伤害免疫：冷冻 
+感官：黑暗视觉60尺，被动感知14
+语言：原初语，通用语，巨人语
+挑战等级7 (2,900  XP)
+灰杖巫术Graystaff  Magic.鬼婆随身带着一根灰杖，一根用于聚集她天生力量的灰色长棍。她能把手杖当做飞天扫帚一样骑乘。当握住手杖时，她以她的天生施法能力特性施放额外的法术（这些法术使用星号标出）。如果手杖丢失或被破坏，鬼婆必须花费一年零一天来制作另一根。只有一位冬灵鬼婆才能使用灰杖。
+冰上行走Ice  Walk. 鬼婆可以在冰面上穿行和攀爬而无需进行属性检定。此外，其穿过由冰或雪组成的困难地形时也不需要花费额外的移动力。
+天生施法Innate  Spellcasting.鬼婆的天生施法属性为魅力（法术豁免DC14，法术攻击+6）。它天生可施展以下法术且不需要任何相应的材料成分：
+任意：人类定身术hold  person *，冷冻射线ray  of  frost
+每项3/日：寒冰锥cone  of  cold*，冰风暴 ice storm*，冰墙术wall  of  ice*
+1/日：操控天气control  weather
+动作ACTIONS
+猛击 Slam。近战武器攻击： 命中+4，触及 5 尺，单一目标
+伤害： 10（2d8+1）的钝击伤害，外加3（1d6）冷冻伤害。
+癫狂盛宴Maddening  Feast.鬼婆啃食距离其五尺内一个一分钟内死去敌人的尸体。每个60尺内鬼婆选择的能看到她的生物必须成功通过DC15的感知豁免，否则在一分钟内对她陷入恐慌。因为这种方式恐慌时，生物会陷入失能，无法理解其他人说的话，无法阅读，只能胡言乱语；DM操控该生物混乱的移动。一个生物可以在每个其回合结束重复该豁免，成功则结束该效应。如果一个生物的豁免成功或者对其的效果结束，该生物在接下来的24小时内免疫鬼婆的癫狂盛宴。</t>
+  </si>
+  <si>
+    <t>快可灵:简述</t>
+  </si>
+  <si>
+    <t>快可灵 Quickling
+无论是在妖精荒野，或是在这个世界上，快可灵都会以火箭般的速度穿越盘根错节的森林。在那里摇头晃尾。快可灵的速度比眼睛所能追踪的更快，它们的一闪而过看起来就像一个模糊的影子一晃而过。
+快可灵是一种身形细小的精类生物，与有着尖锐、凶猛特征的迷你型精灵类似。它冷酷无情的双眼闪烁着宝石般的光芒。
+活的放纵，英年早逝。它们的生存现状——以及他们的困境——都要归功于薄暮庭院Gloaming Court的可怕统治者，空暗女王Queen  of Air  and  Darkness，黑暗宫廷中可怕的统治者。那些被化作快可灵的生物，曾经是一个懒惰而又自负的精类种族，曾多次未及时响应女王的召唤。为了加快他们的步伐、并教他们记住自己的意志，女王缩小了他们的身材，加速了他们的生物钟。 女王的诅咒给了他们惊人的速度，但也加速了他们的生活——没有快可灵能够活过十五年。
+它们的世界太快了。凡间的世界在一个快可灵的眼中是一个沉闷的地方：飓风徐徐地掠过天空，倾盆大雨像慵懒的雪花一样飘向地面，闪电在云间如蜿蜒的小径般爬行。在这个缓慢而无聊的世界里，生活着一群迟钝的生物，它们深沉低吟的语言缺乏意义。
+对于其他生物来说，快可灵如模糊的残影般快速移动令人目眩。它残忍的笑声是一阵快速而断续的声音，它的语言是一声尖锐的尖叫。只有当一个快可灵故意放慢速度——它不喜欢这样做时，其他人才能切实地看到、听到和理解它。一个“原地不动”的快可灵会不断变化它的步伐和位置，好像它迫不及待地想要再次离开，永不停歇。
+非致命的恶作剧。快可灵的天性反复无常，这与他们旺盛的精力很相称：他们思考的速度和奔跑的速度一样快，而且他们总是在做着某些事情。快灵大部分时间都在对较慢的生物进行恶作剧。它们很少会错过把两只鞋带系在一起的机会，也会移动一个生物即将坐上去的凳子，或者在没人注意的时候解开马鞍。
+然而，这类诡计并不是他们恶意中伤的极限。他们不会直接杀人，但是快可灵会以其他许多方式破坏生活：偷走一封重要的信，顺走穷人积攒的硬币，把偷来的东西放在别人的包里。快可灵喜欢制造比单纯恶作剧更多的痛苦，特别是当他们的行为责任被归咎于其他生物、且造成不和的时候。</t>
+  </si>
+  <si>
+    <t>快可灵</t>
+  </si>
+  <si>
+    <t>快可灵 Quicklings
+微型精类，混乱邪恶
+护甲等级 16
+生命值 10（3d4+3）
+速度 120尺
+力量4（-3） 敏捷23（+6） 体质13（+1）
+智力10（+0） 感知12（+1） 魅力7（-2）
+技能：特技+8,、巧手+8、隐匿+8、察觉+5
+感官：黑暗视觉 60ft，被动察觉 15
+语言：通用语、木族语
+挑战等级：1（200xp）
+快出残影 Blurred Movement。除非快可灵陷入失能或束缚，否则对快可灵的攻击骰具有劣势。
+反射闪避 Evasion。某个敏捷豁免通过后伤害减半的效应指定快可灵为目标时，其豁免成功则不受任何伤害，而豁免失败时则只受一半伤害。
+动作 Actions.
+多重攻击 Multiattack.快可灵进行三次匕首攻击。
+匕首 Dagger.近战武器攻击：+8命中，触及5尺，投掷20/60，一个目标。
+伤害：8（1d4+6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>红帽子:简述</t>
+  </si>
+  <si>
+    <t>红帽子 Redcap
+红帽子是一种由血腥欲望而诞生的杀人狂。红帽子虽然很小，却具有强大的力量，他们可以毫不犹豫地使用它们的力量进行捕杀。
+嗜血的化身。在妖精荒野Feywild，或者与世界接触的十字路口处，如果一个有知觉的生物表现出强烈嗜血的欲望时，那么在被杀者的鲜血浸透地面的地方，可能会出现一个或多个红帽子。起初，新的红帽子看起来就像血迹斑斑的蘑菇把它们的帽子从泥土里挤出来。当月光照射在其中一顶帽子上时，一个干瘪矮小、驼背、肌肉发达的侏儒的生物便从地下冒了出来。它有一顶尖尖的皮质帽子，一条类似材质的裤子，一双沉重的铁靴子，还有一把沉重的带刃武器。从它醒来的那一刻起，红帽子便只渴望谋杀和屠杀，并开始满足这些渴望。
+红帽子缺乏敏感。他们生来便处在直接对抗和致命战斗的混乱中。即使红帽子想隐匿，它的铁靴子也迫使它迈出沉重的、雷声般的步伐。然而，当红帽子在接近潜在的猎物时，它迅速缩短距离接近目标，并在目标作出反应之前发起猛烈攻击。
+沉浸于杀戮。为了维持其非自然的存在，红帽子必须把它的帽子浸在受害者新鲜的血液中。当红帽子出生时，它的帽子上覆盖着湿润的血液，它知道如果血液不能至少每三天补充一次，红帽子就会消失，如从未存在般。红帽子的杀戮欲望根植于它生存的意志。
+嗜血的雇佣兵。红帽子通常不会成群活动，但在某些情况下，它们可能会被女巫和黑魔法师所雇佣，这些法师知道如何把红帽子从妖精荒野召唤出来，并把它们视为可怕的仆从而投入工作。
+一些红帽子能感觉到是谁的杀戮行为导致了它们的诞生。红帽子可能会利用这种与生俱来的联系以寻找它的创造者，并使这个生物成为它的第一个受害人。其他人则寻找它们的创造者，以享受与志趣相投的人接近的乐趣。一个负责在同一地点创建多个红帽子的人可以利用这种手段，吸引整个团队来作为同伙。
+在任何情况下，如果一个红帽子与另一个人合作，红帽子要求从害者身上分一杯羹。如果一位资助人试图抑制红帽子的嗜血渴望，他就有可能成为红帽子的下一个目标。</t>
+  </si>
+  <si>
+    <t>红帽子</t>
+  </si>
+  <si>
+    <t>红帽子 Redcap
+小型精类，混乱邪恶
+护甲等级 13（天生护甲）
+生命值 45（6d6+24）
+速度 25尺
+力量18（+4） 敏捷13（+1） 体质18（+4）
+智力10（+0） 感知12（+1） 魅力9（-1）
+技能：运动+6、察觉+3
+感官：黑暗视觉 60ft，被动察觉 13
+语言：通用语、木族语
+挑战等级：3（700xp）
+铁靴子Iron  Boots. 在移动时，红帽在敏捷（隐匿）检定上有劣势。
+巨大力量 Outsize Strength。 在战斗过程中，红帽子被视为中体型的大小。此外，使用重型武器并不会对其攻击骰具有劣势。
+行动 Actions. 
+多重攻击 Multiattack。 红帽子进行三次邪恶镰刀攻击。
+邪恶镰刀 Wicked sickle。 近战武器攻击：+6命中，触及5尺，一个目标。
+伤害：9（2d4+4）穿刺伤害。
+覆铁追捕 Ironbound  Pursuit。 红帽子以它最快的速度移动到它可以看到的生物，并用自己的铁靴踢它。目标必须成功于 DC 14 敏捷豁免，否则受到20 （3d10 +4）钝击伤害并被击倒。</t>
+  </si>
+  <si>
+    <t>凌弱怪:简述</t>
+  </si>
+  <si>
+    <t>凌弱怪 Meenlock
+凌弱怪是一种唤来恐怖的畸形精类生物，它们所寻求的是摧毁世上一切善良、清白和美好。它们主要生活在森林中，当然它们也能很好地适应都市和地底环境。
+恐惧化身。凌弱怪从恐惧中衍生。每当恐惧压垮了妖精荒野的一个生物，或者是强烈影响了其中的某个地区，一个或多个凌弱怪就有可能自然地从阴影或黑暗附近诞生。如果有超过一个凌弱怪诞生，它们的巢穴也会同时如魔法般出现——伴随着大地裂隙的吱嘎呻吟，扭曲的隧道将被呈现。这条隧道将会成为凌弱怪巢穴的唯一出入口。
+凌弱怪会放射出超自然的光环灌输给附近的生物战栗与恐惧。当有人闯入凌弱怪的巢穴时，那些明显的扭曲和恶意会立即被每个人所感知到，仿佛某种挥之不去的不祥预感。在入口的内侧，黑色的苔藓覆盖了每一个表面，把一切声音压抑。一个巨大的内腔位于凌弱怪巢穴的中心，他们在那里折磨俘虏。
+黑暗居民。凌弱怪会避开强光。他可以超自然地感知到附近的黑暗和阴影区域，并且他可以在两块黑暗区域之间传送，以此来偷袭他的猎物或者在劣势时逃跑。
+精神折磨。凌弱怪没有心灵感应以外的沟通能力。它们可以把可怖的幻觉投射到它们的猎物脑中。这些幻觉包括令人不安的低语，或者是从某人视线边缘一闪而过的疾影。
+白天，凌弱怪会躲在它们的黑暗巢穴里。夜里，它们会爬出隧道去折磨那些熟睡的猎物，它们特别喜欢把目标锁定为那些仿佛体现了世上一切美好品质的人。凌弱怪喜欢用它们的爪子麻痹生物，把他们拽回自己的洞穴，将他们击倒至昏迷，然后用心灵感应折磨他们数个小时。一个屈从于这种精神折磨的类人生物将转变为一个邪恶的、成熟的凌弱怪（参考“精神折磨”边栏）。</t>
+  </si>
+  <si>
+    <t>凌弱怪</t>
+  </si>
+  <si>
+    <t>凌弱怪
+小型精类，中立邪恶
+AC 15（天生护甲）
+HP 31（7d6+7）
+速度 30尺
+力量7（-2） 敏捷15（+2） 体质12（+1）
+智力11（+0） 感知10（+0） 魅力8（-1）
+技能 察觉+4，隐匿+6，求生+2
+状态免疫 恐慌
+感官 黑暗视觉120尺，被动察觉14
+语言 心灵感应120尺
+挑战等级 2（450XP）
+恐惧光环。任何在凌弱怪周围10尺内开始回合的野兽或类人生物必须通过DC11的感知豁免检定，否则将在它下回合开始之前陷入恐慌。
+强光敏感。在明亮照明中，凌弱怪在攻击检定和依靠视力的感知（察觉）检定中具有劣势。
+暗影传送（充能5-6）。以一个附赠动作，凌弱怪可以传送至30尺内的一个未被占据的区域，只要它所在的区域和目的地同时处于微光照明或黑暗之中。目的地不需要在视觉线内。
+动作
+爪抓。近战武器攻击：命中+4，触及5尺，单一目标。命中：7（2d4+2）挥砍伤害。目标必须成功通过DC11的体质豁免检定，否则在1分钟内麻痹。在目标的每个回合结束时他可以重复进行豁免，若成功则结束这个效果对他的影响。
+边栏：精神折磨
+最多4只凌弱怪可以同时精神折磨一个失能的生物，使它的内心被令人不安的声音和可怕的图景填满。参与这项行为的凌弱怪在这期间不能用它们的心灵感应去做别的事情，虽然它们可以正常走动和使用动作、反应。这种折磨对免疫恐惧状态的生物没有影响。如果一个可以被影响的生物保持失能状态持续1小时，它将必须通过一次感知豁免检定，失败将受到10（3d6）点心灵伤害，成功只受一半伤害。豁免DC等于10+参与折磨的凌弱怪数量，只计入那些在整个一小时里保持被害者在视线范围里且没有陷入失能的凌弱怪。这个过程可以被重复。被通过这种伤害使HP降低至0的类人生物将立即转变为一只满生命的凌弱怪，并且控制权被转移给DM。只有许愿术或神力干预可以把被变形的生物恢复到本来的状态。</t>
+  </si>
+  <si>
+    <t>考芮精:简述</t>
+  </si>
+  <si>
+    <t>考芮精 Korred
+考芮精是一种鬼鬼祟祟的、难以捉摸的精类生物，它们与大地和岩石有很强的联系。因为它们的魔法头发和对矿物的神秘认知，它们在赏金猎人、矮人和其他渴望地底财富的人群中很受欢迎。
+大地精灵。考芮精喜欢保持它们自己的聚落，或者是偶尔与土元素生物（例如格莱石人）结伴同行。一个聚落的考芮精每周都会举行仪式性的舞蹈，用它们的蹄子和棍棒在岩石上敲打节奏。在物质位面的深处，考芮精在面对其他生物时通常会选择逃走，不过在认为遭到侮辱或者是被采矿的声音惹恼时也会变得有侵略性。
+岩石共感。对于大地和岩石，没人比考芮精知道得更多。考芮精几乎可以嗅到金属和宝石的脉络。站在地表上的考芮精可以感觉到地底基岩的上升和下落，可以探知到洞穴的存在，并且也能知道一英里内可以通过岩石到达的路径。经过岩石的密门对于考芮精而言就像是窗户一样明显。
+考芮精可以投掷看起来远远大于他们的体型所能负担的岩石，可以像是黏土一般改变岩石的形状，可以像是游泳一样游过岩石，也可以召唤土元素和其他生物。他们只要站在地面上就可以得到超自然的力气。
+附魔长发。考芮精的毛发遍布身体，不过它从头上长出来的头发是最为神奇的。当头发被剪掉时，那些头发将变成用以切剪的刀具的同种金属。考芮精通常会用铁剪剪掉一段它们的头发，然后把头发编织成它们可以操控的活化铁绳，它们用那个把其他生物或物品捆束起来。考芮精们往往对自己的头发感到骄傲，如果有人试图未经允许就剪下它们的头发那一定会迎来它们惨烈的报复。</t>
+  </si>
+  <si>
+    <t>考芮精</t>
+  </si>
+  <si>
+    <t>考芮精
+小型精类，混乱中立
+AC 17（天生护甲）
+HP 102（12d6+60）
+速度 30尺，掘地30尺
+力量23（+6） 敏捷14（+2） 体质20（+5）
+智力10（+0） 感知15（+2） 魅力9（-1）
+技能 运动+9，观察+5，隐匿+5
+伤害抗力 来自非魔法攻击的钝击、穿刺和挥砍
+感官 黑暗视觉120尺，震颤感知120尺，被动观察15
+语言 矮人语，侏儒语，木族语，土族语，地底通用语
+挑战等级 7（2900XP）
+命令发绳。考芮精拥有至少50尺长的绳索编织自它的头发。以一个附赠动作，考芮精可以命令一条30尺内的这种绳索移动20尺，随后纠缠一名它可以看见的大型或更小的生物。目标必须通过DC13的敏捷豁免检定或者被绳索擒抱（挣脱DC13）。目标被束缚直到擒抱结束。考芮精可以用它的附赠动作解放目标，如果考芮精死亡或者陷入失能目标也会被解放。
+一条考芮精发绳拥有20AC和20点HP。如果它剩有至少1点HP且考芮精还存活，在每个考芮精的回合开始时它可以恢复1点HP。如果绳索的HP下降到0则被摧毁。
+天生施法。考芮精的天生施法能力基于感知（豁免DC13）。它可以如天赋般施展以下法术而无需材料成分：
+随意：问道自然commune with nature，融身入石meld into stone，塑石术stone shape
+1次/每天：召唤元素conjure elemental（如同6级法术，只能召唤格莱石人galeb duhr,，石像鬼gargoyle，土元素earth elemental和索尔石怪xorn），奥图迷舞Otto's irresistible dance
+岩石伪装。考芮精在试图躲藏于岩石地带中时，在敏捷（隐匿）检定中具有优势。
+岩石力量。当位于地面上时，考芮精的任意武器攻击可以额外加上2个伤害骰（已经包含进它的攻击之中）。
+动作
+多重攻击。考芮精可以用巨木棒进行两次攻击，或投掷两次岩石。
+巨木棒。近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d8+6）钝击伤害，若考芮精位于地面上则造成19（3d8+6）钝击伤害。
+投石。远程武器攻击：命中+9，射程60/120尺，单一目标。命中：15（2d8+6）钝击伤害，若考芮精位于地面上则造成24（4d8+6）钝击伤害。</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬:简述</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬 Yeth Hound
+通过取悦那些给予他们支持的强力妖精类，夜嘶猎犬像真正的猎狗一样侍奉它们的邪恶主人。夜嘶猎犬通常靠飞行追逐它们的猎物，并耐心等待直至猎物疲惫不堪以致无法还击时在动手（口）。只有黎明到来的威胁致使群落又重新隐匿起来。
+邪恶之主的奴仆（Minions of a Dark Master）：夜嘶猎犬是被那些具有强大力量的精类——就像空暗女皇——所创造出来的。一旦夜嘶猎犬被造出，那这个族群必须存在一名主人，通常这名主人就是创造者想要奖励的人。主人甚至可以在远处通过心灵交流向夜嘶猎犬们发布命令。如果这名主人被杀死，那么这群夜嘶猎犬将去寻找一名新的主人，尤其像一些强大邪恶的个体，如吸血鬼、死灵法师或是鬼婆。
+一只夜嘶猎犬站起来肩高有5尺，体重约400磅重。如果人们在黑暗中发现一只夜嘶猎犬，会看见它双眼射出的红光映衬其黑色的皮毛。夜嘶猎犬的头部长有一张类似人的脸，脖子部位比其他狗类更灵活，这种生物散发着一股烟味。
+死亡迫近之声（Sound  of  Loomings  Death）：夜嘶猎犬可以发出使周围都可以听到的鬼魅般嚎叫，所有能看到夜嘶猎犬的生物在听到其嚎叫都会感到超自然的恐惧并处于惊恐状态。当受害者想要逃离时，猎犬更倾向于在结束狩猎前追逐它并折磨它。
+那些面对猎犬坚守阵地并反击的人们发现，普通的武器攻击夜嘶猎犬就像是通过它们雾一样的身体没有实质性的伤害。但是魔法武器和银质武器可以打击到它们。
+阳光放逐（Foiled  by  Sunlight）：夜嘶猎犬不能处于阳光之下。没有一个夜嘶猎犬族群愿意延长在夜晚狩猎的时间并且更倾向于在第一缕阳光出现时返回它们的黑暗位面。族群的主人的任何胁迫都无法阻止这个天性。当一只夜嘶猎犬暴露在阳光下，它会本能地畏惧并逃回到以太位面，而它的主人只有在日落后才能重新唤回它。</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬 YETH  HOUND
+大型精类，中立邪恶
+AC：14（自然护甲）
+HP：51（6d10+18）
+速度：40尺，飞行40尺（悬浮）
+力量18（+4）   敏捷17（+3）   体质16（+3）
+智力5（-3）   感知12（+1）   魅力7（-2）
+技能：欺瞒+4，恐吓+4，察觉+5，隐匿+4
+伤害免疫：非魔法攻击且非银质武器的挥砍、穿刺和钝击伤害
+状态免疫：魅惑、力竭、惊恐
+感官：黑暗视觉60尺，被动察觉11尺
+语言：理解通用语、精灵语言和妖精语但是不会说
+挑战等级：4（1100 XP）
+敏锐的听觉和嗅觉（Keen  Hearing  and  Smell）：夜嘶猎犬依靠其敏锐听觉和嗅觉在智力（感知）检定上具有优势。
+阳光放逐（Sunlight Banishment）：如果夜嘶猎犬在其回合开始时处于阳光下，它将被放逐至以太位面。当阳光直射在它消失的地方，则夜嘶猎犬必须停留在深层以太位面。只有当日落时，它才可以回归到相同位置的以太位面边界，猎犬通常在这个时候出发寻找它的族群或是它的主人。当夜嘶猎犬处于以太位面边界时它可以被主物质位面的生物看到，反之亦然，但是猎犬出于其他位面时它不可影响任何事物或是被影响。一旦夜嘶猎犬靠近它的主人或是一个处于主物质位面的族群时，这只处于以太位面边界的猎犬可以以一个动作回归主物质位面。
+心灵链接（Telepathic  Bond）：如果夜嘶猎犬同它的主人存在于同一个位面中，它可以用魔法链接告知主人它的感官检测到的事物，它们也可以通过心灵链接互相交流。
+动作
+啃咬（Bite）：近战武器攻击：命中+6，触及5尺，单一生物。命中：11（2d6+4）的穿刺伤害。如果该生物处于惊恐状态附加14（4d6）点心灵伤害。
+邪恶嚎叫（Baleful  Baying）：夜嘶猎犬的嚎叫是具有魔力的。当猎犬嚎叫时，任何在其300尺范围内可听见嚎叫的敌人必须通过DC 13的感知豁免检定，否则他将处于惊恐状态直到夜嘶猎犬下一轮行动结束或是该猎犬处于失能状态。如果该被惊恐目标生物在夜嘶猎犬30尺范围内，当期开始回合时他必须使用其全部移动点尽可能地远离夜嘶猎犬，而且必须在做出动作前终止移动，必须采取最直接的路线，即使这样做是异常危险的。当一个目标生物成功豁免，则其在24小时内都免疫所有夜嘶猎犬的嚎叫。</t>
+  </si>
+  <si>
+    <t>犬魔:简述</t>
+  </si>
+  <si>
+    <t>犬魔 Barghest
+许久之前，地精之神玛格鲁比特与火焚界的领主定下契约以寻求帮助，为此，领主派遣手下的尤格罗斯魔誓死效忠于地精之神。然而，当时间达到检验玛格鲁比特对这份契约的忠诚度时，他却背弃这份协议。作为复仇的行动，火焚界的领主创造了一种灵魂吞噬者——犬魔来吞噬地精类的灵魂，用以剥夺玛格鲁比特在来世修罗场的地精军队。
+灵魂取食者：
+犬魔出生于父母双亲都是普通哥布林的家族并且同他们的子嗣并无差别，这个生物以地精的样子成长，直到它积攒足够的能力来展现其真正的形态：一只巨大、残忍的犬类生物。
+火焚界大公在每个犬魔的脑海里都深深植入他们的任务，那就是杀戮17只地精并吞噬它们的身体来夺取灵魂，以这种方式夺取的灵魂将无法加入玛格鲁比特在阿刻戎德军队。为什么是17呢？原因是玛格鲁比特撕破他和火元素大公的协议刚好是17条。
+当一个饥饿的犬魔完成任务的时候，它将返回到火焚界，并直接在大公领导的尤格罗斯魔军团中服役，但是它并没有不加区别地杀死所有的地精类。通过吞噬地精领袖和其他有权势地精的灵魂，而不是卑微的地精类，这个犬魔在来世将获得更高的地位。通常情况下，犬魔们隐秘的保持他们的本性，并在时机成熟时捕食一或两个地精，直到它们成年，它们的年龄已经足够大，足够强壮，能够找到更强壮的猎物。当地精发现它们中存在犬魔时，它们会对犬魔卑躬屈膝，每个部落成员都在向犬魔表现出卑微且它们不值得被吞噬。
+火焰放逐者。犬魔会避免接触较大的明火，任何比它们身体大的火焰会被认为是通往火焚界的通道，而且提醒这些犬魔它们被那个位面驱逐因为它们的失败，在那里它们可能会被其他尤格罗斯魔奴役或杀死。
+灵魂饲喂。犬魔能吞食它刚刚杀死或死亡时间不超过10分钟的人型生物的尸体，这样做犬魔既能吞食鲜肉又能吞噬受害者的灵魂。这个吞食动作持续至少一分钟，而且将破坏受害者的身躯。这个受害者的灵魂件困在犬魔体内24小时，之后他将被犬魔彻底消化。但是在消化期间内如果犬魔死亡，受害者的灵魂将得到释放。
+当一个类人生物的灵魂被困在犬魔体内时，任何形式的复生术都只有50%的可能性成功，如果成功将这个灵魂成功从犬魔体内释放。但是一旦犬魔将这个灵魂完全吞噬，则没有任何法术可以使这个类人生物复活。</t>
+  </si>
+  <si>
+    <t>犬魔</t>
+  </si>
+  <si>
+    <t>犬魔 Barghest
+大型邪魔（变形者），中立邪恶
+AC：17（自然护甲）
+HP：90（12d10+24）
+速度：60尺（在地精形态下30尺）
+力量19（+4）   敏捷15（+2）   体质14（+2）
+智力13（+1）   感知12（+1）   魅力14（+2）
+技能：欺诈+4，恐吓+4，察觉+5，潜行+4
+伤害抵抗：寒冷、火焰、光耀、非魔法的挥砍、穿刺和钝击伤害
+伤害免疫：毒素、强酸
+状态免疫：中毒
+感官：盲视60尺，黑暗视觉60尺，被动觉察15尺
+语言：深渊语，地精语，通用语，炼狱语，心灵感应60尺
+挑战等级：4（1100 XP）
+变型。犬魔可以利用它的变型能力变成一只小地精或是变回它本来面目。除了它的大小和速度，它的统计数据在每一种形式中都是相同的，任何犬魔穿戴或携带的装备都不会产生影响。当犬魔死亡时他将变回真实形态。
+火焰放逐。当犬魔开始它的回合时，如果将被至少10尺高或宽火焰吞噬，那它必须成功通过DC 15的魅力豁免鉴定，如不成功则被立刻驱逐回火焚界。瞬间爆发的火焰（就像是红龙的火焰吐息和火球术）不会对犬魔产生如此影响。
+天生施法。犬魔作为天生施法者，其施法能力基于魅力（DC12 的法术豁免），犬魔可以施放以下法术并且不需要施法材料。
+随意：浮空术、初级幻象、行踪无迹
+每日一次：魅惑人类、任意门、暗示术
+动作
+啃咬。近战武器攻击（只在真实形态下）：命中+6，触及5尺，单一生物。命中：13（2d8+4）的穿刺伤害。
+爪击。近战武器攻击：命中+6，触及5尺，单一生物。命中：8（1d8+4）的穿刺伤害。</t>
+  </si>
+  <si>
+    <t>恶魔:简述</t>
+  </si>
+  <si>
+    <t>恶魔 Demons
+恶魔领主们为了在多元宇宙中散播他们的混乱和恐惧会创造出一些次级恶魔来完成他们的目的。我们来描述以下三种恶魔。</t>
+  </si>
+  <si>
+    <t>巴布魔:简述</t>
+  </si>
+  <si>
+    <t>巴布魔 Babau
+恶魔和魔鬼们都为了控制下层界而无休止地开展冲突。曾经的一次爆发冲突是在高阶魔鬼欲魔女王格莱西雅（Glasya）与尖啸之都的统领者恶魔领主格拉兹特之间。据说，格莱西雅用她的魔剑刺伤了格拉兹特，而第一只巴布魔就从格拉兹特伤口流出的血液碰击地面后产生了。它们的突然出现帮助格拉兹特击溃了欲魔女王，并确保了他在深渊中作为最杰出之一的恶魔领主的地位。
+一个巴布魔拥有魔鬼的狡猾和恶魔的嗜血。它具有一种皮革般的黑色皮肤，在它那瘦削的骨架上紧紧地拉紧，还有一个弯曲的角从它细长的头骨后面伸出来。巴布魔邪恶的怒视会使它面对的生物变弱。</t>
+  </si>
+  <si>
+    <t>巴布魔</t>
+  </si>
+  <si>
+    <t>巴布魔 Babau
+中型邪魔（恶魔），混乱邪恶
+AC 16（天生护甲）
+HP 82（11d8+33）
+速度 40尺
+力量19（+4） 敏捷16（+3） 体质16（+3）
+智力11（+0） 感知12（+1） 魅力13（+1）
+技能：察觉+5，隐匿+5
+伤害抗力：寒冷，火焰，闪电；非魔法的钝击、挥砍、穿刺
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉120尺，被动察觉15
+语言：深渊语
+挑战等级：4（1100xp）
+天生施法。巴布魔的施法能力是天生的，主属性为感知（法术豁免DC11）。巴布魔天生可以施展下列法术，不需要任何材料成分：
+随意：黑暗术，解除魔法，恐惧术，灼热金属，漂浮术
+动作Actions
+多重攻击。巴布魔可以进行两次近战攻击。它也可以在攻击之前或之后使用弱化凝视。
+爪击。近战武器攻击：+6命中，触及5尺，一个目标。命中：8（1d8+4）挥砍伤害。
+矛。近战或远程武器攻击：+6命中，触及5尺或射程20/60尺，一个目标。命中：7（1d6+4）穿刺伤害，或8（1d8 + 4）穿刺伤害（当双手持握时）。
+弱化凝视。巴布魔指定一个在它的20尺内并且可见的目标。目标必须通过一个DC13的体质豁免。若豁免失败，目标用武器攻击造成伤害减半，持续1分钟。目标可以在每次回合结束时重复豁免，若成功则结束效果。</t>
+  </si>
+  <si>
+    <t>胃袋魔:简述</t>
+  </si>
+  <si>
+    <t>胃袋魔 Maw Demon
+胃袋魔分享了恶魔领主耶诺古（豺狼人之王）那无止境的饥渴，通过大屠杀及饱饮凡人的血肉。当胃袋魔饱食后经过八个小时的休息，它将会继续吞噬它所经之处的任何生物，而这些血肉将会立刻汇入耶诺古的咽喉中。 
+胃袋魔通常出现在豺狼人战团周边，征召战团屠杀类人生物作为献祭耶诺古仪式的一部分。通常豺狼人战团不会命令这些恶魔，但是这些恶魔跟随着战团并攻击豺狼人袭击的任何生物。</t>
+  </si>
+  <si>
+    <t>胃袋魔</t>
+  </si>
+  <si>
+    <t>胃袋魔 Maw Demon
+中型邪魔（恶魔），混乱邪恶 
+AC 13（天生护甲）
+HP 33（6d8+6）
+速度 30尺 
+力量14（+2） 敏捷9（-1） 体质13（+1）
+智力5（-3） 感知8（-1） 魅力5（-3）
+伤害抗性：寒冷，火焰，闪电
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉60尺，被动察觉9
+语言：懂得深渊语但不会说
+挑战等级：1（200xp） 
+横冲直撞。当它在自己回合中通过一次近战攻击将一个生物的HP减少到0点，胃袋魔能够以一个附赠动作移动最多半速的距离并以啃咬发动一次攻击。
+动作Actions
+啃咬。近战攻击：+4命中，触及5尺，一个目标。命中：11（2d8+2）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬:简述</t>
+  </si>
+  <si>
+    <t>驱逐魔犬:简述</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬 Shoosuva
+苏苏瓦魔犬——一种班鬣狗形态的恶魔，是耶诺古对一些具有特殊能力的豺狼人的馈赠（尤其像一些耶诺古毒牙）。一只苏苏瓦魔犬倾向于在豺狼人战团取得一场伟大的战斗胜利后不久现身，从深渊中冒着滚滚浓烟而来。在战斗中，这些恶魔使用它们留着口水的下颚攻击周围一名受害者，并用那带毒刺的尾部把另一名拉倒。一旦受攻击的生物被毒液麻痹住，它将很容易被周围的豺狼人攻击。
+每只苏苏瓦魔犬都会与一名杰出的豺狼人团结一致，并在它的主人身旁战斗。在大的战团中，一名被赐予苏苏瓦魔犬的豺狼人的地位是仅次于弗雷德豺狼人的存在。</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬</t>
+  </si>
+  <si>
+    <t>驱逐魔犬</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬 Shoosuva
+大型邪魔（恶魔），混乱邪恶
+AC 14（天生护甲）
+HP 110（13d10+39）
+速度 40尺
+力量18（+4） 敏捷13（+1） 体质17（+3）
+智力7（-2） 感知14（+2） 魅力9（-1）
+豁免：敏捷+4，体质+6，感知+5
+伤害抗性：寒冷，火焰，闪电;非魔法的钝击、穿刺、挥砍 
+伤害免疫：毒素 
+状态免疫：中毒，恐惧，魅惑 
+感官：黑暗视觉60尺，被动察觉12 
+语言：深渊语，豺狼人语，心灵感应120尺 
+挑战等级：8（3900xp）
+横冲直撞。当它在自己回合中通过一次近战攻击将一个生物的HP减少到0点，驱逐魔犬能够以一个附赠动作移动最多半速的距离并以啃咬发动一次攻击。
+行动
+多重攻击。驱逐魔犬发动两次攻击，一次啃咬，一次用尾巴毒刺。
+啃咬。近战武器攻击：+7点命中，触及5尺，一个目标。命中：26（4dl0+4）穿刺伤害。
+尾刺。近战武器攻击：+7命中，触及15尺，一个生物。命中：13（2d8+4）穿刺伤害，目标必须通过DC14的体质豁免否则中毒。在中毒的同时，目标麻痹。目标可以在每次回合结束时重复豁免，成功则结束毒刺对自己的影响。</t>
+  </si>
+  <si>
+    <t>囚魂魔:简述</t>
+  </si>
+  <si>
+    <t>囚魂魔 Devourer
+在奥库斯释放的所有恶魔中，囚魂魔是最可怕的。 这些高大的，像木乃伊一样的恶魔在各个层面上游荡，吞噬灵魂，并且亲力亲为地传播奥库斯的信条，用永恒的死亡取代所有的生命。
+奥库斯的死亡器具：一个向奥库斯证明自己能力的低级恶魔可能会被授予转化为囚魂魔的特权。不死君主将这个恶魔转化为8尺高，胸膛被掏空且极度渴求用灵魂来填满的干枯类人生物。奥库斯给予每个新生囚魂魔一个不那么幸运的恶魔的精华来驱动囚魂魔进入各位面进行第一次突袭。大多数囚魂魔会停留在深渊中，或是在星际位面或以太位面上，追求奥库斯在那些领域的计划和利益。 当奥库斯把囚魂魔送到主物质层时，他通常让它们执行一个任务，创造，控制，并领导一场亡灵瘟疫。 骷髅、僵尸、食尸鬼和妖鬼，以及阴影都特别容易被囚魂魔吸引。
+灵魂折磨者：囚魂魔猎杀类人生物，目的是吞噬他们的身体和灵魂。当囚魂魔将一个生物带到死亡边缘后，它会把受害者的尸体拖进自己的胸腔，当受害者试图避开死亡(通常没有成功)，囚魂魔会用心灵感应的噪音折磨它的灵魂。当受害者死去时，他会经历一个可怕的转变，从囚魂魔的身体内释放出来，作为产生它的怪物的不死仆人来开始它的新生。
+邪魔本质：囚魂魔不需要呼吸，食物（除了灵魂），饮水和睡眠</t>
+  </si>
+  <si>
+    <t>囚魂魔</t>
+  </si>
+  <si>
+    <t>囚魂魔 Devourer
+大型邪魔，混乱邪恶
+AC 16（天生护甲）
+HP 178（17d10+85）
+速度 30尺
+力量20（+5） 敏捷12（+1） 体质20（+5）
+智力10（+0） 感知10（+2） 魅力16（+3）
+伤害抗性：寒冷，火焰，闪电
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉120尺，被动察觉10
+语言：深渊语，心灵感应120尺
+挑战等级：13（10000xp）
+动作
+多重攻击。囚魂魔进行两次爪击，再使用囚魂或者裂魂。
+爪击。近战武器攻击：+10命中，触及5尺，一个目标。命中：12（2d6+5）挥砍伤害加21（6d6）黯蚀伤害。
+囚魂。囚魂魔选择一个HP为0但仍旧活着的类人生物，目标必须位于它30尺以内且能被它看见。该生物被传送到囚魂魔的胸腔内，并囚禁在那里。以这种方式被囚禁的生物在死亡豁免中有劣势。如果目标在监禁期间死亡，囚魂魔恢复25点生命，立即给裂魂能力充能完毕，并且在其下一回合中获得额外一个动作（译者：类似动作如潮那样）。此外，在它的下个回合开始时，囚魂魔以一个附赠动作把被杀死的生物反吐出来，这个生物变成不死生物。
+如果受害者有2个或更少的生命骰，它就会变成僵尸；如果有3到5的生命骰，它变成食尸鬼。否则，它变成一个尸妖（wight）。一个囚魂魔在同一时间只能禁锢一个生物。
+裂魂（充能6）。囚魂魔创造一个负能量漩涡，以它自身为半径20尺，每个该区域内的类人生物必须通过DC18的体质豁免。否则受到44（8dl0）的黯蚀伤害。豁免成功则只受一半伤害。区域内每有一个活着且HP为0的人形生物，裂魂伤害就增加10点。</t>
+  </si>
+  <si>
+    <t>卓格罗斯:简述</t>
+  </si>
+  <si>
+    <t>卓格罗斯 Draegloth
+卓格罗斯来自于卓尔精灵与迷诱魔的杂交，诞生于邪恶卓尔高等女祭司所进行的一个危险而污秽的仪式中。它们天生拥有强大的魔法天赋和肉体力量，通常情况下，这些恶魔仍然为其母亲的家族效力，借助它对破坏的渴望，那个家族谋求着击败所有竞争对手。
+卓格罗斯是个体型与食人魔接近，有着紫黑色皮肤和黄白色头发的四臂人形生物（是人形不是类人）。紫黑色的皮肤和黄白色的头发。它的两只手臂巨大，肌肉发达，尖端有锋利的爪子；另外两只接近卓尔手臂的大小和形状，可以进行精细的动作。虽然这个生物肌肉结实，却优雅而安静得像一个卓尔精灵。它的长相一眼能看出是混合了恶魔与野兽的特点——发光的红色眼睛、一个细长的犬类鼻子和嘴里锋利的牙齿。
+对家族的祝福。创建一个卓格罗斯的仪式很少成功，但当它成功时就变得意义非凡——这被视为对卓尔家族的一个标志性事件，代表了恶魔领主萝丝（Lolth）的青睐，以及意味着萝丝蔑视该家族的那些没有得到赐福的对手。卓格罗斯的出生促使家族领导人开始制定新计划如何在卓格罗斯完全成年时来打击对手。这些计划总是围绕着一个重要的角色——卓格罗斯，因为它的能力可以扭转一场与没有这些能力的家族的战斗局势。</t>
+  </si>
+  <si>
+    <t>卓格罗斯</t>
+  </si>
+  <si>
+    <t>卓格罗斯 Draegloth
+大型邪魔（恶魔），混乱邪恶
+AC：15（天生护甲）
+HP：123 (13d10+52)
+速度：30尺
+力量20(+5) 敏捷15(+2) 体质18 (+4) 
+智力13 (+1) 感知11 (+0) 魅力11 (+0)
+技能：察觉+3，隐匿+5
+伤害抗性：寒冷，火焰，闪电
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉120尺，被动察觉13
+语言：地底通用语，精灵语，深渊语
+挑战等级：7 （2900 XP）
+精类血统：卓格罗斯在进行对魅惑的豁免检定时有优势，而且魔法不能使它陷入睡眠。
+天生施法：卓格罗斯天生施法能力的主属性是魅力（豁免DC11）。卓格罗斯天生可以施展以下法术而不需要材料成分：
+随意：黑暗术
+每项1/日：困惑术，舞光术，妖火
+动作
+多重攻击。卓格罗斯进行三次攻击，两次用爪子，一次用啃咬。
+啃咬。近战武器攻击：+8命中，触及5尺，单一生物。命中：16（2D10+5）穿刺伤害。
+爪击。近战武器攻击：+8命中，触及10尺，单一目标。命中：16（2dl0+5）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>塔那罗克:简述</t>
+  </si>
+  <si>
+    <t>塔那罗克 Tanarukk
+当恶魔的腐蚀之力玷污了一个部族的领导时，兽人可能会求助于深渊的魔法来制造塔那罗克。控制兽人的邪恶人类也使用这种力量来增强其追随者的力量。
+恶魔领主巴菲门特 Baphomot很乐意将创造塔那罗克的秘密与那些恳求他力量的人分享。这个过程腐化了部族中一个未出生的兽人，使它在出生时变成了比兽人更野蛮的生物。
+虽然塔那罗克是可怕的战士，但他们在战场外对他们的盟友构成威胁。在部族的巢穴里，塔那罗克具有破坏性和动荡不安的性质，因此最好将其囚禁起来。迟早，一个自由的塔那罗克会横扫整个部族，企图用武力接管。这样的政变大多数以失败告终，但却给部族带来了巨大的损失。如果塔那罗克夺取了一个部族的领导权，那么它必然选择鲁莽的战争。
+如果一只塔那罗克获得繁殖的机会，其血脉会污染无数后代，它的雌性后代会随机生产塔那罗克。大多数部落不会冒着风险养大一个自然生产的塔那罗克，而是选择杀死这样可憎的东西。</t>
+  </si>
+  <si>
+    <t>塔那罗克</t>
+  </si>
+  <si>
+    <t>塔那罗克 Tanarukk
+中型邪魔（恶魔，兽人），混乱邪恶
+AC 14 (天生护甲)
+HP 95 (10d8 + 50)
+速度30 尺
+力量    敏捷    体质
+18 (+4) 13 (+1) 20 (+5)
+智力    感知    魅力
+9 (-1)  9 (-1)  9 (-1)
+技能： 威吓+2，察觉+2
+伤害抗性：火焰，毒素
+感官：黑暗视觉60尺， 被动察觉 12
+语言：深渊语，通用语，兽人语
+挑战等级 5 (1,800 XP)
+好斗 Aggressive。 作为一个附赠动作，塔那罗克可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+魔法抗性 Magic Resistance。该塔那罗克在对抗法术和其他魔法效应的豁免检定上具有优势。
+动作
+多重攻击 Multiattack。 塔娜罗克发动2次攻击：1次啃咬和1次巨剑
+啃咬 Bite。 近战武器攻击: 命中+7，触及 5 尺， 单一目标。伤害: 8 (1d8 + 4) 穿刺伤害。
+巨剑 Greatsword。 近战武器攻击: 命中+7 ，触及 5尺， 单一目标。伤害: 11 (2d6 + 4) 挥砍伤害。
+反应
+无羁之怒 Unbridled Fury。 作为被近战攻击命中的反应，该塔那罗克可以向攻击者发动一次具有优势的近战武器攻击。</t>
+  </si>
+  <si>
+    <t>飞头蛮:简述</t>
+  </si>
+  <si>
+    <t>飞头蛮 Vargouille
+尖叫着，摇摆着，伴随恐怖的面容——一个与身体分离开的头颅并且在代替耳朵部位是如同蝙蝠翅膀般飞翼，飞头蛮从深渊中升腾并注入其他位面，就像卡瑟利，在那里他们能构成威胁。每一只飞头蛮都携带着一种可以创造更多同类的致命疾病，一群飞舞翅膀的飞头蛮将预示一场混乱和邪恶的瘟疫将要发生。
+深渊之扰：成群结队的飞头蛮挥舞着双翼穿梭在深渊的洞穴和天空中，它们很少受到强大且智慧的恶魔的重视，因为飞头蛮根本不能够对他们造成威胁。但是弱小者就像怯魔和原魔，遇到大量的飞头蛮时会心生恐惧。在下层界，飞头蛮很少能吃到活物除了幼虫，更常见的情况是，当一个当一个恶魔杀死另一个恶魔时，他们会把留下的脓水吸光。
+世界之候：因为飞头蛮天生对活物的饥渴，因此它们有时会更倾向于离开下层界。在很少的情况下，一个恶魔在被其他位面召唤时会携带一只飞头蛮，就像印记般附加在其身上。凡人为了控制被召唤的恶魔而采取的预防措施很少能查明偷渡者的身份，因此，飞头蛮是不请自来地进入这个世界的。
+可恐的繁殖 Ghastly Reproduction：在物质层上自由遨游的飞头蛮对所有生物都是可怕的威胁，尤其是类人生物。他们可怕的尖叫会让其他生物感到恐惧，而这样的受害者无法抗拒它们的诅咒之吻。</t>
+  </si>
+  <si>
+    <t>飞头蛮</t>
+  </si>
+  <si>
+    <t>飞头蛮 Vargouille
+微型邪魔，混乱邪恶
+AC：12
+HP：13（3d4+6）
+速度：5尺，飞行40尺
+力量6（-2）   敏捷14（+2）   体质14（+2）
+智力4（-3）   感知7（-2）   魅力2（-4）
+伤害抵抗：寒冷、火焰、光耀
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉60尺，被动察觉8尺
+语言：懂得深渊语，地狱语，以及该生物成为飞头蛮前知晓的语言但是不会说
+挑战等级：1（200 XP）
+动作：
+啃咬 Bite.：近战武器攻击（只在真实形态下）：命中+4，触及5尺，单一生物。命中：3（1d8+2）的穿刺伤害并附带10（3d6）点毒素伤害。
+致命之吻 Kiss：如果飞头蛮亲吻一个在其五尺范围内失能的类人生物，那么该目标生物必须成功通过DC 12的魅力豁免检定否则将被诅咒。被诅咒的生物每个小时丧失1点魅力值，而且他的头部的外貌越来越趋于炼狱化。但当该生物处于强光之下或是处于昼明术的法术范围区域，则该诅咒不会进一步发展。当诅咒使该生物的魅力值降低至2点时，该生物死亡，且它的头部从身体剥离开成为一只新的飞头蛮。在诅咒完成前对该生物施放法术：移除诅咒或是高等复原术或是其他类似的法术可以终止该诅咒，这样做会使目标在诅咒下的可怕变化消失。
+惊人尖叫 Stunning Shriek：当飞头蛮发出尖叫时，任何距离飞头蛮30尺内且能听到叫声的类人生物和野兽必须成功通过DC 12的智力豁免检定否则将处于惊恐状态直至飞头蛮下一轮回合结束。在飞头蛮的尖叫效果下，该惊恐生物会处于震慑状态。如果该生物成功通过豁免检定则结束该状态，且一小时内该生物免疫任何飞头蛮的惊人尖叫效果。</t>
+  </si>
+  <si>
+    <t>巨人:简述</t>
+  </si>
+  <si>
+    <t>巨人 Giants
+这里展现的巨人比它们其他的同类要更加强大，要么是因为它们的神显现了对它们的恩宠，要么是命运给予它们不利之处，迫使它们去寻找其他力量的道路。</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者:简述</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者 Cloud Giant Smiling One
+总体而言，云巨人并不怎么虔诚。它们容忍着出于它们的主神，曼诺的许多相矛盾的想法。而欢笑者是那个更绷紧了这份容忍的家伙。
+欢笑者是视尊崇和效仿曼诺的诡计与欺骗高于一切的云巨人。它们是最高明的骗手，使用花招，欺骗，误导，还有魔法来追求财富。它们还有着难以预料的天性和恶劣的幽默感。
+虽然云巨人预料到了在与它们同类的交际中会有一定的诡计和欺骗，欢笑者的所作所为仍超出了礼仪的界限，以至高贵的云巨人认为冒犯了它们的尊严。
+神秘面具。欢笑者以它们所戴的古怪双面面具取名。微笑的半面脸常常看起来更像是一副假笑或者得意的讥笑，而非愉快的笑容。皱眉的另一半表明欢笑者对它们处于风暴巨人之后的第二序位位置的不满。这面具被作为它们信仰的标志，但它们也隐藏了它们的佩戴者真实的面部表情。</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者 Cloud Giant Smiling One
+巨型巨人（云巨人），混乱中立
+AC 15（天生护甲）
+HP 262（21d12+126）
+速度 30尺
+力量26（+8），敏捷12（+1），体质22（+6） 
+智力15（+2），感知16（+3），魅力17（+3） 
+豁免 体质+10，智力+6，魅力+7 
+技能 欺瞒+11，洞悉+7，察觉+7，巧手+9 
+感官 被动察觉17 
+语言 通用语，巨人语 
+挑战等级 11（7200XP） 
+天生施法。巨人的天生施法能力基于魅力（法术豁免DC15），它天生即可施展以下法术，无需材料成分： 
+随意：侦测魔法，云雾术，光亮术
+每项3/日：羽落术，飞行术，迷踪步，心灵遥控
+每项1/日：操控天气，气化形态
+施法。巨人是一名5级施法者。它的施法属性是魅力（法术豁免DC15，法术攻击加值+7）。巨人准备了以下吟游诗人法术。
+戏法（随意）：弱效幻影，魔法伎俩，恶言相加
+1环（4法术位）：治疗伤口，易容术，无声幻影，塔莎狂笑术
+2环（3法术位）：隐形术，暗示术
+3环（2法术位）：强效幻影，巧言术
+敏锐嗅觉。巨人在依靠嗅觉的感知（察觉）检定上有优势。
+动作
+多重攻击。巨人进行两次晨星攻击。
+晨星。近战武器攻击：命中+12，触及10尺，单一目标。命中：21（3d8+8）钝击伤害。如果巨人在攻击检定上有优势，攻击造成额外14（4d6）伤害。
+投石。远程武器攻击：命中+12，射程60/240尺，单一目标。命中：30（4d10+8）钝击伤害。如果巨人在攻击检定上有优势，攻击造成额外14（4d6）伤害。
+变化形体。巨人如魔法般变形成它看到的野兽或者类人生物，或者回到它的真实形态。巨人穿着或携带的任何装备都会被新形态吸收。它的数据，除了它的体形外，在每种形态下都是相同的。如果它死了，它变回其真实形态。</t>
+  </si>
+  <si>
+    <t>火巨人无畏者:简述</t>
+  </si>
+  <si>
+    <t>火巨人无畏者 Fire Giant Dreadnought
+火巨人的序位不仅强调力量，而且也强调锻造技巧。铸造厂是任何火巨人群体的核心。它是合为一体的神殿，学校，试验场与政治中心。
+那些有力气但是没什么脑子的人通常被吩咐去做例如锻造风箱或者搬运煤炭之类最低微的工作。然而，它们中最强壮的人可以赢得独有的地位阶级：无畏者。
+战争兵器。无畏者是挥舞着两面如同犁刀般巨盾的强大火巨人。这些盾牌在它们的表面安装着尖刺，其中空的内部被无畏者倾入了炽热的煤炭，作为首个危险的标记。装备着两面盾牌，无畏者可以朝着任何攻击者竖起一堵热焰之墙。当无畏者结束战斗时，通常敌人剩下的只是地面上一点冒烟的污迹。</t>
+  </si>
+  <si>
+    <t>火巨人无畏者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火巨人无畏者 Fire Giant Dreadnought
+巨型巨人（火巨人），守序邪恶 
+AC 21（板甲，盾牌） 
+HP 187（15d12+90）
+速度 30尺
+力量27（+8），敏捷9（-1），体质23（+6） 
+智力8（-1），感知10（+0），魅力11（+0）
+豁免 敏捷+4，体质+11，魅力+5
+技能 运动+13，察觉+5
+伤害免疫 火焰
+感官 被动察觉15
+语言 巨人语
+挑战等级 14（11500XP）
+双重盾牌。巨人携带着两面盾牌，每一面都计入了巨人的AC中。巨人必须扔下或丢弃它的一面盾牌来投掷岩石。
+动作
+多重攻击。巨人进行两次炎盾攻击。
+炎盾。近战武器攻击：+13命中，触及5尺，单一目标。命中：22（4d6+8）钝击伤害加7（2d6）火焰伤害加7（2d6）穿刺伤害。
+投石。远程武器攻击：命中+13，射程60/240尺，单一目标。命中：30（4d10+8）钝击伤害。
+坚盾冲锋。巨人在一条直线上移动30尺并能穿过任何小于巨型的生物的空间。在这次移动中它首次进入一个生物的空间时，能对这个生物进行一次炎盾攻击。如果攻击命中，目标必须成功通过一次DC21的力量豁免，或在这个行动的剩余部分被撞到巨人面前。如果目标在这次检定中失败了5点或者更多，他将被击倒并受到18（3d6+8）钝击伤害，如果它已经处于倒地，改为受到29（6d6+8）钝击伤害。 </t>
+  </si>
+  <si>
+    <t>霜巨人永恒者:简述</t>
+  </si>
+  <si>
+    <t>霜巨人永恒者 Frost Giant Everlasting One
+要维持它的地位或者在序位中晋升，一名霜巨人必须经常在单挑中面对强大的敌人。一些人寻求魔法以帮助它们，但是魔法物品能被夺走或者丢失。真正的强大依赖于自身的力量。面对这个真理，一名霜巨人可能会去谋求来自毁灭者瓦普拉克的神之馈赠。
+吞噬巨魔者。出于绝望，霜巨人主要转向于瓦普拉克，一位被食人魔和巨魔崇拜的强大又饥饿的贪婪神祇。瓦普拉克喜欢以荣耀的幻梦引诱霜巨人，其次是自相残杀的血腥噩梦。那些不会因为这样的梦而退缩或者报告给它们的索列姆牧师的人会承受更多同样的。如果一名霜巨人来享受起这些梦境与噩梦，像某些人一样，瓦普拉克会安排一只巨魔进行寻找这名霜巨人并与之秘密见面的宗教任务。这只巨魔提供了自己的身体，以瓦普拉克的名义啃噬吃下。只有最勇敢和最坚定的霜巨人能吃完这血淋淋的盛宴。
+瓦普拉克的祝福。吃完这只瓦普拉克派来的巨魔的骨头及一切后，一名霜巨人成为一名永恒者，获得了惊人的力量，暴躁的脾气，以及巨魔的再生能力。依靠这些馈赠，这名霜巨人可以迅速要求得到首领称号并在几十年内内轻易对付竞争者。然而，如果这名霜巨人没有给予瓦普拉克足够的敬意或者没有理会瓦普拉克的梦景，这霜巨人的伤处将长期难以治愈，时常导致皮肤变色，瘤状伤痕，以及身体部位退化，例如额外的手指，肢体，甚至额外的头颅。与瓦普拉克的接触将不能再被隐瞒，永恒者要么被杀死，要么被从它的氏族中流放。有时永恒者的小群体会聚在一起甚至繁衍起来，将“祝福”和对瓦普拉克的崇拜从一代传到下一代。</t>
+  </si>
+  <si>
+    <t>霜巨人永恒者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霜巨人永恒者 Frost Giant Everlasting One
+巨型巨人（霜巨人），混乱邪恶 
+AC 15（拼凑甲） 
+HP 189（4d12+98）
+速度 40尺
+力量25（+7），敏捷9（-1），体质24（+7） 
+智力9（-1），感知10（+0），魅力12（+1）
+豁免 力量+11，体质+11，感知+4
+技能 运动+11，察觉+4
+伤害免疫 寒冷
+感官 黑暗视觉60尺，被动察觉14
+语言 巨人语
+挑战等级 12（8400XP）
+额外头颅。巨人有25%的概率拥有一个以上的头颅。如果有多个头颅，它在感知（察觉）检定和在目盲，耳聋，恐慌，震慑和昏迷的豁免上有优势。
+再生。巨人在它的回合开始时回复10点生命值。如果巨人受到强酸或者火焰伤害，这个特性在下一回合开始时不起作用。只有在它0生命值时开始回合并且无法再生时，巨人才会死亡。
+瓦普拉克之怒（在短休息或者长休息后充能）。以一个附赠动作，巨人可以在它的回合开始时进入狂怒。狂怒持续1分钟或者直到巨人失能。在狂怒时，巨人获得以下好处：
+·巨人在力量检定和力量豁免上有优势
+·当它进行近战武器攻击时，巨人在伤害检定上获得+4加值
+·巨人得到钝击，穿刺和挥砍抗力。
+动作
+多重攻击。巨人用它的巨斧进行两次攻击。
+巨斧。近战武器攻击：命中+11，触及10尺，单一目标。命中：26（3d12+7）挥砍伤害，或者在狂怒时的30（3d12+11）挥砍伤害。
+投石。远程武器攻击：命中+11，射程60/240尺，单一目标。命中：29（4d10+7）钝击伤害。 </t>
+  </si>
+  <si>
+    <t>格洛兰托之口:简述</t>
+  </si>
+  <si>
+    <t>格洛兰托之口 Mouth of Grolantor
+山丘巨人知道各种各样的食物能让它们长胖，也知道用力过头会使它们变瘦。这些懒惰的粗鲁者不能理解的是那些让它们生病的东西。它们吞吃变质的食物和患病的尸体，就像小孩子吃甜点一样热情。山丘巨人幸运的是，它们有着秃鹫的体质以及很少有这样的饮食习惯。当它们的同族一员生病并且无法继续进食时，这对它们来说就更加神秘了。呕吐的山丘巨人被视为受到格洛兰托的启示之人。
+氏族将生病的巨人与其他巨人分离开，通常是把这名巨人关在笼子里或者把它拴在柱子上。一位格洛兰托的牧师或者氏族首领每天都会探望这名受饿的巨人，试图从这名山丘巨人干呕出的胆汁坑中读出预兆。如果疾病很快就过去了，这名山丘巨人能够重返群体。不然，这名山丘巨人反而将会饥饿到疯狂的临界点，以至格洛兰托的饥渴在这个世界上得到一处宣泄口。
+饥饿与疯狂。格洛兰托之口是非常耻辱的，它不再是一个人，而是成为一件物品。荒谬的是，这件物品被尊为格洛兰托之不朽，痛苦的饥饿——的神圣化身。不像一名典型的笨重，懒散，半睡半醒的山丘巨人，一名格洛兰托之口瘦得像只惠比特犬，警觉得像只鸟，并且不断在边界抽搐着。一名格洛兰托之口永远都保持着被囚禁或者束缚的状态；如果它打破拘束自由了，在它停下脚步或者在杀戮狂欢中跑远之前，它一定会杀死几名山丘巨人。唯一一次让格洛兰托之口自由是在战争期间，突袭敌人的聚居处，或者作为氏族驻地最后的防线。当格洛兰托之口已经杀光并吃够了它的氏族的敌人时，它从受害者血淋淋的残骸中走出，使它很容易被重新捕获。</t>
+  </si>
+  <si>
+    <t>格洛兰托之口</t>
+  </si>
+  <si>
+    <t>格洛兰托之口 Mouth of Grolantor
+巨型巨人（山丘巨人），混乱邪恶 
+AC 14（天生护甲） 
+HP 105（10d12+40） 
+速度 50尺 
+力量21（+5），敏捷10（+0），体质18（+4） 
+智力5（-3），感知7（-2），魅力5（-3）
+技能 察觉+1
+状态免疫 恐慌 
+感官 被动察觉11
+语言 巨人语
+挑战等级 6（2300XP）
+疯狂之口。巨人免疫困惑术以及类似法术。
+在它的每个回合，巨人使用它全部的移动力向最近的生物或者任何它可能视为食物的东西移动。在巨人回合开始时投掷一次d10以确定它的行动：
+    1-3。巨人用它的拳头对它触及范围内的随机一个目标进行三次攻击。如果没有其他生物在其触及范围内，巨人迅速进入狂怒并在所有攻击检定上获得优势，直到它的下个回合结束。
+    4-5。巨人用它的拳头对它触及范围内的所有生物都进行一次攻击。如果没有其他生物在其触及范围内，巨人对自己进行一次拳击攻击。
+    6-7。巨人用它的啮咬对它触及范围内的随机一个目标进行一次攻击。如果没有其他生物在其触及范围内，它的眼睛变得呆滞，并且它陷入震慑状态，直到它的下个回合开始。
+    8-10。巨人对它触及范围内的随机一个目标进行三次攻击：一次啮咬，两次拳击。如果没有其他生物在其触及范围内，巨人迅速进入狂怒并在所有攻击检定上获得优势，直到它的下个回合结束。
+动作
+啮咬。近战武器攻击：命中+8，触及5尺，单一目标。命中：15（3d6+5）穿刺伤害，巨人如魔法般恢复等同于伤害的生命值。
+拳击。近战武器攻击：命中+8，触及10尺，单一目标。命中：18（3d8+5）钝击伤害。</t>
+  </si>
+  <si>
+    <t>石巨人梦行者:简述</t>
+  </si>
+  <si>
+    <t>石巨人梦行者 Stone Giant Dreamwalker
+对石巨人而言，地表世界是一个陌生的世界：千变万化，须臾即逝，任风吹雨打。它如梦般多变，这就是它们如何看待它的方式——作为梦境。因无永恒之物，亦无真实之物。在地表发生什么并不重要。承诺和协议也无需兑现。在那，生命乃至艺术并无多少价值。
+梦境住民。石巨人有时会在地表世界进行梦境探索，寻求它们艺术的灵感，打破数十年来的无聊，或者只是出于好奇。有些人进行着这些探索使得自己迷失在梦中。其他石巨人被放逐到地表作为惩罚。无论如何，如果它们不在石下安身，这样的人就能成为梦行者。
+梦行者在石巨人的序位中占据一个奇怪的地位。它们被视作被抛弃者，但它们对地表世界的熟悉使它们成为了有价值的引导者，它们的见解能够帮助其他石巨人了解梦中生活的危险。
+疯狂流浪者。 梦行者被孤独，耻辱，以及它们无止境的陌生环境弄得疯狂，这样的疯狂寄生进了它们周围的世界，影响了其他靠得太近的生物。相信它们生活在一片梦境中，它们的行为没有真正的后果，梦行者随意乱来，成为混乱的力量。当它们漫游世界时，它们收集在它们疯狂的心看来特别重要的物品和生物。随着时间的推移，这些收集的东西附着在它们身上，成为石头上的包装。</t>
+  </si>
+  <si>
+    <t>石巨人梦行者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石巨人梦行者 Stone Giant Dreamwalker
+巨型巨人（石巨人），混乱中立 
+AC 18（天生护甲）
+HP 161（14d12+10）
+速度 40尺 
+力量23（+6），敏捷14（+2），体质21（+5）
+智力10（+0），感知8（-1），魅力12（+1）
+豁免 敏捷+6，体质+9，感知+3
+技能 运动+14，察觉+3
+状态免疫 魅惑，恐慌
+感官 黑暗视觉60尺，被动察觉13
+语言 通用语，巨人语
+挑战等级 10（5900XP）
+梦行者之惑。如果巨人没有失能，在距离巨人30尺内开始回合的敌人必须进行一次DC13的魅力豁免。如果豁免失败，该生物被巨人魅惑。以此方式被魅惑的生物可以在它的每个回合开始时重复豁免，成功则结束对自己的影响。一旦它在豁免上成功，该生物在24小时内免疫这名巨人的梦行者之惑。
+动作
+多重攻击。巨人用它的巨木棒进行两次攻击。
+巨木棒。近战武器攻击：命中+10，触及15尺，单一目标。命中：19（3d8+6）钝击伤害。
+石化之触。巨人触碰一名距离它10尺内的被它魅惑的中型或者更小的生物。目标必须通过DC17的体质豁免。若豁免失败，目标陷入石化，并且巨人能够粘附住目标被石化的身体。高等复原术或其他能够解除石化的法术对在石巨人身上的石化生物无效，除非巨人已经死亡，在这种情况下，法术正常起效，使被石化的生物摆脱石化并结束其石化状态。
+投石。远程武器攻击：命中+10，射程60/240尺，单一目标。命中：28（4d10+6）钝击伤害，如果目标是一个生物，它必须成功通过一次DC17的力量豁免否则被击倒。 
+</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者:简述</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者 Storm Giant Quintessent
+为了阻止必然之事，一些风暴巨人在它们的自然生命的尽头逼近时寻求逃离死亡之法。它们将它们与元素的强大连接将至最低点，并把自己散入大自然中，真正化作半清醒的风暴。一座山峰周围无休止肆虐地暴风雪，一处偏远岛屿附近转动的漩涡，或者一条崎岖海岸线上不停咆哮的雷暴雨，实际上，是一名成为永恒形态的风暴巨人依附的存在实体。 
+元素武器。一名风暴巨人升华者脱下了它的盔甲和武器，但是获得了凭空生成临时武器的能力。当巨人不再使用它们，或者当巨人死亡时，它的元素武器消失。
+被弃之形。一名风暴巨人在它心血来潮时可以回到它真正的巨人形态。这种变化是暂时的，但是可以持续足够长的时间，例如在这名巨人与凡人交流，完成一个简短的工作，或者迎击侵略者以捍卫其家园时。</t>
+  </si>
+  <si>
+    <t>升华者的巢穴</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者的巢穴</t>
+  </si>
+  <si>
+    <t>升华者的巢穴
+一名风暴巨人升华者不需要例如城堡或者地下城之类的巢穴。它的巢穴通常是一处偏僻之地或者著名的地理特征，诸如一座山峰，一片大瀑布，一座偏远岛屿，一处大雾笼罩的湖泊，一处美丽的珊瑚礁，或者一处暴风呼啸的沙漠悬崖。只要环境合适，生活在其中的风暴巨人可能是一场暴风雪，一场台风，一场雷暴，或者一场沙尘暴。
+巢穴动作。风暴巨人可以在巨人形态或者转化为风暴时使用巢穴动作。先攻检定取值20（不涉及先攻关系），巨人可以用巢穴动作造成下列效果之一；巨人不能连续两轮使用同样的效果：
+·巨人以其巢穴中的任何一点为中心生成一次雷鸣。距离该点20尺内的每个生物都必须成功通过一个DC18的体质豁免否则耳聋到它的下一回合结束。
+·巨人以其巢穴的任何一点为中心创造一个半径20尺的雾气球体（在水中则为浊水）。球体会扩散到角落里，它覆盖的区域被严重遮蔽。雾气持续到巨人驱散它（无需动作），它不能被风吹散。
+·巨人从其巢穴的任何一点为起点生成一道60尺长，10尺宽的线形强风（在水中则为强电流），这条线上的每个生物都必须成功通过DC18的力量豁免，否则在风吹的方向上被推开15尺。这阵风吹散气体或者蒸汽，并吹熄范围内的蜡烛，火把以及其他类似的未受保护的火焰。受保护的火焰，例如灯笼，有50%概率被熄灭。
+区域效果。包含一处风暴巨人升华者的巢穴的地区被巨人的存在所扭曲，这产生了一个或多个下列效果：
+·距离巢穴1英里范围内吹着大风，除非生火的位置受到风的保护，否则无法生起。
+·距离巢穴1英里范围内持续着降雨，降雪，或者扬尘或扬沙（最合适的）。雨使得江河与溪流水满或者溢出河岸；雪，灰尘或者沙粒形成厚堆或者沙丘。
+·距离巢穴5英里范围内耀眼的闪电和隆隆的雷鸣日日夜夜从不停歇。
+如果巨人死亡，闪电，雷鸣和强风区域效果立即结束。降雨，降雪，以及扬尘在1d8天内逐渐减弱。</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者
+巨型巨人（风暴巨人），混乱善良
+AC 12
+HP 230（20d12+100）
+速度 50尺，飞行50尺（悬浮），游泳50尺
+力量29（+9），敏捷14（+2），体质20（+5）
+智力17（+3），感知20（+5），魅力19（+4）
+豁免 力量+14，体质+10，感知+10，魅力+9
+技能 奥秘+8，历史+8，察觉+10
+伤害抗力 寒冷；来自非魔法攻击的钝击，挥砍和穿刺
+伤害免疫 闪电，雷鸣
+感官 真实视觉60尺，被动察觉20
+语言 通用语，巨人语
+挑战等级 16（15000XP）
+两栖。巨人可以在空气和水中呼吸。
+动作
+多重攻击。巨人进行两次闪电之剑攻击或者使用两次风之投枪。
+闪电之剑。近战武器攻击：命中+14，触及15尺，单一目标。命中：40（9d6+9）闪电伤害。
+风之投枪。巨人将风汇聚成标枪般的形态，并将其投向位于600尺内它能看到的一个生物。标枪被视作魔法武器，并对目标造成19（3d6+9）穿刺伤害，必定命中。标枪在它命中后消失。
+传奇动作
+巨人可进行3个传奇动作，从下列选项中选择。一次只能使用一个传奇动作选项，并且只能在另一个生物的回合结束时使用，巨人在其回合开始时恢复其消耗的传奇动作。
+烈风骤起。巨人瞄准位于60尺内它能看到的一个生物，并在它身边创造一道魔法阵风。目标必须成功通过一个DC18的力量豁免否则朝巨人选择的任何水平方向上被推开20尺。
+狂雷突降（2个动作）。巨人朝位于600尺内它能看到的一个生物投出一道雷电。目标必须进行一个DC18的敏捷豁免，豁免失败受到22（4d10）雷鸣伤害，成功则受一半伤害。
+风暴合一（3个动作）。巨人消失，自身散入其巢穴周围的风暴中。巨人可以在任何它的回合开始时结束这个效果，再次成为一名巨人并出现在它所选择的其巢穴的任何位置。在分散期间，除了巢穴动作外巨人不能进行任何动作，它不能成为攻击，法术，或者其他效果的目标。巨人不能在它的巢穴外使用该能力，如果别的生物使用了操控天气法术或者类似的法术来平息风暴，巨人也不能使用该能力。</t>
+  </si>
+  <si>
+    <t>深渊子嗣:简述</t>
+  </si>
+  <si>
+    <t>深渊子嗣 Deep Scion
+深渊子嗣的生命开始于那些被从海难或从沉船救出的人，并提供了一个可怕的讨价还价的深海力量: 投降并献出身体和灵魂，或被淹死。那些屈服的人要接受一种古老的仪式，这种仪式在邪恶的水生生物中广泛存在。它的方法是痛苦的，结果永远不会确定，但当它起作用的时候，神奇的把一个呼吸空气的人变成了一个可以在海浪下完全自由行动的形态。
+深海来的间谍。一个深渊子嗣从深处出现，为它的水下主人服务，这可能是北海巨妖或其他远古深海生物。 虽然戴着它曾经是的人的思想和身体的面具，这种生物内心深处满是满足它主人的愿望。 有时一个深渊子嗣回到它的故乡，受到英雄般的欢迎——人们意外地发现当所有的希望都失去时它还活着。在其他时候，这个深渊子嗣会有一个新的身份。无论如何，这个深渊子嗣的职责就是潜入呼吸空气的世界，并向它的主人汇报情况。 一旦开始它的任务，一个深渊子嗣会像蠕虫般悄然进入毫无防备的敌人的生活，作为一个新的最好的朋友，一个不可抗拒的爱人，一个完美的工作候选人，或者其他一些角色，从而能够执行它主人的命令。
+冷血杀手。 一个深渊子嗣所受的训练，使它对它所监视的人失去了同情心。 尽管它可能表现得像是被迷住了，被朋友的玩笑逗乐了，或者被不公正激怒了，但这些行为对于深渊子嗣来说都是刻意人为的，是为达到目的手段。它相信它的真实形态，是它回到它认为是家的海洋时所呈现的形态。然而讽刺的是，当一个深渊子嗣以鱼的形态被杀死时，剥夺了它情感的魔法失去了，留下了只是曾经人类形态的尸体。如果你遇到一个散发着鱼腥味的人，他有可能是一个深渊子嗣。</t>
+  </si>
+  <si>
+    <t>深渊子嗣</t>
+  </si>
+  <si>
+    <t>深渊子嗣 Deep Scion
+中型类人（变形生物），中立邪恶
+AC 11
+HP 67（9d8+27）
+速度 30尺（混合形态下为20尺，外加40尺游泳速度）
+力量 18（+4）敏捷13（+1） 体质16（+3）
+智力10（+0） 感知12（+1） 魅力14（+2）
+豁免：感知+3，魅力+4
+技能：欺骗+6，洞悉+3，巧手+3，隐匿+3
+感官：黑暗视觉120尺，被动察觉11
+语言：深渊语，通用语，
+挑战等级：3（700xp）
+变形者：深渊子嗣可以利用其动作变形，变成一个人-鱼的混合形态，或回到它的真实形态。它的数据，除了速度以外，在每一种形态下都是相同的。此外，它的任何装备或携带的物品都不会随之变化。如果深渊子嗣死了，它恢复到其真实形态。
+两栖（仅限混合形态）：深渊子嗣可以在水中或空气中呼吸。
+动作Actions
+多重攻击。在人形形态下，深渊子嗣会进行两次巨斧攻击。在混合形态下，深渊子嗣造成三次攻击。一次啃咬，两次爪击。
+战斧（限人形形态）。近战武器攻击：+6命中，触及5尺，一个目标。命中：8（1d8+4）挥砍伤害，或9（1d10+4）挥砍伤害（如果用双手攻击）。
+啃咬（限混合形态）。近战武器攻击：+6命中，触及5尺，一个生物。命中：6（1d4+ 4）穿刺伤害。
+爪击（限混合形态）。近战武器攻击：+6命中，触及5尺，一个目标。命中：7（1d6 + 4）挥砍伤害。
+心灵尖啸（限混合形式；短或长休后充能）。深渊子嗣发出可怕的尖叫声，300尺以内都能听到。深渊子嗣30尺以内的生物必须通过DC13的感知豁免，否则震慑直到深渊子嗣的下一回合结束。在水中，心灵尖啸也能如心灵感应般传送其24小时内的记忆，无论距离远近，只要它和目标位于同一个水域中即可。</t>
+  </si>
+  <si>
+    <t>火蝾螈人:简述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火蝾螈人 Firenewts
+在包含有温泉，火山，或类似的温热与潮湿并存的环境条件的地区，或许能找到火蝾螈人存在的踪迹。这些人形的两栖动物生活在一个狂热地崇敬火元素破坏面的军国主义神权政治国家之中。
+炎热探寻者。火蝾螈人需要热水来生活并繁殖。一个火蝾螈人如果离开了湿热的源头超过一周将会在精神和肉体上变得惫怠。长期缺乏热度可以使一个火蝾螈人社会陷入停滞，使他们纷纷进入类似冬眠的状态，并且他们的卵也会停止孵化。
+火蝾螈人们会深入挖掘地表上的灼热源头，例如沸腾的泥浆或者是温泉，对于他们而言这些地方是理想的定居地点。通过对这片区域的发掘和开采，他们做出可以居住的空间并且得到充足的矿物供应用于各种方面，例如熔炼、锻造和炼金学。在火蝾螈人的巢穴中有渠道和闸门组成的网络保证热流循环。
+火蝾螈人精通于有关火焰的炼金术。他们最喜欢的一种混合物是用硫磺、矿石、盐和油糊成的团状物。火蝾螈人们习惯性地咀嚼这种混合物，因为这么做会使他们内部产生愉快起来的热量并使他们能吐出一个小火球。大多数火蝾螈人会随身携带容器用于混合这种东西。
+宗教武装。火蝾螈人的社会和文化基于对邪恶火元素王子伊米希的崇拜。这种对伊米希的尊敬引导火蝾螈人变得愤怒，残酷，充满了侵略性。与伊米希签订契约的火蝾螈人邪术师通过亲身演示这种特质来教导他的同族，而一名火蝾螈人武者在战斗中能通过“火焰之主的碰触”来进入一种几乎不可阻挡的战斗狂怒。
+伊米希的邪术师命令武者通过袭击带回财富和俘虏从而证明自己的价值。邪术师们收取最好的战利品献给伊米希，剩下的则由那些参与袭击的武者论功行赏。那些看起来没有明显价值的俘虏将会被献祭给伊米希随后被吃掉。那些被认为有能力采矿或履行其他巢穴杂务的则会被保留作为奴隶直到他们遇到相同的命运之前。
+如果火蝾螈人决定战争，而非只是进行偶然而至的突袭，他们将不会保留俘虏。他们的目标不会低于把他们的敌人彻底灭绝——并且他们对其他同族保留有最大的仇恨。倘若两组火蝾螈人偶遇彼此，他们很有可能争夺同一块领土的主权，往往一场血战是最终的结果。
+巨型阔步鸟。火蝾螈人与一种可怕野兽保有亲近的联系，他们相信它们是伊米希派来的援兵——证据是这种生物能喷吐出一团火焰来消灭远方的敌人。这种被称为巨型阔步鸟的怪物同时具有鸟类和爬行动物的特征，但它们并非两者其一。火蝾螈人在他们的巢穴里为巨型阔步鸟提供住所、食物和繁殖地，并且阔步鸟们主动成为那些精英火蝾螈人士兵的坐骑。
+</t>
+  </si>
+  <si>
+    <t>火蝾螈人武者</t>
+  </si>
+  <si>
+    <t>火蝾螈人武者
+中型类人生物（火蝾螈人），中立邪恶
+AC 16（链甲衫，盾牌）
+HP 22（4d8+4）
+速度 30尺
+力量10（+0） 敏捷13（+1） 体质12（+1）
+智力7（-2） 感知11（+0） 魅力8（-1）
+伤害免疫 火焰
+感官 被动察觉10
+语言 龙语，火族语
+挑战等级 1/2（100XP）
+两栖。火蝾螈人可以在水和空气中呼吸。
+动作
+多重攻击。火蝾螈人可以用他的弯刀进行2次攻击。
+弯刀。近战武器攻击：命中+3，触及5尺，单一目标。命中：4（1d6+1）挥砍伤害。
+喷火（在短休或长休后充能）。火蝾螈人向他10尺内的一个生物喷火。生物必须进行一次DC11的敏捷豁免检定，若失败将承受9（2d8）点火焰伤害，成功则伤害减半。</t>
+  </si>
+  <si>
+    <t>巨型阔步鸟</t>
+  </si>
+  <si>
+    <t>巨型阔步鸟
+大型怪物，中立邪恶
+AC 14（天生护甲）
+HP 22（3d10+6）
+速度 50尺
+力量18（+4） 敏捷13（+1） 体质14（+2）
+智力4（-3） 感知12（+1） 魅力6（-2）
+伤害免疫 火焰
+感官 被动察觉11
+语言 —
+挑战等级 1（200XP）
+火焰吸收。每当巨型阔步鸟受到火焰伤害，它将不受到任何伤害并且恢复等于那个伤害结果一半的生命值。
+动作
+啃咬。近战武器攻击：命中+6，触及5尺，单一目标。命中：8（1d8+4）穿刺伤害。
+火焰爆发（充能5-6）。巨型阔步鸟向它60尺内可见的一点投掷出一团火焰。在以投掷点为中心10尺半径的球形区域内的每一个生物必须进行一次DC12的敏捷豁免检定，若失败将承受14（4d6）点火焰伤害，成功则伤害减半。火焰会扩散过转角，点燃范围内没有被穿戴或携带的可燃物。</t>
+  </si>
+  <si>
+    <t>火蝾螈人伊米希邪术师</t>
+  </si>
+  <si>
+    <t>火蝾螈人伊米希邪术师
+中型类人生物（火蝾螈人），中立邪恶
+AC 10（施展法师护甲时为13）
+HP 33（6d8+6）
+速度 30尺
+力量13（+1） 敏捷11（+0） 体质12（+1）
+智力9（-1） 感知11（+0） 魅力14（+2）
+伤害免疫 火焰
+感官 黑暗视觉 120尺（穿透魔法黑暗），被动察觉10
+语言 龙语，火族语
+挑战等级 1（200XP）
+两栖。火蝾螈人可以在水和空气中呼吸。
+天生施法。火蝾螈人的天生施法能力基于魅力。他可以任意施展法师护甲（只限自己）并且无需任何材料成分。
+施法。火蝾螈人是3级施法者。他的施法能力基于魅力（法术豁免DC12，法术攻击检定+4）。在他完成一次长休或短休之后被消耗的法术位会恢复。他知晓以下邪术师法术：
+戏法（随意施展）：火焰箭，神导术，光亮术，法师之手，魔法伎俩
+一环或二环法术（2个二环法术位）：燃烧之手，炽焰法球，炼狱喝斥，灼热射线
+伊米西的赐福。每当火蝾螈人把一名敌对生物的生命值下降到0点，他将获得5点临时生命。
+动作
+钉头锤。近战武器攻击：命中+3，触及5尺，单一目标。命中：5（1d8+1）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>豺狼人:简述</t>
+  </si>
+  <si>
+    <t>豺狼人 Gnolls
+一支豺狼人战团可能包含一种或多种在本节中描述的特殊种类的豺狼人。</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人:简述</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人 Flind
+作为掌控和指挥战团的角色，弗林德豺狼人是一只异常强大而恶毒的豺狼人。它挥舞着一把由耶诺古亲自灌入了强大魔力的连枷。
+一支战团只能有一只弗林德豺狼人，这生物安排战团的路线。由于它与耶诺古的特殊联系，一只弗林德豺狼人利用神赐的预兆与恶魔般的洞察力来指引豺狼人在时机成熟时向弱小的猎物进行屠杀。
+不像其他类人生物的领导者那样可能躲在他们的爪牙身后，一只弗林德豺狼人在战斗中身先士卒。被它击中的人因为它连枷的缘故会遭受剧痛，麻痹，以及迷惑。</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人 Flind
+中型类人生物（豺狼人），混乱邪恶
+AC 16（链甲）
+HP 127（15d8+60）
+速度 30尺
+力量20（+5），敏捷10（+0），体质19（+4），智力11（+0），感知13（+1），魅力12（+1）
+豁免 体质+8，感知+5
+技能 威吓+5，察觉+5
+感官 黑暗视觉60尺，被动察觉15
+语言 豺狼人语，深渊语
+挑战等级 9（5000XP）
+嗜血光环。如果弗林德豺狼人没有失能，在距离弗林德豺狼人10尺范围内的任何拥有横冲直撞特性的生物能够以一个附赠动作进行一次啮咬攻击。
+动作
+多重攻击。弗林德豺狼人进行三次攻击：用每种不同的连枷攻击一次或者三次长弓。
+疯狂连枷。近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d10+5）钝击伤害，并且目标必须进行一次DC16的感知豁免。豁免失败，目标必须在它的下一回合中对它触及范围内随机一个目标进行一次近战攻击。如果在它移动后没有目标在它的触及范围内，它失去它这回合的动作。 
+痛苦连枷。 近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d10+5）钝击伤害加上22（4d10）心灵伤害。 
+麻痹连枷。近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d10+5）钝击伤害，目标必须成功通过DC16的体质豁免否则麻痹直到它的下一回合结束。 
+长弓。远程武器攻击：命中+4，射程150/600尺，单一目标。命中：4（1d8）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者:简述</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者 Gnoll Flesh Gnawer
+如果有任何一群豺狼人能够说是比其他同类更加凶悍，那份荣誉大概会属于食腐者。这些豺狼人避免使用远程武器，取而代之的是它们挥舞短剑时的速度与效率。在战斗白热化时，它们能够冲过战场，朝它们撞倒的掉队者又砍又吼，并杀光吃掉受伤的敌人。</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者 Gnoll Flesh Gnawer 
+中型类人生物（豺狼人），混乱邪恶 
+AC 14（镶嵌皮甲） 
+HP 22（4d8+4） 
+速度 30尺
+力量12（+1），敏捷14（+2），体质12（+1） 
+智力8（-1），感知10（+0），魅力8（-1）
+豁免 敏捷+4
+感官 黑暗视觉60尺，被动察觉10
+语言 豺狼人语
+挑战等级 1（200XP）
+横冲直撞。当豺狼人在它的回合以一次近战攻击使一个生物降为0生命值时，豺狼人能以一个附赠动作进行半速移动以及进行一次啮咬攻击。
+动作
+多重攻击。豺狼人进行三次攻击：一次啮咬和两次短剑。
+啮咬。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+短剑。近战武器攻击：命中+4，触及5尺，单一目标。命中：5（1d6+2）穿刺伤害。
+急速冲刺。直到回合结束，豺狼人的速度增加60尺，并且它不会引发借机攻击。</t>
+  </si>
+  <si>
+    <t>豺狼人猎手:简述</t>
+  </si>
+  <si>
+    <t>豺狼人猎手 Gnoll Hunter
+在战团中，猎手是最隐秘的豺狼人，它们把它们的天赋应用在战场上的许多方面。作为战团的先锋，猎手在四周匍匐行进，在为其余的部队行进踏平敌人的领土时除掉单独的抵抗者。
+猎人特别熟练于长弓，它们射出满载恶意的钩头箭。即使猎手的第一箭没有杀死目标，这箭的攻击带来了偌大的痛苦以至于受害者只能在它试图逃跑时一瘸一拐地行走。当猎手在潜行中寻找猎物并且不担心维持隐匿时，它会吹响一只骨制号角产生一阵类似女妖之嚎的哀哭号叫。</t>
+  </si>
+  <si>
+    <t>豺狼人猎手</t>
+  </si>
+  <si>
+    <t>豺狼人猎手 Gnoll Hunter
+中型类人生物（豺狼人），混乱邪恶
+AC 13（皮甲）
+HP 22（4d8+4）
+速度 30尺
+力量14（+2），敏捷14（+2），体质12（+1）
+智力8（-1），感知12（+1），魅力8（-1）
+技能 察觉+3，隐匿+4
+感官 黑暗视觉60尺，被动察觉13
+语言 豺狼人语
+挑战等级 1/2（100XP）
+横冲直撞。当豺狼人在它的回合以一次近战攻击使一个生物降为0生命值时，豺狼人能以一个附赠动作进行半速移动以及进行一次啮咬攻击。
+动作
+多重攻击。豺狼人用矛进行两次近战武器攻击或者用长弓进行两次远程攻击。
+啮咬。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+矛。近战或者远程武器攻击：命中+4，触及5尺，或者射程20/60尺，单一目标。命中：5（1d6+2）穿刺伤害或者当它使用双手进行一次近战攻击时的6（1d8+2）穿刺伤害。
+长弓。远程武器攻击：命中+4，射程150/600尺，单一目标。命中：6（1d8+2）穿刺伤害，并且目标的速度降低10尺直到它的下一回合结束。</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者:简述</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者 Gnoll Witherling
+有时豺狼人互相敌对，也许是要决定谁掌控战团或者是因为极度的饥饿。即使在一般情况下，豺狼人成为被剥夺的受害者时间太久而无法控制自己的饥饿与暴虐冲动。最后，它们互相残杀。
+幸存者狼吞虎咽地吃光它们被杀同伴的肉体，但保留了骨骸。然后，通过祈求耶诺古的仪式，它们将遗骨以一只豺狼人凋零者的形态变回活着时的外表。
+凋零者的行为就像一只活着的豺狼人，与它们的同伴同行并试图杀死它们道路上的任何东西。它们不吃东西也不受饥饿的驱使，留下更多的肉给战团中其余的人。豺狼人凋零者不能使用比简单的木棒更复杂的武器。
+不死本质。一只豺狼人凋零者不需要空气，食物，水，或者睡眠。</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者 Gnoll Witherling
+中型不死生物，混乱邪恶
+AC 12（天生护甲）
+HP 11（2d8+2）
+速度 30尺
+力量14（+2），敏捷8（-1），体质12（+1）
+智力5（-3），感知5（-3），魅力5（-3）
+伤害免疫 毒素
+状态免疫 力竭，中毒
+感官 黑暗视觉60尺，被动察觉7
+语言 懂豺狼人语但是不会说
+挑战等级 1/4（50XP）
+横冲直撞。当凋零者在它的回合以一次近战攻击使一个生物降为0生命值时，豺狼人能以一个附赠动作进行半速移动以及进行一次啮咬攻击。
+动作
+多重攻击。凋零者进行两次攻击：一次啮咬和一次木棒，或者两次木棒。
+啮咬。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+木棒。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）钝击伤害。
+反应
+报复打击。在距离凋零者30尺范围内回应一只豺狼人被减少到0生命值，凋零者进行一次近战攻击。</t>
+  </si>
+  <si>
+    <t>格龙蛙人:简述</t>
+  </si>
+  <si>
+    <t>格龙蛙人 Grungs
+格龙蛙人是一个生活在雨林和热带森林中好斗蛙型类人生物，它们有很强的领地意识且总觉得自己优于其他生物。
+树栖两栖动物（Tree-Dwelling Amphibians）：格龙蛙人世代居住在树上，尤其偏好树荫处。一只格龙蛙人通常在守卫森严的地平面池塘孵化，经过约3个月左右的孵化，一只格龙蛙人蝌蚪变态发育后变成成体状态。它还要生长六到9个月才能成长为一只年轻格龙蛙人并逐渐发育成熟。
+等级和颜色（Castes and Colors.）：格龙蛙人的社会是一个等级森严的系统。每种阶级都会在单独的孵化池产卵。孵化出年青的格龙蛙人随即加入他们的阶层。每个格龙蛙人出生后体色都是灰绿色的，但随着他们成长为成体，它们都会有自己的等级颜色。
+绿色的格龙蛙人通常是部落的战士、猎人及劳动者，而蓝色的格龙蛙人通常是工匠或是为其他格龙蛙人的仆役；监督和指挥团体则是由紫色格龙蛙人组成，它们通常是作为管理者和指挥官。（这些格龙蛙人使用图鉴里格龙蛙人模块，来代表绿色、蓝色和紫色种姓的成员）
+红色格龙蛙人通常是部落里的学者和施法者，它们作为绿色、蓝色和紫色种姓格龙蛙人的上级，即使地位较高的成员都要给予它们一定的尊重。（使用图鉴里格龙蛙人外化者模块，来代表红色种姓的成员）
+高级的种姓包含如橘色格龙蛙人，那些作为部落精英武者的成员统治其他弱小的格龙蛙人，还有稀少的金色格龙蛙人，它们拥有至高的统治力，一个部落的统治者总是金色的格龙蛙人（以上格龙蛙人使用图鉴里格龙精英武者的模块，来代表橘色和金色种姓的格龙蛙人）
+格龙蛙人的种姓通常伴随其一生，在极少数情况下，一个以伟大事迹而闻名的格龙蛙人可以赢得加入更高种姓的邀请，通过草药补品和仪式魔法的结合，一个提高等级的格龙蛙人改变了颜色，并以同样的方式被引入它的新种姓，从那一刻以后，这只格龙蛙人和它的后代都是高等种姓的成员。
+天然毒性（Naturally Toxic）：格龙蛙人体表分泌一种对它们来说无害但是对其他生物有毒的分泌物。格龙蛙人会用它们的有毒分泌物来给武器涂毒。
+蓄奴者（Slavers）：格龙蛙人们经常注目着那些它们可以捕获并奴役的生物。格龙蛙人让奴隶们从事各种卑微的工作，但大多数情况下，它们只是喜欢发号施令。奴隶们被喂食轻度有毒的食物以保持昏睡和顺从，一个被这样折磨了很长一段时间的生物变成了只有其外貌的空壳，只有通过魔法才能恢复正常。
+依赖水源（Water Dependency）：如果一只格龙蛙人在一年内没有在水中浸泡至少1小时，那么它在该天结束时就会处于一级力竭状态。该格龙蛙人只能通过魔法或在水中浸泡至少1小时来恢复体力。</t>
+  </si>
+  <si>
+    <t>格龙蛙人</t>
+  </si>
+  <si>
+    <t>格龙蛙人GRUNG
+小型类人生物（格龙蛙人），守序邪恶
+AC：12
+HP：11（2d6+4）
+速度：25尺，攀爬25尺
+力量7（-2）   敏捷14（+2）   体质15（+2）智力10（+0）   感知11（+0）   魅力10（+0）
+豁免：敏捷+4
+技能：运动+2；察觉+2；隐匿+4；生存+2
+伤害免疫：毒素
+状态免疫：中毒
+感官：被动察觉12尺
+语言：格龙蛙语
+挑战等级：1/4（50 XP）
+水陆两栖 Amphibious： 格龙蛙人可以在空气和水中呼吸
+毒性皮肤 Poisonous  Skin： 任何抓取或其他原因直接触碰到格龙蛙人皮肤的生物必须成功通过DC 12的体质豁免否则在接下来一分钟内处于中毒状态，该中毒生物在不直接接触格龙蛙人的情况下在其每个回合结束时重复该豁免，如果成功则结束该毒素影响。
+站立起跳 Standing Leap： 格龙蛙人起跳时最远可以跳25尺，最高 15 尺，不需要任何助跑。
+动作
+匕首 Dagger： 近战或远程武器攻击：命中+4，触及5尺，或是射程20/60尺，单一生物。命中：4（1d4+2）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+变体：格龙蛙人毒素
+格龙蛙人的毒素会在离开其体表一分钟后失效，如果格龙蛙人死亡则毒液同样失效。
+当一个生物沾染格龙蛙人毒液会产生各种不同的附加影响，而这种影响取决于格龙蛙人的肤色。这种不良影响会持续到该生物不再被格龙蛙人毒素作用。
+绿色格龙蛙人：该中毒生物除了攀爬和做立定跳以外无法移动，如果该生物为飞行生物，则其无法完成任何动作或反应除非其着陆。
+蓝色格龙蛙人：该中毒生物必须站立着大声呼喊或是做些其他弄出巨大噪音的动作，并以此结束该回合。
+紫色格龙蛙人：该中毒生物迫切将自己浸泡在液体或泥浆中，该生物必须保持身体接触液体和泥浆，不能完成任何动作或移动。
+红色格龙蛙人：该中毒生物必须使用其动作来进食其可触范围内的食物。
+橘色格龙蛙人：该中毒生物对其队友产生恐惧。
+金色格龙蛙人：该中毒生物被魅惑并会说格龙蛙人语。</t>
+  </si>
+  <si>
+    <t>格龙蛙人精英战士</t>
+  </si>
+  <si>
+    <t>格龙蛙人精英战士 GRUNG ELITE WARRIOR
+小型类人生物（格龙蛙人），守序邪恶
+AC：13
+HP：49（9d6+18）
+速度：25尺，攀爬25尺
+力量7（-2）   敏捷16（+3）   体质15（+2） 智力10（+0）   感知11（+0）   魅力12（+1）
+豁免：敏捷+5
+技能：运动+2；察觉+2；隐匿+5；生存+2
+伤害免疫：毒素
+状态免疫：中毒
+感官：被动察觉12尺
+语言：格龙蛙语
+挑战等级：2（450 XP）
+水陆两栖 Amphibious： 格龙蛙人可以在空气和水中呼吸
+毒性皮肤 Poisonous  Skin： 任何抓取或其他原因直接触碰到格龙蛙人皮肤的生物必须成功通过DC 12的体质豁免否则在接下来一分钟内处于中毒状态，该中毒生物在不直接接触格龙蛙人的情况下在其每个回合结束时重复该豁免，如果成功则结束该毒素影响。
+站立起跳 Standing Leap： 格龙蛙人起跳时最远可以跳25尺，最高 15 尺，不需要任何助跑。
+动作
+匕首 Dagger： 近战或远程武器攻击：命中+5，触及5尺，或是射程20/60尺，单一生物。命中：5（1d4+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+短弓 Shortbow： 远程武器攻击：命中+5，射程80/320尺，单一生物。伤害6（1d6+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+迷惑唧叫 Mesmerizing  Chirr （充能6）： 格龙蛙人精英战士可以发出一种格龙蛙人免疫的唧唧叫声。任何在该格龙蛙人附近15尺，且可以听到叫声的类人生物或是野兽必须成功通过DC 12的感知豁免否则将被震慑直至格龙蛙人下个回合结束。
+变体：格龙蛙人毒素
+格龙蛙人的毒素会在离开其体表一分钟后失效，如果格龙蛙人死亡则毒液同样失效。
+当一个生物沾染格龙蛙人毒液会产生各种不同的附加影响，而这种影响取决于格龙蛙人的肤色。这种不良影响会持续到该生物不再被格龙蛙人毒素作用。
+绿色格龙蛙人：该中毒生物除了攀爬和做立定跳以外无法移动，如果该生物为飞行生物，则其无法完成任何动作或反应除非其着陆。
+蓝色格龙蛙人：该中毒生物必须站立着大声呼喊或是做些其他弄出巨大噪音的动作，并以此结束该回合。
+紫色格龙蛙人：该中毒生物迫切将自己浸泡在液体或泥浆中，该生物必须保持身体接触液体和泥浆，不能完成任何动作或移动。
+红色格龙蛙人：该中毒生物必须使用其动作来进食其可触范围内的食物。
+橘色格龙蛙人：该中毒生物对其队友产生恐惧。
+金色格龙蛙人：该中毒生物被魅惑并会说格龙蛙人语。</t>
+  </si>
+  <si>
+    <t>格龙蛙人外化者</t>
+  </si>
+  <si>
+    <t>格龙蛙人外化者 GRUNG  WILDLING
+小型类人生物（格龙蛙人），守序邪恶
+AC：13（在树肤术下16）
+HP：27（5d6+10）
+速度：25尺，攀爬25尺
+力量7（-2）   敏捷16（+3）   体质15（+2）
+智力10（+0）   感知15（+2）   魅力11（+0）
+豁免：敏捷+5
+技能：运动+2；察觉+4；隐匿+5；生存+4
+伤害免疫：毒素
+状态免疫：中毒
+感官：被动察觉14尺
+语言：格龙蛙语
+挑战等级：1（200 XP）
+水陆两栖 Amphibious：格龙蛙人可以在空气和水中呼吸
+毒性皮肤 Poisonous  Skin：任何抓取或其他原因直接触碰到格龙蛙人皮肤的生物必须成功通过DC 12的体质豁免否则在接下来一分钟内处于中毒状态，该中毒生物在不直接接触格龙蛙人的情况下在其每个回合结束时重复该豁免，如果成功则结束该毒素影响。
+施法 Spellcasting.：该格龙蛙人是9级施法者，其施法能力基于感知属性（施法豁免 DC 12,法术攻击+4命中）其知晓以下游侠法术：
+1级法术（4法术位）：疗伤术，跳跃术
+2级法术（3法术位）：树肤术，荆棘丛生
+3级法术（2法术位）：植物滋长
+站立起跳 Standing Leap：格龙蛙人起跳时最远可以跳25尺，最高 15 尺，不需要任何助跑。
+动作
+匕首 Dagger：近战或远程武器攻击：命中+5，触及5尺，或是射程20/60尺，单一生物。命中：5（1d4+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+短弓 Shortbow：远程武器攻击：命中+5，射程80/320尺，单一生物。伤害6（1d6+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+变体：格龙蛙人毒素
+格龙蛙人的毒素会在离开其体表一分钟后失效，如果格龙蛙人死亡则毒液同样失效。
+当一个生物沾染格龙蛙人毒液会产生各种不同的附加影响，而这种影响取决于格龙蛙人的肤色。这种不良影响会持续到该生物不再被格龙蛙人毒素作用。
+绿色格龙蛙人：该中毒生物除了攀爬和做立定跳以外无法移动，如果该生物为飞行生物，则其无法完成任何动作或反应除非其着陆。
+蓝色格龙蛙人：该中毒生物必须站立着大声呼喊或是做些其他弄出巨大噪音的动作，并以此结束该回合。
+紫色格龙蛙人：该中毒生物迫切将自己浸泡在液体或泥浆中，该生物必须保持身体接触液体和泥浆，不能完成任何动作或移动。
+红色格龙蛙人：该中毒生物必须使用其动作来进食其可触范围内的食物。
+橘色格龙蛙人：该中毒生物对其队友产生恐惧。
+金色格龙蛙人：该中毒生物被魅惑并会说格龙蛙人语。</t>
+  </si>
+  <si>
+    <t>狗头人:简述</t>
+  </si>
+  <si>
+    <t>狗头人 Kobolds
+一些狗头人有着由龙或者神给它们留下的恩赐，使它们能够超越它们的同族。另一些生来具有残酷的创造力，少有人能匹敌。</t>
+  </si>
+  <si>
+    <t>狗头人龙盾护卫:简述</t>
+  </si>
+  <si>
+    <t>狗头人龙盾护卫 Kobolds Dragonshield
+一名狗头人龙盾护卫是它族中的勇士。几乎所有的龙盾护卫起初都像正常的狗头人一样生活，然后被龙选中，投入大量精力来保护龙蛋，不过每隔几年就会有一只天生具有龙盾护卫能力的狗头人孵化出来。擅长于肉搏战，它身负许多来自绝望的战斗的伤痕，并佩有一面由褪下的龙鳞制成的盾牌。
+非凡的勇气。一名龙盾护卫知道它在部落中有着荣耀的地位，但在狗头人心里大多认为自己愧对于它们的地位，因此急于证明它是自己应得的。一名龙盾护卫的体内仍然存在着天生的狗头人的怯弱，因此它仍有可能会逃避威胁。但是在面临生死关头时，它也有着重整旗鼓的力量，激励其他狗头人跟随它对抗它们洞穴中的入侵者。</t>
+  </si>
+  <si>
+    <t>狗头人龙盾护卫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狗头人龙盾护卫 Kobolds Dragonshield
+小型类人生物（狗头人），守序邪恶
+AC 15（皮甲，盾牌）
+HP 44（8d6+16）
+速度 20尺
+力量12（+1），敏捷15（+2），体质14（+2）
+智力8（-1），感知9（-1），魅力10（+0）
+技能 察觉+1
+伤害抗性 见下列的龙之抗力
+感官 黑暗视觉60尺，被动察觉11
+语言 通用语，龙语
+挑战等级 1（200XP）
+龙之抗力。基于给予它力量的龙的颜色，狗头人获得对应伤害类型的抗性（选择或者投掷d10）：
+    1-2，强酸（黑）；
+    3，寒冷（白）；
+    5-6，火焰（红）；
+    7-8，闪电（蓝）；
+    9-10，毒素（绿）。
+龙之心。如果狗头人被允许豁免的效果使得陷入恐慌或者麻痹，它可以在它的回合开始时重复该豁免以结束对自己和所有距离它30尺范围内的狗头人的影响。任何从该特性中受益的狗头人（包括龙盾护卫）在下一次攻击检定上都获得优势。
+集群战术。如果狗头人有至少一个盟友在目标生物5尺范围内且非乏力，则狗头人在对该生物的攻击检定上有优势。
+日光敏感。在阳光下，狗头人在攻击检定和依靠视力的感知（观察）检定上承受劣势。
+动作
+多重攻击。狗头人进行两次近战攻击。
+矛。近战或远程武器攻击：命中+3，触及5尺，或射程20/60尺，单一目标。命中：4（1d6+1）穿刺伤害，或5（1d8+1）穿刺伤害，如果使用两只手做一次近战攻击。
+</t>
+  </si>
+  <si>
+    <t>狗头人发明家:简述</t>
+  </si>
+  <si>
+    <t>狗头人发明家 Kobold Inventor
+一名狗头人发明家狡猾又手巧，希望在战斗中获取一些优势时便会制造临时的武器。一名发明家捕捉虫子，挖出奇异的地下城泥土，以及拿走最好的赃物作为它试验的原料。它的作品有时在外观上分外滑稽，但是——就像狗头人的陷阱一样——它们的工作比它们的原材料所能达到的程度要好出许多。
+物尽其用。一件发明家的新武器在它们损坏之前只能持续一两次攻击，但在此期间可能会意外地有效。大多数发明家都足够熟悉它们的临时武器以至不会让它反伤其身，不过其他使用者可能就不会这么幸运。武器未必是致命的——在许多情况下，如果它使一个生物分心，惊恐，或者迷惑足够长的时间而让其他狗头人能够杀死这个敌人，那它的目的就达到了。在任何特定的遭遇中，一名发明家通常有一两件临时的武器在它的掌握中。</t>
+  </si>
+  <si>
+    <t>狗头人发明家</t>
+  </si>
+  <si>
+    <t>狗头人发明家 Kobold Inventor
+小型类人生物（狗头人），守序邪恶
+AC 12
+HP 13（3d6+3）
+速度 30尺
+力量7（-2），敏捷15（+2），体质12（+1）
+智力8（-1），感知7（-2），魅力8（-1）
+技能 察觉+0
+感官 黑暗视觉60尺，被动察觉10
+语言 通用语，龙语
+挑战等级 1/4（50XP）
+集群战术。如果狗头人有至少一个盟友在目标生物5尺范围内且非乏力，则狗头人在对该生物的攻击检定上有优势。
+日光敏感。在阳光下，狗头人在攻击检定和依靠视力的感知（观察）检定上承受劣势。
+动作
+匕首。近战或远程武器攻击：命中+4，触及5尺，或射程20/60尺，单一目标。命中：4（1d4+2）穿刺伤害。
+投石索。远程武器攻击：命中+4，射程30/120尺，单一目标。命中：4（1d4+2）钝击伤害。
+武器发明。狗头人使用下列选项之一（骰一个d8或者选择一个）；狗头人可以使用每种不超过每天一次：
+    1.强酸。狗头人投出一瓶强酸。远程武器攻击：命中+4，射程5/20尺，单一目标。命中：7（2d6）强酸伤害。
+    2.炽火胶。狗头人扔出一瓶炽火胶。远程武器攻击：命中+4，射程5/20尺，单一目标。命中：在每个目标的回合开始时受到2（1d4）火焰伤害。一个生物可以通过使用它的动作进行DC10的敏捷豁免检定以扑灭火焰。从而结束该伤害。
+    3.蜈蚣篮。狗头人朝它20尺内的一处5尺见方的空间抛出一个小篮子。一个拥有11点HP的昆虫（蜈蚣）集群会从篮子中主动出现。在每个集群的回合结束时，集群有50%概率分散。
+    4.绿软泥罐。狗头人朝目标扔出一个装满绿软泥的陶罐，并且它会在撞击时破裂。远程武器攻击：命中+4，射程5/20尺，单一目标。命中：目标被一片绿软泥覆盖（见DMG第5章）。打失：一块绿软泥覆盖住目标5尺距离内随机一块5尺见方的墙壁或者地板。
+    5.腐蛆罐。狗头人朝它20尺内的一块5尺见方的空间扔出一个陶罐，并且它会在撞击时破裂。一个腐蛆集群（见附录A）会从碎裂的罐中出现，并在那片空间形成威胁。
+    6.棍上蝎。狗头人把一只蝎子绑在一根5尺长的木棍顶端进行近战攻击。近战武器攻击：命中+4，触及5尺，单一目标。命中：1穿刺伤害，目标必须通过一个DC9的体质豁免检定，豁免失败受到4（1d8）毒素伤害，成功则受一半伤害。
+    7.笼中臭鼬。狗头人在它5尺内的一处未被占据的空间内放出一只臭鼬。臭鼬的基础步行速度为20尺，AC10，1点HP，无有效攻击。它会自主爬动，并在它的回合使用它的动作朝5尺内的随机一个生物喷射麝香。目标必须通过DC9的体质豁免检定。如果豁免失败，目标在1分钟内会呕吐和无法采取行动。目标可以在他的每个回合结束时重复该豁免，成功则结束其效果。不需要呼吸以及免疫毒素的生物在该豁免检定上自动成功。一旦臭鼬喷射了麝香，直到它完成一次短休息或长休息前，它不能再这么做。
+    8.袋里蜂巢。狗头人朝它20尺内的一处5尺见方的空间抛出一个小口袋。一个拥有11点HP的昆虫（黄蜂）集群会从口袋中主动出现。在每个集群的回合结束时，集群有50%概率分散。</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士:简述</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士 Kobold Scale Sorcerer
+一名狗头人鳞术士有着与生俱来的奥术天赋，有数个原因使它成为部落中极具价值的成员。因为狗头人的神祇仍被囚禁着，大部分部落缺少能够运用神术的个人，所以鳞术士充当了指引者和历史学家的角色。在和平时期，它们使用自己的法术来巩固和强化巢穴以及帮助部落休养生息。当部落受到威胁时，一名鳞术士挥舞着火焰与毒素对抗敌人，为自己节省些许法术以防需要逃跑或者利用俘虏。
+为龙尽责。在与一条龙有关联的狗头人部落中，通常有一个鳞术士居住在附近的龙巢中，作为外交官和代言人——预料到龙的需要，代表龙向其他狗头人发号施令，以及将报告的信息反馈给龙。如同普通的狗头人一样，鳞术士同样对龙充满敬畏，恭谨有加，但是它知道它的职责要求它不能在任何时候都去讨好它的主人。它也明白如果它的主人生气或者不满的话，频繁的接近龙意味着它有可能第一个死去。所以它在对龙的态度上疯狂地保持着崇拜与恐惧之间的平衡。</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士 Kobold Scale Sorcerer
+小型类人生物（狗头人），守序邪恶
+AC 15（天生护甲）
+HP 27（5d6+10）
+速度 30尺
+力量7（-2），敏捷15（+2），体质14（+2）
+智力10（+0），感知9（-1），魅力14（+2）
+技能 奥秘+2，医药+1
+感官 黑暗视觉60尺，被动察觉9
+语言 通用语，龙语
+挑战等级 1（200XP）
+施法。这只狗头人是一名3级施法者，它的施法能力基于魅力（法术豁免DC12，法术攻击加值+4）。它准备了以下术士法术：
+戏法（随意）：火焰箭，法师之手，修复术，毒气喷射
+1环（4法术位）：魅惑人类，多彩球，脚底抹油
+2环（2法术位）：灼热射线
+术法点。这只狗头人拥有3点术法点。在它完成一次长休后已消耗的术法点将全数恢复。狗头人可以在以下选项中使用术法点：
+升阶法术：当它施展一个强迫其他生物进行豁免检定以抵抗法术效果的法术时，狗头人可以消耗3个术法点，使单一目标生物对此法术的首次豁免检定获得劣势。
+精妙法术：当狗头人施展一个法术时，它可以消耗1点术法点，以忽略法术的任何语言成分或者姿势成分。
+集群战术。如果狗头人有至少一个盟友在目标生物5尺范围内且非乏力，则狗头人在对该生物的攻击检定上有优势。
+日光敏感。在阳光下，狗头人在攻击检定和依靠视力的感知（观察）检定上承受劣势。
+动作
+匕首。近战或远程武器攻击：命中+4，触及5尺，或者射程20/60尺，单一目标。命中：4（1d4+2）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>大地精:简述</t>
+  </si>
+  <si>
+    <t>大地精 Hobgoblins
+具有最残酷决心的大地精能获准进入精英组织，这些精英组织提供的特殊训练远强于服兵役所给予的。破坏学院与铁影学院便是两个这样的组织，它们的毕业生在地精的行列中是被畏惧的。</t>
+  </si>
+  <si>
+    <t>大地精破坏者:简述</t>
+  </si>
+  <si>
+    <t>大地精破坏者 Hobgoblin devastator
+在大地精的社会中，破坏学院辨认出具有魔法天赋的大地精，并使它们经由艰苦的训练计划后在主人的支持下赋予它们召唤火球与其他破坏性法术的能力。一名大地精破坏者在战场上对它的所有盟友来说都是一个福音，对它周围的每个敌人都是一种威胁。
+进入战斗。在其他的文明认为他们的法师如同隐居的学者时，大地精们期望着它们的施法者战斗。破坏者学习武器使用的基础技术，以及它们通过使用它们的法术击败敌人来估量自己的行为。
+破坏者受到其主人的其他成员的尊敬，并且它们获得来自许多方面的服从与尊重。它们使用一次单一的法术便能摧毁整个编队的能力让它们在战斗中取得的荣耀比一个单纯的战士要更多。
+其他文明可能会把这种能力的使用看作是一条通往荣耀的捷径，但是对大地精来说，魔法的馈赠作为一条强健的持剑之臂或在战略才华中是有价值和有用的。它们都是来自马格鲁比耶的恩赐，必须被培养并释放在敌人身上。
+结果为重。破坏者研究一种塑能魔法的简化形式。它们的训练缺乏理论与其他民间研究的环境。它们在战斗中熟练，但是在它们的法术工作如何及为何的细节上相对无知。
+破坏学院认为在魔法上的学术研究是软弱而无能的表现。一名战士不需要了解冶金学来使用一柄剑，那么为什么法师要关心魔法来自何处呢？破坏者喜欢通过寻找敌方施法者并消灭他们来证明它们自己在战斗中的优势。</t>
+  </si>
+  <si>
+    <t>大地精破坏者</t>
+  </si>
+  <si>
+    <t>大地精破坏者 Hobgoblin devastator
+中型类人生物（类地精），守序邪恶
+AC 13（镶嵌皮甲）
+HP 45（7d8+14）
+速度 30尺
+力量13（+1），敏捷12（+1），体质14（+2），智力16（+3），感知13（+1），魅力11（+0）
+技能 奥秘+5
+感官 黑暗视觉60尺，被动察觉11
+语言 通用语，地精语
+挑战等级 4（1100XP）
+奥秘优势。一回合一次，如果目标位于大地精盟友5尺范围内，并且盟友没有失能，那么大地精可以对被它的伤害性法术攻击命中的生物造成额外7（2d6）伤害。
+军之奥秘。当大地精施放造成伤害的法术或强迫其他生物进行豁免时，它可以选择它自己和任意数量的盟友免受法术造成的伤害，以及在所需的豁免上成功。
+施法。大地精是一名7级施法者。它的施法属性是智力（法术豁免DC13，法术攻击加值+5）。它准备了以下法师法术：
+戏法（随意）：酸液飞溅，火焰箭，寒冰射线，电爪
+1环（4法术位）：云雾术，魔法飞弹，雷鸣波
+2环（3法术位）：造风术，马友夫强酸箭，灼热射线
+3环（3法术位）：火球术，闪电束
+4环（1法术位）：冰风暴
+动作
+木杖。近战武器攻击：命中+3，触及5尺，单一目标。命中：4（1d6+1）钝击伤害，或者如果双手使用时的5（1d8+1）钝击伤害。</t>
+  </si>
+  <si>
+    <t>大地精铁影:简述</t>
+  </si>
+  <si>
+    <t>大地精忍者:简述</t>
+  </si>
+  <si>
+    <t>大地精铁影 Hobgoblin Iron Shadow
+铁影是担任秘密警察，侦察兵，以及刺客的大地精武僧。在其他大地精中，它们暗中搜寻查出背叛，谋反，和泄密。
+秘密训练。铁影招募于来自各地的大地精队伍。每个成员都对潜在的新兵睁大了她的眼睛，那些敏捷与耐力能通过对马格鲁比耶不可动摇的承诺的人。
+一名考生入场进行一系列旨在揭示任何潜在背叛的测试。失败者被杀，而那些通过者接受魔法与武术的秘密训练。这种教导是一个漫长而艰苦的过程；许多渴望者无法完成它，在这些年过去期间，铁影不欢迎新成员加入它们的行列。当新兵在训练时，它通过寻找和报告可疑行为服务于铁影。
+影与拳的大师。当新兵的训练完成后，她准备好使用徒手格斗技巧与阴影魔法的致命组合来欺骗和击败她的敌人。她继续监视其他大地精，但现在也有权进行暗杀和间谍任务，不仅针对敌人，也有大地精。这些任务由马格鲁比耶的牧师发布，它们谨慎地留意大地精的社会，以确保它的功能依照马格鲁比耶的意志所行。
+蒙面魔鬼。执行隐秘任务中的铁影戴着制作得形如魔鬼的面具，既隐藏了自己的身份，又让它们的敌人陷入恐惧之中。
+它们的面具也意味着它们的战斗技巧的起源。马格鲁比耶的牧师教导伟大者从一位大魔鬼那窃取了阴影之秘，允许他的追随者隐其真身，行于影中，以假惑人，乱其大敌。</t>
+  </si>
+  <si>
+    <t>大地精铁影</t>
+  </si>
+  <si>
+    <t>大地精忍者</t>
+  </si>
+  <si>
+    <t>大地精铁影
+中型类人生物（类地精），守序邪恶
+AC 15
+HP 32（5d8+10）
+速度 40尺
+力量14（+2），敏捷16（+3），体质15（+2）
+智力14（+2），感知15（+2），魅力11（+0）
+技能 特技+5，运动+4，隐匿+5
+感官 黑暗视觉60尺，被动察觉12
+语言 通用语 地精语
+挑战等级 2（450XP）
+施法。大地精是一名2级施法者，它的施法属性是智力（法术豁免DC12，法术攻击加值+4）。它准备了以下法师法术：
+戏法（随意）：弱效幻影，魔法伎俩，克敌机先
+1环（3法术位）：魅惑人类，易容术，脚底抹油，无声幻影
+无甲防御。当大地精没有穿戴盔甲以及没有持握盾牌时，它的AC包含感知调整值。
+动作
+多重攻击。大地精进行四次攻击，每一次都可以是一次徒手攻击或者一次飞镖攻击。它也可以使用一次暗影步，在一次攻击之前或者之后。
+徒手攻击。近战武器攻击：命中+5，触及5尺，单一目标。命中：5（1d4+3）钝击伤害。
+飞镖。远程武器攻击：命中+5，射程20/60尺，单一目标。命中：5（1d4+3）穿刺伤害。
+暗影步。大地精与它所穿戴或者携带的任何装备一道如魔法般传送到它能看见的30尺范围内一个未被占据的空间。它离开的空间和它的目的地必须处于微光或者黑暗内。</t>
+  </si>
+  <si>
+    <t>林布哥:简述</t>
+  </si>
+  <si>
+    <t>倒写地精:简述</t>
+  </si>
+  <si>
+    <t>林布哥（倒写地精） Nilbog
+当玛格鲁比耶特Maglubiyet征服了地精的众神后，他打算只留下库戈尔拜亚格Khurgorbaeyag活着，作为一个严厉的监工，让地精受他的控制。但地精的万神殿中有一个欺诈之神，他决心要笑到最后。虽然它的本体被玛格鲁比耶特粉碎，但这个欺诈之神以一种分裂的精魂形式存在，当地精成为它们的宿主时，它就会出现，除非它被驱散，否则就会在其中制造混乱。地精不知道这个神的名字，也不敢给它起名字，唯恐玛格鲁比耶特用它的名字来诱捕和粉碎它，就像他对待其他神一样。他们把拥有的精魂和被它附身的地精称为“林布哥”(倒着拼写的“哥布林goblin”（哥布林=地精）)，他们被恐惧支配，害怕林布哥会在地精大军之间蔓延扩散。
+地精的报复 Goblins' Revenge。当地精形成一个宿主时，地精有可能会被林布哥附身，特别是当地精被它的敌人虐待时。这种附身使地精变成了一个爱说俏皮话、不怕报复的顽皮生物。它给了地精一种奇怪的力量，驱使其他人做他们想做的相反的事情。攻击一个被林布哥附身的地精是鲁莽的，杀死它只会让精魂附身另一个地精。防止林布哥造成破坏的唯一方法就是善待它，给予它尊重和赞扬。
+不开玩笑 No joking Matter. 林布哥在宿主中的可能存在，导致了类地精族中产生了一种做法，即每个宿主至少包括一个地精小丑。这个小丑可以去任何地方，做任何他想做的事。小丑这一职位在精魂中很吃香，因为即使小丑显然不是林布哥，大地精和熊地精也会沉迷于它的疯狂行为。
+边栏：林布哥主义 Nilbogism
+林布哥是一种只依凭地精而存在的无形的精魂。失去了宿主，该精魂的飞行速度只有30英尺，既不会说话也不会被攻击。它所能采取的唯一行动就是试图控制一个在它5尺范围之内的地精。
+被精魂瞄准的地精必须在DC15的魅力豁免检定中获得成功，否则将被附身。当被精魂附体时，该地精的阵营变为混乱邪恶，它的魅力变为15（除非它已经大于等于15），并且它获得了林布哥的天生施法和林布哥主义的特征，以及它的命运反转能力。如果豁免成功，精魂不可在接下来的24小时内控制那个地精。如果它的主人被杀了，或者被圣居hallow、防护法阵magic circle或防护善恶protection from evil and good之类的咒语终结了，精魂就会寻找另一个地精来拥有它。精魂可以随时离开它的寄主，但除非它知道附近有另一个潜在的宿主，否则它是不会愿意离开的。一个被剥夺了林布哥精魂的地精恢复到正常的数据，并失去了它在拥有时获得的特性。</t>
+  </si>
+  <si>
+    <t>林布哥</t>
+  </si>
+  <si>
+    <t>倒写地精</t>
+  </si>
+  <si>
+    <t>林布哥 Nilbog
+小型类人生物（类地精)
+护甲等级 13（皮甲）
+生命值 7（6d6）
+速度 30尺
+力量8（-1） 敏捷14（+2） 体质10（+0）
+智力10（+0） 感知8（-1） 魅力15（+2）
+技能：隐匿+6
+感官：黑暗视觉 60ft，被动察觉 9
+语言：通用语、地精语
+挑战等级：1（200xp）
+天生施法 Innate  Spellcasting。林布哥的施法能力基于魅力（法术豁免DC12）。林布哥具有以下法术的施法能力，且不需要任何施法构材：
+任意：法师之手Mage Hand、塔莎狂笑术Tasha’s Hideous Laughter、恶毒嘲笑Vicious Mockery
+1/日：困惑术Confusion
+林布哥主义 Nilbogism。任何试图伤害林布哥的生物必须成功于 DC 12 魅力豁免检定，否则将陷入魅惑，直到该生物的下一个回合结束。以此被魅惑的生物必须用它的行动来赞美林布哥。
+林布哥不能重获生命值，包括通过魔法治疗，除非通过它的反应 逆转命运 Reversal  of  Fortune。
+迅捷逃窜 Nimble  Escape. 每回合一次，林布哥可以使用一个附赠动作，进行一次 撤离 或 躲藏 。
+行动 Actions.
+傻瓜权杖 Fool's  Scepter。近战武器攻击：+4命中，触及5尺，单一目标。
+伤害：5（1d6+2）钝击伤害。
+短弓 Shortbow。远程武器攻击：+4命中，距离 80/320尺，单一目标。
+伤害：5（1d6+2）穿刺伤害。
+反应 Reactions
+逆转命运 Reversal  of  Fortune.当另一个生物对林布哥造成伤害时，林布哥将本次伤害值降低至0 并恢复1d6生命值。</t>
+  </si>
+  <si>
+    <t>兽人:简述</t>
+  </si>
+  <si>
+    <t>兽人 Orcs
+对世上的普罗大众来说，兽人就是兽人。他们知道这些野蛮人中的任何一个都能将一个普通人撕成碎片，所以没有必要再加以区分了。
+兽人则更了解事实。一个部族里存在着不同的兽人群体，他们的行为依其侍奉的神灵而定。与各种在乡野劫掠的兽人战士相对应的是另一批终日逗留在巢穴深处部落成员，甚少看到其黑暗巢穴外的事物。
+此外，兽人与两种生物有着特殊的关系，这两种生物有时会和兽人一起出现：原牛 Aurochs 是一种大公牛，它是敬畏巴格杵 Bahgtru 的战士的坐骑；塔那罗克 Tanarukk 是恶魔和兽人的混血物种，它极其堕落且充满毁坏性，甚至兽人也会试图杀死它。原牛在附录A中描述，塔那罗克在下面描述。</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃:简述</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃 ORC BLADE OF ILNEVAL
+依那伏 Ilneval 是格乌什 Gruumsh 的战斗队长，一个狡猾的战略家，祂大胆地指挥着格乌什 Gruumsh的士兵。在兽人中，战士们会崇敬 依那伏 Ilneval ，并效仿其神灵。这些兽人学会以一种不可预料的方式指挥他们的同伴，但却有助于确保他们的胜利。
+这些领袖中最具智慧的会获得依那伏 Ilneval的恩泽，并被称为 “刃”，他们是在战争事宜上为他们的酋长提供建议的战术专家。“刃” 会在前线领导，无畏地进入战斗，同时向低阶士兵发出命令。“刃”们知道如何使兽人的凶性发挥最大作用，并帮助普通的战士合力对抗敌人。</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃 ORC BLADE OF ILNEVAL
+中型类人（兽人），混乱邪恶
+AC 18 (链甲，盾牌)
+HP 60 (8d8 + 24)
+速度30 尺
+力量    敏捷    体质
+17 (+3) 11 (+0) 17 (+3)
+智力    感知    魅力
+10 (+0) 12(+1)  14 (+2）
+豁免：感知+3
+技能：察觉 +3，洞悉+3，威吓+4
+感官：黑暗视觉 60尺 ，被动察觉13
+语言：通用语，兽人语
+挑战等级 4 (1,100 XP)
+好斗 Aggressive。作为一个附赠动作，兽?可以向?个它能看见的敌对生物移动至多相当于其速度的距离。
+依那伏破敌者 Foe Smiter of llneval。 该兽人以长剑攻击命中时造成一个额外骰子的伤害（已包含在攻击中）。
+动作
+多重攻击 Multiattack。 该兽人以长剑发动2次近战攻击或以标枪发动2次远程攻击。如果依那伏的号令可用，该兽人能在这些攻击后能使用它。
+长剑 Longsword。 近战武器攻击: 命中+5，触及 5尺 ，单一目标。伤害: 12 (2d8+3)挥砍伤害 ，双手使用时为 14 (2d10+3) 挥砍伤害。
+标枪 Javelin。 近战或远程武器攻击:命中+5 ，触及5尺或射程30/120 尺，单一目标。伤害: 6 (1d6+3)穿刺伤害。
+依那伏的号令 Ilneval's Command (充能4-6)。至多3个在该兽人120尺范围内并能听到其声音的兽人盟友能使用他们的反应各发动一次武器攻击。</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪:简述</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪 ORC CLAW OF LUTHIC
+茹赛可 Luthic是乌格什 Gruumsh的妻子，也是所有兽人的母道典范。祂是洞穴母亲，一个在黑暗中凶猛的居住者，他养育了新的兽人，使他们变得邪恶和强壮。祂的象征是洞穴熊，雌性兽人会将这些熊与兽人幼崽一起饲养。特别受茹赛可 Luthic吸引的雌性兽人会留长指甲并为它们涂漆，她们学习使用这些利爪作为武器，就像茹赛可 Luthic使用自己的一样。
+侍奉茹赛可 Luthic雌性兽人负责加强和维持兽人的据点。她们有助于保证部落的生存，而且大多数人擅长于治疗技艺。在茹赛可 Luthic的门徒中，最强大的是茹赛可之爪，它可以使用洞穴母亲的魔法来治疗、保护和诅咒。</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪 ORC CLAW OF LUTHIC
+中型类人(兽人)，混乱邪恶
+AC 14 (兽皮甲)
+HP 45 (6d8+18)
+速度 30尺
+力量    敏捷    体质
+14 (+2) 15 (+2) 16 (+3) 
+智力    感知    魅力 
+10 (+0) 15 (+2) 11 (+0) 
+技能：运动 +2，医药 +4，求生+4 
+感官：黑暗视觉60尺，被动察觉12 
+语言：通用语，兽人语 
+挑战等级2 (450 XP)
+好斗 Aggressive。作为一个附赠动作，兽人可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+施法 Spellcasting。 该兽人是5级施法者。它的施法属性是感知（法术豁免DC12，法术攻击命中+4）。该兽人准备了以下牧师法术：
+戏法（随意）:神导术 guidance，修复术 mending, 提升抗性 resistance，奇术 thaumaturgy
+1环(4法术位 ): 灾祸术 bane，疗伤术 cure wounds，光导箭 guiding bolt
+2环(3 法术位): 卜筮术 augury，守护链接 warding bond
+3环(2 法术位): 降咒术 bestow curse，造粮术 create food and water
+动作
+多重攻击 Multiattack。 该兽人发动2次爪击，其生命值少过一半时发动4次爪击。
+爪击 Claw。 近战武器攻击: 命中+4 ，触及5 尺， 单一目标。命中：6 (1d8+2)挥砍伤害。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌:简述</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌 ORC HAND OF YURTRUS
+约卓斯 Yurtrus是兽人的死亡和疾病之神。除了其完美、光滑和苍白的双手，祂是一个覆盖满腐烂和感染的可怕憎恶。
+在部族中，监督生死界线的兽人祭司被称为约卓斯之掌。它们栖息在兽人巢穴的边缘，通常是通过那些追随茹赛可 Luthic的信徒与其他兽人交流。约卓斯之掌 穿戴其他类人(最好是精灵)的漂白皮肤制成的手套，象征着他们与约卓斯 Yurtrus的联系，因此有时被称为 “白手”。
+每个兽人都知道约卓斯之掌是部族通往其先祖的大门。为部族做出贡献的兽人在死后会为其举行仪式，将他们送到格乌什 Gruumsh的国度。作为一个不说话的神的追随者，约卓斯之掌会移除其舌头来效仿他们的神灵，其原因类似于格乌什之眼 Eye of Gruumsh。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌 ORC HAND OF YURTRUS
+中型类人(兽人)，混乱邪恶
+AC 12 (兽皮甲)
+HP 30 (4d8+12)
+速度 30尺
+力量   敏捷     体质
+12(+1) 11 (+0) 16 (+3)
+智力   感知    魅力
+11(+0) 14 (+2) 9 (-1)
+技能：奥秘+2，威吓+1，医药+4， 宗教+2
+感官：黑暗视觉 60 尺， 被动察觉12 
+语言：理解通用语和兽人语但不能说。 
+挑战等级 2 (450 XP) 
+好斗Aggressive。作为一个附赠动作，兽人可以向一个它能看见的敌对生物移动至多相当于其速度的距离。 
+施法Spellcasting。 该兽人是4级施法者。它的施法属性是感知（法术豁免DC12，法术攻击命中+4）。它施展法术时不需要言语构材。该兽人准备了以下牧师法术: 
+戏法 (随意): 神导术 guidance，修复术 mending，提升抗性 resistance，奇术 thaumaturgy
+1环 (4 法术位): 灾祸术 bane， 侦测魔法 detect magic，致伤术 inflict wounds，防护善恶 protection from evil and good
+2环 (3 法术位): 目盲/耳聋术 blindness/deafness, 沉默术 silence 
+动作
+白手之触。 近战武器攻击: 命中+3，触及5尺，单一目标。伤害: 9 (2d8) 黯蚀伤害。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者:简述</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者 ORC NURTURED ONE OF YURTRUS
+当瘟疫袭击一个部落时，约卓斯之掌 就会隔离病人。祭司会照料那些能活下来，却不能被治好的人。"手"们会培养他们的疾病，使他们成为防御工具和战争武器。当兽人投入战斗时，一队育疫者会首先冲入战场——在敌人的队伍中传播 约卓斯 Yurtrus 的邪恶祝福，在弱化敌人的同时牺牲自己性命。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者 ORC NURTURED ONE OF YURTRUS
+中型类人(兽人)，混乱邪恶
+AC 9
+HP 30 (4d8+12)
+速度30尺
+力量    敏捷    体质
+15 (+2) 8(-1)   16 (+3)
+智力    感知    魅力
+7 (-2)  11 (+0) 7 (-2)
+感官：黑暗视觉 60 尺， 被动察觉10
+语言：通用语，兽人语
+挑战等级 1/2 (100 XP)
+好斗 Aggressive。作为一个附赠动作，兽人可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+腐化载体 Corrupted Carrier。当该兽人的生命值降至0时，它会引爆并迫使在其10尺范围内的任何生物进行一次DC 13 体质豁免检定。豁免失败的生物承受 14 (4d6)毒素伤害和陷入中毒状态，豁免成功则伤害减半，且不会中毒。因该效应中毒的生物能在其每回合结束时重复该豁免，并在豁免成功时终止该效应。因该效应中毒的生物在中毒期间不能恢复生命值。
+约卓斯育疫者 Nurtured One of Yurtrus。该兽人在对抗毒素和疫病的豁免上具有优势。
+动作
+爪击 Claws. 近战武器攻击: 命中+4， 触及5 尺，单一目标。伤害: 4 (1d4 + 2) 挥砍伤害，外加 2 (1d4)黯蚀伤害
+腐化复仇 Corrupted Vengeance。 该兽人将自己的生命值降至0并触发它的腐化载体特质。</t>
+  </si>
+  <si>
+    <t>兽人·沙葛司红牙:简述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兽人·沙葛司红牙 ORC RED FANG OF SHARGAAS 
+沙葛司是黑暗和鬼祟的兽人之神，一个凶残的神，憎恨任何不是兽人的生命。兽人认为沙葛司是适合被排斥者和弱者的神灵，他们都不适合在部族生活中扮演真正重要的角色。这些边缘兽人生活在部落领地最偏远、最深入的部分。 
+沙葛司的追随者中的精英是红牙教派的刺客和盗贼。他们为其部落进行暗杀、偷袭和其他秘密行动。他们依赖于自身刻苦的训练和沙葛司给予的魔法。大多数红牙领地饲养和培育巨蝠 Giant Bat，这是沙葛司的神圣生物。红牙骑着这些蝙蝠进入战斗或在敌人的领土内进行秘密突袭和暗杀任务。 </t>
+  </si>
+  <si>
+    <t>兽人·沙葛司红牙</t>
+  </si>
+  <si>
+    <t>兽人·沙葛司红牙 ORC RED FANG OF SHARGAAS
+中型类人(兽人)，混乱邪恶
+AC 15 (镶钉皮甲)
+HP 52 (8d8+16)
+速度 30 尺
+力量    敏捷    体质
+11 (+0) 16 (+3) 15(+2)
+智力    感知    魅力
+9 (-1)  11 (+0) 9(-1)
+技能：威吓+1，察觉+2，隐匿+5
+感官：黑暗视觉 60 尺， 被动察觉12
+语言：通用语，兽人语
+挑战等级 3 (700 XP)
+灵巧动作 Cunning Action。该兽人能在其每回合中以一个附赠动作执行疾走、撤离或躲藏动作。
+沙葛司之手 Hand of Shargaas。该兽人武器攻击命中目标时造成额外两粒骰子的伤害（已包含在攻击中）。
+沙葛司视界 Shargaas's Sight。魔法黑暗不妨碍该兽人的黑暗视觉。
+杀手 Slayer。在战斗的第一轮，该兽人对任何还未开始其回合的生物发动攻击检定时具有优势。若该兽人该轮内命中被突袭的生物，命中的攻击将造成重击。
+动作
+多重攻击 Multiattack。该兽人发动2次弯刀或飞镖攻击
+弯刀 Scimitar。 近战武器攻击: 命中+5， 触及5 尺，单一目标。伤害: 13 (3d6+3) 挥砍伤害。
+飞镖 Dart。远程武器攻击: 命中+5 ，射程 20/60 尺，单一目标。伤害: 10 (3d4 + 3) 穿刺伤害
+沙葛司的罩幕 Veil of Shargaas。 (短休或长休后充能）。 该兽人施展黑暗术darkness且不需任何成分。它的施法属性是感知。</t>
+  </si>
+  <si>
+    <t>海恶灵:简述</t>
+  </si>
+  <si>
+    <t>海恶灵 Sea Spawn
+许多在海边棚屋里传唱的故事和流传在码头酒馆中的传说里谈到了迷失于大海的人们——但不仅仅是淹死了而已。这些不幸者被海洋带走，并作为海恶灵继续生存着。关于他们往日自我的痛苦思考有如困绕心头的海浪一样。珊瑚裹住了他们。藤壶紧附着他们冰冷的皮肤。曾经充满空气的肺如今也能在水中呼吸。
+传说故事为这些诡异古怪的转化提供了无数种理由。“小心与一位海精灵或者人鱼坠入爱河，”有的人说，“要在风暴来临前回港，无论那渔获多么诱人。”“尊敬海神的请求，但绝不要向祂们允诺你的心。”这样的警示故事掩盖住了更深层的真相：某物潜藏于波涛之下，力图索取陆上住民们的心灵。
+深海奴仆。克拉肯，莫克鱼怪，海鬼婆，水巨灵，风暴巨人，龙龟——所有这些海洋生物以及更多的存在都可能将凡人标为自己所有并声称他们作为奴隶。这样的人可能经由一个惨淡的契约变得有责于他们的主人，或者他们可能会发现他们被这样的生物所诅咒。一旦被扭曲成一副鱼形，这个人便无法离开海洋太久，除非是在寻死。
+结构多样性。海恶灵有着各种各样的形态。一个个体可能有着一根触手手臂，鲨鱼口，海胆刺，鲸鱼鳍，章鱼眼，海藻头发，或者这些特点的任何组合。一些海恶灵拥有鱼类的身体部位来提供给它们特殊的能力以超越那些普通的类人生物。
+边栏：紫岩礁的海恶灵
+游访一列被称为紫岩礁的岛屿（在被遗忘的国度背景下）可能会注意到一个关于岛上人类居民的奇怪事实：他们之中没有婴儿或者老人。这是因为出生于洛克兰德（Rocklanders）的婴儿被扔进了大海，并被名为斯拉克雷特（Slarkrethel）的克拉肯夺走了。这经历改变了孩子们并使之变成了献身于这只克拉肯的狂热分子。他们作为人类自海中返回，但是当他们到达老年时，他们转变为了海恶灵并于黑暗深处与他们的主人再度会合。一些孩子只受到部分转变后回来，直到他们老年的时候他们才能完全变形脱离半野蛮的状态。这些不幸者隐藏着直到他们最后的转变，以保守紫岩礁的秘密。
+克拉肯牧师（在附录B中记述）是克拉肯的羊群的牧羊者。大多数牧师是岛屿原住民，不过一些是人鱼，美洛人鱼，或者居住在紫岩礁周围水域里的海精灵。</t>
+  </si>
+  <si>
+    <t>海恶灵</t>
+  </si>
+  <si>
+    <t>海恶灵 Sea Spawn
+中型类人生物，中立邪恶
+AC 11（天生护甲）
+HP 32（5d8+10）
+速度 20尺，游泳30尺
+力量15（+2），敏捷8（-1），体质15（+2）
+智力6（-2），感知10（+0），魅力8（-1）
+感官 黑暗视觉120尺，被动观察10
+语言 懂得水族语和通用语但是不会说
+挑战等级 1（200XP）
+有限两栖。海恶灵可以在空气中或水中呼吸，但是需要每天完全淹没在海中至少1分钟以避免窒息。
+动作
+多重攻击。海恶灵进行三次攻击：两次徒手攻击和一次使用它的鱼类部位。
+徒手攻击。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）钝击伤害。
+鱼类部位。海恶灵有一个或多个下列攻击选项，只要它拥有合适的部位。
+啮咬。近战武器攻击：命中+5，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+毒刺。近战武器攻击：命中+5，触及5尺，单一目标。命中：3（1d6）毒素伤害，以及目标必须成功通过一个DC12的体质豁免检定否则中毒1分钟。目标可以在每个它的回合结束时重复该豁免检定，成功则结束它身上的效果。
+触手。近战武器攻击：命中+5，触及10尺，单一目标。命中：5（1d6+2）钝击伤害，以及目标被擒抱（逃脱DC12）如果它的体型是中型或者更小。直到这次擒抱结束前，海恶灵无法向另一个目标使用这条触手。</t>
+  </si>
+  <si>
+    <t>法特怪:简述</t>
+  </si>
+  <si>
+    <t>法特怪 Xvarts
+法特怪是莱兹爱渥—一位怯懦和叛逆的半神所产生的生物。他们有蓝色的表皮，鲜明的橘色眼睛，头部如同谢顶般，而且如镜像般反映出其创造者的形象，这些小怪物站起来只有3尺高。 
+法特怪通常住在偏远的远山、森林和洞穴。每个部落都有一个话语者——通常都是部落中最具智慧的那个——作为领袖。法特怪话语者通常担任部落的顾问，并且它们常用短的木质支撑物或是穿上长袍来使得它们看起来比部落的其他法特怪更高更傲慢。部落的其他成员负责狩猎食物、并在狩猎匮乏时掠劫附近农场的农作物及家畜。法特怪通常不太会威胁城市里的居民因为它们有些惧怕人类、矮人和精灵。
+莱兹爱渥的背叛：所有的法特怪都是莱兹爱渥堕落腐化的后代，莱兹爱渥曾是黑暗王子格拉兹特的司库，它曾经耗费几个世纪来守护格拉兹特的宝库，但随着时间的推移，它开始贪求其主人的宝库。在一次大胆的行动中，莱兹爱渥掠夺了宝库并逃到主物质位面。他发现在掠劫的宝物其中之一是无限之轴——这枚曾经是久远时代多元宇宙的水晶碎片具有将任意生物甚至是像莱兹爱渥这样的低等生物转变为半神的神器。
+在具有神格后，莱兹爱渥创造了一个叫做“黑色下水道”的领域，而它就在这个混乱魔域的最顶层。但在格拉兹特复仇之前，莱兹爱渥只是短暂享受它的神格提升，其实黑暗王子并不需要收回这件神器，因为他拥有的力量已经远超于神器所能赋予他的力量。相反，格拉兹特派遣他的密探们在世界各处散播无限制轴这件神器的威能及莱兹爱渥那个可怜虫宣称其对神器的所有权。很快，莱兹爱渥就会被那些渴求拥有神器的多种多样的敌人追击而应接不暇。
+面对这些即将到来的威胁，莱兹爱渥想到了一个计划。在它逃离主物质位面时，它开始穿梭于多个位面世界，并留下他创造的和其一模一样的一种繁衍生物——法特怪，这些生物不仅长得和莱兹爱渥一模一样，而且具有阻碍追踪其魔法的特性。咒符、仪式及其他能力可能会将指向莱兹爱渥的位置转为指向距离最近的法特怪。
+尽管初期如潮水般袭击的敌人攻势已经平静下来，莱兹爱渥深知平衡这些力量需要许久的耐心，因此这个可怜的半神依旧在位面之间游荡躲藏着。同时，为了确保它的安全，莱兹爱渥还会创造出更多的法特怪。
+贪婪的暴徒：法特怪具有它们创造者所有的缺陷且几乎无法弥补这些恶心的特性，在它们的居住地缺乏劳作的生产工具，而且它们也不屑于劳作。法特怪们贪婪、放纵、并且沉迷于获得贵重物品——越华丽越古怪、越好。他们知道自己是有缺陷的，而这种微小的自我意识只会放大他们的其他缺点，他们憎恨几乎任何他们认为比他们更好的生物——这基本包括所有生物。但大多数时候，这些小怪兽缺乏行动的动力和勇气，它们的恐惧使得它们徘徊于文明之地外或是被强者们遗忘的偏远地域。换而言之，法特怪就是生活在那些害虫繁衍生长的地方。
+尽管本性混乱，但是法特怪对莱兹爱渥有着不可动摇的忠诚。它们希望通过取悦莱兹爱渥来对他们的重大决策有重要影响。当事情向着不好的方向发展，它们就会假想到莱兹爱渥对他们表示愤怒。为安抚它们那麻烦缠身的神，它们时不时会绑架生物。法特怪们用捕网捕捉敌人，并把他们拖回巢穴安置在临时的祭坛上进行献祭。莱兹爱渥能听到它信徒的诉求但是他害怕被仇敌发现，大部分时候不敢现身。偶尔，他会以一个9英尺高的法特怪形象出现在一个礼拜者的部落里，背着一个空袋子。在每一个这样的例子中，莱兹爱渥都会拿走部落所积累的所有财富，把财物塞进他的口袋里，在留下任何补偿前消失了。
+害虫之主：老鼠和蝙蝠（包括巨型种类）都会天然地亲近法特怪，法特怪们也会驯化这些动物作为战斗伙伴和食物。法特怪也会和鼠人结盟-尽管这些兽化人更容易占据统治地位。这些关系可以追溯为莱兹爱渥的神性本源。尽管法特怪继承了莱兹爱渥的贪婪和怯懦，但是他们也获得了与这种生物形成联系的能力。
+法特怪邪术师：一个法特怪可以通过仪式：比如偷窃一件非常昂贵的珍品来向莱兹爱渥献祭，并在半神亲自现身前要求同其达成协议。仪式时将该贵重的珍宝献给莱兹爱渥，这名法特怪向其恳求魔法能力以便于其能发现更多的珍宝并献给它的半神，如果莱兹爱渥认同了它的观点，他在回归其混乱领域前将赋予这名法特怪极大的智慧和魅力，以及邪术师般的施法能力。在法特怪的社会中，莱兹爱渥邪术士是受人尊敬和敬畏的，但他们对政治方面没有什么兴趣。他们在荒野、古老的废墟和地牢里寻找宝藏，常常带着一些法特怪奉承者和一只巨鼠保镖。</t>
+  </si>
+  <si>
+    <t>法特怪</t>
+  </si>
+  <si>
+    <t>法特怪 
+小型类人生物（法特怪），混乱邪恶
+AC：13（皮护甲）
+HP：7（2d6）
+速度：30尺
+力量8（-1）   敏捷14（+2）   体质10（+0）
+智力8（-1）   感知7（-2）   魅力7（-2）
+技能：隐匿+4
+感官：黑暗视觉30尺，被动察觉8尺
+语言：深渊语
+挑战等级：1/8（25 XP）
+卑劣的狡诈：法特怪可以在其每个回合进行一次脱离战斗动作，该动作视为一次附赠动作。
+傲慢的群落：法特怪对一名生物进行撞击，当至少有一名法特怪存活并距离该生物5尺内，且它的法特怪盟友未失能的情况下，法特怪在力量（竞技）鉴定上具有优势。
+莱兹爱渥之舌：法特怪能与普通的蝙蝠和老鼠，甚至是巨鼠和巨型蝙蝠沟通。
+动作
+短剑：近战武器攻击：命中+4，触及5尺，单一生物。命中：5（1d6+2）的穿刺伤害。
+投石索：远程武器攻击：命中+4，射程30/120尺，单一生物。伤害4（1d4+2）的钝击伤害。
+变体：法特怪话语者
+每个法特怪部落都有一个话语者作为它们的领袖，话语者具有普通法特怪的数据，仅是在其智力值为13（+1），且它能听懂额外的语言（通常是通用语和地精语）</t>
+  </si>
+  <si>
+    <t>法特怪莱兹爱渥邪术师</t>
+  </si>
+  <si>
+    <t>法特怪莱兹爱渥邪术师 
+小型类人生物（法特怪），混乱邪恶
+AC：12（15在处于魔法护甲下）
+HP：22（5d6+5）
+速度：30尺
+力量8（-1）   敏捷14（+2）   体质12（+1）
+智力8（-1）   感知11（+0）   魅力12（+1）
+技能：隐匿+3
+感官：黑暗视觉30尺，被动察觉10尺
+语言：深渊语
+挑战等级：1（200 XP）
+天生施法：法特怪邪术师天生施法的能力基于其魅力。它可以施放以下法术且不需要任何施法材料：
+随意：侦测法术、魔法护甲（仅对自己生效）
+施法：法特怪莱兹爱渥邪术师是一名3级施法者，它的施法的能力基于其魅力（技能鉴定 DC11，法术攻击命中+3）。当法特怪莱兹爱渥邪术师进行一次短休息或长休整后它将重新恢复其消耗的法术槽。它知晓以下邪术师法术：
+戏法：魔能爆、法师之手、次级幻影、毒液飞溅、魔法伎俩。
+一至二级法术（二级两个法术槽）：燃烧之手、脚底抹油、隐形术、灼热射线。
+卑劣的狡诈：法特怪邪术师可以在其每个回合进行一次脱离战斗动作，该动作视为一次附赠动作。
+莱兹爱渥的祝福：当该法特怪使一个敌人的HP降至0点时，法特怪邪术师获得4点临时生命。
+莱兹爱渥之舌：法特怪能与普通的蝙蝠和老鼠，甚至是巨鼠和巨型蝙蝠沟通。
+动作
+短弯刀：近战武器攻击：命中+4，触及5尺，单一生物。命中：5（1d6+2）的挥砍伤害。</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙:简述</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙 Banderhobb
+每一只绑匪怪蛙都是阴影和血肉的混合体。通过黑暗魔法，这个混合物呈现出一种巨大而简陋的类人形态，就好像是双足站立的蟾蜍。在这种形态下，绑匪怪蛙作为一名恶棍，小偷和绑架者短暂地为它的造物主服务。
+鬼婆的造物Birthed by hags。 这个世界最远古的那些日子里，一个夜鬼婆集会设计了一个仪式，创造出了第一只绑匪怪蛙。一只知晓这个仪式的鬼婆可能愿意以一个合适的价格教导这个仪式。一些其他的黑暗精类和强大邪魔也知晓这个仪式过程，而也有极少的凡人法师同样知晓该过程。该知识也可能在一本致力于堕落法术的法术书上找到。
+沉默而致命Silence and Deadly。 当创造一个绑匪怪蛙的仪式完成时，血肉，灵魂和阴影就结合起来创造了一个如同食人魔巨大的生物。这个新形成的怪物拥有着与其巨大力量不符的细长四肢。它的宽大下巴里有着长长的舌头和层层叠叠的尖牙，用来抓住和吞咽一个生物或者一件绑匪怪蛙想偷的物品。尽管它的体型庞大，但绑匪怪蛙几乎不会发出声响，像它注入的阴影一样静悄悄地移动。绑匪怪蛙不会说话，但它能够听得懂其造物主的命令，并且以心灵感应的方式和附近的绑匪怪蛙沟通交流。
+邪恶代理人Asents of Evil。 在它短暂的存在时间里，一只绑匪怪蛙会尽全力尝试完成它的创造者的命令。它只关心完成它的使命而丝毫不在乎任何伤害，无论是它所遭受的还是它所制造的。(资本家梦寐以求的员工啊)它唯一的愿望就是服务和成功。当一只怪蛙被指派去追猎目标并且被提供一缕头发，或一件个人物品或者任何与目标有联系的其他物品时，它将是特别危险的。拥有这样的物品，怪蛙它可以在一里之外感应到目标的位置。
+一只绑匪怪蛙会履行使命直到它的存在终结。当它死亡时，这常常就是在它诞生的几天之后，它只会留下柏油般的黏性物和几缕阴影。传说中幽影平原的黑暗塔，在那儿，阴影有时会重组改造以及绑匪怪蛙的漫游。</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙 Banderhobb
+大型怪兽，中立邪恶
+AC：15（天生护甲）
+HP：84（8d10+40）
+速度：30尺
+力量20（+5）  敏捷12（+1）  体质20（+5）
+智力11（+0）  感知14（+2）  魅力8 （-1）
+技能：运动+8，隐匿+7
+状态免疫：魅惑，恐慌
+感官：黑暗视觉120尺，被动察觉12
+语言：绑匪怪蛙理解通用语和其创造者掌握的语言，但不会说
+挑战等级：5（1,800XP）
+共鸣联结Resonant Connection。如果绑匪怪蛙持有某个生物或物品的一小部分，比如一缕头发或一小片木头，并且该生物或物品在绑匪怪蛙的一里范围之内，那么怪蛙将知晓通往该生物或物品的最直接的路线。
+阴影隐匿Shadow Stealth。在微光光照或黑暗环境下，绑匪怪蛙能够以附赠动作来执行躲藏Hide动作。
+动作
+啃咬bite。近战武器攻击：命中+8，触及5尺，单一目标。命中：22（5d6+5）的穿刺伤害，且如果目标是大型或者更小体型，则其被擒抱（逃脱DC15）。直到擒抱终止前，该目标被束缚，且绑匪怪蛙无法再对另一目标使用啃咬攻击和弹舌攻击。
+弹舌tongue。近战武器攻击：命中+8，触及15尺，单一生物。命中：10（3d6）黯蚀伤害，且目标必须进行一次DC15的力量豁免。豁免失败则将被拉至绑匪怪蛙的五尺范围内，且绑匪怪蛙能够使用附赠动作对该目标进行一次啃咬攻击。
+吞咽swallow。绑匪怪蛙对它正在擒抱的中型或者更小体型生物发动一次啃咬攻击。如果该攻击命中，则目标被吞下，并结束其擒抱状态。被吞下的目标陷入目盲且被束缚，其对于绑匪怪蛙身体外的攻击或效应视为处于全掩护，并在每次绑匪怪蛙的回合开始时受 10(3d6)的黯蚀伤害。生命值以这种方式降至0的生物将不再受到黯蚀伤害并且伤势转为稳定。
+绑匪怪蛙不能同时吞下多于一个的生物。当绑匪怪蛙没有处于失能时，它可以在任意时间在它周围五尺的任意区域吐出该生物（不耗费动作）。且该生物陷入倒地状态。如果绑匪怪蛙死亡，它也将同样地吐出被吞咽的生物。
+阴影步Shadow Step。绑匪怪蛙能够神奇地传送至至多30尺内一个它能看见且未被占据并且处于微光光照或黑暗的位置。在传送前或传送后，它可以进行一次啃咬攻击或者弹舌攻击。</t>
+  </si>
+  <si>
+    <t>卡托伯湿沼怪:简述</t>
+  </si>
+  <si>
+    <t>卡托伯湿沼怪 Catoblepas
+卡托布湿沼怪是一种令人憎恶的生物就如同它生活的腐败沼泽地一般。在那些废土上，聚集了如同臃肿水牛、恐龙、疣猪以及河马等几乎无任何可取之处的生物群落，但很少有旅行者愿意穿越卡托布湿沼怪所在的领地。
+野兽天性（Animalistic Nature）：尽管这些怪物生性笨拙不堪，但卡托布湿沼怪同自然的野兽一般，他的行为举止也于普通野兽非常相像，就像它漫步在它泥泞不堪的沼泽地的窝旁，咀嚼它喜欢的植被，偶尔也会吃一顿腐肉，并沉溺于在污泥中打滚。一只卡托布湿沼怪可能寻找一只伴侣与其共度终生，并在必要时产下幼崽。尤其当卡托布湿沼怪保护它的幼崽时，它会攻击任何靠近它的人。
+死物般的恶臭（Stench of Death）：卡托布湿沼怪身体的恶臭味，就像死物混合着沼泽的毒气和臭鼬的麝香气，让人觉得它的体味比它的外表更可怕。当卡托布湿沼怪发动攻击时，它暴露出恐怖的自然天性，这个怪物蛇形般的长脖子很麻烦地抬起他的头，但它那充血的眼睛可以发出令肉体腐败的射线，在它尾部的末端是一个锤状物，若果被它实在击中，将会震慑受害者身体和灵魂，并使其不能行动。如果攻击的目标死亡，那卡托布湿沼怪将会享用那新鲜的遗骸。
+枯萎的领土（Blighted Territory）：卡托布湿沼怪作为一种疾病和腐烂的生物，在其栖息的沼泽地也具有类似的特性。这样的一片湿地会变得阴郁、杂乱，比以前更加恶臭。卡托布湿沼怪的居住地对环境的增益性影响，如治疗药草和清洁水，在该地域就会减少。沼泽气体有一丝卡托布湿沼怪的污秽。该地区的动物更具攻击性且容易患病。退化的生物很可能在卡托布湿沼怪的领地附近定居，就像它们不希望被他人注意到一样。
+邪恶的民间传说：普通乡民很少有机会见到卡托布湿沼怪，但是这个生物的恐怖传说却在主流文化中根深蒂固，任何关于卡托布湿沼怪在附近定居的谣言都被认为是坏兆头，即使谣言被证明是假的。卡塔布尔帕的剪影，尾巴在身体后方延展，头低垂着，是一个预示死亡或厄运的凶恶的纹章。
+圣人说，瘟疫和腐烂的神创造了卡托布湿沼怪的影响的化身。无论这种生物的起源是什么，故事都将卡托布湿沼怪与不幸联系在一起，而这些故事中有很多都有真实的成分。一些这样的故事声称，卡托布湿沼怪喜欢像牛一样的哞哞地叫，而一个沼泽里有卡托布湿沼怪地方，也可能是喝怪兽牛奶的鬼婆的家。虽然具体一只卡托布湿沼怪可能不会和鬼婆联系在一起，但是一个鬼婆集会可能会把这些动物中的一个或多个作为监护人或宠物。其他传说说那些邪恶的心可以驯服一个卡托布湿沼怪。确实，有一些关于恶毒的邪术士和黑暗骑士的传说，他们发现了如何驯养这些野兽并把它们当做坐骑使用。</t>
+  </si>
+  <si>
+    <t>卡托伯湿沼怪</t>
+  </si>
+  <si>
+    <t>卡托布湿沼怪 Catoblepas
+大型怪兽，无阵营
+AC：14（天生护甲）
+HP：84（8d10+40）
+速度：30尺
+力量19（+4）   敏捷12（+1）   体质21（+5）
+智力3（-4）   感知14（+2）   魅力8（-1）
+感官：黑暗视觉60尺，被动察觉12尺
+语言：——
+挑战等级：5（1800 XP）
+敏锐嗅觉：卡托布湿沼怪依靠其敏锐嗅觉在感知（察觉）检定上具有优势。
+恶臭：其他任何非卡托布湿沼怪的生物，如果在其回合开始时处于卡托布湿沼怪周围10尺位置的地方，该生物必须成功通过DC 16的体质豁免鉴定，否则会持续中毒到该生物下一轮回合开始。如果成功通过豁免鉴定则该生物在一小时内免疫任何卡托布湿沼怪的恶臭。
+动作
+尾击 Tail：近战武器攻击：命中+7，触及10尺，单一生物。命中：21（5d6+4）的钝击伤害。而且该目标生物必须通过一次DC 16的体质豁免鉴定，豁免失败则该生物会被震慑直到卡托布湿沼怪开始其下一轮回合。
+死亡射线 Death  Ray （充能5~6）：卡托布湿沼怪选择其视野范围内30尺一个可视的目标生物。该生物必须进行一次DC 16的体质豁免鉴定，豁免失败则该生物承受38（8d8）点黯蚀伤害，如果成功豁免则伤害减半。如果此次豁免鉴定值低于5或是更低，则该目标生物代替伤害数值为64点黯蚀伤害，射线攻击的目标生命值减少到0点时死亡。</t>
+  </si>
+  <si>
+    <t>穴钓蟹:简述</t>
+  </si>
+  <si>
+    <t>穴钓蟹 Cave Fisher
+穴钓蟹是一种在长长的鼻子里装有吐丝器，生活在地下的蜘蛛形生物，利用这工具产生黏性丝线，非常像是一股蛛网索，并使用它来捕捉猎物。
+伏击者。穴钓蟹一般狩猎小动物，尤其喜欢蝙蝠，所以它将长丝伸展在一处这样的猎物可能经过的开口处上方。接着它爬到一处藏身之地，并把自己黏附在上面休息等待。当猎物误入其丝中时，穴钓蟹就会把它的美餐一把卷起。一群穴钓蟹可能会在一起行动以让丝线覆盖住一大片区域，但只要一抓住潜在的食物，所有在这片区域里的穴钓蟹会互相争夺这份战利品。如果一个受害者从最初的伏击中逃脱，一只穴钓蟹能够射出一根长丝来再次捕获它的猎物。
+在世界中上移。稀缺的食物可能会使得一群穴钓蟹上到地面上，进入一处幽暗的峡谷或者一片阴暗的森林，不仅捕食当地的动物，也包括偶尔穿过该地区的探险家和旅行者等人。
+一只穴钓蟹本能地知道更大的目标，如类人生物是更难以击败的，所以这生物会避免攻击这样的的猎物，除非它们碰到个孤身一人的目标。它们可能会试图选择一个走在一群旅行者前面的侦察手，或者一个落后的掉队者，而不是吸引整支队伍的注意。
+宝贵的财富。穴钓蟹的几乎每一个部分在这生物被杀死后都是有用的。它的血液含有酒精，味道就像烈酒。几种矮人烈酒就包括了穴钓蟹的血液作为配方的一部分，而且一些矮人，特别是狂战士，直接生喝这种血液。如果它们在聚拢后被压制，穴钓蟹的丝能被编织成细薄，坚韧，又近乎无形的绳子。穴钓蟹的肉可以食用，吃起来很像在高度果酒中煮熟的螃蟹。这种生物的外壳能被用于制造工具，盔甲，以及首饰珠宝。
+不情愿的仆从。在一些人捕猎穴钓蟹为了它们的丝和血液而杀死它们时，另一些人猎取穴钓蟹的蛋以及饲育幼仔。穴钓蟹天生厌火，因为它们的血液是可燃的。因此半蛛人和大地精有时使用火焰的威胁来训练穴钓蟹，然后利用它们看守通路或者用作战兽。</t>
+  </si>
+  <si>
+    <t>穴钓蟹</t>
+  </si>
+  <si>
+    <t>穴钓蟹 Cave Fisher
+中型怪兽，无阵营
+AC 16（天生护甲）
+HP 58（9d8+18）
+速度 20尺，攀爬20尺
+力量16（+3），敏捷13（+1），体质14（+2）
+智力3（-4），感知10（+0），魅力3（-4）
+技能 观察+2，隐匿+5
+感官 盲视60尺，被动察觉12
+语言 ——
+挑战等级 3（700XP）
+黏胶长丝。穴钓蟹可以使用它的动作来伸长黏性长丝最多60尺，长丝会黏附上接触到它的任何东西。被长丝黏住的生物将会被穴钓蟹擒抱（逃脱DC13），并且在逃脱这次擒抱的能力检定上有劣势。长丝可以被攻击（AC15；5HP；免疫毒素和精神伤害），但是一件没有成功切断它的武器将会被缠住，需要一个动作和一次成功的DC13的力量检定才能拉出来。破坏长丝不会对穴钓蟹造成伤害，在它的下一轮可以吐出替代的长丝。
+可燃血液。如果穴钓蟹的HP减少到一半或更少，它获得火焰易伤。
+蛛行。穴钓蟹可以攀爬困难的表面，包括倒行在天花板上，而不需要进行能力检定。
+动作
+多重攻击。穴钓蟹进行两次爪抓攻击。
+爪抓。近战武器攻击：命中+5，触及5尺，单一目标。命中：10（2d6+3）挥砍伤害。
+长丝。被穴钓蟹的黏胶长丝抓住的一个生物必须通过DC13的力量豁免检定，该生物的重量必须不超过200磅。失败时，目标被拉入距离穴钓蟹5尺内的未被占据的空间，并且穴钓蟹能以它的附赠动作对目标进行一次爪抓攻击。卷起目标会放开其他任何被长丝黏附的人。在对该目标的擒抱结束以前，穴钓蟹不能再吐出长丝。</t>
+  </si>
+  <si>
+    <t>半蛛人:简述</t>
+  </si>
+  <si>
+    <t>半蛛人 Chitines
+半蛛人是侍奉罗丝的、带有蛛形状纲特征的多臂人形生物。她们组成有条理的群落，并在对抗蛛后敌人的战争中作为有效的战士。偶尔，罗丝会让半蛛人对抗黑暗精灵——尽管两边都崇拜她——作为一种惩罚的卓尔的方式，他们创造出半蛛人，但却因此触怒了女王。
+非自然起源Unnatural Origin。很久以前，卓尔首先通过用精灵囚犯进行可怕的仪式，将俘虏转变为具有人形和蜘蛛特征的生物，她们的创造者将之称为“半蛛人”。黑暗精灵的意图是首先创造出为卓尔服务的奴隶，然后通过与他们的联系为罗丝服务。正如卓尔们最终发现的那样，女神并不接受这样的安排。创造过程需要魔法学科之间的合作。卓尔法师和邪术师用上了奥术魔法和恶魔的力量，而卓尔女祭司则依靠罗丝的帮助来获取确保接受仪式者从中幸存所必须的神圣火花。罗丝观看着，期待着过程的某些部分能将这些新的可憎之物献给她，但这样的仪式并没有被执行。
+作为对这种缺乏尊重的报复，蛛后扭曲了卓尔的创造仪式，让其为她自己的目的服务。
+罗丝的报复Lolth's Revenge。当卓尔们继续进行仪式的时候，过程通常会将试验品转化为 他们所预想的那样蜘蛛一般的，矮小的生物。不过偶尔，精灵会被转化为比起精灵更像蜘蛛的生物，与罗丝的蜘蛛形态相近，比半蛛人更加狡猾。卓尔将他们称为半蛛神眷。
+起初，卓尔并没有意识到这些新的生物是罗丝对他们不满的迹象。相反，他们十分高兴。因为半蛛神眷可以产下能生出更多半蛛人（以及少部分神眷）的卵，并能在工作中引导半蛛人。但随即，黑暗精灵们就意识到了他们的错误——半蛛神眷的身体和灵魂都属于罗丝。她们向半蛛人低语她们对蛛后的崇拜和她们对卓尔的敌意，而叛乱的种子生根发芽。半蛛人和半蛛神眷奋起反抗她们过去的主人；不久之后她们中的大部分都获得了自由，而许多帮助生产和照料她们的卓尔失去了性命。
+如今，卓尔仍然会在他们需要的时候制造半蛛人。在没有神眷的情况下，半蛛人能够很好的为卓尔工作，如果卓尔发现一个独立的半蛛人群体并想要渗入其中，半蛛人就能十分有用。然而，一旦制造的过程中产生了半蛛神眷，卓尔就会立即摧毁这个生物。
+罗丝的选民Lolth's Chosen。半蛛神眷生来就对罗丝有着狂热的信仰，这让她们具备一些神术上的能力。她们宣扬说，半蛛人是罗丝的宠儿，而半蛛神眷是蛛后在世界上正当的代表，来将半蛛人从奴役中释放。尽管神眷和半蛛人都不具备性征，而半蛛神眷不需要交配就能产卵，这些生物还是选择了自己女神的性别身份。神眷们也相信并教导罗丝的蜘蛛形态，就像神眷的形态一样，是她真正的形态。任何半蛛人聚集地的偶像都是这样描述罗丝的。
+作为罗丝的仆从，半蛛神眷和半蛛人热爱蜘蛛和其他类似蜘蛛的生物。她们饲养蜘蛛和类似的节肢动物，比如穴钓蟹。半蛛人群落将罗丝像灯塔一样供奉在神龛内，吸引蜘蛛和其他侍奉她的邪恶野性的存在。任何半蛛人建立了群落的地方，都会很快成为一个蛛网遍布、阴森和危险之地。
+社群蜘蛛Communal  Spiders。半蛛人和半蛛神眷与蜘蛛相似，但她们表现得则更像群居性的昆虫，比如蚂蚁。半蛛人分为工人和战士阶级，而神眷则占据了群落阶级的顶层。每一个半蛛人都有一个社会地位，伴随着与之相关的职责，所有的半蛛人都愿意牺牲自己来保护神眷。每个半蛛人都有喷丝器官，并缓慢地产生用于建造地板、墙壁、结构、物体和陷阱的网状物，这些都有利于保护群落。一个战士可能要负责制作网甲（像兽皮或皮革一样坚硬），而一群工人可能会挖掘陷阱，用易碎的带子盖住它，伪装成松散的泥土，看起来像一个坚实的表面。
+一个群落可以支持许多神眷，作为指挥官，牧师和管理者。神眷不断争夺地位，尽管她们很少以会将群落至于险地的方式彼此对抗。群落由一位君主统治，她决定群落成员进行何种任务，包括她和其他神眷是否允许产卵。如果这位至高的统治者从罗丝那里收到一个愿景，她可能会改变群落的整体行动安排。那时，半蛛人会从幽暗地域迁出，定居在遥远的，阴暗的地表，在那里他们能够和其他的物种，尤其是卓尔精灵和精灵开战。</t>
+  </si>
+  <si>
+    <t>半蛛人</t>
+  </si>
+  <si>
+    <t>半蛛人CHITINE
+小型怪兽，混乱邪恶
+AC  14  (兽皮甲)
+生命值  18  (4d6 +  4)
+速度  30 尺.,  攀爬  30  尺.
+力量10  (+0) 敏捷14  (+2)体质12  (+1) 智力10 (+0）感知10 (+0) 魅力7(-2)
+技能  运动 +4, 隐匿 +4 
+黑暗视觉 60 尺.,  被动感知 10
+语言 地底通用语
+CR  1/2 (100  XP)
+精类血统 Fey Ancestry .半蛛人进行对抗魅惑的豁免检定时具有优势，且魔法效应无法使半蛛人陷入睡眠。
+日照敏感 Sunlight Sensitivity .在日光照射下，半蛛人的攻击检定具有劣势，其依靠视力的感知（察觉）检定也具有劣势。
+蛛行 Spider Climb .半蛛人可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+蛛网感知 Web Sense .与蛛网接触时，半蛛人可以知晓其他与该蛛网接触生物的准确位置。
+蛛网行者 Web Walker .半蛛人在蛛网上移动时无视蛛网造成的移动限制。
+动作ACTIONS
+多重攻击.半蛛人用匕首进行三次攻击。
+匕首Dagger.近战或远程武器攻击：命中+4，触及5尺或射程20/60尺，单一目标
+伤害：4（1d4+2）穿刺伤害</t>
+  </si>
+  <si>
+    <t>半蛛神眷</t>
+  </si>
+  <si>
+    <t>半蛛神眷CHOLDIRTH
+中型怪兽，混乱邪恶
+AC  15 (镶嵌皮甲 )
+生命值  66  (12d8 + 12)
+速度  30 尺.,  攀爬  30  尺.
+力量12 (+1)  敏捷16  (+3) 体质12  (+1) 
+智力 11(+0）感知14(+2)  魅力10(+0)
+技能：运动 +5，宗教+2， 隐匿+5
+感官：黑暗视觉 60 尺.,  被动察觉 12
+语言 地底通用语
+CR  3 (700  XP)
+精类血统 Fey Ancestry.半蛛神眷进行对抗魅惑的豁免检定时具有优势，且魔法效应无法使半蛛人陷入睡眠。
+日照敏感 Sunlight Sensitivity .在日光照射下，半蛛神眷的攻击检定具有劣势，其依靠视力的感知（察觉）检定也具有劣势。
+施法Spellcasting.半蛛神眷为四级施法者，其施法属性为感知（豁免DC12，法术攻击命中+4）。半蛛神眷准备了如下牧师法术：
+戏法（任意）：神导术guidance，修复术mending，提升抗力resistance，奇术thaumaturgy
+一环（4法术位）：灾祸术bane，治愈真言healing word，庇护术  sanctuary,  虔诚护盾shield  of  faith
+二环（3法术位）：人类定身术hold person，灵体武器（匕首）spiritual  weapon  (dagger)
+蛛行 Spider Climb .半蛛神眷可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+蛛网感知 Web Sense .与蛛网接触时，半蛛神眷可以知晓其他与该蛛网接触生物的准确位置。
+蛛网行者 Web Walker .半蛛神眷在蛛网上移动时无视蛛网造成的移动限制。
+动作ACTIONS
+匕首Dagger.近战或远程武器攻击：命中+5，触及5尺或射程20/60尺，单一目标
+伤害：5（1d4+3）穿刺伤害加10（3d6）毒素伤害
+蛛网 Web（充能 5~6）  . 远程武器攻击：命中+5，射程 30/60尺，单一大型或更小体型的生物。
+伤害： 该生物被蛛网束缚。该被束缚生物可以用一个动作进行一次 DC 11 的力量检定，并以此挣脱蛛网。攻击并摧毁蛛网也可以结束该效应，这些蛛网拥有 AC10，5 点生命值，火焰伤害易伤，并且免疫钝击、毒素和心灵伤害。</t>
+  </si>
+  <si>
+    <t>沼喉怪:简述</t>
+  </si>
+  <si>
+    <t>沼喉怪 Froghemoth
+沼喉怪是一种像大象一样大的两栖捕食者。它栖息在沼泽中，有四条触手，厚实的胶质皮肤，带着一条能抓物的舌头的充满尖牙的口器，及一根可伸展的肉茎上朝向不同方向运动的三个眼球。
+异世界存在 Otherworldly Entities。沼喉怪是不属于这个世界的生物。一本据说是很久以前由巫师疯子卢姆（Lum the Mad）写的日记里，描述了埋藏在地下的奇怪的圆柱形金属庭室/房间/腔室（cylindrical chambers），从那里出现了沼喉怪，但是没有关于这些地方位置的可靠报告。
+生来饥饿 Hungry from Birth。每隔几年，一头沼喉怪就可以在不交配的情况下产下一颗受精卵。沼喉怪不关心它的卵，也可能把它吃掉。一头年幼的沼喉怪的生存通常是建立在它的父母在冷漠中离弃了它。一头新生的沼喉怪通过不加选择的捕食它沼泽领地里的其他生物在一个月时间里成长为完全的大小。他学会了把它巨大的躯体隐藏在浑浊的水塘里，只把它的眼睛露在水面上以观察路过的生物。当食物触手可及时，沼喉怪就会从它的水塘里射出（erupt）触须和舌鞭。它可以同时攫取多个目标，使它们陷入绝境，在它用舌头卷起另一个目标并把它拉过来吞下时。
+受狂蛙人崇拜Revered byBullywugs。如果一个狂蛙人部落遇到了一头沼喉怪，狂蛙人会把沼喉怪当做神明看待，竭尽所能把这怪物哄诱进他们的巢穴。一头沼喉怪可以通过提供食物来被驯服（勉强的）而狂蛙人可以与它进行基本的沟通。所以这生物在剩余的崇拜者前可能只吃掉了少量的狂蛙人。狂蛙人收集食物作为给它的贡品，为它提供一个舒适的巢穴，狂热的保护它免受伤害，并努力确保任何年幼的沼喉怪都能发育成熟。</t>
+  </si>
+  <si>
+    <t>沼喉怪</t>
+  </si>
+  <si>
+    <t>沼喉怪 Froghemoth
+巨型怪兽，无阵营
+AC:14 (天生护甲)
+HP：184(l6dl2+80)
+速度：30尺, 游泳30尺.
+力量23 (+6)  敏捷13 (+l)  体质20 (+5)
+智力 2 (-4)  感知12（+1） 魅力 5（-3）  
+豁免：体质+9, 感知+5
+技能：察觉+9 隐匿+5
+伤害抗性：火焰，闪电
+感官：黑暗视觉60尺，被动察觉19
+语言：—
+挑战等级：10 (5,900 XP)
+水陆两栖Amphibious. 沼喉怪可以在空气和水中呼吸。
+电敏Shock Susceptibility.如果沼喉怪受到闪电伤害，直到它的下一个回合结束它遭受数种效果: 它的速度减半, 它在AC和敏捷豁免上受到一个-2的罚值, 它不能使用反应或多重攻击,在它的回合, 可以执行一个动作或一个附赠动作，但不能同时执行以上两者。
+动作
+多重攻击Multiattack。 沼喉怪发动两次触须攻击. 它还可以用舌卷或啃咬。
+触须Tentacle。 近战武器攻击：命中+10,触及20尺,单一目标。 伤害：19(3d8 + 6) 钝击伤害,如果目标是巨型或更小的生物则被擒抱(逃脱DC 16)。直到擒抱结束, 沼喉怪不能对另一个目标使用这条触手。沼喉怪有四条触手。
+啃咬 Bite。 近战武器攻击：命中+10,触及5尺,单一目标。命中：22（3d10+6）穿刺伤害，如果目标是一个中型或更小的生物则被吞下。一个被吞下的目标陷入目盲且被束缚，其对于沼喉怪身体外的攻击或效应视为处于全掩护，并在每次该沼喉怪的回合开始时受到10（3d6）的强酸伤害。沼喉怪的食道一次可以容纳两个生物。如果沼喉怪在同一回合受到20点或更多来自其体内的伤害，则该沼喉怪在该回合结束时必须成功通过一次DC 20的体质豁免否则将吐出所有被吞下的生物，每个都摔下倒地于沼喉怪周边10尺范围内。如果该沼喉怪死亡，则被吞下的生物将不再受束缚，且可以消耗10尺移动力逃出，然后在尸体旁现身并陷入倒地状态。
+舌卷Tongue。沼喉怪选择一个20尺内他能看见的中型或更小的生物。目标必须成功通过一个DC 18的力量豁免。若豁免失败，目标被拉进沼喉怪5尺内一个未被占用的空间，且沼喉怪能以附赠动作对他发动一次啃咬攻击。</t>
+  </si>
+  <si>
+    <t>四臂猩猩:简述</t>
+  </si>
+  <si>
+    <t>四臂猩猩 Girallon
+一头四臂猩猩看上去像一只体型超大有着灰色皮肤和白色毛发的四臂猿猴。它的尖牙和利爪把它和普通的猿猴区分开，显示出它是一头猎食巨兽。
+森林猎手 Forest Hunters。四臂猩猩在温带或生机盎然（abundant with life 充满生灵？）的暖林环境里最常见。他们和猿猴一样善于攀爬，虽然这些半吨重的生物会避开那些无法支撑其体重的树。相反，他们潜伏在森林的地面，潜藏在狭窄的沟壑或浅浅的洞穴中，或躲藏在废墟遗迹里等待猎物靠近。一头四臂猩猩出人意料的行动隐秘，考虑到它的大小及缺乏伪装。
+四臂猩猩们会形成由数个个体和它们的后代组成的松散群体，通常是由一头占主导地位的成年体领导，也往往是该群体中最年长的成员。当他们离开巢穴狩猎时，四臂猩猩用吼叫和肢体语言来进行远距离的交流。每个个体通常独自狩猎并与其他人离得很远，以确保每个人都能得到足够的食料。首领可能会组织成员们共同行动来进行一次大型猎杀。如果他们成功了，群体中的每个成员都能分享这些战利品，其中最好的部分将留给照顾幼崽的母亲们。
+墙壁攀爬者 Wall Climbers。类人生物居住过的废墟，尤其是在森林深处或丛林中的，似乎吸引着四臂猩猩们。他们沿着楼梯和阳台以及倾斜的屋顶和扶壁这样的结构轻松的移动。对一头四臂猩猩而言，一个城市的建筑只是另一种森林——更好的是，它最上面的“树枝”能很容易的支撑这些生物。在这样的环境中，四臂猩猩们充分的利用了他们的攀爬技巧。这些生物能很容易的攀登墙壁和城垛，它们栖息在塔顶和其他有利的高处以留意周围区域。
+魔法起源 Magical Origin。野生四臂猩猩的社会习性对于猿类来说是不寻常的，例如它们本能的被类人生物建筑物所吸引。这些事实，连同四臂猩猩的外貌，使贤者们相信四臂猩猩是通过魔法创造的，作为守护者为某个失落的帝国服务。当这个帝国很久以前灭亡时，四臂猩猩变成了野生的并遍布世界各地。
+从那时起，无数的生物都试图驯服、征服或与这些怪物合作。比如，蛇人（Yuan-ti）奴役四臂猩猩，把它们变成他们毒蛇王国的边境哨兵。因为四臂猩猩们知道它们自身的天性是愿和平共处的，（所以）某些类人生物学会了如何接近一个群体的首领，提供食物和其他礼物，以希望与这些生物建立一个同盟。
+受到良好对待的四臂猩猩可能愿意充当守卫，尽管他们缺乏智力来执行比攻击进入自己领地的陌生人更复杂的任务。如果是一头从小接受了适当训练的四臂猩猩，它可能会出现在一个看似不可能的地方，比如守卫在一个城市的盗贼行会的入口处。把四臂猩猩当做宠物的人必须时刻保持警惕，因为这种生物随时都可能恢复它的猎食天性。</t>
+  </si>
+  <si>
+    <t>四臂猩猩</t>
+  </si>
+  <si>
+    <t>四臂猩猩 GIRALLON
+大型怪兽，无阵营
+AC：13
+HP：59(7dl0+21)
+速度：40尺, 攀爬40尺.
+力量18(+4)  敏捷16(+3)  体质16(+3)
+智力 5(-3)  感知12（+1） 魅力7（-2）   
+技能：察觉+3、隐匿+5
+感官：黑暗视觉60尺，被动察觉13
+语言：—
+挑战等级：4 (1,100 XP)
+好斗 Aggressive。 作为一个附赠动作项，四臂猩猩可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+敏锐嗅觉 Keen Smell。 四臂猩猩依赖嗅觉进行的感知（察觉）检定具有优势。
+动作
+多重攻击Multiattack。 四臂猩猩发动五次攻击：一次啃咬和四次爪击。
+啃咬 Bite。 近战武器攻击：命中+6,触及5尺,单一生物。命中：7（1d6+4）穿刺伤害。
+爪击 Claw。 近战武器攻击：命中+6,触及10尺,单一目标。命中：7（1d6+4）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>血糜兽:简述</t>
+  </si>
+  <si>
+    <t>血糜兽 Leucrotta
+血糜兽是一种组合了巨型獾的头部、里面有一个似人的头脑，只喜欢折磨和吞食人类，鹿一样的腿部和如巨型鬣狗般的身躯，把这些部分用恶魔脓水粘合在一起，然后复生这个怪物并不必担心掩盖那死亡般的臭味。
+耶诺古的产物：第一只血糜兽出现在豺狼人部落并与之并肩作战是豺狼人之王耶诺古暴怒的凌虐在主物质位面时。当时鬣狗们跟在豺狼人之王身后并吞食其杀戮的残骸，其中有的转化为血糜兽，相反的则转化为豺狼人。而这奇怪的结果是，血糜兽占其中的多数。
+血糜兽狡诈机智且残酷，它酷爱欺骗、折磨和杀戮。因为血糜兽比起一般的豺狼人更聪明且更坚韧，所以一只血糜兽通常在豺狼人部落中占据较高的地位。即便是血糜兽不喜欢领导一队豺狼人组团，但是它可以影响组团的领导，并且它也会同意协助豺狼人领袖参与战争并在战斗中给予建议。
+豺狼人通常视血糜兽为一种部落娱乐的形式，一部分原因是血糜兽可以模仿受害者的尖叫——一种通常能给豺狼人带来愉悦的声音——即使当时没有受害者可以吃。另外，豺狼人通常都是嗜血和虐待狂，但是它们的天性使得它们不能从杀戮后持续较长时间的愉悦。而多数血糜兽则是天生残忍的生物，它们的野蛮行径如果一丝不苟的描绘出将是把屠杀变为一场更愉悦、更持久的运动。豺狼人们享受观看血糜兽的行为就如同他们亲自参与屠杀一样。
+卑劣的体现：血糜兽是如此令人憎恶，只有豺狼人和它的其他同类能在其周围停留较长时间。它那可怕的、令人毛骨悚然的身体散发出一种恶臭，并且这种恶臭污染了这种怪物身体的每个部分。这种恶臭随着血糜兽的呼吸散发出体外，同时还从口中流出一种具有腐败味的腐蚀性液体。代替其尖牙的位置，是坚硬如钢铁般的骨刺，能轻易碾碎生物的骨头和撕裂血肉。具有如此全副武装的牙齿，血糜兽可以运用它们轻易破坏一名骑士的铠甲并杀死他。
+血糜兽的恶臭通常是其在攻击前对猎物的一种警告，然而，这种怪物具有两种天然能力，并使得血糜兽在攻击前具有优势。首先，一只血糜兽的行迹如同普通鹿的行迹一般难以区分。其次，血糜兽可以模仿任何它曾经听到过的生物的叫声或是声音表达方式。这个怪物充分利用它们的模仿能力吸引潜在的猎物，并在猎物麻痹且未察觉到威胁时发动进攻。</t>
+  </si>
+  <si>
+    <t>血糜兽</t>
+  </si>
+  <si>
+    <t>血糜兽 Leucrotta
+大型怪兽，混乱邪恶
+AC：14（天生护甲）
+HP：67（9d10+18）
+速度：50尺
+力量18（+4）   敏捷14（+2）   体质15（+2）
+智力9（-1）   感知12（+1）   魅力6（-2）
+技能：欺瞒 +2；察觉+3
+感官：黑暗视觉60尺，被动察觉13
+语言：深渊语、豺狼人语
+挑战等级：3（700 XP）
+敏锐嗅觉：血糜兽进行的依赖嗅觉的感知（察觉）检定具有优势。
+撤退回踢：如果一只血糜兽用它的蹄子攻击，那它可以用附赠动作执行撤离动作。
+模仿：血糜兽可以模仿动物的叫声或是类人生物的声音，一个听到该声音的生物如果成功通过DC 14的智力（调查）检定就可以辨别出它们是模仿的。
+狂暴：当一只血糜兽在它的回合内以一次近战攻击使一个生物降为0生命值时，那么它能以一个附赠动作进行半速移动以及进行一次蹄攻击。
+动作
+多重攻击：血糜兽进行两次攻击：一次啃咬和一次蹄击。
+啃咬：近战武器攻击：命中+6，触及5尺，单一目标。命中：8（1d8+4）穿刺伤害。如果血糜兽掷出了重击，那么它将投掷三颗伤害骰，而非两颗。
+蹄击：近战武器攻击：命中+6，触及5尺，单一目标。命中：11（2d6+4）的钝击伤害。</t>
+  </si>
+  <si>
+    <t>蠕行追迹者:简述</t>
+  </si>
+  <si>
+    <t>蠕行追迹者 Slithering Tracker
+那些寻求复仇的人有时会选择经受一次仪式，仪式使他们的身体变成被称为蠕行追迹者的半流质状态。
+蠕行追迹者，看似无害而又阴险狡猾，一个追迹者流淌进入那些普通生物所无法到达的地方，并且在它的猎物身上留下它湿漉漉的死亡烙印。
+不惜任何代价的复仇。创建一个蠕行追迹者的仪式，只有祭祀复仇之神的鬼婆、巫妖和祭司才知晓。该仪式只能在对一个渴望复仇的自愿生物施展。魔法将从人的身体吸走所有的水分，在这个过程中杀死它。然而，思想仍存在于从尸骸流出的液体泥浆里，着手进行它无止境的报复。
+隐形刺客。一个蠕行追迹者通过感受地面上（的气味）来寻找猎物的踪迹。猎杀时，一个蠕行追迹者会缠住对方并且紧紧包裹，这样做是为了试图淹死猎物的同时也吸干猎物的鲜血。一个刚进行过猎杀的追迹者会在一段时间内变得更容易找到，因为它的液态身体被血微微染色。在身后留下一条明显的痕迹。</t>
+  </si>
+  <si>
+    <t>蠕行追迹者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蠕行追迹者 Slithering Tracker
+中型泥怪，混乱邪恶
+AC 14
+HP 32（5d8+10）
+速度 30尺，攀爬30尺，游泳30尺
+力量16（+3） 敏捷19（+4） 体质15（+2）
+智力10（+0） 感知14（+2） 魅力11（+0）
+技能：隐匿+8
+伤害易受：火焰，寒冷
+伤害抵抗：非魔法武器的钝击、挥砍和穿刺
+状态免疫：目盲，耳聋，力竭，擒抱，麻痹，石化，倒地，束缚，昏迷
+感官：盲视120尺，黑暗视觉120尺，被动察觉12
+语言：理解生前掌握的语言但不能说
+挑战等级：3（700xp）
+伏击专家。在战斗的第一轮，追迹者对被它突袭（原文为：对它感到惊讶）的任何生物有命中骰上的优势。
+伤害转移。当追迹者擒抱一个生物时，它只受到对它造成伤害的一半，被擒抱的生物承受另一半。
+敏锐跟踪。追迹者在追踪猎物的感知检查中具有优势。
+伪装外表。当蠕行追迹者保持静止时，除非是观察者在DC18的智能（调查）检定中成功，否则无法区别它与普通水坑的差异。
+液体形式。蠕行追迹者可以进入敌人的空间然后停在那里。它也可以挤过一个1英寸宽的缝隙。
+蛛行。追迹者可以爬上困难的表面，包括倒吊在天花板上，而不需要做能力检定。
+隐于水中。在水下环境中的追迹者在为隐藏而进行的敏捷（隐匿）检定上有优势，以一个附赠动作它可以进行躲藏动作。
+动作
+猛击。近战武器攻击：+5命中，触及5英尺，一个目标。命中：8（1d10+3）钝击伤害。
+生命榨取。蠕行追迹者可以看到的、5英尺内的一个大型或更小的生物必须通过DC13的敏捷豁免，否则被追迹者擒抱（逃脱DC13）。直到此擒抱结束前，目标被束缚，且无法呼吸，除非它能在水中呼吸。此外，被擒抱的目标在每个它自己的回合开始时受到16（3dl0）暗蚀伤害，在它的每个回合开始。蠕行追迹者在同一时间只能擒抱一个目标。
+</t>
+  </si>
+  <si>
+    <t>孢子人:简述</t>
+  </si>
+  <si>
+    <t>孢子人 Vegepygmies
+孢子人是生活在简单的部落单位中的真菌生物。它们的生活主要是寻找食物，以及传播繁殖所需的孢子。
+原始植物。孢子人，也称为霉族或菌丝族，居住在温暖和潮湿的黑暗地区，所以他们最常见于地下或密集的森林，很少有阳光能照射到那里。孢子人本能地感觉到自身与其他植物和真菌生物的亲缘关系，因此孢子人部落总能与像蕈人、尖叫蕈和紫蕈这样的生物很好地共存。
+虽然他们喜欢吃新鲜的肉、骨头和血液，但孢子人可以从土壤和多种有机物中吸收营养，这意味着他们很少挨饿。孢子人可以通过强迫空气通过嘴发出嘶嘶声和其他噪音，但它不能用常规的方式说话。在日常生活中，孢子人通过嘶嘶声、手势和有节奏的敲击身体来交流。孢子人很少进行建筑和制造工作；他们拥有的任何工具都是从其他生物那里获得的，或者是通过复制他们所目睹的简单结构来建造的。
+生于霉菌。孢子人起源于当一个人形生物或巨人被赤霉杀死时留下的遗骸。一天后，尸体上会出现一个或多个孢子人。如果像狗或熊这样的野兽死于赤霉，则会产生一种被称为棘兽的兽类动物，而不是人形的孢子人。棘兽远不如孢子人聪明，但它们的体型更大也更凶猛，而且身上还覆盖着刺。
+随着一个孢子人年龄的增加，它的身体会变得更加坚硬，并在身体上形成孢子簇。能够产生孢子的孢子人被其他同类所尊崇，所以有人把这种孢子人称为领主。孢子领主可以在爆发时释放出孢子，感染附近的生物。如果一个生物在被感染时死亡，它的尸体就会产生孢子人，就像赤霉一样。
+没有人确切地知道孢子人是从哪里来的。有历史记载说，冒险家在一座令人望而生畏的山脉深处找到了一座充满奇特生命的金属地下城，并且在里面发现了赤霉和孢子人。而另一个故事说，探险家在一颗陨石留下的大坑里发现了赤霉，旁边茂密的丛林里到处都是孢子人。
+边栏：赤霉
+这种真菌被称为赤霉，颜色呈红褐色，仅在黑暗、温暖和潮湿的地方才能发现。在这种情况下，附着在金属物体上的赤霉可能会被误认为是一块锈斑，在这种情况下，需要成功的DC15智力(自然)或感知(生存)检定才能准确地识别出它。
+当赤霉喷出一股孢子时，任何在它5英尺以内的生物必须通过DC13的体质豁免，否则该生物会中毒。当以这种方式中毒时，生物在他的每个回合开始时都会受到7(2D6)毒素伤害，当它受到伤害时，表现为他身上长出赤霉。生物可以在每次回合结束时重复豁免，成功则结束对自身的影响。任何能中和毒药或治愈疾病的魔法都会杀死霉菌。当一个生物被减少到O点生命值，则他被霉菌的毒素伤害杀死。如果死亡的生物是野兽、巨人或类人，24小时后，一个或多个新生的孢子人会从它的身体中出现：小型尸体（1个），中型尸体（2个），大型尸体（4个）；巨型尸体（8个），或者超巨型尸体（16个）。
+赤霉很难杀死，因为武器和大多数类型的伤害都不会伤害到它；只有强酸、暗蚀、光耀伤害能够起效，每1点伤害就会摧毁1平方英尺的赤霉。一磅盐、一加仑酒精或者治愈疾病的魔法效果能够摧毁10英尺见方的赤霉，阳光可以杀死照射下的任何一块赤霉。</t>
+  </si>
+  <si>
+    <t>孢子人</t>
+  </si>
+  <si>
+    <t>孢子人
+小型植物,绝对中立
+AC 13 （天生护甲）
+HP 9 (2d6+2)
+速度 30 ft.
+力量7(-2) 敏捷14(+2) 体质13(+1) 
+智力6(-2) 感知11(+0) 魅力7（-2）
+技能：觉察+2, 隐匿+4
+伤害抗力：闪电, 穿刺
+感官：黑暗视觉 60 ft, 被动察觉 12
+语言：孢族语
+挑战：1/4 (50 XP)
+植物伪装：孢子人在任何有充足遮挡植物的地形上进行的敏捷(隐匿)检定上具有优势。
+再生：孢子人在自己回合开始时恢复3点生命值。如果它受到寒冷、火焰或暗蚀伤害，这种特性在孢子人下一轮的回合开始时不会发挥作用。只有当它以0点开始其回合并且不能再生时，孢子人才会死亡。
+动作
+爪击：近战武器攻击，+4 命中, 触及 5 ft.,单一目标。造成 5 (ld6+2) 挥砍伤害。
+投石索：远程武器攻击， +4 命中, 射程 30/120 ft., 单一目标.。造成 4 (ld4+2) 钝击伤害。</t>
+  </si>
+  <si>
+    <t>孢子领主</t>
+  </si>
+  <si>
+    <t>孢子领主
+小型植物,绝对中立
+AC 14 （天生护甲）
+HP 33 (6d6+12)
+速度 30 ft.
+力量14(+2) 敏捷14(+2) 体质14(+2) 
+智力7(-2) 感知12(+1) 魅力9（-1）
+技能：察觉+3, 隐匿+4
+伤害抗力：闪电, 穿刺
+感官：黑暗视觉 60 ft, 被动察觉 13
+语言：孢族语
+挑战：2 (45O XP)
+植物伪装：孢子领主在任何有充足遮挡植物的地形上进行的敏捷(隐匿)检定上具有优势。
+再生：孢子领主在自己回合开始时恢复5点生命值。如果它受到寒冷、火焰或暗蚀伤害，这种特性在孢子人下一轮的回合开始时不会发挥作用。只有当它以0点开始其回合并且不能再生时，孢子人才会死亡。
+动作
+多重攻击。孢子领主用爪子发动两次攻击，或用长矛发动两次近战攻击。
+爪击：近战武器攻击，+4 命中, 触及 5 ft.,单一目标。造成 5 (ld6+2) 挥砍伤害。
+长矛：近战或远程武器攻击，+4 命中，5 ft.或20/60 ft.范围，单个目标。造成5(1d6+2)穿刺伤害，或6(1d8+2)穿刺伤害（如果用两只手进行近战攻击）。
+孢子(1/日)：一朵15英尺半径的有毒孢子云从孢子领主身上弥漫开来。孢子散布在角落里，在这个区域里的每一个非植物的生物都必须通过一个DC12的体质豁免否则中毒。当以这种方式中毒时，一个目标在每个回合开始时都会受到9(2d8)的毒伤害。目标可以在每个自己回合结束时重复豁免，成功则结束对自身的影响。</t>
+  </si>
+  <si>
+    <t>棘兽</t>
+  </si>
+  <si>
+    <t>棘兽 Thorny
+中型植物,绝对中立
+AC 14 （天生护甲）
+HP 27 (5d8+5)
+速度 30 ft.
+力量13(+1) 敏捷12(+1) 体质13（+1) 
+智力4(-2) 感知10(+0) 魅力6（-2）
+技能：察觉+4, 隐匿+3
+伤害抗力：闪电, 穿刺
+感官：黑暗视觉 60 ft, 被动察觉 14
+语言：——
+挑战：1 (20O XP)
+植物伪装：棘兽在任何有充足遮挡植物的地形上进行的敏捷(隐匿)检定上具有优势。
+再生：棘兽在自己回合开始时恢复5点生命值。如果它受到寒冷、火焰或暗蚀伤害，这种特性在孢子人下一轮的回合开始时不会发挥作用。只有当它以0点开始其回合并且不能再生时，孢子人才会死亡。
+荆棘之躯：在它的回合开始，棘兽对任何擒抱它的生物造成2(1d4)穿刺伤害。
+动作
+啃咬。近战武器攻击，+3命中，触及 5 ft.，单一目标。造成 8 (2d6+1)穿刺伤害。</t>
+  </si>
+  <si>
+    <t>菘蓝树人:简述</t>
+  </si>
+  <si>
+    <t>菘蓝树人 Wood woad
+菘蓝树人是一种强大的人形植物，注入了放弃生命之人的灵魂，从而成为了一名永恒的守护者。
+生于牺牲。创造菘蓝树人的仪式是一个在野蛮社会和黑暗德鲁伊之环中世代相传的太古秘密。举行仪式未必是邪恶的行为，如果牺牲者已经达成了需要他做出心甘情愿的牺牲的协议。
+在仪式上，一个活人的胸膛被刺穿，心脏被移除，然后将一粒种子放入心脏，并将其放在一棵树中。任何空洞和树弯都能这么做，但往往是一棵雕刻出特殊空洞的树干。然后用牺牲的受害者的血液冲洗浇灌树，躯体则被埋在树的根部中。三天后，一株新芽从树根部的地面上萌发，并迅速成长为人形。
+这具新的身躯以坚韧树皮作甲，佩着一根粗糙多节的木棒和一面盾牌，随时准备履行其职责。举行仪式的人给菘蓝树人安排任务，这生物会不断地遵循命令。
+无情的保护者。一名菘蓝树人有一个将成为它的心脏所在的洞，正如其之前的身体，深埋于地中。那些成为菘蓝树人的人以他们的自由意志和全部的感情换得了超自然的力量和不死的义务。它们只与那些照料管理它们的人生活于保护的林地中。菘蓝树人的脸是空虚又面无表情的，除了在它们眼窝中充溢的光尘。菘蓝树人极少开口说话，当没有被要求采取行动时，它们扎根在地面上，默默地从中吸取着养料。
+连根拔起的不朽。就像棵树一样，一名菘蓝树人只需要阳光，空气和来自大地的养料以维生。因为它们是不朽的，一些菘蓝树人比它们最初的目的还要长寿。一个地方的菘蓝树人可能会随着时间的流逝或者那些被指定守护的人可能的死亡而失去力量或者意义。如果它从它的具体职责中得到解放，一名菘蓝树人可能会漫游找到另一处自然美景或者监视古怪的影响。
+菘蓝树人被与自然有着密切联系，并保护和尊重大地的生物所吸引，如德鲁伊和树人。一些树人由于和德鲁伊的古老协议或者举行了古怪的仪式而有着菘蓝树人作为仆从，而另一些获得自由的菘蓝树人则在同类守护者的领土中找到了新的目标。</t>
+  </si>
+  <si>
+    <t>菘蓝树人</t>
+  </si>
+  <si>
+    <t>菘蓝树人 Wood woad
+中型植物，守序中立
+AC 18（天生护甲，盾牌）
+HP 75（10d8+30）
+速度 30尺，攀爬30尺
+力量18（+4），敏捷12（+1），体质16（+3）
+智力10（+0），感知13（+1），魅力8（-1）
+技能 运动+7，察觉+4，隐匿+4
+伤害易伤 火焰
+伤害抗力 钝击，穿刺
+状态免疫 魅惑，恐慌
+感官 黑暗视觉60尺，被动察觉14
+语言 木族语
+挑战等级 5（1800XP）
+魔法木棒。在菘蓝树人的手中，木棒是魔法武器并造成7（3d4）额外伤害（已包含在它的攻击中）。
+植物伪装。菘蓝树人处于任何有着足够遮蔽植物的地形时在敏捷（隐匿）检定上有优势。
+再生。如果菘蓝树人与地面相接触，则在其回合开始时回复10点生命值。如果菘蓝树人收到火焰伤害，这个特性在它下一回合开始时不起作用。只有在它0生命值时开始回合并且无法再生时，菘蓝树人才会死亡。
+树之步伐。在它的每个回合内，菘蓝树人可以使用它10尺移动力如同法术一般进入距离它5尺内的一棵活树中并从它能看到的60尺范围内的第二棵活树中浮现，出现在第二棵树5尺范围内未被占据的空间中。两棵树都必须是大型或者更大的。
+动作
+多重攻击。菘蓝树人进行两次木棒攻击。
+木棒。近战武器攻击：命中+7，触及5尺，单一目标。命中：14（4d4+4）钝击伤害。</t>
+  </si>
+  <si>
+    <t>波达尸:简述</t>
+  </si>
+  <si>
+    <t>波达尸 Bodak
+波达尸是一种曾经崇拜奥库斯的生灵不死生物残念，在其失去生命和灵魂后，波达尸存在的唯一意义就是散播死亡。
+奥库斯印记：一名奥库斯的崇拜者往往向不死君主发誓，并在其胸口刻上恶魔领主的标记。奥库斯的邪能剥夺了这个生物的身体，思想和灵魂。只留下一副吸取周围生命力的皮囊。很多波达尸就是通过这种方式产生的，然后它们以奥库斯的名义散播死亡。
+奥库斯创造了第一批波达尸是通过它七个信徒，亦称作圣徒者的毁灭。这七名波达尸如同巴洛炎魔一般强大，拥有自由的意志并直接服务于不死王子奥库斯。这些波达尸中的任意一名都可以通过死亡凝视杀死凡人并将其转化为一只波达尸，就如同当初的圣徒者毁灭仪式一样。每只波达尸的胸口都会有奥库斯的印记，通常印记都会在这个生物胸口心脏的位置。
+奥库斯可以召回任何波达尸看到或听到的事物。 如果奥库斯这样做，那它可以通过这只波达尸立即与它的敌人或者信徒交谈。波达尸是奥库斯邪恶愿望的延展，在深渊之外，波达尸通常服务于恶魔王子的军队或是完成奥库斯的使命任务。
+不洁净的碎片：波达尸有时会回忆起它旧时生活的记忆碎片。它会试图找出它从前的盟友或是从前的敌人，并摧毁他们，就如同它那扭曲的灵魂试图抹去任何曾经和他前世有关的事物。但是奥库斯的使命却是个强制性的例外。一只波达尸可以认知到它同类的灵魂并远离它们的愤怒。任何人如果知道这个人在转化成波达尸之前的特殊习惯或者是其他微妙线索都可以识别出它的原始身份。
+大自然是蔑视波达尸这种生物的，阳光会灼烧它腐败的皮肤。这些生物可怕的凝视会耗费活着的生物的生命力，波达尸运用它的死亡凝视杀死任何活着的生物，而它的脸部凝固着如同扭曲恐怖的面具一样，这种怪物的存在是如此不自然，会使灵魂感到寒冷。没有受过战争训练的野兽或坐骑会在波达尸到来前本能的逃走。
+灵魂掠夺：当一个生物变成波达尸后，他的灵魂会变得破碎不堪以至于很少有合适的魔法复活，只有通过许愿术或是类似的魔法才能唤回这个波达尸曾经的生命。
+不死生物体质：波达尸不需要呼吸、食物、饮水和睡眠。</t>
+  </si>
+  <si>
+    <t>波达尸</t>
+  </si>
+  <si>
+    <t>波达尸 Bodak
+中型不死生物，混乱邪恶
+AC：15（天生护甲）
+HP：58（9d8+18）
+速度：30尺
+力量15（+2）   敏捷16（+3）   体质15（+2）
+智力7（-2）   感知12（+1）   魅力12（+1）
+技能：感知+4，隐匿+6
+伤害抵抗：寒冷、火焰、黯蚀；非魔法的钝击、挥砍、穿刺
+伤害免疫：闪电、毒素
+状态免疫：迷惑、惊恐、中毒
+感官：黑暗视觉120尺，被动觉察13
+语言：深渊语、生前语言
+挑战等级：6（2300 XP）       
+毁灭光环。波达尸可以取消或者激活该能力，作为附赠动作。当毁灭光环激活后，任何在波达尸周围30尺的生物在回合结束后要收到5点黯蚀伤害。但是不死生物和炼狱生物免疫该影响。
+死亡凝视。当一个生物在回合开始时距离波达尸不到30尺，且该生物看到的波达尸的空洞的眼睛。如果该波达尸可以行动且看到该生物，它可以强制该生物进行一次DC 13 的体质豁免鉴定，如果豁免失败为5点或更多，则该生物生命值将至0点，除非他能对这次惊恐状态免疫。否则，该生物将因豁免失败承受16（3D10）精神伤害  。
+除非是突袭，否则这个生物可以在回合开始前转移视线来避免该次豁免。如果该生物如此做，那么他将在对抗波达尸的攻击骰上具有劣势，直到他下一个回合的开始。如果该生物在行动期间看向波达尸，那他必须立刻进行豁免鉴定。
+阳光过敏。如果一只波达尸在开始其回合时处于阳光之下，那它将承受5点光耀伤害。并且在阳光下，波达尸在攻击骰和能力鉴定上都具有劣势。
+动作
+拳击。近战武器攻击：命中+5，触及5尺，单一生物。命中：4（1d4+2）的钝击伤害并附加9点（2d8）的黯蚀伤害。
+枯萎凝视。当一个生物在波达尸60尺内的视线范围内，波达尸可发动凝视。该生物必须进行一次DC 13 的体质豁免鉴定，如果豁免失败则该生物承受22点（4d10）黯蚀伤害，如果成功则要承受一半的伤害值。</t>
+  </si>
+  <si>
+    <t>凯沃斯衍体:简述</t>
+  </si>
+  <si>
+    <t>凯沃斯衍体 Spawn of Kyuss
+凯沃斯是一名奥库斯的高阶祭司，他的得意之作就是在大墓地中掠夺尸体并制造出了第一只凯沃斯衍体。在凯沃斯死后的几个世纪后，他的门徒仍旧执行其创造的可怕仪式。
+蠕虫之灾（Plague  of  Worms）：在远距离或是弱光环境下，凯沃斯衍体看起来和普通的僵尸没什么两样，但当它们进入清晰的视野中，你就会发现大量的蠕虫附在其身上或爬出在体外。这些蠕虫会跳到附近类人生物的身上并钻入他们的体内，蠕虫会贯穿这个类人生物的身体并使用其自己的方式到达寄主的大脑。当寄生于脑部时，蠕虫就会杀死该寄主并利用其尸体转化成一只新的凯沃斯衍体来饲育更多的幼虫。死亡类人生物的灵魂则困于尸骸内，以防止该生物复苏或是或复活，直至这个不死生物的躯体完全被破坏。而更恐怖的是这个囚于不死生物体内的灵魂陷入凯沃斯衍体的疯狂之中。
+无止境的腐坏（Corruption Without End）：凯沃斯衍体完美的表现出不死君王奥库斯希望将所有的生物转化为不死生物的意志。通过起疯狂的设想，凯沃斯衍体就是一个衍生品。如果当凯沃斯衍体偶然发现了一个生物，他就会使蠕虫攻击并寄生来产出更多的蠕虫。无论它们是分散还是聚集在一起，蠕虫的繁衍速度是以指数级。
+不死本质（Undead Nature）：凯沃斯衍体不需要空气、食物、水或睡眠。</t>
+  </si>
+  <si>
+    <t>凯沃斯衍体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凯沃斯衍体 Spawn of Kyuss
+中型不死生物，混乱邪恶
+AC：10
+HP：76（9d8+36）
+速度：30尺
+力量16（+3）   敏捷11（+0）   体质18（+4）
+智力5（-3）   感知7（-2）   魅力3（-4）
+豁免：智力+1
+伤害免疫：毒素
+状态免疫：力竭、中毒
+感官：黑暗视觉60尺，被动察觉8
+语言：能听懂其生前所熟知的语言但不会说
+挑战等级：5（1800xp）
+再生（Regeneration）：当凯沃斯衍体处于生命值不少于1点且其身体不暴露在阳光和流水中，则凯沃斯衍体开始其回合时回复10点生命值。如果该幼虫收到强酸、火焰或是光耀伤害时，则该特性在凯沃斯衍体的下一回合开始前无法生效。如果凯沃斯衍体在其回合开始前生命值降到0hp将会被摧毁其无法再生。
+蠕虫（Worms）：如果凯沃斯衍体的卵感染的生物通过治疗疾病或移除诅咒的效果，那么所有感染它的蠕虫都会枯萎，并失去穴居蠕虫的作用。
+动作
+多重攻击：凯沃斯衍体会发动两次攻击：一次爪击，一次蠕虫钻噬攻击。
+蠕虫钻噬（Burrowing  Worm）：当一个类人生物距离凯沃斯衍体可视的十尺之内，其身体内的蠕虫会被射向该类人生物。如果该生物没有通过DC11的敏捷豁免鉴定，蠕虫成功附着在类人生物的皮肤上。这些蠕虫是一种微型不死生物，具有AC6，1HP，在每项技能鉴定上2（-4），且移动速度为1尺的属性。当蠕虫附着在该生物的皮肤上时，它可以用正常的方式杀死或是用行动来刮擦掉（而凯沃斯衍体也可以通过这次动作将体内的蠕虫射向距离其十尺内可视的类人生物）。如果不这样做，则蠕虫们会在该生物下个回合结束后钻入该目标皮肤之下，并对其造成1点穿刺伤害。在那之后的每个回合结束时，在该目标生物体内的蠕虫将造成7（2d6）伤害（最大为10d6）。这个被蠕虫寄生的目标生物生命值降至0点时就会死亡，然后再10分钟后复生成一只新的凯沃斯衍体。如果寄生生物受到治愈疾病和移除诅咒的影响，则其体内的寄生蠕虫都会枯萎死亡。
+爪击Claw。近战武器攻击：命中+6，触及5尺，单一生物。命中：6（1d6+3）的挥砍伤害并附带7（2d6）的黯蚀伤害。
+</t>
+  </si>
+  <si>
+    <t>原牛:简述</t>
+  </si>
+  <si>
+    <t>原牛 Aurochs
+巴格杵（Bahgtru），格乌什和筎赛可之子，是兽人无与伦比的力量之神。传说巴格杵正在为进行一场战争而寻找适合他凶猛的坐骑，它发现一头强大无比的原牛，并徒手征服了这只生物，将它拖到兽人之土，格乌什的领域。巴格杵命名这只动物为 Kazaht，即兽人之牛。骑在这只强大动物的背上，巴格杵冲向敌人，用原牛的角冲撞敌人，越过牛角落在它敌人的中央。
+敬畏巴格杵的兽人可能会有一群驮着他们进入战场的战争公牛，原牛从幼年时就被训练成凶猛的坐骑，是巴格杵的神圣象征。没有兽人会食用这种动物，直至原牛死亡它们都被当作尊贵的勇士。</t>
+  </si>
+  <si>
+    <t>原牛</t>
+  </si>
+  <si>
+    <t>原牛 Aurochs
+大型野兽，无阵营
+护甲等级 11（天生护甲）
+生命值 38（4d10+16）
+速度 50尺
+力量20（+5） 敏捷10（+0） 体质19（+4）
+智力2（-4） 感知12（+1） 魅力5（-3）
+感官：被动察觉 11
+语言：——
+挑战等级：2  (450 XP)
+冲锋 Charge.如果原牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 9（2d8）钝击伤害。若目标是生物，则该目标必须通过DC15的力量豁免检定，否则将被撞击倒地。
+动作
+角抵Horns。 近战武器攻击：命中+6，触及5英尺，单一目标。命中：13（2d8+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>家牛:简述</t>
+  </si>
+  <si>
+    <t>家牛 Cow
+家牛有很多种，从普通的牛到更不寻常的、神奇的变种。公牛、洛斯兽、恶臭野牛</t>
+  </si>
+  <si>
+    <t>家牛</t>
+  </si>
+  <si>
+    <t>家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>公牛</t>
+  </si>
+  <si>
+    <t>公牛（OX）
+公牛通常是用做农业劳作而不是用做挤奶或肉食，其还有以下特征：
+驮兽（Beast of Burden）：在决定公牛的负重能力时，公牛被视为大一级体型的生物
+家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>洛斯兽</t>
+  </si>
+  <si>
+    <t>洛斯兽（ROTHE）
+普通的洛斯兽很像平常的公牛，但是它们具有30尺的黑暗视觉。深洛斯兽是幽暗地域缩小版的普通洛斯兽变体。它们由中体型代替大体型，具有13点（2d8 + 4）生命值，并且它们通过一种魔法光感来互相联系。它们具有60尺的黑暗视觉及以下特点：
+天生施法：深洛斯兽的施法能力基于其魅力，它可以随心所欲的施展光舞术，并且不需要任何耗材。
+家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>恶臭野牛</t>
+  </si>
+  <si>
+    <t>恶臭野牛（STENCH Kow）
+这些混杂着橙色和绿色体色的畸形野牛原产于下层位面，它们具有寒冷、火焰及毒素抗性，60尺的黑暗视觉以及以下特性：
+恶臭（STENCH）：除了同类以外的任何生物，如果其回合开始时处于恶臭野牛周围5尺则必须通过DC 12的体质豁免检定，如果失败则该生物到自己下个回合开始都处于中毒状态。如果豁免成功，则该生物1个小时内都免疫所有恶臭野牛的恶臭气味。
+家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>海豚:简述</t>
+  </si>
+  <si>
+    <t>海豚 Dolphin
+海豚是聪明、群居的海洋哺乳动物，以小型鱼类和鱿鱼为食。一头成年海豚个体的长度在5到6英尺之间。</t>
+  </si>
+  <si>
+    <t>海豚</t>
+  </si>
+  <si>
+    <t>海豚 Dolphin
+中型野兽，无阵营
+护甲等级 12（天生护甲）
+生命值 11（2d8+2）
+速度 0尺，游泳60尺
+力量14（+2） 敏捷13（+1） 体质13（+1）
+智力6（-2） 感知12（+1） 魅力7（-2）
+技能：察觉+3
+感官：黑暗视觉 60ft，被动察觉 13
+语言：——
+挑战等级：1/8（25xp）
+冲锋 Charge.如果海豚先向目标直线移动至少 30 尺，然后在同一回合以猛击命中该目标。此时该目标将受到额外 3（1d6）钝击伤害。
+屏息Hold  Breath.海豚可以憋气 20 分钟。
+行动 Actions.
+猛击 Slam.近战武器攻击：+4命中，触及5尺，一个目标。
+伤害：5（1d6+2）钝击伤害。</t>
+  </si>
+  <si>
+    <t>食腐蛆集群:简述</t>
+  </si>
+  <si>
+    <t>食腐蛆集群 Swarm of rot grubs
+食腐蛆是手指大小的蛆，以活物或尸体上的肉为食，尽管它们可以依赖植物存活下去。它们会钻入尸体和成堆的腐烂物质中，并攻击任何惊扰它们的生物。在钻入仍然活着的生物血肉后，食腐蛆依照本能向心脏一路高歌猛进，最终杀死它的宿主。
+不论是单个还是集群的食腐蛆都可以构成威胁。集群的属性已给出。单一的食腐蛆没有属性部分。任何与其接触的生物必须通过DC10的敏捷豁免。若豁免失败，食腐蛆钻入生物的血肉中，并在宿主生物的每一个回合开始时造成3(1d6)穿刺伤害。在宿主生物的下一回合结束前，在伤口上点火灼烧，会对宿主造成1点火焰伤害，并杀死入侵的食腐蛆。一旦超过这段时间，食腐蛆就会深入宿主的皮肤下方，火焰无法奏效。如果一个生物被一个或多个食腐蛆寄生，以0点HP结束它的回合，它就会因为食腐蛆钻入心脏而死。任何治疗疾病的效果都会杀死所有寄生目标的食腐蛆。焚烧一具尸体也会杀死任何寄生在它身上的食腐蛆。</t>
+  </si>
+  <si>
+    <t>食腐蛆集群</t>
+  </si>
+  <si>
+    <t>食腐蛆集群 SWARM OF ROT GRUBS 
+微型野兽的中型集群，无阵营
+AC：8（天生护甲）
+HP：22（5d8）
+速度：5 尺，攀爬5 尺
+力量2（-4） 敏捷7（-2） 体质10（+0）
+智力1（-5） 感知2（-4） 魅力1（-5）
+伤害抗性：穿刺、挥砍
+状态免疫：魅惑，恐慌，擒抱，麻痹，石化，倒地，束缚
+感官：盲视10 尺，被动察觉6
+语言：—
+挑战等级：1/2（100 XP）
+集群Swarm。集群可以进驻另一生物身处的空间位置，反之亦然。而且集群可以通过任何足够一只微型蛆通过的通道。集群不能恢复生命值也不能获得临时生命值。
+动作
+啃咬。近战武器攻击：+0命中，触及0英尺，一个位于集群空间之中的生物。命中：目标被1d4的食腐蛆寄生。在每个目标回合开始时，目标体内每有一只食腐蛆就会受到1d6穿刺伤害。在目标的下一回合结束前，在被咬伤处使用火焰灼烧，将会对目标造成1点火焰伤害，同时杀死这些食腐蛆。过了这段时间，这些食腐蛆将会深深钻入血肉之中，以至于无法用上述方法烧死。如果一个被食腐蛆感染的目标以0点HP状态结束其回合，它就会因被食腐蛆钻入心脏而死去。任何治疗疾病的效果都会杀死所有寄生目标的食腐蛆。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1018,34 +4550,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,14 +4566,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,6 +4605,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1159,7 +4670,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,55 +4711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,31 +4735,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,6 +4771,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1305,7 +4795,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,7 +4843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,6 +4879,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1370,21 +4902,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1417,6 +4934,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,152 +5005,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1630,58 +5162,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1985,10 +5523,10 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="103.445454545455" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="103.441666666667" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -2019,8 +5557,6 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2033,8 +5569,6 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2047,8 +5581,6 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2061,8 +5593,6 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2075,8 +5605,6 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2089,8 +5617,6 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2103,8 +5629,6 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2117,8 +5641,6 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2131,8 +5653,6 @@
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2145,8 +5665,6 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2159,8 +5677,6 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2173,8 +5689,6 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,8 +5701,6 @@
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2201,8 +5713,6 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -2215,8 +5725,6 @@
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2229,8 +5737,6 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2243,8 +5749,6 @@
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2257,8 +5761,6 @@
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
       <c r="F19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2271,8 +5773,6 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2285,8 +5785,6 @@
       <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2299,8 +5797,6 @@
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2313,8 +5809,6 @@
       <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2327,8 +5821,6 @@
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2341,8 +5833,6 @@
       <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2355,8 +5845,6 @@
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2369,8 +5857,6 @@
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,8 +5869,6 @@
       <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
         <v>8</v>
       </c>
@@ -2397,8 +5881,6 @@
       <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2411,8 +5893,6 @@
       <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2425,8 +5905,6 @@
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="3" t="s">
         <v>8</v>
       </c>
@@ -2439,8 +5917,6 @@
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2453,8 +5929,6 @@
       <c r="C33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2467,8 +5941,6 @@
       <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
       <c r="F34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2481,8 +5953,6 @@
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +5965,6 @@
       <c r="C36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
         <v>8</v>
       </c>
@@ -2509,8 +5977,6 @@
       <c r="C37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
       <c r="F37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2523,8 +5989,6 @@
       <c r="C38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="3" t="s">
         <v>8</v>
       </c>
@@ -2537,8 +6001,6 @@
       <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
       <c r="F39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2551,8 +6013,6 @@
       <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
       <c r="F40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2565,8 +6025,6 @@
       <c r="C41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2579,8 +6037,6 @@
       <c r="C42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2593,8 +6049,6 @@
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2607,8 +6061,6 @@
       <c r="C44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2621,8 +6073,6 @@
       <c r="C45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2635,8 +6085,6 @@
       <c r="C46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2649,8 +6097,6 @@
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,8 +6109,6 @@
       <c r="C48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2677,8 +6121,6 @@
       <c r="C49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2691,8 +6133,6 @@
       <c r="C50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
       <c r="F50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2705,8 +6145,6 @@
       <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
       <c r="F51" s="3" t="s">
         <v>8</v>
       </c>
@@ -2719,8 +6157,6 @@
       <c r="C52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2733,8 +6169,6 @@
       <c r="C53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
       <c r="F53" s="3" t="s">
         <v>8</v>
       </c>
@@ -2747,8 +6181,6 @@
       <c r="C54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2761,8 +6193,6 @@
       <c r="C55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
       <c r="F55" s="3" t="s">
         <v>8</v>
       </c>
@@ -2775,8 +6205,6 @@
       <c r="C56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
       <c r="F56" s="3" t="s">
         <v>8</v>
       </c>
@@ -2789,8 +6217,6 @@
       <c r="C57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2803,8 +6229,6 @@
       <c r="C58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2817,8 +6241,6 @@
       <c r="C59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2831,8 +6253,6 @@
       <c r="C60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2845,8 +6265,6 @@
       <c r="C61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
       <c r="F61" s="3" t="s">
         <v>8</v>
       </c>
@@ -2859,8 +6277,6 @@
       <c r="C62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2873,8 +6289,6 @@
       <c r="C63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
       <c r="F63" s="3" t="s">
         <v>8</v>
       </c>
@@ -2887,8 +6301,6 @@
       <c r="C64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
       <c r="F64" s="3" t="s">
         <v>8</v>
       </c>
@@ -2901,8 +6313,6 @@
       <c r="C65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
       <c r="F65" s="3" t="s">
         <v>8</v>
       </c>
@@ -2915,8 +6325,6 @@
       <c r="C66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2925,104 +6333,78 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
   </sheetData>
@@ -3038,14 +6420,14 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="14.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="14.725" customWidth="1"/>
+    <col min="2" max="2" width="14.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -3135,6 +6517,1621 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.725" customWidth="1"/>
+    <col min="2" max="2" width="14.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:3">
+      <c r="A42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
+      <c r="A45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:3">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:3">
+      <c r="A49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:3">
+      <c r="A50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:3">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:3">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:3">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:3">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:3">
+      <c r="A56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:3">
+      <c r="A59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:3">
+      <c r="A60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:3">
+      <c r="A61" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:3">
+      <c r="A62" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:3">
+      <c r="A63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:3">
+      <c r="A64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:3">
+      <c r="A65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:3">
+      <c r="A66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:3">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:3">
+      <c r="A69" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:3">
+      <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:3">
+      <c r="A71" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:3">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:3">
+      <c r="A73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:3">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:3">
+      <c r="A75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:3">
+      <c r="A76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:3">
+      <c r="A77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:3">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:3">
+      <c r="A79" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:3">
+      <c r="A80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:3">
+      <c r="A81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:3">
+      <c r="A82" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:3">
+      <c r="A83" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:3">
+      <c r="A84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:3">
+      <c r="A85" t="s">
+        <v>319</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:3">
+      <c r="A86" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:3">
+      <c r="A87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:3">
+      <c r="A88" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:3">
+      <c r="A89" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:3">
+      <c r="A90" t="s">
+        <v>329</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:3">
+      <c r="A91" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:3">
+      <c r="A92" t="s">
+        <v>333</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:3">
+      <c r="A93" t="s">
+        <v>335</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:3">
+      <c r="A94" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:3">
+      <c r="A95" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:3">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:3">
+      <c r="A97" t="s">
+        <v>343</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:3">
+      <c r="A98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:3">
+      <c r="A99" t="s">
+        <v>347</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:3">
+      <c r="A100" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:3">
+      <c r="A101" t="s">
+        <v>351</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:3">
+      <c r="A102" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:3">
+      <c r="A103" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:3">
+      <c r="A104" t="s">
+        <v>357</v>
+      </c>
+      <c r="B104" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:3">
+      <c r="A105" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:3">
+      <c r="A106" t="s">
+        <v>362</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:3">
+      <c r="A107" t="s">
+        <v>364</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:3">
+      <c r="A108" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:3">
+      <c r="A109" t="s">
+        <v>368</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:3">
+      <c r="A110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:3">
+      <c r="A111" t="s">
+        <v>372</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:3">
+      <c r="A112" t="s">
+        <v>374</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:3">
+      <c r="A113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:3">
+      <c r="A114" t="s">
+        <v>378</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:3">
+      <c r="A115" t="s">
+        <v>380</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:3">
+      <c r="A116" t="s">
+        <v>382</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:3">
+      <c r="A117" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:3">
+      <c r="A118" t="s">
+        <v>386</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:3">
+      <c r="A119" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:3">
+      <c r="A120" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:3">
+      <c r="A121" t="s">
+        <v>392</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:3">
+      <c r="A122" t="s">
+        <v>394</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:3">
+      <c r="A123" t="s">
+        <v>396</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:3">
+      <c r="A124" t="s">
+        <v>398</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:3">
+      <c r="A125" t="s">
+        <v>400</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:3">
+      <c r="A126" t="s">
+        <v>402</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:3">
+      <c r="A127" t="s">
+        <v>404</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:3">
+      <c r="A128" t="s">
+        <v>406</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:3">
+      <c r="A129" t="s">
+        <v>408</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:3">
+      <c r="A130" t="s">
+        <v>410</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:3">
+      <c r="A131" t="s">
+        <v>412</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:3">
+      <c r="A132" t="s">
+        <v>414</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:3">
+      <c r="A133" t="s">
+        <v>416</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:3">
+      <c r="A134" t="s">
+        <v>418</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:3">
+      <c r="A135" t="s">
+        <v>420</v>
+      </c>
+      <c r="B135" t="s">
+        <v>421</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:3">
+      <c r="A136" t="s">
+        <v>423</v>
+      </c>
+      <c r="B136" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:3">
+      <c r="A137" t="s">
+        <v>426</v>
+      </c>
+      <c r="B137" t="s">
+        <v>427</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:3">
+      <c r="A138" t="s">
+        <v>429</v>
+      </c>
+      <c r="B138" t="s">
+        <v>430</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:3">
+      <c r="A139" t="s">
+        <v>432</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:3">
+      <c r="A140" t="s">
+        <v>434</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:3">
+      <c r="A141" t="s">
+        <v>436</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:3">
+      <c r="A142" t="s">
+        <v>438</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:3">
+      <c r="A143" t="s">
+        <v>440</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:3">
+      <c r="A144" t="s">
+        <v>442</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:3">
+      <c r="A145" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:3">
+      <c r="A146" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:3">
+      <c r="A147" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:3">
+      <c r="A148" t="s">
+        <v>450</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:3">
+      <c r="A149" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:3">
+      <c r="A150" t="s">
+        <v>454</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:3">
+      <c r="A151" t="s">
+        <v>456</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:3">
+      <c r="A152" t="s">
+        <v>458</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:3">
+      <c r="A153" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:3">
+      <c r="A154" t="s">
+        <v>462</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:3">
+      <c r="A155" t="s">
+        <v>464</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:3">
+      <c r="A156" t="s">
+        <v>466</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:3">
+      <c r="A157" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:3">
+      <c r="A158" t="s">
+        <v>470</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:3">
+      <c r="A159" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:3">
+      <c r="A160" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:3">
+      <c r="A161" t="s">
+        <v>476</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:3">
+      <c r="A162" t="s">
+        <v>478</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:3">
+      <c r="A163" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:3">
+      <c r="A164" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:3">
+      <c r="A165" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:3">
+      <c r="A166" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:3">
+      <c r="A167" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:3">
+      <c r="A168" t="s">
+        <v>490</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:3">
+      <c r="A169" t="s">
+        <v>492</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:3">
+      <c r="A170" t="s">
+        <v>494</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:3">
+      <c r="A171" t="s">
+        <v>496</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:3">
+      <c r="A172" t="s">
+        <v>498</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:3">
+      <c r="A173" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:3">
+      <c r="A174" t="s">
+        <v>502</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:3">
+      <c r="A175" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:3">
+      <c r="A176" t="s">
+        <v>506</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:3">
+      <c r="A177" t="s">
+        <v>508</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:3">
+      <c r="A178" t="s">
+        <v>510</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:3">
+      <c r="A179" t="s">
+        <v>512</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:3">
+      <c r="A180" t="s">
+        <v>514</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:3">
+      <c r="A181" t="s">
+        <v>516</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:3">
+      <c r="A182" t="s">
+        <v>518</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:3">
+      <c r="A183" t="s">
+        <v>520</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:3">
+      <c r="A184" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:3">
+      <c r="A185" t="s">
+        <v>524</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:3">
+      <c r="A186" t="s">
+        <v>526</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:3">
+      <c r="A187" t="s">
+        <v>528</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:3">
+      <c r="A188" t="s">
+        <v>530</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:3">
+      <c r="A189" t="s">
+        <v>532</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:3">
+      <c r="A190" t="s">
+        <v>534</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:3">
+      <c r="A191" t="s">
+        <v>536</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:3">
+      <c r="A192" t="s">
+        <v>538</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>539</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/builtins/data/helpdoc/DND/05_瓦罗怪物指南VGM.xlsx
+++ b/builtins/data/helpdoc/DND/05_瓦罗怪物指南VGM.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VGM种族" sheetId="1" r:id="rId1"/>
     <sheet name="VGM物品" sheetId="2" r:id="rId2"/>
+    <sheet name="VGM怪物" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -178,8 +179,90 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DicePP</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>查询关键字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 关键字同义词, 用/分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>词条内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 对于词条的简短描述</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 该词条被归在哪一个目录下, 用/分割父子目录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填, 内容的Tag, 如#核心 #法术</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="540">
   <si>
     <t>Key</t>
   </si>
@@ -1001,11 +1084,3441 @@
 一只擅长制造魔法武器的夺心魔能够通过从一名智能类人生物的身上获取一只眼睛，并把它奇妙地植入一面非魔法盾牌的表面，以此创造出一面远视之盾。一旦眼睛被植入，盾牌就会变成魔法物品，夺心魔可以把它交给一个奴仆或者把它挂在巢穴的墙上，只要盾牌和其创造者在同一个位面上，夺心魔就能通过这面盾牌的眼睛看到东西。并且该盾牌的眼睛具有60尺的黑暗视觉。当夺心魔通过这只魔法眼睛窥视时，它可以使用动作心灵震爆，就好像它正站在盾牌后一样。
 如果远视之盾被摧毁，创造它的夺心魔将失明2d12小时。</t>
   </si>
+  <si>
+    <t>眼魔:简述</t>
+  </si>
+  <si>
+    <t>眼魔 Beholders
+真眼魔大多独立生活并鄙视其他的同类。不过，它们的梦境会唤起各种各样跟眼魔相似的低阶生物。以下介绍其中的几个种类。</t>
+  </si>
+  <si>
+    <t>死吻眼魔:简述</t>
+  </si>
+  <si>
+    <t>死吻眼魔 Death Kiss
+死吻眼魔是从眼魔关于失血的清晰噩梦中产生的低阶眼魔。它没有眼波射线，取而代之的是十根末端长着尖牙大嘴的长触须。而其外观颜色与梦见它的本体眼魔相似，只是颜色更为暗淡。
+饮血者 Blood Drinker。死吻眼魔靠吸食血液维持生存，其所吸 收的血液会在身体里转化成电能供其利用。由于偏执般的惧怕饿 死，死吻眼魔饥不择食，连老鼠一样的小生物都会被着魔般的吸尽血液。而猎物被吸干的尸体则会被留下让腐食者处理。死吻眼魔喜欢独自狩猎。当遇到另一只死吻眼魔时，视当时双方的健康状态和心情可能会发生打斗、逃跑或者合作等状况。死吻眼魔在地底时会使用触须的触觉试探检查周围的环境，而在地面时则通常将触须缩回身体，然后在敌人疏忽时瞬间将触须完全伸长以捕获对方。
+冒充暴君 False Tyrant。在光线不足的环境中，一只将触须伸长的死吻眼魔会被误认为是一只真眼魔。它也会在一些不明真相的生物面前假装自己是一只真眼魔。只是它们不像真眼魔那样偏执自大，而相对更专注于狩猎，因而它这种习性并不多见。 其触须上的任一张嘴都可以发出音调尖锐且带着鼻音的话语。真眼魔可以轻易的在死吻眼魔进入近战范围前将其杀死或压制，因此丝毫不把死吻眼魔放在眼里。而死吻眼魔除自保外通常都会服 从所遭遇眼魔的支配，然后尽可能的在其主人分神时逃跑。
+单纯战术 Simple Tactics。 死吻眼魔没有眼魔那样的战斗技巧和高智商。不过，它会尝试用不同的方法控制猎物（比如在擒抱 同时飞起），而大多数情况下，它只会尽量将触须贴上猎物，然后直接吸血至猎物倒下。当自身处于制高点而对手又不构成威胁时，它就会肆意玩弄这些到口的食粮，慢慢的将该生物的生命挤干吸净。</t>
+  </si>
+  <si>
+    <t>死吻眼魔</t>
+  </si>
+  <si>
+    <t>死吻眼魔 Death Kiss 
+大型异怪，中立邪恶 
+AC 16（天生护甲）
+HP 161（17d10+68）
+速度 0尺，飞行30尺（悬浮） 
+力量18（+4）    敏捷14（+2）    体质18（+4）
+智力10（+0）    感知12（+1）    魅力10（+0）
+豁免 体质+8，感知+5
+技能 觉察+5
+伤害免疫 闪电
+状态免疫 倒地
+感官 黑暗视觉 120尺，被动觉察15
+语言 深潜语，地底通用语
+挑战 10（5900XP）
+闪电之血 Lightning Blood。身处死吻眼魔身边5尺范围内的生物，使用近战攻击对其造成穿刺或挥斩伤害时，该生物将受到5（1d10）的闪电伤害。 
+动作
+多重攻击 Multiattack。死吻眼魔进行三次触须攻击。其中至多三次攻击可以替换为“吸血”攻击，所替换的每次攻击必须对应有一根正擒抱某生物的触须。
+触须 Tentacle。近战武器攻击：命中+8，触及20尺，单一目标 。命中：14（3d6+4）穿刺伤害，如果目标体型不大于巨型，则 该目标被擒抱（逃脱DC14）。目标陷入束缚状态直至擒抱结束， 此时死吻眼魔无法使用同一根触须擒抱另一个生物。死吻眼魔共 拥有十根触须。
+吸血 Blood Drain。一个正受死吻眼魔触须擒抱的生物必须进行 一次DC16的体质豁免。豁免失败则受22（4d10）的闪电伤害，同 时死吻眼魔恢复该伤害值一半的HP。</t>
+  </si>
+  <si>
+    <t>高斯眼魔:简述</t>
+  </si>
+  <si>
+    <t>高斯眼魔 Gauth
+高斯眼魔与真眼魔相似，是一种饥渴、残暴的生物。它时刻想要吞噬魔法，并试图从任何比自己弱的生物身上勒索贡品。它的身体直径大约4尺上下，拥有六只眼柄、一个主眼（有时主眼周围还会长着一些小眼），嘴巴旁长着四根用于擒抱的小触须。其外观颜色和质感都跟一只真眼魔非常相似。
+意外召唤 Accidental Summoning。当召唤观察者眼魔的仪式出错时，高斯眼魔可能会自己挤进有瑕疵的位面连接处，并立即或延迟几分钟后出现在仪式中。它会在不知情者面前假装是一只真眼魔并以此威胁对方，又或者假装自己是一只观察者眼魔，以试图将对方希望自己护卫的魔法物品吸收殆尽。
+低等暴君 Inferior Tyrant。真眼魔通常会将高斯眼魔从其领地赶走或者杀死，有时也会选择奴役它们或者将它们用作副官。高斯眼魔不像真眼魔般心存戒心，因此他们会组成互相协作的小团体，只是在团体活动时它们互相之间会完全无视对方。</t>
+  </si>
+  <si>
+    <t>高斯眼魔</t>
+  </si>
+  <si>
+    <t>高斯眼魔 Gauth
+中型异怪，守序邪恶
+AC 15（天生护甲）
+HP 67（9d8+27）
+速度 0尺，飞行20尺（悬浮）
+力量10（+0）    敏捷14（+2）    体质16（+3）
+智力15（+2）    感知15（+2）    魅力13（+1）
+豁免 智力+5，感知+5，魅力+4
+技能 察觉+5
+状态免疫 倒地
+感官 黑暗视觉120尺，被动察觉15
+语言 深潜语，地底通用语
+挑战 6（2300XP）
+震慑凝视 Stunning Gaze。高斯眼魔身边30尺内看到其主眼的生物在其回合开始时，如果高斯眼魔未处于乏力状态且可以看到该生物，则高斯眼魔可以迫使该生物进行一次DC14 的感知豁免，豁免失败者将陷入震慑状态。该状态持续至其下回合开始时结束。
+除非受突袭，否则任何生物都可以在其回合开始时自主避开高斯眼魔的眼睛从而免除进行该豁免检定。此时该生物不能看到高斯眼魔，直至其下回合开始时，他可以重新决定是否避开其眼睛。该生物任何时候看向高斯眼魔时，都必须立即进行该豁免。
+垂死挣扎 Death Throes。高斯眼魔死亡时，其体内的魔法力量炸裂开来。其身边10尺范围内的每个生物必须进行一次DC14的敏捷豁免，豁免失败者将受到13（3d8）的力场伤害，豁免成功则伤害减半。
+动作 
+啃咬 Bite。近战武器攻击：命中+6，触及5尺，单一目标。伤害 ：9（2d8）穿刺伤害。 
+眼波射线 Eye Rays。 高斯眼魔从下列选项中随机选择发射三束魔法眼波射线（重复则重骰），并指定其身边120尺内可以看到的一到三个目标。
+吞噬魔法射线 Devour Magic Ray。 目标生物必须进行一次 DC14的敏捷豁免，豁免失败者身上的一件魔法物品将失去其所有魔法属性，并持续至高斯眼魔下一回合开始前。如果该物件是一件充能物品，其将失去1d4的充能次数。随机选择受影响的物品，并忽略所有一次性物品如药水和卷轴。
+衰弱射线 Enervation Ray。 目标生物必须进行一次DC14的体质豁免，豁免失败者将受18（4d8）的黯蚀伤害，豁免成功则伤害减半。
+推压射线 Pushing Ray。 目标生物必须进行一次DC14的力量豁免，豁免失败者将向着高斯眼魔的所在位置推后15尺，且其速度减半并持续至高斯眼魔下回合开始时结束。
+火焰射线 Fire Ray。 目标生物必须进行一次DC14的敏捷豁免 ，豁免失败者将受22（4d10）的火焰伤害。
+麻痹射线 Pralyzing Ray。 目标生物必须进行一次DC14的体质豁免，豁免失败者将陷入麻痹状态并持续1分钟。此后该生物可以在其每回合结束时再进行一次该豁免，豁免成功则自行结束该效应。
+催眠射线 Sleep Ray。 目标生物必须进行一次DC14的感知豁免 ，豁免失败者将陷入睡眠及昏迷状态并持续1分钟。此后该生物将在受到伤害时被唤醒，或者也可以由另一个生物用一个动作将其唤醒。该射线无法对构装生物和不死生物生效。</t>
+  </si>
+  <si>
+    <t>凝视者眼魔:简述</t>
+  </si>
+  <si>
+    <t>凝视者眼魔 Gazer 
+凝视者是眼魔梦境一种轻量的显现。它与作梦的本体长得十分相似，只是身体只有8寸宽，且只有四支眼柄。它会像忠心的恶犬一样跟随其创造者，有时还会成群结队的在其主人巢穴内巡逻，并四处清理害虫或骚扰落单的生物。
+恼人的宠物 Nuisance Pet。凝视者眼魔不懂任何语言，但却可以用尖锐讽刺的声调模仿一些单词或语句。真眼魔觉得凝视者有趣，并容许它们作为娇惯的宠物待在身边。除其主人外，凝视者眼魔无法被直接驯服，不过可以依靠魔法实现或是以施法者身份与之订立誓约（见边栏）。某些眼魔的法师手下会被要求以凝视者作为其魔宠，以方便其主子通过这些生物的眼睛作各种观察。
+好斗的食虫者 Aggressive Vermin-Eater。野生的凝视者 （即离开眼魔独立生活的个体）有着领地意识，它们以虫子和小动物为食，还会玩弄自己的猎物。单独行动的凝视者会避免与中型或更大体型的生物发生战斗，但成群结队时却会主动捕猎更大的猎物 。凝视者会尾随其领地内的类人生物，烦人的模仿他们的话语并纠缠不休，直至对方离开该区域为止。不过，当它们遇到自己无法杀害的目标时就会直接选择逃跑。</t>
+  </si>
+  <si>
+    <t>凝视者眼魔</t>
+  </si>
+  <si>
+    <t>凝视者眼魔 Gazer
+微型异怪，中立邪恶
+AC 13
+HP 13（3d4+6）
+速度 0尺，飞行30尺（悬浮）
+力量3（-4）    敏捷17（+3）    体质14（+2）
+智力3（-4）    感知10（+0）    魅力7（-2） 
+豁免 感知+2 
+技能 察觉+4，隐匿+5 
+状态免疫 倒地 
+感官 黑暗视觉60尺，被动察觉14 
+语言 - 
+挑战 1/2（100XP） 
+好斗 Aggressive。以一个附赠动作，凝视者可以向一个它能看到的敌对生物移动至多相当于其速度的距离。
+拟声 Mimicry。 凝视者眼魔能以任何语言模仿它听过的简单声音。听到该声音的生物可以进行一次DC10的感知（洞悉）检定，以辨别出声音是否只是拟声。
+动作
+啃咬 Bite。近战武器攻击：命中+5，触及5尺，单一目标。伤害 ：1穿刺伤害。
+眼波射线 Eye Rays。凝视者眼魔从下列选项中随机选择发射两束魔法眼波射线（重复则重骰），并指定其身边60尺内可以看到的一或两个目标:
+眩晕射线 Dazing Ray。目标生物必须进行一次DC12的感知豁免，豁免失败者将陷入魅惑状态，并持续至凝视者眼魔的下回合开始前。以该方式被魅惑的生物其速度减半，而其进行攻击检定时具有劣势。
+恐惧射线 Fear Ray。目标生物必须进行一次DC12的感知豁免 ，豁免失败者将陷入恐慌状态，并持续至凝视者眼魔的下回合开始前。
+冷冻射线 Frost Ray。目标生物必须进行一次DC12的敏捷豁免 ，豁免失败者将受到10（3d6）的冷冻伤害。
+念力射线 Telekinetic Ray。 如果目标生物体型为中型或更小体型，则其必须进行一次DC12的力量豁免，豁免失败者将向着凝视者眼魔所在位置向后移动30尺。
+如果目标是一个重量不大于10磅的物件且未被着装或携带，则凝视者眼魔可以将其向任意方向移动至多30尺。凝视者眼魔还可以用这种射线精确的控制物件，比如控制简单的工具或者打开某个容器。</t>
+  </si>
+  <si>
+    <t>变体:凝视者魔宠</t>
+  </si>
+  <si>
+    <t>变体：凝视者魔宠
+有些施法者对与众不同的魔宠特别感兴趣，他们发现凝视者眼魔会渴望跟随掌握魔法力量的人，而且特别喜欢其中某些持强凌弱者。然而这些凝视者眼魔好勇斗狠，除非受到主人严厉管教，否则它们会去袭击体型比自己小的生物，还会随意攻击家宠家禽，和镇上的孩童。凝视者眼魔作为魔宠时拥有以下特质。
+魔宠 Familiar。 凝视者眼魔可以作为魔宠为另一生物服务，并与其认定的主人建立一个心灵感应的链接，前提是其主人的施法者等级至少为3级。链接完成后，其主人可以在与其相距不超过1里时，分享凝视者眼魔的各种感官。一旦主人对身体造成伤害，凝视者眼魔将结束其魔宠服务，并中断相应的心 灵感应链接。</t>
+  </si>
+  <si>
+    <t>夺心魔:简述</t>
+  </si>
+  <si>
+    <t>夺心魔 Mind flayers
+可怖的灵吸怪家族的三名成员在这里登场，它们补充了在《怪物图鉴》中关于普通夺心魔的描述。</t>
+  </si>
+  <si>
+    <t>变体:夺心魔巫妖</t>
+  </si>
+  <si>
+    <t>变体：夺心魔巫妖 Mind Flayer Lich（灵吸巫妖 Illithilich）
+通往真正巫妖的道路是只有最强大的夺心魔法师才能追求的，因为这需要制作命匣和施展禁锢术imprisonment的能力。夺心魔巫妖使用 巫妖Lich 的数据面板（参见《怪物图鉴》），并做下列改动：
+夺心魔巫妖的挑战等级为：22（41,000 XP）
+夺心魔巫妖的语言为：深潜语，地底通用语和心灵感应 120 尺
+夺心魔巫妖拥有魔法抗性Magic Resistance和天生施法Innate Spellcasting(灵能Psionics)的特性，以及触须Tentades，采脑Extract Brain和心灵震爆Mind Blast的动作选项（描述均见下方）。只要夺心魔巫妖用俘获的灵魂来祭食它的命匣，它就可以维持它触须的强健力量以及采脑的能力。
+夺心魔巫妖的传奇动作（描述见下）也与普通巫妖不同。
+魔法抗性Magic Resistance。夺心魔巫妖抵抗法术和其他魔法效应所作的豁免检定具有优势。
+天生施法Innate Spellcasting(灵能Psionics)。夺心魔巫妖天生施法的关键属性是智力（法术豁免DC 20）。夺心魔巫妖天生可施展下列法术而不需要相应的法术成分。   
+随意：侦测思想，浮空术
+每项1/每日：支配怪物，异界传送（仅自身）
+动作
+触须Tentacles。近战武器攻击：命中+12，触及 5 尺，单一生物。伤害 ：21（3d10+5）的心灵伤害。如果目标为大型或更小体型生物，则目标被擒抱（逃脱 DC 15）且必须成功通过一次 DC 20 的智力豁免否则在被擒抱的同时被震慑直至该擒抱效应终止。
+采脑Extract Brain。近战武器攻击： 命中+12，触及 5 尺，单一被夺心魔巫妖擒抱且陷入失能的类人生物。 伤害 ：目标受 55（10d10） 的穿刺伤害。如果该伤害使目标的生命值降至 0，则夺心魔巫妖抽出并吃掉目标的大脑并以此杀死目标。      
+心灵震爆Mind Blast（充能5-6）。夺心魔巫妖以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 18 的智力豁免，豁免失败者将受 27（5d8+5）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。
+传奇动作
+夺心魔巫妖获得下列传奇动作项来代替巫妖所有的传奇动作。
+触须Tentacles。夺心魔巫妖用它的触须发动一次攻击。
+采脑Extract Brain（消耗 2 动作）。夺心魔巫妖发动采脑。
+心灵震爆Mind Blast（消耗 3 动作）。夺心魔巫妖将心灵震爆充能并使用它。
+施法（消耗1-3动作）。夺心魔巫妖消耗法术位来施展一个1-3环的已准备法术。每环消耗1传奇动作。</t>
+  </si>
+  <si>
+    <t>慑心魔:简述</t>
+  </si>
+  <si>
+    <t>慑心魔 Alhoon
+追寻奥术魔法的夺心魔被作为离经叛道者放逐，对于它们来说，与主脑的永恒交流是不可能的。通往巫妖之路则提供了一种逃离永恒死亡的方法，但这条道路漫长而孤独。慑心魔是夺心魔中那些走了捷径的存在。
+奥术的诱惑 Arcane Temptation。主脑禁止夺心魔追求灵能以外的魔法力量，但这禁令它们并不一定总是执行。灵吸怪不接受任何意义上的主人，它们只有作为自己同类的伙伴，所以它们的本性不会让它们向任何神明或者异界宗主低头俯首。然而，法术仍是一种罕见的诱惑。
+在一本法术书的纸页中，一只灵吸怪看见了一个能够获得权力的系统。通过写下这本书的法师的字里行间，灵吸怪可以感知到一颗非常聪明的大脑的运作。大多数发现了法术书的夺心魔会对此厌恶或者冷漠，但对有些夺心魔来说，一本法术书是通往新的思维方式的大门。
+在一段时间里，对这类禁书的研究可以对其他灵吸怪甚至是主脑进行隐瞒。对法术的理解像一个活物一样躲开它的脑子。然而，最终，当它理解了的时候，如果它要活下去，一名夺心魔奥术师必须接受它自己是一名异类，然后从社群逃离。
+死亡的恐惧 Existential Fear。那些尝到了离开社群之自由的离经叛道者们会做出各种各样的反应。其中一些珍视自己的隐私，另一些寻求相似心灵的亲密交流，而还有一些寻求统治一个社群，将它们自己提升到通常由主脑占据的领导地位。无论这位奥术师的个人倾向如何 ，它都面临着同样严峻的事实：当它死亡时，它都不会加入主脑的思维主机。离经叛道者永远不会被社群接受。对于它来说，死亡就意味着彻底毁灭。
+可怕的解脱 Dreadful Deliverance。巫妖之路提供了救赎，以及能够无限地追求知识的前景。夺心魔在活着的时候就享用过人的大脑，理所当然地，它们也不会对把灵魂喂给命匣感到内疚。唯一阻碍了夺心魔成为巫妖的障碍是方法，这也是一些夺心魔奥术师不惜一切代价想要知晓的秘密。然而，通向巫妖之路需要一名奥术施法者达到力量的最顶端，许多夺心魔会发现这远非是它们所能达到的。
+面对着这个可怕的现实，9位离经叛道的夺心魔组成了一个团体，用它们的奥术魔法和灵能力量编织了一个崭新的事实。这九位自称为慑心魔 Alhoon，自那以后，所有追随它们脚步的夺心魔都被冠以此名。
+灵能的秘密 A Psionic Secret。慑心魔可以合作制造一个陷灵护符 a periapt of mind trapping——这是一个拳头大小的容器，它由银，翡翠，紫晶制成。这一制作过程需要至少三名夺心魔奥术师，并在为期三日的施法与灵能交织的仪式中，献祭掉同等数目的活祭品的灵魂。当该仪式完成时，具有自由意识的不死特性将被授予夺心魔，将它们转化成慑心魔。
+在一开始，很难将刚转化的慑心魔与正常的夺心魔区分开。最明显的区别就是，慑心魔缺少那种常常覆盖在正常夺心魔表面的粘液层。由于没有这种保护，一只慑心魔的皮肤就会变得干裂。它的眼睛可能显得干瘪凹陷。这两条线索都很容易被没有见过夺心魔的人忽略。但是，在很短的时间内，慑心魔的血肉就会枯萎，它空洞的眼窝会像其他的巫妖一样散发出冰冷的微光。
+不稳定的不朽 Precarious Immortality。与真正巫妖之道不同的是，陷灵护符不能使被摧毁的慑心魔恢复到不死状态。而是在慑心魔被摧毁时将其意识转移到护符内，其在护符内除了能够和被献祭的灵魂进行交流以外，还能够和同样被困其中的其他慑心魔意识交流。
+陷灵护符所授予的不死只在被选择的活祭品的寿命长度内持续有效。因此，一个把200岁的精灵作为祭品的慑心魔比一个献祭35岁的人类的那个维持更长时间的存在。慑心魔可以通过用新的活祭品重复仪式来延长自己的存在，有效地为它们自己重置时钟。
+毁掉陷灵护符会使那些困在里面的灵魂彻底毁灭，因此，慑心魔经常一起为护符和它们偏好的仪式场地制作精心的保护。有时候，一只单独的慑心魔会被托付保管陷灵护符，但这是一个危险的提议。任何持有陷灵护符的人都能在对创造这护符的慑心魔的攻击，豁免，属性检定上获得优势；而这些慑心魔反过来在对持有者的攻击，豁免，属性检定上具有劣势。此外，护符的持有者可以与任何困于其中的祭品灵魂进行心灵感应式交流，而困在护符内的慑心魔也可以与持有者进行心灵传话。携带该护符的生物无法阻止来自慑心魔的交流，但可以让被献祭的灵魂安静下来。</t>
+  </si>
+  <si>
+    <t>慑心魔</t>
+  </si>
+  <si>
+    <t>慑心魔 Alhoon
+中型不死生物，任意邪恶阵营
+AC:15（天生护甲）
+HP：120（16d8+48）
+速度：30尺
+力量 11（+0）   敏捷 12（+1）   体质 16（+3）   
+智力 19（+4）   感知 17（+2）   魅力 17（+3）
+豁免：体质+7，智力+8，感知+7，魅力+7
+技能：奥秘+8，欺瞒+7，历史+8，洞悉+7，察觉+7，隐匿+5
+伤害抗性：冰冻，闪电，黯蚀
+伤害免疫：毒素，非魔法攻击的钝击、穿刺、挥砍
+状态免疫：魅惑，力竭，恐慌，麻痹，中毒
+感官：真实视野 120 尺，被动察觉 17
+语言：深潜语，地底通用语，心灵感应 120 尺
+挑战等级：10（5,900 XP）
+魔法抗性Magic Resistance。慑心魔抵抗法术和其他魔法效应所作的豁免检定具有优势。
+天生施法Innate Spellcasting(灵能Psionics)。慑心魔天生施法的关键属性是智力（法术豁免DC 16）。慑心魔天生可施展下列法术而不需要相应的法术成分。   
+随意：侦测思想，浮空术 
+每项1/每日：支配怪物，异界传送（仅自身） 
+施法Spellcasting。慑心魔作为12级施法者，其施法属性是智力（法术豁免DC 16，法术攻击命中+8）。慑心魔准备了以下法师法术： 
+戏法（随意）：冻寒之触chill touch,舞光术dancing lights，法师之手mage hand，魔法伎俩prestidigitation，电爪shocking grasp 
+1 环（法术位 4）：侦测魔法detect magic，易容术disguise self，魔法飞弹magic missile,，护盾术shield 
+2 环（法术位 3）：隐形术invisibility，镜影术mirror image，灼热射线scorching ray
+3 环（法术位 3）：法术反制counterspell，飞行术fly，闪电束lightning bolt
+4 环（法术位 3）：困惑术confusion，艾伐黑触手Evard's black tentacles，魅影杀手phantasmal killer 
+5 环（法术位 2）：篡改记忆modify memory，力场墙wall of force
+6 环（法术位 1）：解离术disintegrate，法术无效结界globe of invulnerability
+抵抗驱散Turn Resistance。 慑心魔抵抗驱散不死生物效应所做的豁免检定具有优势。
+动作
+冻寒之触Chilling Grasp。近战法术攻击：命中+8，触及5尺，单一生物。命中：10（3d6）点冷冻伤害。
+心灵震爆Mind Blast（充能5-6）。慑心魔以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 16 的智力豁免，豁免失败者将受 22（4d8+4）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。</t>
+  </si>
+  <si>
+    <t>主脑:简述</t>
+  </si>
+  <si>
+    <t>灵吸怪统治的终极表现：主脑卧在粘稠的盐水池中，触须蔓生，触碰着或远或近的生物的思想。它在他们心灵的画布上涂鸦，重写他们的思想，创造他们的梦想。
+精神的渗透者Psychic Infiltrators。当主脑渗透到精神中时，它会修改该生物的感知，欺骗他的感官，使它按主脑的意图去看、听、摸、尝和感受事实。在距离非常远的地方，它植入潜意识的暗示或者微妙地影响其梦想，促使着生物朝着有利于主脑其宏伟计划的方向前进行动。
+当其阴险的暗示无法奏效时，主脑会更直接地彰显自己的统治地位。它夺取反抗的灵魂的控制，像操纵一个木偶一样控制该生物的身体。面对罕见的意志强大的胆敢反抗或者攻击它的坚定者，主脑会发出压倒性心灵能量的震爆来摧毁这自命不凡者的精神，把他变成一个无法思考的淌着口水的躯壳。
+思想的吞食者 Devourer of Thoughts。主脑通过消耗其他生物的大脑来维持自己的生命。当守卫和服侍主脑的夺心魔仆从无法直接把食物送给它时，主脑就会伸出思想的触须，从精神上迫使生物靠近它以便它以之为食。
+当一只夺心魔死亡时，主脑的仆从会将其头骨内容物喂给它们的主人，而主脑则会吸收灵吸怪的大脑以及其中包含的所有知识和经验。通过这种方式，主脑不断地增长它的知识，并将该灵吸怪社群的思想和经验统合为一个整体。夺心魔相信这种“合一”是一种神圣的状态，就像一位人类神明的信徒相信死后在天堂里永生一样——因为主脑可以唤起它所吸收的任何灵吸怪的形象。
+母巢思维 Hive Mind。非灵吸怪的生物称呼其为“主脑”，是因为它是整个夺心魔社群的交流中枢，就像大脑对活体的作用一样。与主脑连接，夺心魔社群就像单一的有机体一样协同行动，仿佛每个灵吸怪都是一只手的手指。
+不受制的自我主义 Ego Unhindered。每一个主脑都认为自己和自己的欲望是多元宇宙中最为重要的事情，夺心魔不过是其意志的延伸。但是没有两个主脑是相同的，每个主脑都以其自己独特的个性和所收集的知识经验来管理自己的社群。一些主脑作为专横的暴君进行统治，而另一些则更仁慈地作为贤者，顾问，信息和知识的宝库为保护和供养它们的夺心魔服务。
+主脑的野心常常受到其相对固定状态的影响。虽然它的心灵感应能力可以达到数哩远的地方，但移动到任何地方都总是一件危险的事情。如果主脑被迫离开它的盐水池，它将很快死去，而在封闭和曲折的地下隧道中运送一只呆在它的盐水池里的主脑往往是困难或不可能的。</t>
+  </si>
+  <si>
+    <t>主脑巢穴</t>
+  </si>
+  <si>
+    <t>主脑巢穴 An Elder Brain's lair
+主脑的巢穴总是深藏在一个夺心魔社群的心脏处。这种思维生活在一个散发出微光的盐水池中，里面充满了脏兮兮的咸水，注入了主脑的所需的重要液体和灵能能量。
+巢穴动作 Lair action
+在它的巢穴中战斗时，主脑可以使用巢穴动作。先攻轮到20时（出现等值时视为后手），主脑可以执行一个巢穴动作并产生下列效应其一，它不能连续两轮里重复使用同一种效应：
+ · 主脑施展法术力场墙wall of force
+ · 主脑指定其周围120尺范围内它能看见的一个友好生物。目标在它下一回合结束前获得激励—在一次攻击检定，属性检定和豁免检定中获得优势。如果目标在时间内没有使用或者不能使用这个好处，激励也会消失。
+ · 主脑指定其周围120尺范围内它能看见的一个生物并用它的纯粹意志力将其固定住。目标必须进行一次 DC 18的魅力豁免并成功，否则将不能离开当前位置。目标可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。
+区域效应 Regional Effects
+主脑附近5哩内的区域被其灵能力量所扭曲，造成了下列一项或多项的效应：
+ · 距离主脑5哩内的生物会感觉他们被跟踪了，即使他们没有被跟踪。
+ · 主脑可以窃听其5哩内发生的任何心灵感应的对话。启动心灵感应的生物在第一次建立心灵感应链接的时候进行一个DC 18的感知（洞悉）检定。如果检定通过，该生物就会意识到有东西在偷听对话。窃听者的本质不会被揭示，而主脑也不能参与该心灵感应的对话，除非它与启动它的生物建立了心灵链接。
+ · 任何与主脑形成心灵联系的生物都会在其内心深处听到微弱而又无法理解的低语。这种精神杂质是由主脑的杂念和与之联接的其他生物的杂念混合而成的。
+主脑死后，这些效应都会立即消失。</t>
+  </si>
+  <si>
+    <t>主脑</t>
+  </si>
+  <si>
+    <t>主脑 Elder Brain
+大型异怪，守序邪恶
+AC:10
+HP：210（20d10+100）
+速度：5尺，游泳10尺
+力量 15（+2）   敏捷 10（+0）   体质 20（+5）   
+智力 21（+5）   感知 19（+4）   魅力 24（+7）
+豁免：智力+10，感知+9，魅力+12
+技能：奥秘+10，欺瞒+12，洞悉+14，威吓+12，游说+12 
+感官：盲视120尺，被动察觉14 
+语言：能理解通用语，深潜语，地底通用语但不会说，心灵感应5哩 
+挑战等级：14(11,500 XP)
+生物感知 Creature Sense。主脑能够感知到5哩范围内智力为4或更高的生物的存在。它可以知晓每个生物的距离和方向，以及每个生物的智力的数值，但它无法知晓除此之外的其他东西。被法术心灵屏障mind blank，回避侦测nondetection或者类似的魔法力量保护的生物不能以这种方式被感知到。 
+天生施法Innate Spellcasting(灵能Psionics)。主脑天生施法的关键属性是智力（法术豁免DC 18）。主脑天生可施展下列法术而不需要相应的法术成分。  
+随意：侦测思想，浮空术
+每项1/每日：支配怪物，异界传送（仅自身） 
+传奇抗性Legendary Resistance（3/每日）。主脑在豁免检定失败时，它可以将结果改为成功。
+魔法抗性Magic Resistance。主脑抵抗法术和其他魔法效应所作的豁免检定具有优势。
+心灵感应中枢Telepathic Hub。主脑可以利用它的心灵感应在同一时间启动和保持与多达10个生物的对话。当这样交流的时候，主脑可以让这些生物通过心灵感应听到彼此的声音。
+动作
+触须Tentacles。近战武器攻击：命中+7，触及 30 尺，单一生物。伤害 ：20（4d8+2）的钝击伤害。如果目标为巨型或更小体型生物，则目标被擒抱（逃脱 DC 15）并且在其每回合开始时受到9（1d8+5）的心灵伤害直至该擒抱效应终止。主脑可以最多同时对4个目标保持擒抱。
+心灵震爆Mind Blast（充能5-6）。主脑以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 18 的智力豁免并通过，豁免失败者将受 32（5d10+5）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。
+心灵链接Psychic Link。主脑指定一个可以被生物感知Creature Sense的特性感知到的失能生物并与该生物建立一个心灵链接。在链接结束之前，主脑可以感知到目标所能感知到的一切。当目标不再处于失能状态，他就会意识到有某种东西与他的心灵相连，而主脑可以随时终止这种联系（不需要消耗动作）。被链接的生物可以在他的回合消耗一个动作，进行一次DC 18的魅力豁免检定并成功来打破这心灵链接。链接打破时，该生物受到10(3d6)点心灵伤害。如果目标和主脑相距超过5哩，这个心灵链接也会终止，且目标不会受到伤害。主脑最多可以同时和10个生物形成心灵链接。
+感知思想Sense Thoughts。主脑指定一个已经形成心灵链接Psychic Link的生物。主脑能够洞悉目标的推理论断，情感状态以及在大脑中突出的想法（包括目标所担心的、所爱的或所恨的事情）。主脑还可以进行一次具有优势的魅力（欺瞒）检定来欺瞒目标的大脑，使其相信某个想法或者感受到某个特定的情绪。目标需要进行一次感知（洞悉）检定与之对抗。如果主脑成功胜出，那么在1小时内或在谎言的证据被直接展示给目标前，目标的大脑会相信这次欺骗的内容。
+传奇动作
+主脑拥有 3 传奇动作，用于选择执行下列动作选项。每次执行传奇动作时，每个选项只可以选用一次，且只能在另一生物的回合结束时执行。主脑在它的回合开始时恢复其所有已消耗的传奇动作数。
+触须Tentacle。主脑进行一次触须攻击。
+打破专注Break Concentration。主脑指定一个它120尺范围内且与之已建立心灵链接的生物。主脑打破该生物对其所施法术的专注。且该生物受到被打破专注法术的每环1d4心灵伤害。
+心灵脉冲Psychic Pulse。主脑指定一个它120尺范围内且与之已建立心灵链接的生物。该生物十尺范围内的主脑敌人都受到10（3d6）点心灵伤害。
+切断心灵链接Sever Psychic Link。主脑指定一个它120尺范围内且与之已建立心灵链接的生物。主脑终止精神链接，使致该生物直到其下一回合结束前，在所有技能检定，攻击检定和豁免检定上处于劣势。</t>
+  </si>
+  <si>
+    <t>噬魂怪:简述</t>
+  </si>
+  <si>
+    <t>噬魂怪 Ulitharid
+很罕见的，从主脑的盐水池诞生的灵吸怪蝌蚪会转变为噬魂怪——一个拥有六条触须的更大更强的夺心魔。
+主宰心灵 Master Minds。灵吸怪天生就知道一名噬魂怪的存活比它们自己的更重要。主脑对一名噬魂怪的崛起的反应各不相同。在大多数社群，噬魂怪成为主脑最宠爱的仆人，被授予力量和权力。在另一些情况下，主脑将噬魂怪视为潜在的力量竞争对手，并巧妙地篡改和破碎噬魂怪的野心。
+社群的诞生 Birth of a  Colony。当一名噬魂怪觉得与主脑分享领导权是无法忍受的时候，它就会脱离社群，并带着一群夺心魔迁移到另一个地方，形成一个新的社群。噬魂怪的身躯死去后，夺心魔把它的大脑放进盐水池里，几天后它就会长成一个主脑。这一过程对自然死亡的噬魂怪的大脑不起作用，因为衰老而死的噬魂怪大脑太过老朽而无法用于创造主脑。
+抽离法杖 Extractor Staff。每一个噬魂怪都携带着一根由黑色金属制成的灵能强化法杖。当噬魂怪准备好放弃它的生命时，它会让这个法杖贴在后脑勺上，法杖就会打开并剥开它的头骨，这样就可以把它的大脑抽取出来。然后，大脑和法杖就会被植入噬魂怪的尸体，使尸体溶解成灵液。这种具有灵能的黏液有助于将该区域转化为一个盐水池，用来安置一个幼年期的主脑。</t>
+  </si>
+  <si>
+    <t>噬魂怪</t>
+  </si>
+  <si>
+    <t>噬魂怪 Ulitharid
+大型异怪，守序邪恶
+AC:15（胸甲）
+HP：127（17d10+34）
+速度：30尺
+力量 15（+2）   敏捷 12（+1）   体质 15（+2）   
+智力 21（+5）   感知 19（+4）   魅力 21（+5）
+豁免：智力+9，感知+8，魅力+9
+技能：奥秘+9，洞悉+8，察觉+8，隐匿+5
+感官：黑暗视觉120尺，被动察觉18
+语言：深潜语，地底通用语，心灵感应2哩
+挑战等级：9(5,000 XP)
+生物感知 Creature Sense。噬魂怪能够感知到2哩范围内智力为4或更高的生物的存在。它可以知晓每个生物的距离和方向，以及每个生物的智力的数值，但它无法知晓除此之外的其他东西。被法术心灵屏障mind blank，回避侦测nondetection或者类似的魔法力量保护的生物不能以这种方式被感知到。
+魔法抗性Magic Resistance。噬魂怪抵抗法术和其他魔法效应所作的豁免检定具有优势。
+灵能枢纽Psionic Hub。如果一个主脑与噬魂怪建立起心灵链接Psychic Link，那么这个主脑就可以与任何噬魂怪使用它的生物感知所感知到的生物形成心灵链接。如果生物同时离开主脑与噬魂怪的心灵感应距离范围，任何这样的链接都将结束。只要它们在同一平面上，噬魂怪就可以维持它和主脑之间的心灵链接而不管距离多远。如果噬魂怪离开主脑超过5哩范围，它就可以随时中断这个心灵链接（不需要消耗动作）。
+天生施法Innate Spellcasting(灵能Psionics)。噬魂怪天生施法的关键属性是智力（法术豁免DC 17）。噬魂怪天生可施展下列法术而不需要相应的法术成分。   
+随意：侦测思想，浮空术
+每项1/每日：困惑术，支配怪物，摄心目光，弱智术，群体暗示术，异界传送（仅自身），投影术，探知，心灵遥控
+动作
+触须Tentacles。近战武器攻击：命中+9，触及 10 尺，单一生物。伤害 ：27（4d10+5）的心灵伤害。如果目标为大型或更小体型生物，则目标被擒抱（逃脱 DC 14）且必须成功通过一次 DC 17 的智力豁免否则在被擒抱的同时被震慑直至该擒抱效应终止。
+采脑Extract Brain。近战武器攻击： 命中+9，触及 5 尺，单一被噬魂怪擒抱且陷入失能的类人生物。 伤害 ：目标受 55（10d10） 的穿刺伤害。如果该伤害使目标的生命值降至 0，则噬魂怪抽出并吃掉目标的大脑并以此杀死目标。      
+心灵震爆Mind Blast（充能5-6）。噬魂怪以魔法发射出心灵能量并覆盖一处60尺的锥状区域。区域内每个生物必须进行一次 DC 17 的智力豁免，豁免失败者将受 31（4d12+5）的心灵伤害并被震慑 1 分钟。被震慑生物可以在每次其自己的回合结束时再次进行该豁免，豁免成功则终止自己身上的该效应。</t>
+  </si>
+  <si>
+    <t>证心者:简述</t>
+  </si>
+  <si>
+    <t>证心者 Mindwitness
+如果眼魔被打晕并安全地带到主脑的盐水池中，就可以通过某种仪式将其转化为证心者。仪式过程将会把眼魔的四只眼柄变成触角，类似于灵吸怪的触角，并且会改变眼魔的一部分眼球射线效果。证心者相比眼魔而言失去了部分智能，也更不容易危及群体，他们对主脑有着虔诚的献身精神，并屈从于灵吸怪的命令，使他们几乎和噬脑怪一样听话。
+传心中枢。证心者的主要功能是改善灵吸怪群体的心灵感应交流。通过与证心者的心灵感应交流，生物可以借由心灵感应与证心者所能看到的其他至多七个生物进行意念交流，从而使得命令和其他信息得以快速传递。
+孤独的探求者。如果与它的灵吸怪主人分离，一个证心者会寻找其他心灵感应生物来给予它指令。人们已经得知，证心者与呋噜和心灵感应生物(如恶魔)结盟，他们的世界观、阵营及行为准则随之改变，变得与他们的新主人相匹配。</t>
+  </si>
+  <si>
+    <t>证心者</t>
+  </si>
+  <si>
+    <t>证心者 Mindwitness
+大型异怪，守序邪恶
+AC 15（天生护甲）
+HP 75（10d10+20）
+速度 0尺，飞行20尺（悬浮）
+力量10（+0） 敏捷14（+2） 体质14（+2）
+智力15（+2） 感知15（+2） 魅力10（+0）
+豁免 智力+5，感知+5
+技能 观察+8
+状态免疫 倒地
+感官 黑暗视觉120尺，被动观察18
+语言 深渊语，地底通用语，心灵感应600尺
+挑战等级 5（1800XP）
+心灵感应中枢。当证心者接收到心灵感应信息，它可以通过心灵感应分享该信息给它能看到的600英尺内的其他七个生物。
+动作
+多重攻击。证心者发动两次攻击：一次用触手，一次用啃咬。
+啃咬。近战武器攻击：+5命中，触及5英尺，一个生物。命中：16（4D6+2）穿刺伤害。
+触手。近战武器攻击：+5命中，触及5英尺，一个生物。命中：20（4D8 + 2）精神伤害。如果目标是大体型或更小，它被擒抱（逃避DC13 ），并且需要通过一个DC 13的智力豁免，否则震慑直到擒抱结束。
+眼球射线。证心者发射三道魔法的眼球射线，随机（重复则重骰）选择一至三
+个可以在120英尺以内看到的目标使用射线：
+    1.厌恶射线。目标生物必须通过DC13的魅力豁免，否则目标攻击骰带有劣势，持续1分钟。目标可以在每个自己回合结束时重复豁免，成功则结束对自己的效果。
+    2.恐惧射线。目标生物必须通过DC13的感知豁免，否则恐惧1分钟。目标可以在每一个自己回合结束时重复豁免，成功则结束对自己的效果。
+    3.心灵射线。目标必须通过DC13的智力豁免，否则受到27（6d8）心灵伤害。
+    4.缓慢射线。目标生物必须通过DC13的敏捷豁免，否则目标的速度减半，持续1分钟。此外，该生物不能采取反应，它在自己的回合里可以采取行动或附赠行动，但不能同时进行。该生物可以在自己的每个回合结束时重复豁免，成功则结束对自己的效果。
+    5.震慑射线。目标生物必须通过DC13的体质豁免，否则震慑1分钟。该生物可以在自己的每个回合结束时重复豁免，成功则结束对自己的效果。
+    6.遥控射线。如果目标是一个生物，它必须通过DC13的力量豁免，否则被证心者丢到30尺内的任何方向上，并且受射线束缚直到证心者的下个回合开始或者证心者失能。如果目标是一个重量小于300磅的物体，且没有被佩戴或携带，则被念力移动到30
+尺内的任意方向上。证心者也可以用此射线很好地控制目标物体，比如操作简单的工具或打开门或容器。</t>
+  </si>
+  <si>
+    <t>莫克鱼怪:简述</t>
+  </si>
+  <si>
+    <t>莫克鱼怪 Morkoth
+古老而狡猾的莫克鱼怪是贪婪的收藏家。它们中的每一个都会在位面间旅行，囤积贵重物品、稀奇古怪的玩意和多元宇宙中被丢弃的废品，以使它的收藏更加完整。
+神之子嗣。很久以前，一位贪婪和争斗的神灵在神祇之间的战斗中灭亡了。它的身体在星界飘荡，最终变成一个石化的外壳。这具尸体漂浮到一个珍珠般的、充满了生机和生命魔力的天体残骸上。这次碰撞粉碎了这两个物体，释放出一场混乱的能量风暴。数不清的混合物质形成岛屿被卷入银色空间。对于它们中的一部分来说，有一条类似珍珠的物质构成的地脉，保存着神灵复生的超自然活力，天然地创造出了一个适宜居住的环境。在这些类似的岛屿上，神祇石化的肉体碎片，以触角异怪的形式复活了，并且充满了恶意和贪婪。从那时起，每个莫克鱼怪都有一个异界小岛，被它们称之为家。
+摸不到头脑。莫克鱼怪的小岛如梦似幻，自然和可预见性在这里被奇异和混乱所掩盖。在岛上，随处可见一堆堆杂乱的物体和各种生物，其中有些可以追溯到被遗忘的时代。小岛可能拥有天然照明，但大多数都是在黄昏时分被黑暗笼罩。在任何一个岛上，薄雾和阴影都可以在毫无征兆的情况下出现。这里的环境温暖潮湿，属于某种亚热带或热带气候，使莫克鱼怪和它的“客人”感到舒适。
+岛屿内部的珍珠物质使其能够在位面洋流上漂动，并且维持岛上的环境，使其不受来自外部的有害影响。莫克鱼怪的小岛可能存在于任何地方，从海底到星界的空洞中皆有可能。一个小岛可以漂浮在九层地狱之一的阿弗纳斯的天空中，而不会被摧毁，也不会对岛上的居民造成任何危害。在莫克鱼怪小岛周边一定半径以内，无论是什么，都会在它穿越位面的过程中与它一起转移。因此，来自失落的文明和过去时代的生物或物体的人可能在莫克鱼怪的领地内被发现。
+一些岛屿经过一条特定的路线，在几年的周期内定期到达相同的目的地。另一些则与特定的地点或群体联系在一起，还有一些则不规律地在宇宙中移动。罕见地，有莫克鱼怪学会了控制岛屿的运动轨迹，所以小岛可以载着它的主人抵达其想去的任何地方。
+太古囤积者。莫克鱼怪被贪婪和自私所驱使，混合着对争斗的渴望。他们寻求任何他们不曾拥有的东西，对索取他们想要的东西毫不顾忌，并努力保留他们收集的一切。
+莫克鱼怪会花时间审视自己的收藏品，并谋划着获得更多的财产。他们囤积了大量的财富和知识。此外，它的岛屿上还有许多俘虏，他们认为这是其收藏的一部分。有些居民，例如原囚犯的后裔，可能会把莫克鱼怪看作是统治者或神。当然，莫克鱼怪的财富和知识宝库吸引着那些想要成为掠夺者的人，以及那些寻找莫克鱼怪所拥有或知晓的特定事物之人。莫克鱼怪对那些试图从它那里偷东西的人没有任何怜悯之意，但是当它遇到一个提供它想要的东西的来访者时，可能双方会有一番讨价还价的余地。
+没有莫克鱼怪会免费把它所拥有的东西公之于众。莫克鱼怪存在即是为了获得，只有在某件事能够帮助他们的藏品增加时，他们才会愿意放弃自己的（一部分）财产。
+莫克鱼怪知道收藏中的每一件物品，并能通过藏品的蛛丝马迹在位面间展开追踪。如果有谁胆敢偷取莫克鱼怪的藏品，或违背与莫克鱼怪的交易，将会永远不得安宁，直到莫克鱼怪死亡或所有承诺都得到遵守。</t>
+  </si>
+  <si>
+    <t>莫克鱼怪</t>
+  </si>
+  <si>
+    <t>莫克鱼怪
+中型异怪，混乱邪恶
+AC 17（天生护甲）
+HP 130（20d8+40）
+速度 25尺，游泳50尺
+力量14（+2） 敏捷14（+2） 体质14（+2）
+智力20（+5） 感知15（+2） 魅力13（+1）
+豁免 敏捷+6，智力+9，感知+6
+技能 奥秘+9，历史+9，察觉+10，隐匿+6
+伤害抗性 非魔法攻击的钝击、挥砍、穿刺
+感官 盲视30尺，黑暗视觉120尺，被动察觉20
+语言 心灵感应120尺
+挑战等级 11（7200XP）
+两栖。莫克鱼怪可以在水中或是空气中呼吸。
+施法。莫克鱼怪是一个11级的施法者。其施法能力是智力（豁免DC17，+9法术命中）。莫克鱼怪准备了以下法术：
+戏法（随意）：酸液飞溅，法师之手，修复术，寒冷射线，电爪
+1环（4个）：侦测魔法，鉴定术，护盾术，巫术箭
+2环（3个）：黑暗术，探测思想，粉碎音波
+3环（3个）：解除魔法，闪电束，短讯术
+4环（3个）：任意门，艾伐黑触手
+5环（3个）：指使术、探知术
+6环（1个）：连环闪电
+动作
+多重攻击。莫克鱼怪进行三次攻击：两次啃咬加一次触手，或三次啃咬。
+啃咬。近战武器攻击：+6命中，触及5英尺，一个目标。命中：9（2D6 + 2 }挥砍伤害。
+触手。近战武器攻击：+6命中，触及15英尺，一个目标。命中：15（3d8 + 2）钝击伤害，目标如果是大型或更小的生物则被擒抱（逃脱DC14）。在擒抱结束之前，目标被束缚并在每个莫克鱼怪的回合开始时受到15（3d8+2）钝击伤害，同时莫克鱼怪不能用它的触角擒抱另一个目标。
+催眠。莫克鱼怪发射出30英尺锥形的魔法能量。在该区域内的每一个生物必须通过DC17的感知豁免。否则，这个生物在接下来的l分钟内被莫克鱼怪魅惑。当被此种方式魅惑时，目标试图尽可能地去接近莫克鱼怪，利用其动作来疾行，直到它在距离莫克鱼怪5英尺内。被魅惑的目标可以在受到伤害或者每次自己回合结束时重复豁免，成功则结束对自己的效果。如果一个生物豁免成功或效果结束，这个生物在24小时内对莫克鱼怪的催眠豁免上有优势。
+反应
+法术反射。如果莫克鱼怪在对抗法术的豁免成功了，或对它的法术命中失手，莫克鱼怪可以选择距离它的120英尺以内另一个生物（包括施法者）。法术以选定的生物取代莫克鱼怪作为对象起效。如果咒语强制目标豁免，则选择的生物使用自己的豁免骰。如果法术需要投掷命中，则对所选生物重掷命中骰。</t>
+  </si>
+  <si>
+    <t>莫克鱼怪的巢穴</t>
+  </si>
+  <si>
+    <t>巢穴动作Lair Actions
+当在其巢穴巢穴中战斗时，莫克鱼怪能以其巢穴动作驱使围绕岛屿的魔法。在先攻轮到20时，莫克鱼怪使用一个巢穴动作造成以下效应之一：
+ · 莫克鱼怪以距离其120尺内一个点为源点使用其催眠动作。它不需要看见效应的源点。
+ · 莫克鱼怪释放黑暗术darkness, 解除魔法dispel magic, 或迷踪步 misty step，使用智力作为其施法属性，且不需要消耗法术位。
+莫克鱼怪区域效应
+莫克鱼怪巢穴坐落的岛屿被这一生物的存在扭曲，创造出了如下效应：
+ · 莫克鱼怪能感受到任何它的岛屿或者秘密据点的新来访者，不管是一个物件还是生物。以一个动作，莫克鱼怪能定位任何一个在岛上的生物或者物件。即使在并没有被监视的时候，拜访这座岛屿者也会感受到他们被什么监视着。
+ · 每当一个在岛上待了不到一年时间的生物结束短休或长休时，它不许进行一次DC10的智力（调查）检定。失败的情况下，该生物了丢失了一件财物（当该生物为一位玩家的角色时，由玩家来选择）。这件物品仍然在附近，但在短时间内被隐藏起来，因此能够通过一个成功的DC15感知（察觉）检定来找到。一件丢失但未被找到的物品会在一个小时后到莫克鱼怪的巢穴之中。如果该生物在之后去了莫克鱼怪的巢穴，它丢失的财物会非常易于察觉和发现。
+ · 莫克鱼怪的巢穴入口具有魔力，莫克鱼怪在自己巢穴中且没有失能的时候能随时激活或者压制这一效果。任何距离此出口30尺内并能看到它的生物必须进行DC15的感知豁免检定，失败的情况下，生物会感受到强烈的冲动，在每个回合中使用其移动速度进入巢穴并向着莫克鱼怪移动（目标不会意识到它正在向一个生物前进）。目标会通过最短的路线向莫克鱼怪移动。一旦他能看到莫克鱼怪，它就能重复豁免检定，成功则结束它对自己的影响。目标还能在每个回合结束时和每次受到伤害时重复豁免检定。
+ · 以一个念头（不需要动作），莫克鱼怪可以让巢穴中的水进行一个一分钟后生效的变化。水可以变得像空气一样能够呼吸和透明，也可以变成正常的水（从浑浊到清澈）。
+一旦莫克鱼怪死亡，这些区域效应就会立即结束。</t>
+  </si>
+  <si>
+    <t>纽吉怪:简述</t>
+  </si>
+  <si>
+    <t>纽吉怪 Neogi
+纽吉怪是可憎的奴隶主，将其他大部分生物，甚至弱小的纽吉怪同类，都当做仆人和猎物。纽吉怪看上去像是大号的蜘蛛，长着鳗鱼一样的脖子和脑袋。这种生物能够毒害目标的身体和心灵，能够制服在其他身体能力上比它们更优秀的生物。
+天外暴君Alien Tyrants.纽吉怪通常遍布在物质位面的偏远角落，比如妖精荒野，堕影冥界，以及星界和以太位面。
+很久以前，它们从物质位面的偏远地带入侵了这个世界，抛弃了它们原来的家园去征服和吞并其他世界的生物。为了满足它们远航的需要，纽吉怪首先控制并吞并了另一个失落世界的土巨怪。然后，依靠这些奴隶提供的劳动力，纽吉怪设计并建造了圆滑船只，其中一些能够位面航行，将它们送到新的前线。一些纽吉怪群体仍然在制造和使用一些这样具有古怪蜘蛛外形的交通工具。
+一些纽吉怪使用魔法，这是它们在离开故乡的旅途中与一些异界实体签订契约的结果。这些实体看似群星，却表现出邪恶的本质。它们以以下的名字为人所知：阿卡玛，凯丰，吉拜斯，以及哈达。
+在关于纽吉怪的事情里，没有什么比纽吉怪的心理更加深奥的东西了。因为它们有控制思想的能力，纽吉怪认为这样做是完全合适的。它们的社会没有个体之间的区别，只有一个生物被给予的控制他人的特权，而且它们也无法在情感的方面理解人类和其他类似存在。对于一个纽吉怪来说，仇恨和爱一样是外来的感受，在缺少权威的情况下表现出忠诚是愚蠢的行为。
+生死轮回Cycle  of  Death  and  Life.一只纽吉怪的生命与人类差不多长，而像人类一样，它也需要面对肉体和精神随着年龄的衰弱。当一个个体因为年龄增长变得衰老时，群体中的另一个纽吉怪会制服它并给它注入一种特殊的毒素，这种毒素把年老的纽吉怪转变成了一个被称为“伟大旧主”的臃肿无助的肉块。年轻的纽吉怪在它上面产卵，当孵化出的幼体出现时，它们会吃掉“伟大旧主”，然后是其他新生儿，直到只剩下几个最强壮的新生儿。
+所有权等级Hierarchy  of  Ownership.幸存下来的纽吉怪幼体在成年纽吉怪的控制下开始它们的生活。它们必须了解自己的社会，并在其中为自己挣得一席之地。而每只新生纽吉怪的训练都是从取得一个土巨怪的控制权开始的。
+纽吉怪通过使用染料，变形魔法和纹身来标记它们自己和奴隶。这些纹身旨在宣示等级、成就和所有权。根据这些标记，每个纽吉怪都能识别出更优越者，并且必须服从那些地位更高的人，否则将面临严厉的惩罚。
+除了仆人对主人的义务之外，纽吉怪还乐于进行一切有利可图的活动，而它们在做这些时如魔鬼一般狡猾。纽吉怪进行买卖，但它们可能会轻易奴役潜在的顾客，对他们造成了严重的风险。因此它们的顾客一般都是亡命或邪恶的个体，或是足以与纽吉怪平等交易的强大生物。纽吉怪可能会在一个位面集市、一个卓尔城市的边境或一处夺心魔的领土附近建立商店。在其他地方，当地人更可能联合起来摧毁一个纽吉怪商队，而不是允许它安全经营和交易的权利。</t>
+  </si>
+  <si>
+    <t>纽吉怪幼体</t>
+  </si>
+  <si>
+    <t>纽吉怪幼体 NEOGI  HATCHLING
+微型异怪，守序邪恶 
+AC  11
+生命值  7 (3d4)
+速度  20  尺,  攀爬  20  尺
+力量3 (-4)  敏捷13(+1) 体质10  (+0)
+智力6 (-2) 感知10  (+0) 魅力9（-1）
+感官：黑暗视觉  60  尺,  被动察觉  10
+语言-
+CR  1/8  (25  XP)
+精神坚韧Mental  Fortitude. 幼体在进行对抗魅惑与恐慌的豁免检定时具有优势，并且魔法无法让幼体陷入睡眠。
+蛛行Spider  Climb.幼体可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+行动ACTIONS
+啃咬. 近战武器攻击: 命中 +3  , 触及 5  尺 , 单一目标.
+伤害:  3 (1d4  +  1)  穿刺伤害加7 (2d6) 毒素伤害,并且目标必须成功通过一次DC10的体质豁免，否则陷入1分钟中毒状态。目标可以在每个其回合结束再次进行豁免，成功则结束该效应。</t>
+  </si>
+  <si>
+    <t>纽吉怪</t>
+  </si>
+  <si>
+    <t>纽吉怪NEOGI 
+小型异怪，守序邪恶
+AC  15（天生护甲）
+生命值  33 (6d6+12)
+速度  30  尺,  攀爬  30  尺
+力量6 (-2)  敏捷16(+3) 体质14  (+2)
+智力13(+1) 感知12  (+1) 魅力15（+2）
+技能：威吓+4  察觉+3
+感官：黑暗视觉  60  尺,  被动察觉  10
+语言：通用语，深潜语，地底通用语
+CR  3 (700  XP)
+精神坚韧Mental  Fortitude. 纽吉怪在进行对抗魅惑与恐慌的豁免检定时具有优势，并且魔法无法让纽吉怪陷入睡眠。
+蛛行Spider  Climb.纽吉怪可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+行动ACTIONS
+多重攻击：纽吉怪进行两次攻击，一次使用啃咬，一次使用爪击
+啃咬Bite. 近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  6(1d6  +  3)  穿刺伤害加14(4d6) 毒素伤害,并且目标必须成功通过一次DC12的体质豁免，否则陷入1分钟中毒状态。目标可以在每个其回合结束再次进行豁免，成功则结束该效应。
+爪击Claws.  近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  8(2d4  +  3)  挥砍伤害
+奴役Enslave（长休或短休后充能）。纽吉怪指定一个30尺内它能看见的生物。该生物必须成功通过DC14的感知豁免，或者被纽吉怪魔法性地魅惑一天。被魅惑对象不能违抗纽吉怪的命令，也不能作出反应，纽吉怪和奴役对象能够最远在一英里内心灵交流。无论何时被魅惑对象受到伤害，其可以再次进行豁免检定，成功则自动结束该效应。</t>
+  </si>
+  <si>
+    <t>纽吉怪尊主</t>
+  </si>
+  <si>
+    <t>纽吉怪尊主NEOGI MASTER 
+中型异怪，守序邪恶
+AC  15（天生护甲）
+生命值  71 (11d8+22)
+速度  30  尺,  攀爬  30  尺
+力量6 (-2)  敏捷16(+3) 体质14  (+2)
+智力16(+3) 感知12  (+1) 魅力18（+4）
+豁免：感知+3
+技能：奥秘+5 欺瞒+6  威吓+6  察觉+3 说服+6
+感官：黑暗视觉  60  尺（可以穿透魔法黑暗）,  被动察觉  13
+语言：通用语，深潜语，地底通用语，30尺心灵感应
+CR  4 (1100  XP)
+精神坚韧Mental Fortitude. 纽吉怪在进行对抗魅惑与恐慌的豁免检定时具有优势，并且魔法无法让纽吉怪陷入睡眠。
+施法Spellcasting. 纽吉怪尊主为7级施法者，其施法属性为魅力（豁免DC14，法术攻击命中+6）。它可以在短休或者长休后恢复已消耗的法术位。纽吉怪尊主准备了如下邪术师法术：
+戏法（任意）：魔能爆Elderich blast（300尺射程，每次伤害掷骰+4伤害）
+神导术guidance，法师之手mage hand，次级幻影minor  illusion，魔法伎俩prestidigitation，恶言相向vicious  mockery
+1-4环 (2个四环法术位):  哈达之臂arms  of  Hadar, 法术反制 counterspell,
+次元门dimension  door, 恐惧术 fear, 人类定身术 hold  person, 哈达之欲 hunger  of  Hadar,  隐身术invisibility, 隐形仆役unseen  servant
+蛛行Spider  Climb.纽吉怪可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+行动ACTIONS
+多重攻击：纽吉怪进行两次攻击，一次使用啃咬，一次使用爪击
+啃咬Bite. 近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  6(1d6  +  3)  穿刺伤害加14(4d6) 毒素伤害,并且目标必须成功通过一次DC12的体质豁免，否则陷入1分钟中毒状态。目标可以在每个其回合结束再次进行豁免，成功则结束该效应。
+爪击Claws. 近战武器攻击: 命中 +5  , 触及 5  尺 , 单一目标.
+伤害:  8(2d4  +  3)  挥砍伤害
+奴役Enslave（长休或短休后充能）。纽吉怪指定一个30尺内它能看见的生物。该生物必须成功通过DC14的感知豁免，或者被纽吉怪魔法性地魅惑一天。被魅惑对象不能违抗纽吉怪的命令，也不能作出反应，纽吉怪和奴役对象能够最远在一英里内心灵交流。无论何时被魅惑对象受到伤害，其可以再次进行豁免检定，成功则自动结束该效应。</t>
+  </si>
+  <si>
+    <t>夺心巨虫:简述</t>
+  </si>
+  <si>
+    <t>夺心巨虫 Neothelid
+庞大的沾满粘液的蠕虫，一条夺心巨虫是夺心魔繁殖周期中严重错误的结果。在极少数情况下，一个灵吸怪族群会崩溃，通常是在外部袭击之后，主脑被杀死。当这种情况发生时，族群的蝌蚪们就突然从它们的命运中解脱出来。他们不再充当养料，也不再由看护人喂食。在饥饿的驱使下，他们开始互相残杀。在族群的水池里，成千上万的蝌蚪中只有一条存活下来，它成为了一条夺心巨虫。
+被灵吸怪憎恶。在灵吸怪社会中，最大的禁忌就是允许一条成熟的蝌蚪存活下来而不把它植入供体的大脑中。在通常情况下，任何生长的大于几英寸长度的蝌蚪都会被主脑杀死，成为主脑或未成熟蝌蚪的食物。任何超过那个状态存活下来的蝌蚪都被认为是对族群的威胁，夺心魔组织狩猎队来消灭这种可憎之物。夺心巨虫缺乏足够的智力，无法被主脑感知思维的能力所察觉，因此有理由采取这样的预防措施。
+野蛮巨兽。作为一种野生的东西，夺心巨虫除了它迄今为止的掠食性，生活之外，什么都不知道，并努力去理解它崭新的灵能能力。夺心巨虫在地下通道中徘徊，寻找更多的大脑来满足它们持续的饥饿，变得越来越邪恶。这些生物能将溶解组织的酶从触手导管中喷射出来，使受害者变成一滩黏液，只留下跳动的大脑安然无恙。它们不知道自己和灵吸怪有什么关系，所以他们很可能像捕食其他东西一样捕食夺心魔。</t>
+  </si>
+  <si>
+    <t>夺心巨虫</t>
+  </si>
+  <si>
+    <t>夺心巨虫 NEOTHELID
+超巨型异怪，混乱邪恶
+AC 16(天生护甲）
+HP 325(21d20+105)
+速度 30尺
+力量27（+8）敏捷7（-2）体质21（+5）
+智力3（-4）感知16（+3）魅力12（+1）
+豁免 智力+1，感知+8，魅力+6
+感官 盲感120尺， 被动察觉13
+语言 ----
+挑战等级 13（10000XP）
+生物感应。巨虫能意识到在它1英里范围内智力值大于等于4的生物的存在。它知道每个生物的距离和方向以及每个生物的智力值，但对其他生物没有任何感觉。一个受心灵屏障法术，回避侦查法术，或类似魔法效果保护的生物不能以这种方式感知到。
+天生施法（灵能）。巨虫的天生施法能力基于感知（法术豁免DC16）。它天生即可施展以下法术，无需材料成分：
+随意：浮空术
+1次/日：困惑术，弱智术，心灵遥控
+魔法抗性：巨虫对抗法术和其他魔法效果时有豁免检定的优势。
+动作
+触手。近战武器攻击：命中+13，触及15尺，单一目标。命中21（3d8+8）点钝击伤害加13（3d8）点精神伤害。如果目标是一个大型或更小的生物，他必须成功通过一个DC18的力量豁免否则被巨虫吞噬。一个被吞噬的生物是目盲和被束缚的，它受到巨虫体外的攻击或其他效果时有全身掩护，它受到35（10d6）强酸伤害在巨虫每次开始它的回合时。如果巨虫在一回合内受到来自它体内的一个生物30点或更多的伤害，巨虫必须在回合结束时通过一个DC18的体质豁免否则吐出所有吞下的生物，它落在靠近巨虫10尺的一处空间内倒地。如果巨虫死亡，被吞噬的生物不再受它束缚，可以通过用移动20尺逃离尸体，并陷入倒地。
+强酸喷吐(充能 5-6).巨虫会喷出一道60锥形的强酸，在范围内的每个生物都必须成功通过DC18的敏捷豁免检定，一旦豁免失败便会受到35（10d6）点强酸伤害，或成功便只受到一半的伤害</t>
+  </si>
+  <si>
+    <t>颅鼠:简述</t>
+  </si>
+  <si>
+    <t>颅鼠 Cranium rats
+夺心魔通过以灵能轰击正常老鼠的大脑创造出了颅鼠。
+邪恶集群
+颅鼠并不比通常老鼠聪明，行为也相差无几。然而，如果足够多的颅鼠形成一个集群，它们就会将意识融为一个单一的智慧个体，并拥有集群成员记忆的累加。因此，颅鼠变得更加聪明，只要它们的集群持续存在，他们就能保持这种提升过的智力。集群也会唤醒夺心魔创造者植入每一只颅鼠脑内的潜在灵能，给予鼠群类似法术的灵能力量。
+一只从鼠群中分离出来的鼠变成了一只智力为15的普通颅鼠。与集群分离之后，它每天会失去1点智力。它的智力不能降到4以下，如果它重新回到鼠群或加入另一个鼠群，它的智力就会再次变为15。
+心灵感应害兽
+一只单独的智力低下的颅鼠利用其天然的心灵感应来传达饥饿、恐惧和其他基本情绪。一群颅鼠能够通过心灵感应“说话”，作为一个整体，它们经常用“我们（we）”和“我们（us）”这个集体代词来称呼自己。
+主脑的间谍
+夺心魔群落把颅鼠当做间谍使用。颅鼠侵入地表的群落，充当主脑的耳目。并在主脑的心灵感应范围内作为集群时传递思想。
+颅鼠偶尔会超出主脑的影响范围，这些颅鼠的所作所为与主脑无关，如果灵吸怪愿意的话，它们总是能制造出更多的颅鼠。</t>
+  </si>
+  <si>
+    <t>颅鼠</t>
+  </si>
+  <si>
+    <t>颅鼠CRANIUM  RAT
+微型野兽，守序邪恶
+AC  12
+生命值 2 (1d4)
+速度  30  ft.
+力量2 (-4)  敏捷14(+2) 体质10(+0)
+智力4 (-3)  感知 11(+0)  魅力8（-1）
+感官  黑暗视觉  30  ft., 被动感知  10
+语言  心灵感应  30  ft.
+挑战等级  0 ( 10 XP)
+照明Illumination.以一个附赠动作，颅鼠可以在5尺半径的范围内从其大脑发出微光或者熄灭光芒。
+心灵帷幕Telepathic  Shroud.颅鼠对任何能感知其情绪或阅读其思想的效果以及所有预言法术免疫。
+行动ACTIONS
+啃咬Bite .近战武器攻击：+4命中，触及5尺，单一目标
+伤害：1穿刺伤害</t>
+  </si>
+  <si>
+    <t>颅鼠集群</t>
+  </si>
+  <si>
+    <t>颅鼠集群 SWARM OF CRANIUM  RATS
+微型野兽的中型集群，守序邪恶
+AC  12
+生命值  36  (8d8)
+速度  30  ft.
+力量9 (-1)  敏捷14(+2)  体质10(+0)
+智力15(+2)  感知11(+0)  魅力14（+2）
+伤害抵抗：钝击、穿刺、挥砍
+状态免疫：魅惑，恐慌，擒抱，麻痹，石化，倒地，束缚，震慑
+感官：黑暗视觉 30 尺，被动察觉 10
+语言：心灵感应30尺
+挑战等级：5（1800xp）
+照明Illumination.以一个附赠动作，颅鼠群可以在5尺半径的范围内从其大脑发出微光，把照明提高到5到20尺内明亮光照（同时额外等同于选择范围的微光光照）或者熄灭光芒。
+天生施法（灵能）Innate  Spellcasting  (Psionics)颅鼠群天生的施法属性是智力（法术豁免DC 13）。只要它还有一半以上的生命值，鼠群就可以天生施展以下法术而不需要任何成分。
+任意：命令术command, 通晓语言comprehend  languages,  侦测思想detect thoughts
+每项1/日：困惑术confusion，支配怪物dominate monster
+集群Swarm.集群可以进驻另一生物身处的空间位置，反之亦然。而且集群可以通过任何足够一只微型老鼠通过的通道。集群不能恢复生命值也不能获得临时生命值。
+心灵帷幕Telepathic  Shroud.颅鼠对任何能感知其情绪或阅读其思想的效果以及所有预言法术免疫。
+动作ACTIONS
+啃咬Bite.近战武器攻击：+5命中，触及0尺，单一处于鼠群空间内的目标
+伤害：14（4d6）穿刺伤害，或者当集群剩下一半以下生命值时7（2d6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>恐龙:简述</t>
+  </si>
+  <si>
+    <t>恐龙 Dinosaurs
+《怪物图鉴》中包含了几种恐龙的数据。这一节将为你展示更多恐龙的数据。</t>
+  </si>
+  <si>
+    <t>雷龙:简述</t>
+  </si>
+  <si>
+    <t>雷龙 Brontosaurus 
+这种魁梧的四足恐龙的庞大体型足以使绝大部分的食肉动物望而远之。而它致命的粗壮尾巴能驱赶甚至能杀死这些较小的捕食者。</t>
+  </si>
+  <si>
+    <t>雷龙</t>
+  </si>
+  <si>
+    <t>雷龙 Brontosaurus 
+超巨型野兽，无阵营
+护甲等级：15（天生护甲）
+生命值：121（9d20+27）
+速度：30尺
+力量21（+5） 敏捷9（-1） 体质17（+3）
+智力2（-4） 感知10（+0） 魅力7（-2）
+豁免：体质+6
+感官：被动察觉10
+语言：——
+挑战等级：5（1800XP）
+动作Actions
+重踏Stomp。近战武器攻击：命中+8，触及20尺，单一目标。命中：27（5d8+5）钝击伤害，目标必须成功通过一次DC14的力量豁免检定，否则将应击 倒地Prone 。
+扫尾Tail。近战武器攻击：命中+8，触及20尺，单一目标。命中：32（6d8+5）钝击伤害。</t>
+  </si>
+  <si>
+    <t>恐爪龙:简述</t>
+  </si>
+  <si>
+    <t>恐爪龙 Deinonychus 
+这些伶盗龙的大号表亲常常用它们的爪子与血口生擒它们的猎物。</t>
+  </si>
+  <si>
+    <t>恐爪龙</t>
+  </si>
+  <si>
+    <t>恐爪龙 Deinonychus 
+中型野兽，无阵营
+护甲等级：13（天生护甲）
+生命值：26（4d8+8） 
+速度：40尺
+力量15（+2） 敏捷15（+2） 体质14（+2）
+智力4（-3） 感知12（+1） 魅力6（-2）
+技能：察觉+3
+感官：被动察觉13
+语言：——
+挑战等级：1（200XP）
+猛扑Pounce。如果恐爪龙向一个生物直线移动至少20尺，且在同一回合用它的爪抓攻击命中了该目标，目标必须成功通过一个DC12的力量豁免检定否则将应击 倒地Prone 。如果目标因此倒地，恐爪龙可以以一个附赠动作对它进行一次啃咬攻击。
+动作Actions
+多重攻击Multiattack。恐爪龙可以进行3次攻击：1次用它的啃咬并且2次用它的爪子。
+啃咬Bite。近战武器攻击：命中+4，触及5尺，单一目标。命中：6（1d8+2）穿刺伤害。
+爪抓Claw。近战武器攻击：命中+4，触及5尺，单一目标。命中：6（1d8+2）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>异齿龙:简述</t>
+  </si>
+  <si>
+    <t>异齿龙 Dimetrodon 
+这些背鳍呈帆状的爬行动物通常能在恐龙生活的区域里被找到。它们往往在岸边和浅水中狩猎，在环境中扮演着与鳄鱼类似的角色。</t>
+  </si>
+  <si>
+    <t>异齿龙</t>
+  </si>
+  <si>
+    <t>异齿龙 Dimetrodon 
+中型野兽，无阵营
+护甲等级：12（天生护甲）
+生命值：19（3d8+6）
+速度：30尺，游泳20尺
+力量14（+2） 敏捷10（+0） 体质15（+2）
+智力2（-4） 感知10（+0） 魅力5（-3）
+技能：察觉+2
+感官：被动察觉12
+语言：——
+挑战等级：1/4（50XP）
+动作Actions
+啃咬Bite。近战武器攻击：命中+4，触及5尺，单一目标。命中：9（2d6+2）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>鸭嘴龙:简述</t>
+  </si>
+  <si>
+    <t>鸭嘴龙 Hadrosaurus
+鸭嘴龙是一种长着易被识别的骨状头冠的半四足食草生物。若从孵化开始驯养一只鸭嘴龙，它们就能被训练为一个骑手的优秀载具。</t>
+  </si>
+  <si>
+    <t>鸭嘴龙</t>
+  </si>
+  <si>
+    <t>鸭嘴龙 Hadrosaurus 
+大型野兽，无阵营
+护甲等级：11（天生护甲）
+生命值：19（3d10+3）
+速度：40尺
+力量15（+2） 敏捷10（+0） 体质13（+1）
+智力2（-4） 感知10（+0） 魅力5（-3）
+技能：察觉+2
+感官：被动察觉12
+语言：——
+挑战等级：1/4（50XP）
+动作Actions
+扫尾Tail。近战武器攻击：命中+4，触及5尺，单一目标。命中：7（1d10+2）钝击伤害。</t>
+  </si>
+  <si>
+    <t>风神翼龙:简述</t>
+  </si>
+  <si>
+    <t>风神翼龙 Quetzalcoatlus 
+这种体型比无齿翼龙巨大数倍的生物其翼展超过30尺。虽然它能像四足生物一样在地面上行走，但显然，它在天空中更为自在。</t>
+  </si>
+  <si>
+    <t>风神翼龙</t>
+  </si>
+  <si>
+    <t>风神翼龙 Quetzalcoatlus
+巨型野兽，无阵营 
+护甲等级：13（天生护甲）
+生命值：30（4d12+4）
+速度：10尺，飞行80尺
+力量15（+2） 敏捷13（+1） 体质13（+1）
+智力2（-4） 感知10（+0） 魅力5（-3）
+技能：察觉+2
+感官：被动察觉12
+语言：——
+挑战等级：2（450XP）
+俯冲攻击Dive Attack。如果风神翼龙处于飞行中并且在向一个目标俯冲30尺之后用啃咬攻击命中了它，这次攻击将对它额外造成10（3d6）伤害。
+飞越Flyby。风神翼龙在飞出一个敌人的触及范围时不会引发借机攻击。
+动作Actions
+啃咬Bite。近战武器攻击：命中+4，触及10尺，单一生物。命中：12（3d6+2）穿刺伤害。如果风神翼龙命中生物前，向这一生物俯冲了至少30尺，该生物将额外受到10（3d6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>剑龙:简述</t>
+  </si>
+  <si>
+    <t>剑龙 Stegosaurus 
+这些重型恐龙的后背与尾巴上长着两排骨质的刃板，而它那条灵活的、长有尖刺的长尾巴可以高举迎击食肉动物。他们往往不分年龄，以群体游牧的方式旅行与草原上。</t>
+  </si>
+  <si>
+    <t>剑龙</t>
+  </si>
+  <si>
+    <t>剑龙 Stegosaurus 
+大型野兽，无阵营
+护甲等级：13（天生护甲）
+生命值：76（8d12+24）
+速度：40尺
+力量20（+5） 敏捷9（-1） 体质17（+3）
+智力2（-4） 感知11（+0） 魅力5（-3）
+感官：被动察觉10
+语言：——
+挑战等级：4（1100XP）
+动作Actions
+扫尾Tail。近战武器攻击：命中+7，触及10尺，单一目标。命中：26（6d6+5）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>伶盗龙:简述</t>
+  </si>
+  <si>
+    <t>伶盗龙 Velociraptor
+这种长着羽毛的恐龙其体型看上去只比火鸡大一圈。但它们是凶猛的食肉生物，且常常以群体行动，以狩猎比它们体型更大的猎物。</t>
+  </si>
+  <si>
+    <t>伶盗龙</t>
+  </si>
+  <si>
+    <t>伶盗龙 Velociraptor 
+微型野兽，无阵营 
+护甲等级：13（天生护甲） 
+生命值：10（3d4+3） 
+速度：30尺 
+力量6（-2） 敏捷14（+2） 体质13（+1） 
+智力4（-3） 感知12（+1） 魅力6（-2）
+技能：察觉+3
+感官：被动察觉13 
+语言：——
+挑战等级：1/4（50XP）
+群体战术Pack Tactics。 若伶盗龙的攻击目标周围5尺范围内至少有一个未处于失能的盟友，则它对该目标发动的攻击检定有优势。
+动作Actions
+多重攻击Multiattack。伶盗龙进行一次啃咬攻击与一次爪抓攻击。
+啃咬Bite。近战武器攻击：命中+4，触及5尺，单一生物。命中：5（1d6+2）穿刺伤害。
+爪抓Claw。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>麒麟:简述</t>
+  </si>
+  <si>
+    <t>麒麟 Ki-rin
+麒麟是高贵的天界生物。在外层位面，麒麟效劳于仁慈的神祇，在善与恶的永恒斗争中发挥着直接的作用。在凡间，麒麟是广为人知的命运预言者，神圣的守护者，以及对抗邪恶的力量。
+善良的化身。麒麟是善良的化身，只是简单地注视便能唤起观察者的恐惧或敬畏。一只典型的麒麟看起来像是一只大象大小的健壮雄鹿，金色皮毛的一些地方上覆盖排列着金色的鳞片。它有着暗金色的长鬃毛和尾巴，铜色的蹄子，以及一支螺旋形的铜色长角生在它明亮的紫罗兰色双眼之间。在微风吹拂或在高处时，这生物的鳞片和毛发会造成这样一种印象：麒麟是一团闪耀的圣洁的，金色火焰。
+除了它们的颜色外，麒麟外貌多变，基于对神祇的各自尊崇以及它通常为服务的那位神祇所履行的职责。一些是马形，看上去像是一只巨大的独角兽，常作为保护者。另一些有着龙一般的特征，往往是邪恶力量的好战仇敌。独角是最常见的，不过一只有着强烈风格的麒麟可能会有双角或者一对鹿角，像是一只神骏的雄鹿。
+带来恩赐者。凡人普遍认为麒麟是罕见的自远方而来的幸运使者。目睹麒麟从空中飞过是一种吉兆，在这天发生的事都是特别吉利的。如果一只麒麟降临在一场仪式上，例如诞生祭或者加冕典礼，在场的所有人都会明白，这生物是在告诉他们，大善将至。麒麟带来它的馈赠和预兆，然后飞回天空。麒麟也被认为会出现在一场伟大战役的战场上来鼓舞激励善良的一方，或者从死亡中救回英雄。
+入世的麒麟主张守望着一片领土，一只麒麟保护的地区可能包含着数个国家。在其他位面，麒麟依着所效劳的善神的吩咐前往任何地方，其中也许包括去往主物质位面的任务。一只入世的麒麟经常担任它所服务的神祇的一名侦察员，一名信使，或者一名密探。
+麒麟被崇尚勇气，忠诚，无私，真理，以及公正社会的进步的神祇所吸引。例如，在费伦，麒麟大多聚在托姆麾下，虽然麒麟也服务于祂的盟友提尔和伊尔马特。
+被崇拜者。因为麒麟以其智慧而闻名，其他生物自然会带着疑问和请求来寻找它，如果他们可以的话。因此，这生物将它的巢穴筑在险山峻岭之巅，或者其他一些同样极难到达之处。只有极具毅力，能走完这艰险旅途抵达麒麟之巢的人，才能证明自己有资格与巢穴主人对话。
+许多寻求麒麟的指引的人最终会发誓为其效劳。他们成为了在麒麟指导下学习的僧侣，及其在世上的代言者。一只麒麟的追随者可能会化装出游各地，寻找着邪恶滋生和幕后主使的消息，或者可能因为他们主人的缘故作为战士，前去击败邪恶，无论它是在哪里被发现。</t>
+  </si>
+  <si>
+    <t>堂皇之巢</t>
+  </si>
+  <si>
+    <t>麒麟的巢穴</t>
+  </si>
+  <si>
+    <t>堂皇之巢
+在天界位面，麒麟高居于崇高典雅，满是豪华之物的巢中。在这个世界上，麒麟会选择一处相似的地方，如高山顶峰之上，或者用麒麟的魔法凝实的云中。从外面看时，一处麒麟的巢穴与一片天然地点难以区分，并且入口难以被来访者找到抵达。在里面，巢穴是一个安宁又舒适的地方，混合着宫殿与寺庙的气氛。如果麒麟已经让生物为其效劳，它的巢穴就会成为一片圣洁之处，麒麟不止在其中休息，还会教导神圣的奥秘。
+在它的巢穴，一只麒麟有能力每天最多召唤三次物品。每次使用以下描述中的一种能力。
+1.永久创造足够的，由柔软的植物原料制成的物品——包括人造物，如布匹，枕头，绳索，毛毯，和衣物——以装满一个20立方尺大小的区域。
+2.永久创造出足够的，由木材，或者类似硬质原料制成的物品，以装满一个10立方尺大小的区域。
+3.创造出足够的，由石头或者金属制成的物品，以装满一个2立方尺大小的区域，但是以这种方法创造出的任何材料都只能存在1小时。
+区域效果
+麒麟的天界性质改变了其巢穴周围的区域。旅行者在附近遇到的任何下列魔法效果都是可能的：
+·在麒麟巢穴3英里范围内的流水都是洁净的，任何故意导致的水的腐坏都不会持续超过3分钟。
+·在麒麟巢穴3英里范围内的动物，植物和善良生物都生机勃勃，如同它们朝着理想的方向发展。这种生物很少向通常并非其猎物的他人发动攻击。邪恶生物无法忍受同样范围内的神圣气氛，经常选择远离麒麟的领地居住。
+·在巢穴3英里范围内时，善良阵营生物所受的诅咒、疾病和毒素效果被压制。
+·一只麒麟在其巢穴3英里范围内时，能够操控天气。法术的起发点始终是户外最接近它巢穴的中心点。麒麟不需要维持朝向天空的清晰路线或维持对天气变化的专注。
+·在巢穴3英里范围内，风能托起由于没有麒麟或者其盟友的行动而坠落的非邪恶生物。这样的生物以每轮60尺的速度下降，并且没有坠落伤害。
+当麒麟死亡时，所有这些效果立即消失，但是对动植物的激发生机效果还会持续3年。</t>
+  </si>
+  <si>
+    <t>麒麟</t>
+  </si>
+  <si>
+    <t>麒麟
+巨型天界生物，守序善良
+AC 20（天生护甲）
+HP 152（16d12+48）
+速度 60尺，飞行120尺（悬浮）
+力量21（+5），敏捷16（+3），体质16（+3）
+智力19（+4），感知20（+5），魅力20（+5）
+技能 察觉+9，洞悉+9，宗教+8
+伤害免疫 毒素
+状态免疫 中毒
+感官 盲视30尺，黑暗视觉120尺，被动察觉19
+语言 所有，心灵感应120尺
+挑战等级 12（8400XP）
+天生施法。麒麟的天生施法能力基于魅力（法术豁免DC17），它天生即可施展以下法术，无需材料成分：
+随意：气化形态，强效幻影（6环版本），御风而行
+1次/日：造粮术
+传奇抗性（3次/日）。如果麒麟的豁免掷骰失败，它可以选择用成功代替。
+魔法抗性。麒麟在抵抗魔法以及其他魔法效果的豁免检定骰上有优势。
+魔法武器。麒麟的武器攻击视为魔法攻击。
+施法。麒麟是一名18级的施法者。它的施法属性是感知（法术豁免DC17，法术攻击加值+9）。它准备了以下牧师法术：
+戏法（随意）：光亮术，修复术，圣火术，维生术
+1环（4法术位）：命令术，治疗伤口，侦测善恶，防护善恶，圣域术
+2环（3法术位）：安定心神，次级复原术，沉默术
+3环（3法术位）：解除魔法，移除诅咒，短讯术
+4环（3法术位）：放逐术，行动自如，信仰守卫
+5环（3法术位）：高等复原术，群体疗伤术，探知术
+6环（1法术位）：英雄宴，真知术
+7环（1法术位）：以太化，异界传送
+8环（1法术位）：操控天气
+9环（1法术位）：完全复生术
+动作
+多重攻击。麒麟进行三次攻击：两次蹄踢一次角撞。
+蹄踢。近战武器攻击：命中+9，触及15尺，单一目标。命中：10（2d4+5）钝击伤害。
+角撞。近战武器攻击：命中+9，触及5尺，单一目标。命中：14（2d8+5）穿刺伤害。
+传奇动作
+麒麟可以在下列选择中选择进行三次传奇行动。但同时仅能存在一个传奇行动选项并只有在另一个生物的回合结束后才能使用。
+侦查。麒麟进行一次感知（观察）检定或者一次感知（洞悉）检定。
+猛击。麒麟进行一次蹄踢攻击或者施展圣焰。
+移动。麒麟进行半速移动而不会引发借机攻击。</t>
+  </si>
+  <si>
+    <t>守卫龙兽:简述</t>
+  </si>
+  <si>
+    <t>守卫龙兽 Guard Drake
+守卫龙兽是一种通过诡异而可怕的仪式，从龙鳞中创造出的爬行类生物。如果训练得当，亚龙是听话又忠诚，又能捍卫领地的，这使得它能遵循简单的命令成为优秀的守卫兽。
+龙之馈赠。创造守卫龙兽的仪式是由提亚玛特的狂热崇拜者最早设计的，但是已经传播到了其他熟悉与龙有关的奥秘与合作的团体中了。龙的配合对于仪式的成功是必不可少的，当它打算奖赏它的盟友或者一个有用的仆人崇拜者时，龙通常会提供帮助。
+作为仪式的部分，需要数天时间，需要10磅龙鳞（由与团体合作的龙提供），大量的新鲜肉类和一只铁釜。当这个过程完成后，釜中会出现一枚半身人大小的蛋，并且将在几个小时内孵化。
+渴望学习。一条新孵化的守卫龙兽会记住第一个喂养它的人（通常是计划训练它的人），与那个人建立一份积极而信任的契约。一条守卫龙兽在两到三个星期内完全成熟，并且可以在同样的时间内训练。这相当于是在训练一只看门犬可以做什么。
+一条守卫龙兽类似于创造它的龙的类型，但是无翼，伏行，肌肉发达。守卫龙兽无法繁殖，它的鳞片也不能用于制造其他守卫龙兽。</t>
+  </si>
+  <si>
+    <t>守卫龙兽</t>
+  </si>
+  <si>
+    <t>守卫龙兽 Guard Drake
+中型龙类，无阵营
+AC 14（天生护甲）
+HP 52（7d8+21）
+速度 30尺
+力量16（+3），敏捷11（+0），体质16（+3）
+智力4（-3），感知10（+0），魅力7（-2）
+技能 察觉+2
+感官 黑暗视觉60尺，被动察觉12
+语言 懂龙语但是不会说
+挑战等级 2（450XP）
+动作
+多重攻击。守卫龙兽进行两次攻击：一次啮咬和一次尾击。
+啮咬。近战武器攻击：命中+5，触及5尺，单一目标。命中：7（1d8+3）穿刺伤害。
+尾击。近战武器攻击：命中+5，触及5尺，单一目标。命中：6（1d6+3）钝击伤害。
+边栏：五色守卫龙兽
+每种五色龙的鳞片和血液创造的守卫龙兽类似于无翼矮小版的那种龙，具有与该种类相关的独特能力。每种都有如下描述的特殊能力。
+黑守卫龙兽。黑守卫龙兽是两栖的（可以呼吸空气和水），拥有30尺的游泳速度，并对强酸伤害具有抗力。
+蓝守卫龙兽。蓝守卫龙兽拥有20尺的掘穴速度，并对闪电伤害具有抗力。
+绿守卫龙兽。绿守卫龙兽是两栖的（可以呼吸空气和水），拥有30尺的游泳速度，并对毒素伤害具有抗力。
+红守卫龙兽。红守卫龙兽拥有30尺的攀爬速度，并对火焰伤害具有抗力。
+白守卫龙兽。白守卫龙兽拥有20尺掘穴速度，30尺攀爬速度，并对冷冻伤害具有抗力。</t>
+  </si>
+  <si>
+    <t>连枷蜗牛:简述</t>
+  </si>
+  <si>
+    <t>连枷蜗牛 Flail Snail
+连枷蜗牛是一种由土元素构成的生物，它的多彩外壳是非常珍贵的。猎人在看到这种笨重的，看似毫无敌意的生物时，可能会被欺骗而产生一种虚假的自信感。如果任何其他大到足以构成威胁的生物过于接近时，蜗牛就会释放耀眼的闪光，然后用它类似触手的触角攻击。
+财富之足迹。不受打扰的情况下，连枷蜗牛沿着地面缓缓移动着，消耗着地面上的一切东西，包括岩石，沙子和土壤，也会停下来品味生长的水晶和其他大型矿床。它会留下一道闪闪发光的痕迹，其迅速凝固成一层薄薄的，近乎透明的，对蜗牛来说不可食用的物质。这种玻璃状残余物可以被收集起来并切割成不同透明度的窗玻璃。它也可以被加热并纺成其他种类的玻璃制品。一些人尾随着连枷蜗牛以收集这种玻璃谋生。
+边栏：使用连枷蜗牛壳
+一只连枷蜗牛的壳重约250磅，有着多种用途。一个完整的壳可以卖出5000gp。
+许多猎人寻求着它反魔法特性的外壳。一个熟练的锻造者可以用一个外壳制成三面盾牌。在一个月内，每面盾牌给予它的持有者蜗牛反魔法外壳的特性。当盾牌的魔力消失时，它留下一面奇异的盾牌，是制作一面法术护盾的完美素材。
+连枷蜗牛壳也能用于制作一件色彩耀眼的长袍。在制作衣服时，将壳磨碎并加入到染料中。这种粉末是一种为长袍附魔的仪式的材料部分。</t>
+  </si>
+  <si>
+    <t>连枷蜗牛</t>
+  </si>
+  <si>
+    <t>连枷蜗牛 Flail Snail
+大型元素，无阵营
+AC 16（天生护甲）
+HP 52（5d10+25）
+速度 10尺
+力量17（+3） 敏捷5（-3） 体质20（+5）
+智力3（-4） 感知10（+0） 魅力5（-3）
+伤害免疫 火焰，毒素
+状态免疫 中毒
+感官 黑暗视觉60尺，颤动感知60尺，被动察觉10
+语言 ——
+挑战等级 3（700XP）
+反魔法外壳。蜗牛在对法术的豁免检定有优势，任何对蜗牛进行法术攻击的生物都在攻击检定上处于劣势。如果蜗牛成功豁免法术或者法术攻击没有命中它，则可能会产生额外效果，投掷d6决定：
+    1-2。如果该法术影响一个区域或者多个目标，它会失败并且没有效果。如果法术目标只有蜗牛，它对蜗牛没有效果，并反射回给施法者，使用该施法者的法术位等级，法术豁免DC，攻击加值和施法能力。
+    3-4。无额外效果。
+    5-6。蜗牛的外壳将一些法术能量转换为一阵破坏性的力场能量。位于蜗牛半径30尺内的每个生物都必须通过一个DC15的体质豁免检定，豁免失败则受到1d6力场伤害/法术等级，成功则只受一半伤害。
+连枷触手。连枷蜗牛拥有五根连枷状的触手。每当蜗牛在一回合内受到10点或者更多的伤害时，它的一根触手就会死亡。如果还剩一根触手，蜗牛会在1d4天内再生出全部的死去触手。如果所有触手都死亡了，蜗牛会缩进壳里，获得全隐蔽，并开始哀号，声音在600尺内都能听到，只有在它死亡5d6分钟后才会停止。治疗法术可以复原肢体，例如再生术能够停止这个死亡的过程。
+动作
+多重攻击。连枷蜗牛使用它所有的连枷触手尽可能多的攻击同一目标。
+连枷触手。近战武器攻击：命中+5，触及10尺，单一目标。命中：6（1d6+3）钝击伤害。
+闪耀之壳（在短休或长休后充能）。蜗牛的外壳发出耀眼的彩光，直到蜗牛的下一回合结束。在这段时间内，外壳发出半径30尺的明亮光芒和额外30尺的昏暗光芒，可以看到蜗牛的生物在对它的攻击检定上有劣势。此外，任何处于明亮光芒内并能看到蜗牛的生物在这个能力发动时，必须通过DC15的感知豁免检定否则陷入震慑，直到光芒消失。
+壳体防御。连枷蜗牛缩回它的壳中，直到它出现前AC获得+4加值。它能在它的回合以一个附赠动作从壳中出现。</t>
+  </si>
+  <si>
+    <t>捣蛋鬼:简述</t>
+  </si>
+  <si>
+    <t>捣蛋鬼 Boggle
+捣蛋鬼是童话中的小妖怪。它们潜伏在妖精荒野的边缘，也可以在物质位面被发现，藏在床底下和壁橱里，等待着用它们的恶作剧来吓唬和折磨人们。
+捣蛋鬼是由孤独感产生的，出现在妖精荒野Feywild与物质世界相连之处，是一个感觉自己被孤立或被遗弃的智慧生物。例如，一个被遗弃的孩子可能会无意中变出一个捣蛋鬼，把它看作是一种想象中的朋友。在一个孤独的鳏夫的阁楼上，或者隐士的洞穴里，也可能会出现一个“捣蛋鬼”。
+讨厌的害虫Irksome Pests。捣蛋鬼会搞些小恶作剧来取乐，以主人为代价打发时间。捣蛋鬼指会把盘子打碎，把工具藏起来，发出吓人的声音以惊吓母牛，使牛奶变酸，或者把婴儿藏在阁楼里。尽管捣蛋鬼的滑稽动作可能会引人不安和造成意外的伤害，但它通常没有自觉，而不是有意为之。如果受到威胁，捣蛋鬼会逃跑，而不会面对战斗。
+油性分泌物Oily Excretions。捣蛋鬼会从毛孔中分泌油脂，使油脂变滑或粘稠。油脂在一小时后干涸消失。
+扭曲的空间Twisting Space。捣蛋鬼可以创造出神奇的开口，让你在短距离内旅行，或者偷走你原本拿不到的东西。要在空间中制造这样的裂缝，捣蛋鬼必须靠近一处被边框圈起的空间，例如打开的窗户或门口、笼子栏杆之间的空隙或床脚与地板之间的开口。裂口是看不见的，几秒钟后就消失了——足够时间让捣蛋鬼跨越，穿过去，或者从裂口攻击。
+不可靠的盟友Unreliable Allies。捣蛋鬼是意志坚强的主人的好仆人，而像废陋巨人和鬼婆这样的邪恶生物有时会把捣蛋鬼藏在巢穴里。与至高妖精达成协议的邪术师也被认为是可以指挥捣蛋鬼的，而那些有魅力的人，只要能做出正确的选择，就能与这些捣蛋鬼们建立暂时的联盟。无聊的捣蛋鬼总能找到自娱自乐的方法。</t>
+  </si>
+  <si>
+    <t>捣蛋鬼</t>
+  </si>
+  <si>
+    <t>捣蛋鬼 Boggle
+小型精类，混乱中立
+护甲等级 14
+生命值 18（6d6+24）
+速度 30尺 攀爬30尺
+力量8（-1） 敏捷18（+4） 体质13（+1）
+智力6（-2） 感知12（+1） 魅力7（-2）
+技能：察觉+3、手上功夫+6、隐匿+6
+伤害抗性：火焰
+伤害免疫：-
+状态免疫：-
+感官：黑暗视觉 60ft，被动察觉 13
+语言：木族语
+挑战等级：1/8（25xp）
+捣蛋油Boggle oil。捣蛋鬼从毛孔中排出不可燃的油。捣蛋鬼可以选择油是滑的还是粘的，并可以将皮肤上的油从一种稠度变为另一种稠度，这是一个额外的动作。
+滑油 Slippery Oil：当涂上滑油后，捣蛋鬼在敏捷（杂技）检定上获得优势，可以逃脱束缚，通过狭窄的空间和挣脱擒抱。
+黏油 Sticky Oil：当涂上粘油时，捣蛋鬼在力量（运动）检定中获得优势，以及在保持对另一个生物、表面或物体的抓握能力检定中获得优势。捣蛋鬼还可以攀爬难度较大的表面，包括倒立在天花板上，无需进行能力检查。
+裂痕 Dimensional Rift。以一个附赠动作动作，捣蛋鬼可以在它能看到的5尺范围内创建一个不可见的、不可移动的裂缝，前提是任何一侧的空间不大于10尺。裂隙连接了该空间与捣蛋鬼可以通过距离和方向看到或指定的30尺内的任何地点（如“30尺垂直向上”）。通过这个裂口，捣蛋鬼可以看到另外一端，也被认为是在目的地的附近，任何由捣蛋鬼所携带而穿过裂口的东西（包括它身体的一部分）都会在目的地出现。只有捣蛋鬼可以使用裂口，它将持续到捣蛋鬼的下一个回合结束。
+不可思议的气味 Uncanny Smell。捣蛋鬼在依靠嗅觉进行的感知（察觉）检定中具有优势。
+动作 Actions
+揍人 Pummel。近战武器攻击：+1命中，触及5尺，一个目标。
+伤害：2（1d6-1）钝击伤害。
+油坑 Oil Puddle。捣蛋鬼会产生一滩油，要么是滑的要么是黏的（由捣蛋鬼选择）。水坑有一寸深，覆盖着一处地表，任何进入水坑区域或开始在其中开始回合的生物必须成功于 DC 11 的敏捷豁免，否则就会摔倒在地。
+如果油是粘的，任何进入水坑区域或开始在其中开始回合的生物必须成功于 DC 11 的力量豁免，否则陷入束缚状态。在该生物的回合，它可以用一个动作进行一次 DC 11 的力量豁免，试图从黏糊糊的水坑中解脱出来，结束束缚状态，并移动到最近的未被占据的空间。</t>
+  </si>
+  <si>
+    <t>暗灵:简述</t>
+  </si>
+  <si>
+    <t>暗灵 Darklings
+在古老的传说中，一个光明妖精出卖了仲夏女王（缇坦尼亚）。如今他的真名已从历史中被抹去，但故事中叫他Dubh Catha（通称“暗鸦”）。仲夏女王的愤怒是如此强烈，以至于她诅咒叛徒家族的每一个成员。其他妖精提到Dubh Catha家的子孙时会用“暗灵”来代指。大多数暗灵都偏好居住在隐蔽的洞穴或者其他种族的城镇角落里。在这些地方，他们悄悄地充当着盗贼和刺客。
+死于光明。仲夏女王的诅咒导致暗灵的身体吸收光线，这样做会对生物造成类似快速老化的效果。因此，当暗灵有暴露在阳光下的风险时，他们会用衣服密实地包裹住身体的每一部分。暗灵死亡时，在其一生中吸收的光能会猛烈爆开，把它连同所携带的大部分物品都烧为灰烬。
+喜爱艺术。尽管他们受到诅咒，暗灵仍保留着对艺术之美的喜爱。暗灵的可能冒着风险偷看日落或点燃一支小蜡烛以便能瞥见画作或珠宝上的色彩。
+长者晋升。一个聪明的、受人尊敬的暗灵有资格成为一名长者。其他暗灵长者会在他身上刻下发光的纹身，连通一部分暗灵体内所吸收的光能。如果仪式成功，该暗灵将会成长为一个高大而美丽的形象，就像一个灰皮肤精灵。如果仪式失败，这个暗灵将会丧命。</t>
+  </si>
+  <si>
+    <t>暗灵</t>
+  </si>
+  <si>
+    <t>暗灵
+小型精类，混乱中立
+AC 14（皮甲）
+HP 13（3d6+3）
+速度 30尺
+力量9（-1） 敏捷16（+3） 体质12（+1）
+智力10（+0） 感知12（+1） 魅力10（+0）
+技能：特技+5，欺瞒+2，察觉+5，隐匿+7
+感官：盲视30尺，黑暗视觉120尺，被动察觉15
+语言：精灵语，木族语
+挑战等级：1/2（100xp）
+死亡焚耀. Death Flash 当暗灵死亡时，它的身体和除了金属和魔法物体的持有物将闪耀出10尺半径的非魔法光芒，并随之焚烧成灰。任何在闪光范围内且能够看见该光芒的生物必须成功通过一次DC 10的体质豁免，否则将陷入目盲状态直到该生物的下个回合结束。
+阳光敏感。当位于明亮光照下时，暗灵在攻击骰，以及依靠视觉的感知（察觉）检定上有劣势。
+动作
+匕首。近战或远程武器攻击：+5命中，触及5尺或射程20/60尺，一个目标。命中：5（1d4 + 3）穿刺伤害。如果暗灵已经在攻击骰上具有优势，则造成额外的7（2d6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>暗灵长者</t>
+  </si>
+  <si>
+    <t>暗灵长者
+中型精类，混乱中立
+AC 15（镶嵌皮甲）
+HP 27（5d8+5）
+速度 30尺
+力量13（+1） 敏捷17（+3） 体质12（+1）
+智力10（+0） 感知14（+2） 魅力13（+1）
+技能：特技+5，欺瞒+3，察觉+6，隐匿+7
+感官：盲视30尺，黑暗视觉120尺，被动察觉16
+语言：精灵语，木族语
+挑战等级：2（450xp）
+死亡焚焰. Death Burn 当暗灵长老死亡时，它的身体和除了金属和魔法物体的持有物将闪耀出10尺半径的魔法光芒，并随之焚烧成灰。任何在闪光范围内的生物必须进行一次DC 11的体质豁免。若豁免失败将受到陷入7 (2d6)光耀伤害，且若该生物可以看见该光芒，则它将陷入目盲状态直到它的下个回合结束。若豁免成功，则该生物只受到一半的伤害且不会陷入目盲。
+行动
+多重攻击。暗灵长者进行两次近战攻击。
+短剑。近战武器攻击：+5命中，触及5尺，一个目标。命中：5（1d6+ 3）穿刺伤害。如果暗灵已经在攻击骰上具有优势，则造成额外的10（3d6）穿刺伤害。
+黑暗术（长或短休后充能）。 暗灵长者施展无需任何成分的黑暗术。感知是其施法主属性。</t>
+  </si>
+  <si>
+    <t>鬼婆:简述</t>
+  </si>
+  <si>
+    <t>鬼婆 Hags
+鬼婆们时常因为给世界带来毁灭和痛苦而感到欣慰。恶毒是她们在转换自己物理形态和塑造魔法力量时的核心部分。</t>
+  </si>
+  <si>
+    <t>妖鬼婆:简述</t>
+  </si>
+  <si>
+    <t>妖鬼婆 Annis Hag
+妖鬼婆的巢穴往往在山脉和丘陵之中。尽管她们通常以弯腰驼背的形象出现，但仍然有8英尺左右的站立高度，是鬼婆当中最高大健壮的一种。
+折磨弱者。虽然妖鬼婆能轻易地将一个成年男子撕成碎片，但她们更喜欢狩猎儿童，更愿意享用他们的血肉。她们把这些受害者的皮肤剥下做成柔软的皮革，一个鬼婆的巢穴往往留现出这种工业的迹象。
+妖鬼婆往往会为她们自己的残忍行为留下记号，这通常在森林边缘或者是其他宣称属于她们的区域中。通过这种方式，她们在附近的村庄城镇中引发恐惧和妄想。对于一个妖鬼婆而言，没有什么比用恐怖手段将一个充满活力的社区瘫痪更为甜美，住在那里的人们夜晚从来不会冒险外出，陌生人受到无来由的愤怒和猜疑，家长会对他们的孩子说“听话，否则妖怪会吃了你。”
+腐化孩童。当一个妖怪被听起来太过残酷时，她会将自己伪装成一个和蔼可亲的老妇人，在较为偏远的地区接近一个儿童，并给他们一个铁徽记，让他们可以通过徽记对自己倾吐秘密。随着时间的推移，“奶奶”会渐渐说服孩子拥有一些糟糕的想法和做一些坏事是可以的——从打坏东西和未经许可擅自外出开始，然后渐变至将某人推下楼梯或者是在屋内放火的程度。迟早有一天，孩子们的家庭和社区会因为他们被埋下“坏的种子”而陷入恐惧，并且不得不面对将他们流放或作出惩罚的可怕决定。
+部落主母。虽然妖鬼婆们友善对待孩子但实际上的目的是为了腐化他们。妖鬼婆倾向收养一群食人魔、巨魔或其他粗野的生物，用蛮力、谩骂和迷信统治他们。
+集会。当妖鬼婆作为鬼婆集会的一员时（参考MM中的“鬼婆集会”边栏）拥有挑战等级8（3900xp）。</t>
+  </si>
+  <si>
+    <t>妖鬼婆</t>
+  </si>
+  <si>
+    <t>妖鬼婆
+大型精类，混乱邪恶
+AC 17（天生护甲）
+HP 75（10d10+20）
+速度 40尺
+力量21（+5） 敏捷12（+1） 体质14（+2） 
+智力13（+1） 感知14（+2） 魅力15（+2）
+豁免 体质+5
+技能 欺瞒+5，察觉+5
+伤害抗性 寒冷，来自非魔法攻击的钝击、穿刺和挥砍
+感官 黑暗视觉60尺，被动察觉15
+语言 通用语，巨人语，木族语
+挑战等级 6（2300XP）
+天生施法。妖鬼婆的天生施法能力基于魅力（豁免DC13）。它可以如天赋般施展以下法术：
+每项3次/日：易容术disguise self（包括中型类人生物的形态），云雾术fog cloud
+动作
+多重攻击。妖鬼婆可以进行3次攻击：一次使用她的啮咬，两次使用她的爪抓。
+啮咬。近战武器攻击：命中+8，触及5尺，单一目标。命中：15（3d8+5）穿刺伤害。
+爪抓。近战武器攻击：命中+8，触及5尺，单一目标。命中：15（3d8+5）挥砍伤害。
+碾压拥抱。近战武器攻击：命中+8，触及5尺，单一目标。命中：36（9d6+5）钝击伤害。如果目标为大型或更小的生物，则目标被擒抱（挣脱DC15）。直到擒抱结束，目标在妖鬼婆每个回合开始的时候都要受到36（9d6+5）钝击伤害。在用这个方式擒抱生物时，妖鬼婆无法做出攻击。
+边栏：铁徽记
+一个妖鬼婆可以拔下她的一颗铁牙齿或者指甲并且花费1分钟将它打磨为一个硬币、一枚戒指或者是一面小镜子的形态。此后，任何持有这个徽记的生物都可以与这个鬼婆低声交谈，只要他们在同一位面上且相互间的距离不超过10英里。徽记的持有者只能听到鬼婆的声音，不包括鬼婆周围的其他生物或其他环境所产生的杂音。同样，鬼婆也只能听见持有者的声音而不包括周围的噪音。
+一个妖鬼婆在同一时间内最多拥有3个铁徽记。以一个动作，妖鬼婆可以辨别所有徽记的方位和从她到徽记的大致距离。她可以在任何距离上立即停止她的任何徽记而无需动作，因此徽记将保留它的当前形态但失去魔法特性。</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆:简述</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆 Bheur hags
+冬灵鬼婆生活在寒冷的土地上，偏爱白雪皑皑的群山。她们在冬季会变得更加活跃，使用她们操弄冰雪和气候的魔法向附近的聚居地降下惨剧。
+冬灵鬼婆的皮肤像冻死者一样呈蓝白色。她有惨白的头发，身形瘦削，仿佛一个靠着啃食树皮和皮革在严冬里幸存的人。她的眼色苍白，周围的皮肤带着深色的瘀痕。冬灵鬼婆带着一根扭曲的灰色木杖，她能像飞天扫帚一样骑乘它，并用其增强她的法术力量。
+冻寒之心Cold Hearts.冬灵鬼婆们被由致命寒冷所驱使的自私举动吸引，比如为了冬衣谋杀一个旅行者，为了柴火砍倒一位树精的丛林，等等。如果它们甚至毫无理由，比如一位贪婪的商人为冬季在他人挨饿时囤积了比他能吃的还多的食物，这些行为对一位冬灵鬼婆来说尤为甘甜。冬灵鬼婆喜爱将这些念头植入凡人的心中。她们使用她们的力量来操纵天气，让降雪和严寒袭击村落，希望能够灌输绝望的情绪，使村民们互相敌对。
+冬灵鬼婆喜爱看到毫无准备的人在冬季因为他们的错误受苦和死亡。当凡人为了生存而做一些琐碎的、可悲的尝试时，比如在没有实际食物的时候吃靴子和皮屑，她也会感到欣喜。
+不堪目视Awful  to  Behold。当一个冬灵鬼婆在这战斗中被完全地伤害，并刚刚得以杀死了她的其中一个敌人时，她常常会放弃攻击她剩下的敌人，而是花费一点时间来吞食尸体，将其肢解并把肉从骨头上剥离。看到这种野蛮的行为足以让目击者陷入暂时的疯狂之中。
+鬼婆集会Covens。冬灵鬼婆作为鬼婆集会的一员（见怪物图鉴中“鬼婆集会”边栏）具有挑战等级9（5000XP）。</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆</t>
+  </si>
+  <si>
+    <t>冬灵鬼婆
+中型精类，混乱邪恶 
+AC  17  (天生护甲) 
+HP 91  (14d8+28) 
+速度  30尺 
+力量 13(+1）   敏捷 16(+3)   体质 14(+2) 
+智力 12(+1)  感知 13(+1)   魅力 16(+3) 
+豁免：感知 +4
+技能：自然 +4,  察觉 +4,  潜行 +6,  生存 +4
+伤害免疫：冷冻 
+感官：黑暗视觉60尺，被动感知14
+语言：原初语，通用语，巨人语
+挑战等级7 (2,900  XP)
+灰杖巫术Graystaff  Magic.鬼婆随身带着一根灰杖，一根用于聚集她天生力量的灰色长棍。她能把手杖当做飞天扫帚一样骑乘。当握住手杖时，她以她的天生施法能力特性施放额外的法术（这些法术使用星号标出）。如果手杖丢失或被破坏，鬼婆必须花费一年零一天来制作另一根。只有一位冬灵鬼婆才能使用灰杖。
+冰上行走Ice  Walk. 鬼婆可以在冰面上穿行和攀爬而无需进行属性检定。此外，其穿过由冰或雪组成的困难地形时也不需要花费额外的移动力。
+天生施法Innate  Spellcasting.鬼婆的天生施法属性为魅力（法术豁免DC14，法术攻击+6）。它天生可施展以下法术且不需要任何相应的材料成分：
+任意：人类定身术hold  person *，冷冻射线ray  of  frost
+每项3/日：寒冰锥cone  of  cold*，冰风暴 ice storm*，冰墙术wall  of  ice*
+1/日：操控天气control  weather
+动作ACTIONS
+猛击 Slam。近战武器攻击： 命中+4，触及 5 尺，单一目标
+伤害： 10（2d8+1）的钝击伤害，外加3（1d6）冷冻伤害。
+癫狂盛宴Maddening  Feast.鬼婆啃食距离其五尺内一个一分钟内死去敌人的尸体。每个60尺内鬼婆选择的能看到她的生物必须成功通过DC15的感知豁免，否则在一分钟内对她陷入恐慌。因为这种方式恐慌时，生物会陷入失能，无法理解其他人说的话，无法阅读，只能胡言乱语；DM操控该生物混乱的移动。一个生物可以在每个其回合结束重复该豁免，成功则结束该效应。如果一个生物的豁免成功或者对其的效果结束，该生物在接下来的24小时内免疫鬼婆的癫狂盛宴。</t>
+  </si>
+  <si>
+    <t>快可灵:简述</t>
+  </si>
+  <si>
+    <t>快可灵 Quickling
+无论是在妖精荒野，或是在这个世界上，快可灵都会以火箭般的速度穿越盘根错节的森林。在那里摇头晃尾。快可灵的速度比眼睛所能追踪的更快，它们的一闪而过看起来就像一个模糊的影子一晃而过。
+快可灵是一种身形细小的精类生物，与有着尖锐、凶猛特征的迷你型精灵类似。它冷酷无情的双眼闪烁着宝石般的光芒。
+活的放纵，英年早逝。它们的生存现状——以及他们的困境——都要归功于薄暮庭院Gloaming Court的可怕统治者，空暗女王Queen  of Air  and  Darkness，黑暗宫廷中可怕的统治者。那些被化作快可灵的生物，曾经是一个懒惰而又自负的精类种族，曾多次未及时响应女王的召唤。为了加快他们的步伐、并教他们记住自己的意志，女王缩小了他们的身材，加速了他们的生物钟。 女王的诅咒给了他们惊人的速度，但也加速了他们的生活——没有快可灵能够活过十五年。
+它们的世界太快了。凡间的世界在一个快可灵的眼中是一个沉闷的地方：飓风徐徐地掠过天空，倾盆大雨像慵懒的雪花一样飘向地面，闪电在云间如蜿蜒的小径般爬行。在这个缓慢而无聊的世界里，生活着一群迟钝的生物，它们深沉低吟的语言缺乏意义。
+对于其他生物来说，快可灵如模糊的残影般快速移动令人目眩。它残忍的笑声是一阵快速而断续的声音，它的语言是一声尖锐的尖叫。只有当一个快可灵故意放慢速度——它不喜欢这样做时，其他人才能切实地看到、听到和理解它。一个“原地不动”的快可灵会不断变化它的步伐和位置，好像它迫不及待地想要再次离开，永不停歇。
+非致命的恶作剧。快可灵的天性反复无常，这与他们旺盛的精力很相称：他们思考的速度和奔跑的速度一样快，而且他们总是在做着某些事情。快灵大部分时间都在对较慢的生物进行恶作剧。它们很少会错过把两只鞋带系在一起的机会，也会移动一个生物即将坐上去的凳子，或者在没人注意的时候解开马鞍。
+然而，这类诡计并不是他们恶意中伤的极限。他们不会直接杀人，但是快可灵会以其他许多方式破坏生活：偷走一封重要的信，顺走穷人积攒的硬币，把偷来的东西放在别人的包里。快可灵喜欢制造比单纯恶作剧更多的痛苦，特别是当他们的行为责任被归咎于其他生物、且造成不和的时候。</t>
+  </si>
+  <si>
+    <t>快可灵</t>
+  </si>
+  <si>
+    <t>快可灵 Quicklings
+微型精类，混乱邪恶
+护甲等级 16
+生命值 10（3d4+3）
+速度 120尺
+力量4（-3） 敏捷23（+6） 体质13（+1）
+智力10（+0） 感知12（+1） 魅力7（-2）
+技能：特技+8,、巧手+8、隐匿+8、察觉+5
+感官：黑暗视觉 60ft，被动察觉 15
+语言：通用语、木族语
+挑战等级：1（200xp）
+快出残影 Blurred Movement。除非快可灵陷入失能或束缚，否则对快可灵的攻击骰具有劣势。
+反射闪避 Evasion。某个敏捷豁免通过后伤害减半的效应指定快可灵为目标时，其豁免成功则不受任何伤害，而豁免失败时则只受一半伤害。
+动作 Actions.
+多重攻击 Multiattack.快可灵进行三次匕首攻击。
+匕首 Dagger.近战武器攻击：+8命中，触及5尺，投掷20/60，一个目标。
+伤害：8（1d4+6）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>红帽子:简述</t>
+  </si>
+  <si>
+    <t>红帽子 Redcap
+红帽子是一种由血腥欲望而诞生的杀人狂。红帽子虽然很小，却具有强大的力量，他们可以毫不犹豫地使用它们的力量进行捕杀。
+嗜血的化身。在妖精荒野Feywild，或者与世界接触的十字路口处，如果一个有知觉的生物表现出强烈嗜血的欲望时，那么在被杀者的鲜血浸透地面的地方，可能会出现一个或多个红帽子。起初，新的红帽子看起来就像血迹斑斑的蘑菇把它们的帽子从泥土里挤出来。当月光照射在其中一顶帽子上时，一个干瘪矮小、驼背、肌肉发达的侏儒的生物便从地下冒了出来。它有一顶尖尖的皮质帽子，一条类似材质的裤子，一双沉重的铁靴子，还有一把沉重的带刃武器。从它醒来的那一刻起，红帽子便只渴望谋杀和屠杀，并开始满足这些渴望。
+红帽子缺乏敏感。他们生来便处在直接对抗和致命战斗的混乱中。即使红帽子想隐匿，它的铁靴子也迫使它迈出沉重的、雷声般的步伐。然而，当红帽子在接近潜在的猎物时，它迅速缩短距离接近目标，并在目标作出反应之前发起猛烈攻击。
+沉浸于杀戮。为了维持其非自然的存在，红帽子必须把它的帽子浸在受害者新鲜的血液中。当红帽子出生时，它的帽子上覆盖着湿润的血液，它知道如果血液不能至少每三天补充一次，红帽子就会消失，如从未存在般。红帽子的杀戮欲望根植于它生存的意志。
+嗜血的雇佣兵。红帽子通常不会成群活动，但在某些情况下，它们可能会被女巫和黑魔法师所雇佣，这些法师知道如何把红帽子从妖精荒野召唤出来，并把它们视为可怕的仆从而投入工作。
+一些红帽子能感觉到是谁的杀戮行为导致了它们的诞生。红帽子可能会利用这种与生俱来的联系以寻找它的创造者，并使这个生物成为它的第一个受害人。其他人则寻找它们的创造者，以享受与志趣相投的人接近的乐趣。一个负责在同一地点创建多个红帽子的人可以利用这种手段，吸引整个团队来作为同伙。
+在任何情况下，如果一个红帽子与另一个人合作，红帽子要求从害者身上分一杯羹。如果一位资助人试图抑制红帽子的嗜血渴望，他就有可能成为红帽子的下一个目标。</t>
+  </si>
+  <si>
+    <t>红帽子</t>
+  </si>
+  <si>
+    <t>红帽子 Redcap
+小型精类，混乱邪恶
+护甲等级 13（天生护甲）
+生命值 45（6d6+24）
+速度 25尺
+力量18（+4） 敏捷13（+1） 体质18（+4）
+智力10（+0） 感知12（+1） 魅力9（-1）
+技能：运动+6、察觉+3
+感官：黑暗视觉 60ft，被动察觉 13
+语言：通用语、木族语
+挑战等级：3（700xp）
+铁靴子Iron  Boots. 在移动时，红帽在敏捷（隐匿）检定上有劣势。
+巨大力量 Outsize Strength。 在战斗过程中，红帽子被视为中体型的大小。此外，使用重型武器并不会对其攻击骰具有劣势。
+行动 Actions. 
+多重攻击 Multiattack。 红帽子进行三次邪恶镰刀攻击。
+邪恶镰刀 Wicked sickle。 近战武器攻击：+6命中，触及5尺，一个目标。
+伤害：9（2d4+4）穿刺伤害。
+覆铁追捕 Ironbound  Pursuit。 红帽子以它最快的速度移动到它可以看到的生物，并用自己的铁靴踢它。目标必须成功于 DC 14 敏捷豁免，否则受到20 （3d10 +4）钝击伤害并被击倒。</t>
+  </si>
+  <si>
+    <t>凌弱怪:简述</t>
+  </si>
+  <si>
+    <t>凌弱怪 Meenlock
+凌弱怪是一种唤来恐怖的畸形精类生物，它们所寻求的是摧毁世上一切善良、清白和美好。它们主要生活在森林中，当然它们也能很好地适应都市和地底环境。
+恐惧化身。凌弱怪从恐惧中衍生。每当恐惧压垮了妖精荒野的一个生物，或者是强烈影响了其中的某个地区，一个或多个凌弱怪就有可能自然地从阴影或黑暗附近诞生。如果有超过一个凌弱怪诞生，它们的巢穴也会同时如魔法般出现——伴随着大地裂隙的吱嘎呻吟，扭曲的隧道将被呈现。这条隧道将会成为凌弱怪巢穴的唯一出入口。
+凌弱怪会放射出超自然的光环灌输给附近的生物战栗与恐惧。当有人闯入凌弱怪的巢穴时，那些明显的扭曲和恶意会立即被每个人所感知到，仿佛某种挥之不去的不祥预感。在入口的内侧，黑色的苔藓覆盖了每一个表面，把一切声音压抑。一个巨大的内腔位于凌弱怪巢穴的中心，他们在那里折磨俘虏。
+黑暗居民。凌弱怪会避开强光。他可以超自然地感知到附近的黑暗和阴影区域，并且他可以在两块黑暗区域之间传送，以此来偷袭他的猎物或者在劣势时逃跑。
+精神折磨。凌弱怪没有心灵感应以外的沟通能力。它们可以把可怖的幻觉投射到它们的猎物脑中。这些幻觉包括令人不安的低语，或者是从某人视线边缘一闪而过的疾影。
+白天，凌弱怪会躲在它们的黑暗巢穴里。夜里，它们会爬出隧道去折磨那些熟睡的猎物，它们特别喜欢把目标锁定为那些仿佛体现了世上一切美好品质的人。凌弱怪喜欢用它们的爪子麻痹生物，把他们拽回自己的洞穴，将他们击倒至昏迷，然后用心灵感应折磨他们数个小时。一个屈从于这种精神折磨的类人生物将转变为一个邪恶的、成熟的凌弱怪（参考“精神折磨”边栏）。</t>
+  </si>
+  <si>
+    <t>凌弱怪</t>
+  </si>
+  <si>
+    <t>凌弱怪
+小型精类，中立邪恶
+AC 15（天生护甲）
+HP 31（7d6+7）
+速度 30尺
+力量7（-2） 敏捷15（+2） 体质12（+1）
+智力11（+0） 感知10（+0） 魅力8（-1）
+技能 察觉+4，隐匿+6，求生+2
+状态免疫 恐慌
+感官 黑暗视觉120尺，被动察觉14
+语言 心灵感应120尺
+挑战等级 2（450XP）
+恐惧光环。任何在凌弱怪周围10尺内开始回合的野兽或类人生物必须通过DC11的感知豁免检定，否则将在它下回合开始之前陷入恐慌。
+强光敏感。在明亮照明中，凌弱怪在攻击检定和依靠视力的感知（察觉）检定中具有劣势。
+暗影传送（充能5-6）。以一个附赠动作，凌弱怪可以传送至30尺内的一个未被占据的区域，只要它所在的区域和目的地同时处于微光照明或黑暗之中。目的地不需要在视觉线内。
+动作
+爪抓。近战武器攻击：命中+4，触及5尺，单一目标。命中：7（2d4+2）挥砍伤害。目标必须成功通过DC11的体质豁免检定，否则在1分钟内麻痹。在目标的每个回合结束时他可以重复进行豁免，若成功则结束这个效果对他的影响。
+边栏：精神折磨
+最多4只凌弱怪可以同时精神折磨一个失能的生物，使它的内心被令人不安的声音和可怕的图景填满。参与这项行为的凌弱怪在这期间不能用它们的心灵感应去做别的事情，虽然它们可以正常走动和使用动作、反应。这种折磨对免疫恐惧状态的生物没有影响。如果一个可以被影响的生物保持失能状态持续1小时，它将必须通过一次感知豁免检定，失败将受到10（3d6）点心灵伤害，成功只受一半伤害。豁免DC等于10+参与折磨的凌弱怪数量，只计入那些在整个一小时里保持被害者在视线范围里且没有陷入失能的凌弱怪。这个过程可以被重复。被通过这种伤害使HP降低至0的类人生物将立即转变为一只满生命的凌弱怪，并且控制权被转移给DM。只有许愿术或神力干预可以把被变形的生物恢复到本来的状态。</t>
+  </si>
+  <si>
+    <t>考芮精:简述</t>
+  </si>
+  <si>
+    <t>考芮精 Korred
+考芮精是一种鬼鬼祟祟的、难以捉摸的精类生物，它们与大地和岩石有很强的联系。因为它们的魔法头发和对矿物的神秘认知，它们在赏金猎人、矮人和其他渴望地底财富的人群中很受欢迎。
+大地精灵。考芮精喜欢保持它们自己的聚落，或者是偶尔与土元素生物（例如格莱石人）结伴同行。一个聚落的考芮精每周都会举行仪式性的舞蹈，用它们的蹄子和棍棒在岩石上敲打节奏。在物质位面的深处，考芮精在面对其他生物时通常会选择逃走，不过在认为遭到侮辱或者是被采矿的声音惹恼时也会变得有侵略性。
+岩石共感。对于大地和岩石，没人比考芮精知道得更多。考芮精几乎可以嗅到金属和宝石的脉络。站在地表上的考芮精可以感觉到地底基岩的上升和下落，可以探知到洞穴的存在，并且也能知道一英里内可以通过岩石到达的路径。经过岩石的密门对于考芮精而言就像是窗户一样明显。
+考芮精可以投掷看起来远远大于他们的体型所能负担的岩石，可以像是黏土一般改变岩石的形状，可以像是游泳一样游过岩石，也可以召唤土元素和其他生物。他们只要站在地面上就可以得到超自然的力气。
+附魔长发。考芮精的毛发遍布身体，不过它从头上长出来的头发是最为神奇的。当头发被剪掉时，那些头发将变成用以切剪的刀具的同种金属。考芮精通常会用铁剪剪掉一段它们的头发，然后把头发编织成它们可以操控的活化铁绳，它们用那个把其他生物或物品捆束起来。考芮精们往往对自己的头发感到骄傲，如果有人试图未经允许就剪下它们的头发那一定会迎来它们惨烈的报复。</t>
+  </si>
+  <si>
+    <t>考芮精</t>
+  </si>
+  <si>
+    <t>考芮精
+小型精类，混乱中立
+AC 17（天生护甲）
+HP 102（12d6+60）
+速度 30尺，掘地30尺
+力量23（+6） 敏捷14（+2） 体质20（+5）
+智力10（+0） 感知15（+2） 魅力9（-1）
+技能 运动+9，观察+5，隐匿+5
+伤害抗力 来自非魔法攻击的钝击、穿刺和挥砍
+感官 黑暗视觉120尺，震颤感知120尺，被动观察15
+语言 矮人语，侏儒语，木族语，土族语，地底通用语
+挑战等级 7（2900XP）
+命令发绳。考芮精拥有至少50尺长的绳索编织自它的头发。以一个附赠动作，考芮精可以命令一条30尺内的这种绳索移动20尺，随后纠缠一名它可以看见的大型或更小的生物。目标必须通过DC13的敏捷豁免检定或者被绳索擒抱（挣脱DC13）。目标被束缚直到擒抱结束。考芮精可以用它的附赠动作解放目标，如果考芮精死亡或者陷入失能目标也会被解放。
+一条考芮精发绳拥有20AC和20点HP。如果它剩有至少1点HP且考芮精还存活，在每个考芮精的回合开始时它可以恢复1点HP。如果绳索的HP下降到0则被摧毁。
+天生施法。考芮精的天生施法能力基于感知（豁免DC13）。它可以如天赋般施展以下法术而无需材料成分：
+随意：问道自然commune with nature，融身入石meld into stone，塑石术stone shape
+1次/每天：召唤元素conjure elemental（如同6级法术，只能召唤格莱石人galeb duhr,，石像鬼gargoyle，土元素earth elemental和索尔石怪xorn），奥图迷舞Otto's irresistible dance
+岩石伪装。考芮精在试图躲藏于岩石地带中时，在敏捷（隐匿）检定中具有优势。
+岩石力量。当位于地面上时，考芮精的任意武器攻击可以额外加上2个伤害骰（已经包含进它的攻击之中）。
+动作
+多重攻击。考芮精可以用巨木棒进行两次攻击，或投掷两次岩石。
+巨木棒。近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d8+6）钝击伤害，若考芮精位于地面上则造成19（3d8+6）钝击伤害。
+投石。远程武器攻击：命中+9，射程60/120尺，单一目标。命中：15（2d8+6）钝击伤害，若考芮精位于地面上则造成24（4d8+6）钝击伤害。</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬:简述</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬 Yeth Hound
+通过取悦那些给予他们支持的强力妖精类，夜嘶猎犬像真正的猎狗一样侍奉它们的邪恶主人。夜嘶猎犬通常靠飞行追逐它们的猎物，并耐心等待直至猎物疲惫不堪以致无法还击时在动手（口）。只有黎明到来的威胁致使群落又重新隐匿起来。
+邪恶之主的奴仆（Minions of a Dark Master）：夜嘶猎犬是被那些具有强大力量的精类——就像空暗女皇——所创造出来的。一旦夜嘶猎犬被造出，那这个族群必须存在一名主人，通常这名主人就是创造者想要奖励的人。主人甚至可以在远处通过心灵交流向夜嘶猎犬们发布命令。如果这名主人被杀死，那么这群夜嘶猎犬将去寻找一名新的主人，尤其像一些强大邪恶的个体，如吸血鬼、死灵法师或是鬼婆。
+一只夜嘶猎犬站起来肩高有5尺，体重约400磅重。如果人们在黑暗中发现一只夜嘶猎犬，会看见它双眼射出的红光映衬其黑色的皮毛。夜嘶猎犬的头部长有一张类似人的脸，脖子部位比其他狗类更灵活，这种生物散发着一股烟味。
+死亡迫近之声（Sound  of  Loomings  Death）：夜嘶猎犬可以发出使周围都可以听到的鬼魅般嚎叫，所有能看到夜嘶猎犬的生物在听到其嚎叫都会感到超自然的恐惧并处于惊恐状态。当受害者想要逃离时，猎犬更倾向于在结束狩猎前追逐它并折磨它。
+那些面对猎犬坚守阵地并反击的人们发现，普通的武器攻击夜嘶猎犬就像是通过它们雾一样的身体没有实质性的伤害。但是魔法武器和银质武器可以打击到它们。
+阳光放逐（Foiled  by  Sunlight）：夜嘶猎犬不能处于阳光之下。没有一个夜嘶猎犬族群愿意延长在夜晚狩猎的时间并且更倾向于在第一缕阳光出现时返回它们的黑暗位面。族群的主人的任何胁迫都无法阻止这个天性。当一只夜嘶猎犬暴露在阳光下，它会本能地畏惧并逃回到以太位面，而它的主人只有在日落后才能重新唤回它。</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬</t>
+  </si>
+  <si>
+    <t>夜嘶猎犬 YETH  HOUND
+大型精类，中立邪恶
+AC：14（自然护甲）
+HP：51（6d10+18）
+速度：40尺，飞行40尺（悬浮）
+力量18（+4）   敏捷17（+3）   体质16（+3）
+智力5（-3）   感知12（+1）   魅力7（-2）
+技能：欺瞒+4，恐吓+4，察觉+5，隐匿+4
+伤害免疫：非魔法攻击且非银质武器的挥砍、穿刺和钝击伤害
+状态免疫：魅惑、力竭、惊恐
+感官：黑暗视觉60尺，被动察觉11尺
+语言：理解通用语、精灵语言和妖精语但是不会说
+挑战等级：4（1100 XP）
+敏锐的听觉和嗅觉（Keen  Hearing  and  Smell）：夜嘶猎犬依靠其敏锐听觉和嗅觉在智力（感知）检定上具有优势。
+阳光放逐（Sunlight Banishment）：如果夜嘶猎犬在其回合开始时处于阳光下，它将被放逐至以太位面。当阳光直射在它消失的地方，则夜嘶猎犬必须停留在深层以太位面。只有当日落时，它才可以回归到相同位置的以太位面边界，猎犬通常在这个时候出发寻找它的族群或是它的主人。当夜嘶猎犬处于以太位面边界时它可以被主物质位面的生物看到，反之亦然，但是猎犬出于其他位面时它不可影响任何事物或是被影响。一旦夜嘶猎犬靠近它的主人或是一个处于主物质位面的族群时，这只处于以太位面边界的猎犬可以以一个动作回归主物质位面。
+心灵链接（Telepathic  Bond）：如果夜嘶猎犬同它的主人存在于同一个位面中，它可以用魔法链接告知主人它的感官检测到的事物，它们也可以通过心灵链接互相交流。
+动作
+啃咬（Bite）：近战武器攻击：命中+6，触及5尺，单一生物。命中：11（2d6+4）的穿刺伤害。如果该生物处于惊恐状态附加14（4d6）点心灵伤害。
+邪恶嚎叫（Baleful  Baying）：夜嘶猎犬的嚎叫是具有魔力的。当猎犬嚎叫时，任何在其300尺范围内可听见嚎叫的敌人必须通过DC 13的感知豁免检定，否则他将处于惊恐状态直到夜嘶猎犬下一轮行动结束或是该猎犬处于失能状态。如果该被惊恐目标生物在夜嘶猎犬30尺范围内，当期开始回合时他必须使用其全部移动点尽可能地远离夜嘶猎犬，而且必须在做出动作前终止移动，必须采取最直接的路线，即使这样做是异常危险的。当一个目标生物成功豁免，则其在24小时内都免疫所有夜嘶猎犬的嚎叫。</t>
+  </si>
+  <si>
+    <t>犬魔:简述</t>
+  </si>
+  <si>
+    <t>犬魔 Barghest
+许久之前，地精之神玛格鲁比特与火焚界的领主定下契约以寻求帮助，为此，领主派遣手下的尤格罗斯魔誓死效忠于地精之神。然而，当时间达到检验玛格鲁比特对这份契约的忠诚度时，他却背弃这份协议。作为复仇的行动，火焚界的领主创造了一种灵魂吞噬者——犬魔来吞噬地精类的灵魂，用以剥夺玛格鲁比特在来世修罗场的地精军队。
+灵魂取食者：
+犬魔出生于父母双亲都是普通哥布林的家族并且同他们的子嗣并无差别，这个生物以地精的样子成长，直到它积攒足够的能力来展现其真正的形态：一只巨大、残忍的犬类生物。
+火焚界大公在每个犬魔的脑海里都深深植入他们的任务，那就是杀戮17只地精并吞噬它们的身体来夺取灵魂，以这种方式夺取的灵魂将无法加入玛格鲁比特在阿刻戎德军队。为什么是17呢？原因是玛格鲁比特撕破他和火元素大公的协议刚好是17条。
+当一个饥饿的犬魔完成任务的时候，它将返回到火焚界，并直接在大公领导的尤格罗斯魔军团中服役，但是它并没有不加区别地杀死所有的地精类。通过吞噬地精领袖和其他有权势地精的灵魂，而不是卑微的地精类，这个犬魔在来世将获得更高的地位。通常情况下，犬魔们隐秘的保持他们的本性，并在时机成熟时捕食一或两个地精，直到它们成年，它们的年龄已经足够大，足够强壮，能够找到更强壮的猎物。当地精发现它们中存在犬魔时，它们会对犬魔卑躬屈膝，每个部落成员都在向犬魔表现出卑微且它们不值得被吞噬。
+火焰放逐者。犬魔会避免接触较大的明火，任何比它们身体大的火焰会被认为是通往火焚界的通道，而且提醒这些犬魔它们被那个位面驱逐因为它们的失败，在那里它们可能会被其他尤格罗斯魔奴役或杀死。
+灵魂饲喂。犬魔能吞食它刚刚杀死或死亡时间不超过10分钟的人型生物的尸体，这样做犬魔既能吞食鲜肉又能吞噬受害者的灵魂。这个吞食动作持续至少一分钟，而且将破坏受害者的身躯。这个受害者的灵魂件困在犬魔体内24小时，之后他将被犬魔彻底消化。但是在消化期间内如果犬魔死亡，受害者的灵魂将得到释放。
+当一个类人生物的灵魂被困在犬魔体内时，任何形式的复生术都只有50%的可能性成功，如果成功将这个灵魂成功从犬魔体内释放。但是一旦犬魔将这个灵魂完全吞噬，则没有任何法术可以使这个类人生物复活。</t>
+  </si>
+  <si>
+    <t>犬魔</t>
+  </si>
+  <si>
+    <t>犬魔 Barghest
+大型邪魔（变形者），中立邪恶
+AC：17（自然护甲）
+HP：90（12d10+24）
+速度：60尺（在地精形态下30尺）
+力量19（+4）   敏捷15（+2）   体质14（+2）
+智力13（+1）   感知12（+1）   魅力14（+2）
+技能：欺诈+4，恐吓+4，察觉+5，潜行+4
+伤害抵抗：寒冷、火焰、光耀、非魔法的挥砍、穿刺和钝击伤害
+伤害免疫：毒素、强酸
+状态免疫：中毒
+感官：盲视60尺，黑暗视觉60尺，被动觉察15尺
+语言：深渊语，地精语，通用语，炼狱语，心灵感应60尺
+挑战等级：4（1100 XP）
+变型。犬魔可以利用它的变型能力变成一只小地精或是变回它本来面目。除了它的大小和速度，它的统计数据在每一种形式中都是相同的，任何犬魔穿戴或携带的装备都不会产生影响。当犬魔死亡时他将变回真实形态。
+火焰放逐。当犬魔开始它的回合时，如果将被至少10尺高或宽火焰吞噬，那它必须成功通过DC 15的魅力豁免鉴定，如不成功则被立刻驱逐回火焚界。瞬间爆发的火焰（就像是红龙的火焰吐息和火球术）不会对犬魔产生如此影响。
+天生施法。犬魔作为天生施法者，其施法能力基于魅力（DC12 的法术豁免），犬魔可以施放以下法术并且不需要施法材料。
+随意：浮空术、初级幻象、行踪无迹
+每日一次：魅惑人类、任意门、暗示术
+动作
+啃咬。近战武器攻击（只在真实形态下）：命中+6，触及5尺，单一生物。命中：13（2d8+4）的穿刺伤害。
+爪击。近战武器攻击：命中+6，触及5尺，单一生物。命中：8（1d8+4）的穿刺伤害。</t>
+  </si>
+  <si>
+    <t>恶魔:简述</t>
+  </si>
+  <si>
+    <t>恶魔 Demons
+恶魔领主们为了在多元宇宙中散播他们的混乱和恐惧会创造出一些次级恶魔来完成他们的目的。我们来描述以下三种恶魔。</t>
+  </si>
+  <si>
+    <t>巴布魔:简述</t>
+  </si>
+  <si>
+    <t>巴布魔 Babau
+恶魔和魔鬼们都为了控制下层界而无休止地开展冲突。曾经的一次爆发冲突是在高阶魔鬼欲魔女王格莱西雅（Glasya）与尖啸之都的统领者恶魔领主格拉兹特之间。据说，格莱西雅用她的魔剑刺伤了格拉兹特，而第一只巴布魔就从格拉兹特伤口流出的血液碰击地面后产生了。它们的突然出现帮助格拉兹特击溃了欲魔女王，并确保了他在深渊中作为最杰出之一的恶魔领主的地位。
+一个巴布魔拥有魔鬼的狡猾和恶魔的嗜血。它具有一种皮革般的黑色皮肤，在它那瘦削的骨架上紧紧地拉紧，还有一个弯曲的角从它细长的头骨后面伸出来。巴布魔邪恶的怒视会使它面对的生物变弱。</t>
+  </si>
+  <si>
+    <t>巴布魔</t>
+  </si>
+  <si>
+    <t>巴布魔 Babau
+中型邪魔（恶魔），混乱邪恶
+AC 16（天生护甲）
+HP 82（11d8+33）
+速度 40尺
+力量19（+4） 敏捷16（+3） 体质16（+3）
+智力11（+0） 感知12（+1） 魅力13（+1）
+技能：察觉+5，隐匿+5
+伤害抗力：寒冷，火焰，闪电；非魔法的钝击、挥砍、穿刺
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉120尺，被动察觉15
+语言：深渊语
+挑战等级：4（1100xp）
+天生施法。巴布魔的施法能力是天生的，主属性为感知（法术豁免DC11）。巴布魔天生可以施展下列法术，不需要任何材料成分：
+随意：黑暗术，解除魔法，恐惧术，灼热金属，漂浮术
+动作Actions
+多重攻击。巴布魔可以进行两次近战攻击。它也可以在攻击之前或之后使用弱化凝视。
+爪击。近战武器攻击：+6命中，触及5尺，一个目标。命中：8（1d8+4）挥砍伤害。
+矛。近战或远程武器攻击：+6命中，触及5尺或射程20/60尺，一个目标。命中：7（1d6+4）穿刺伤害，或8（1d8 + 4）穿刺伤害（当双手持握时）。
+弱化凝视。巴布魔指定一个在它的20尺内并且可见的目标。目标必须通过一个DC13的体质豁免。若豁免失败，目标用武器攻击造成伤害减半，持续1分钟。目标可以在每次回合结束时重复豁免，若成功则结束效果。</t>
+  </si>
+  <si>
+    <t>胃袋魔:简述</t>
+  </si>
+  <si>
+    <t>胃袋魔 Maw Demon
+胃袋魔分享了恶魔领主耶诺古（豺狼人之王）那无止境的饥渴，通过大屠杀及饱饮凡人的血肉。当胃袋魔饱食后经过八个小时的休息，它将会继续吞噬它所经之处的任何生物，而这些血肉将会立刻汇入耶诺古的咽喉中。 
+胃袋魔通常出现在豺狼人战团周边，征召战团屠杀类人生物作为献祭耶诺古仪式的一部分。通常豺狼人战团不会命令这些恶魔，但是这些恶魔跟随着战团并攻击豺狼人袭击的任何生物。</t>
+  </si>
+  <si>
+    <t>胃袋魔</t>
+  </si>
+  <si>
+    <t>胃袋魔 Maw Demon
+中型邪魔（恶魔），混乱邪恶 
+AC 13（天生护甲）
+HP 33（6d8+6）
+速度 30尺 
+力量14（+2） 敏捷9（-1） 体质13（+1）
+智力5（-3） 感知8（-1） 魅力5（-3）
+伤害抗性：寒冷，火焰，闪电
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉60尺，被动察觉9
+语言：懂得深渊语但不会说
+挑战等级：1（200xp） 
+横冲直撞。当它在自己回合中通过一次近战攻击将一个生物的HP减少到0点，胃袋魔能够以一个附赠动作移动最多半速的距离并以啃咬发动一次攻击。
+动作Actions
+啃咬。近战攻击：+4命中，触及5尺，一个目标。命中：11（2d8+2）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬:简述</t>
+  </si>
+  <si>
+    <t>驱逐魔犬:简述</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬 Shoosuva
+苏苏瓦魔犬——一种班鬣狗形态的恶魔，是耶诺古对一些具有特殊能力的豺狼人的馈赠（尤其像一些耶诺古毒牙）。一只苏苏瓦魔犬倾向于在豺狼人战团取得一场伟大的战斗胜利后不久现身，从深渊中冒着滚滚浓烟而来。在战斗中，这些恶魔使用它们留着口水的下颚攻击周围一名受害者，并用那带毒刺的尾部把另一名拉倒。一旦受攻击的生物被毒液麻痹住，它将很容易被周围的豺狼人攻击。
+每只苏苏瓦魔犬都会与一名杰出的豺狼人团结一致，并在它的主人身旁战斗。在大的战团中，一名被赐予苏苏瓦魔犬的豺狼人的地位是仅次于弗雷德豺狼人的存在。</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬</t>
+  </si>
+  <si>
+    <t>驱逐魔犬</t>
+  </si>
+  <si>
+    <t>苏苏瓦魔犬 Shoosuva
+大型邪魔（恶魔），混乱邪恶
+AC 14（天生护甲）
+HP 110（13d10+39）
+速度 40尺
+力量18（+4） 敏捷13（+1） 体质17（+3）
+智力7（-2） 感知14（+2） 魅力9（-1）
+豁免：敏捷+4，体质+6，感知+5
+伤害抗性：寒冷，火焰，闪电;非魔法的钝击、穿刺、挥砍 
+伤害免疫：毒素 
+状态免疫：中毒，恐惧，魅惑 
+感官：黑暗视觉60尺，被动察觉12 
+语言：深渊语，豺狼人语，心灵感应120尺 
+挑战等级：8（3900xp）
+横冲直撞。当它在自己回合中通过一次近战攻击将一个生物的HP减少到0点，驱逐魔犬能够以一个附赠动作移动最多半速的距离并以啃咬发动一次攻击。
+行动
+多重攻击。驱逐魔犬发动两次攻击，一次啃咬，一次用尾巴毒刺。
+啃咬。近战武器攻击：+7点命中，触及5尺，一个目标。命中：26（4dl0+4）穿刺伤害。
+尾刺。近战武器攻击：+7命中，触及15尺，一个生物。命中：13（2d8+4）穿刺伤害，目标必须通过DC14的体质豁免否则中毒。在中毒的同时，目标麻痹。目标可以在每次回合结束时重复豁免，成功则结束毒刺对自己的影响。</t>
+  </si>
+  <si>
+    <t>囚魂魔:简述</t>
+  </si>
+  <si>
+    <t>囚魂魔 Devourer
+在奥库斯释放的所有恶魔中，囚魂魔是最可怕的。 这些高大的，像木乃伊一样的恶魔在各个层面上游荡，吞噬灵魂，并且亲力亲为地传播奥库斯的信条，用永恒的死亡取代所有的生命。
+奥库斯的死亡器具：一个向奥库斯证明自己能力的低级恶魔可能会被授予转化为囚魂魔的特权。不死君主将这个恶魔转化为8尺高，胸膛被掏空且极度渴求用灵魂来填满的干枯类人生物。奥库斯给予每个新生囚魂魔一个不那么幸运的恶魔的精华来驱动囚魂魔进入各位面进行第一次突袭。大多数囚魂魔会停留在深渊中，或是在星际位面或以太位面上，追求奥库斯在那些领域的计划和利益。 当奥库斯把囚魂魔送到主物质层时，他通常让它们执行一个任务，创造，控制，并领导一场亡灵瘟疫。 骷髅、僵尸、食尸鬼和妖鬼，以及阴影都特别容易被囚魂魔吸引。
+灵魂折磨者：囚魂魔猎杀类人生物，目的是吞噬他们的身体和灵魂。当囚魂魔将一个生物带到死亡边缘后，它会把受害者的尸体拖进自己的胸腔，当受害者试图避开死亡(通常没有成功)，囚魂魔会用心灵感应的噪音折磨它的灵魂。当受害者死去时，他会经历一个可怕的转变，从囚魂魔的身体内释放出来，作为产生它的怪物的不死仆人来开始它的新生。
+邪魔本质：囚魂魔不需要呼吸，食物（除了灵魂），饮水和睡眠</t>
+  </si>
+  <si>
+    <t>囚魂魔</t>
+  </si>
+  <si>
+    <t>囚魂魔 Devourer
+大型邪魔，混乱邪恶
+AC 16（天生护甲）
+HP 178（17d10+85）
+速度 30尺
+力量20（+5） 敏捷12（+1） 体质20（+5）
+智力10（+0） 感知10（+2） 魅力16（+3）
+伤害抗性：寒冷，火焰，闪电
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉120尺，被动察觉10
+语言：深渊语，心灵感应120尺
+挑战等级：13（10000xp）
+动作
+多重攻击。囚魂魔进行两次爪击，再使用囚魂或者裂魂。
+爪击。近战武器攻击：+10命中，触及5尺，一个目标。命中：12（2d6+5）挥砍伤害加21（6d6）黯蚀伤害。
+囚魂。囚魂魔选择一个HP为0但仍旧活着的类人生物，目标必须位于它30尺以内且能被它看见。该生物被传送到囚魂魔的胸腔内，并囚禁在那里。以这种方式被囚禁的生物在死亡豁免中有劣势。如果目标在监禁期间死亡，囚魂魔恢复25点生命，立即给裂魂能力充能完毕，并且在其下一回合中获得额外一个动作（译者：类似动作如潮那样）。此外，在它的下个回合开始时，囚魂魔以一个附赠动作把被杀死的生物反吐出来，这个生物变成不死生物。
+如果受害者有2个或更少的生命骰，它就会变成僵尸；如果有3到5的生命骰，它变成食尸鬼。否则，它变成一个尸妖（wight）。一个囚魂魔在同一时间只能禁锢一个生物。
+裂魂（充能6）。囚魂魔创造一个负能量漩涡，以它自身为半径20尺，每个该区域内的类人生物必须通过DC18的体质豁免。否则受到44（8dl0）的黯蚀伤害。豁免成功则只受一半伤害。区域内每有一个活着且HP为0的人形生物，裂魂伤害就增加10点。</t>
+  </si>
+  <si>
+    <t>卓格罗斯:简述</t>
+  </si>
+  <si>
+    <t>卓格罗斯 Draegloth
+卓格罗斯来自于卓尔精灵与迷诱魔的杂交，诞生于邪恶卓尔高等女祭司所进行的一个危险而污秽的仪式中。它们天生拥有强大的魔法天赋和肉体力量，通常情况下，这些恶魔仍然为其母亲的家族效力，借助它对破坏的渴望，那个家族谋求着击败所有竞争对手。
+卓格罗斯是个体型与食人魔接近，有着紫黑色皮肤和黄白色头发的四臂人形生物（是人形不是类人）。紫黑色的皮肤和黄白色的头发。它的两只手臂巨大，肌肉发达，尖端有锋利的爪子；另外两只接近卓尔手臂的大小和形状，可以进行精细的动作。虽然这个生物肌肉结实，却优雅而安静得像一个卓尔精灵。它的长相一眼能看出是混合了恶魔与野兽的特点——发光的红色眼睛、一个细长的犬类鼻子和嘴里锋利的牙齿。
+对家族的祝福。创建一个卓格罗斯的仪式很少成功，但当它成功时就变得意义非凡——这被视为对卓尔家族的一个标志性事件，代表了恶魔领主萝丝（Lolth）的青睐，以及意味着萝丝蔑视该家族的那些没有得到赐福的对手。卓格罗斯的出生促使家族领导人开始制定新计划如何在卓格罗斯完全成年时来打击对手。这些计划总是围绕着一个重要的角色——卓格罗斯，因为它的能力可以扭转一场与没有这些能力的家族的战斗局势。</t>
+  </si>
+  <si>
+    <t>卓格罗斯</t>
+  </si>
+  <si>
+    <t>卓格罗斯 Draegloth
+大型邪魔（恶魔），混乱邪恶
+AC：15（天生护甲）
+HP：123 (13d10+52)
+速度：30尺
+力量20(+5) 敏捷15(+2) 体质18 (+4) 
+智力13 (+1) 感知11 (+0) 魅力11 (+0)
+技能：察觉+3，隐匿+5
+伤害抗性：寒冷，火焰，闪电
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉120尺，被动察觉13
+语言：地底通用语，精灵语，深渊语
+挑战等级：7 （2900 XP）
+精类血统：卓格罗斯在进行对魅惑的豁免检定时有优势，而且魔法不能使它陷入睡眠。
+天生施法：卓格罗斯天生施法能力的主属性是魅力（豁免DC11）。卓格罗斯天生可以施展以下法术而不需要材料成分：
+随意：黑暗术
+每项1/日：困惑术，舞光术，妖火
+动作
+多重攻击。卓格罗斯进行三次攻击，两次用爪子，一次用啃咬。
+啃咬。近战武器攻击：+8命中，触及5尺，单一生物。命中：16（2D10+5）穿刺伤害。
+爪击。近战武器攻击：+8命中，触及10尺，单一目标。命中：16（2dl0+5）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>塔那罗克:简述</t>
+  </si>
+  <si>
+    <t>塔那罗克 Tanarukk
+当恶魔的腐蚀之力玷污了一个部族的领导时，兽人可能会求助于深渊的魔法来制造塔那罗克。控制兽人的邪恶人类也使用这种力量来增强其追随者的力量。
+恶魔领主巴菲门特 Baphomot很乐意将创造塔那罗克的秘密与那些恳求他力量的人分享。这个过程腐化了部族中一个未出生的兽人，使它在出生时变成了比兽人更野蛮的生物。
+虽然塔那罗克是可怕的战士，但他们在战场外对他们的盟友构成威胁。在部族的巢穴里，塔那罗克具有破坏性和动荡不安的性质，因此最好将其囚禁起来。迟早，一个自由的塔那罗克会横扫整个部族，企图用武力接管。这样的政变大多数以失败告终，但却给部族带来了巨大的损失。如果塔那罗克夺取了一个部族的领导权，那么它必然选择鲁莽的战争。
+如果一只塔那罗克获得繁殖的机会，其血脉会污染无数后代，它的雌性后代会随机生产塔那罗克。大多数部落不会冒着风险养大一个自然生产的塔那罗克，而是选择杀死这样可憎的东西。</t>
+  </si>
+  <si>
+    <t>塔那罗克</t>
+  </si>
+  <si>
+    <t>塔那罗克 Tanarukk
+中型邪魔（恶魔，兽人），混乱邪恶
+AC 14 (天生护甲)
+HP 95 (10d8 + 50)
+速度30 尺
+力量    敏捷    体质
+18 (+4) 13 (+1) 20 (+5)
+智力    感知    魅力
+9 (-1)  9 (-1)  9 (-1)
+技能： 威吓+2，察觉+2
+伤害抗性：火焰，毒素
+感官：黑暗视觉60尺， 被动察觉 12
+语言：深渊语，通用语，兽人语
+挑战等级 5 (1,800 XP)
+好斗 Aggressive。 作为一个附赠动作，塔那罗克可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+魔法抗性 Magic Resistance。该塔那罗克在对抗法术和其他魔法效应的豁免检定上具有优势。
+动作
+多重攻击 Multiattack。 塔娜罗克发动2次攻击：1次啃咬和1次巨剑
+啃咬 Bite。 近战武器攻击: 命中+7，触及 5 尺， 单一目标。伤害: 8 (1d8 + 4) 穿刺伤害。
+巨剑 Greatsword。 近战武器攻击: 命中+7 ，触及 5尺， 单一目标。伤害: 11 (2d6 + 4) 挥砍伤害。
+反应
+无羁之怒 Unbridled Fury。 作为被近战攻击命中的反应，该塔那罗克可以向攻击者发动一次具有优势的近战武器攻击。</t>
+  </si>
+  <si>
+    <t>飞头蛮:简述</t>
+  </si>
+  <si>
+    <t>飞头蛮 Vargouille
+尖叫着，摇摆着，伴随恐怖的面容——一个与身体分离开的头颅并且在代替耳朵部位是如同蝙蝠翅膀般飞翼，飞头蛮从深渊中升腾并注入其他位面，就像卡瑟利，在那里他们能构成威胁。每一只飞头蛮都携带着一种可以创造更多同类的致命疾病，一群飞舞翅膀的飞头蛮将预示一场混乱和邪恶的瘟疫将要发生。
+深渊之扰：成群结队的飞头蛮挥舞着双翼穿梭在深渊的洞穴和天空中，它们很少受到强大且智慧的恶魔的重视，因为飞头蛮根本不能够对他们造成威胁。但是弱小者就像怯魔和原魔，遇到大量的飞头蛮时会心生恐惧。在下层界，飞头蛮很少能吃到活物除了幼虫，更常见的情况是，当一个当一个恶魔杀死另一个恶魔时，他们会把留下的脓水吸光。
+世界之候：因为飞头蛮天生对活物的饥渴，因此它们有时会更倾向于离开下层界。在很少的情况下，一个恶魔在被其他位面召唤时会携带一只飞头蛮，就像印记般附加在其身上。凡人为了控制被召唤的恶魔而采取的预防措施很少能查明偷渡者的身份，因此，飞头蛮是不请自来地进入这个世界的。
+可恐的繁殖 Ghastly Reproduction：在物质层上自由遨游的飞头蛮对所有生物都是可怕的威胁，尤其是类人生物。他们可怕的尖叫会让其他生物感到恐惧，而这样的受害者无法抗拒它们的诅咒之吻。</t>
+  </si>
+  <si>
+    <t>飞头蛮</t>
+  </si>
+  <si>
+    <t>飞头蛮 Vargouille
+微型邪魔，混乱邪恶
+AC：12
+HP：13（3d4+6）
+速度：5尺，飞行40尺
+力量6（-2）   敏捷14（+2）   体质14（+2）
+智力4（-3）   感知7（-2）   魅力2（-4）
+伤害抵抗：寒冷、火焰、光耀
+伤害免疫：毒素
+状态免疫：中毒
+感官：黑暗视觉60尺，被动察觉8尺
+语言：懂得深渊语，地狱语，以及该生物成为飞头蛮前知晓的语言但是不会说
+挑战等级：1（200 XP）
+动作：
+啃咬 Bite.：近战武器攻击（只在真实形态下）：命中+4，触及5尺，单一生物。命中：3（1d8+2）的穿刺伤害并附带10（3d6）点毒素伤害。
+致命之吻 Kiss：如果飞头蛮亲吻一个在其五尺范围内失能的类人生物，那么该目标生物必须成功通过DC 12的魅力豁免检定否则将被诅咒。被诅咒的生物每个小时丧失1点魅力值，而且他的头部的外貌越来越趋于炼狱化。但当该生物处于强光之下或是处于昼明术的法术范围区域，则该诅咒不会进一步发展。当诅咒使该生物的魅力值降低至2点时，该生物死亡，且它的头部从身体剥离开成为一只新的飞头蛮。在诅咒完成前对该生物施放法术：移除诅咒或是高等复原术或是其他类似的法术可以终止该诅咒，这样做会使目标在诅咒下的可怕变化消失。
+惊人尖叫 Stunning Shriek：当飞头蛮发出尖叫时，任何距离飞头蛮30尺内且能听到叫声的类人生物和野兽必须成功通过DC 12的智力豁免检定否则将处于惊恐状态直至飞头蛮下一轮回合结束。在飞头蛮的尖叫效果下，该惊恐生物会处于震慑状态。如果该生物成功通过豁免检定则结束该状态，且一小时内该生物免疫任何飞头蛮的惊人尖叫效果。</t>
+  </si>
+  <si>
+    <t>巨人:简述</t>
+  </si>
+  <si>
+    <t>巨人 Giants
+这里展现的巨人比它们其他的同类要更加强大，要么是因为它们的神显现了对它们的恩宠，要么是命运给予它们不利之处，迫使它们去寻找其他力量的道路。</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者:简述</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者 Cloud Giant Smiling One
+总体而言，云巨人并不怎么虔诚。它们容忍着出于它们的主神，曼诺的许多相矛盾的想法。而欢笑者是那个更绷紧了这份容忍的家伙。
+欢笑者是视尊崇和效仿曼诺的诡计与欺骗高于一切的云巨人。它们是最高明的骗手，使用花招，欺骗，误导，还有魔法来追求财富。它们还有着难以预料的天性和恶劣的幽默感。
+虽然云巨人预料到了在与它们同类的交际中会有一定的诡计和欺骗，欢笑者的所作所为仍超出了礼仪的界限，以至高贵的云巨人认为冒犯了它们的尊严。
+神秘面具。欢笑者以它们所戴的古怪双面面具取名。微笑的半面脸常常看起来更像是一副假笑或者得意的讥笑，而非愉快的笑容。皱眉的另一半表明欢笑者对它们处于风暴巨人之后的第二序位位置的不满。这面具被作为它们信仰的标志，但它们也隐藏了它们的佩戴者真实的面部表情。</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者</t>
+  </si>
+  <si>
+    <t>云巨人欢笑者 Cloud Giant Smiling One
+巨型巨人（云巨人），混乱中立
+AC 15（天生护甲）
+HP 262（21d12+126）
+速度 30尺
+力量26（+8），敏捷12（+1），体质22（+6） 
+智力15（+2），感知16（+3），魅力17（+3） 
+豁免 体质+10，智力+6，魅力+7 
+技能 欺瞒+11，洞悉+7，察觉+7，巧手+9 
+感官 被动察觉17 
+语言 通用语，巨人语 
+挑战等级 11（7200XP） 
+天生施法。巨人的天生施法能力基于魅力（法术豁免DC15），它天生即可施展以下法术，无需材料成分： 
+随意：侦测魔法，云雾术，光亮术
+每项3/日：羽落术，飞行术，迷踪步，心灵遥控
+每项1/日：操控天气，气化形态
+施法。巨人是一名5级施法者。它的施法属性是魅力（法术豁免DC15，法术攻击加值+7）。巨人准备了以下吟游诗人法术。
+戏法（随意）：弱效幻影，魔法伎俩，恶言相加
+1环（4法术位）：治疗伤口，易容术，无声幻影，塔莎狂笑术
+2环（3法术位）：隐形术，暗示术
+3环（2法术位）：强效幻影，巧言术
+敏锐嗅觉。巨人在依靠嗅觉的感知（察觉）检定上有优势。
+动作
+多重攻击。巨人进行两次晨星攻击。
+晨星。近战武器攻击：命中+12，触及10尺，单一目标。命中：21（3d8+8）钝击伤害。如果巨人在攻击检定上有优势，攻击造成额外14（4d6）伤害。
+投石。远程武器攻击：命中+12，射程60/240尺，单一目标。命中：30（4d10+8）钝击伤害。如果巨人在攻击检定上有优势，攻击造成额外14（4d6）伤害。
+变化形体。巨人如魔法般变形成它看到的野兽或者类人生物，或者回到它的真实形态。巨人穿着或携带的任何装备都会被新形态吸收。它的数据，除了它的体形外，在每种形态下都是相同的。如果它死了，它变回其真实形态。</t>
+  </si>
+  <si>
+    <t>火巨人无畏者:简述</t>
+  </si>
+  <si>
+    <t>火巨人无畏者 Fire Giant Dreadnought
+火巨人的序位不仅强调力量，而且也强调锻造技巧。铸造厂是任何火巨人群体的核心。它是合为一体的神殿，学校，试验场与政治中心。
+那些有力气但是没什么脑子的人通常被吩咐去做例如锻造风箱或者搬运煤炭之类最低微的工作。然而，它们中最强壮的人可以赢得独有的地位阶级：无畏者。
+战争兵器。无畏者是挥舞着两面如同犁刀般巨盾的强大火巨人。这些盾牌在它们的表面安装着尖刺，其中空的内部被无畏者倾入了炽热的煤炭，作为首个危险的标记。装备着两面盾牌，无畏者可以朝着任何攻击者竖起一堵热焰之墙。当无畏者结束战斗时，通常敌人剩下的只是地面上一点冒烟的污迹。</t>
+  </si>
+  <si>
+    <t>火巨人无畏者</t>
+  </si>
+  <si>
+    <t>火巨人无畏者 Fire Giant Dreadnought
+巨型巨人（火巨人），守序邪恶 
+AC 21（板甲，盾牌） 
+HP 187（15d12+90）
+速度 30尺
+力量27（+8），敏捷9（-1），体质23（+6） 
+智力8（-1），感知10（+0），魅力11（+0）
+豁免 敏捷+4，体质+11，魅力+5
+技能 运动+13，察觉+5
+伤害免疫 火焰
+感官 被动察觉15
+语言 巨人语
+挑战等级 14（11500XP）
+双重盾牌。巨人携带着两面盾牌，每一面都计入了巨人的AC中。巨人必须扔下或丢弃它的一面盾牌来投掷岩石。
+动作
+多重攻击。巨人进行两次炎盾攻击。
+炎盾。近战武器攻击：+13命中，触及5尺，单一目标。命中：22（4d6+8）钝击伤害加7（2d6）火焰伤害加7（2d6）穿刺伤害。
+投石。远程武器攻击：命中+13，射程60/240尺，单一目标。命中：30（4d10+8）钝击伤害。
+坚盾冲锋。巨人在一条直线上移动30尺并能穿过任何小于巨型的生物的空间。在这次移动中它首次进入一个生物的空间时，能对这个生物进行一次炎盾攻击。如果攻击命中，目标必须成功通过一次DC21的力量豁免，或在这个行动的剩余部分被撞到巨人面前。如果目标在这次检定中失败了5点或者更多，他将被击倒并受到18（3d6+8）钝击伤害，如果它已经处于倒地，改为受到29（6d6+8）钝击伤害。</t>
+  </si>
+  <si>
+    <t>霜巨人永恒者:简述</t>
+  </si>
+  <si>
+    <t>霜巨人永恒者 Frost Giant Everlasting One
+要维持它的地位或者在序位中晋升，一名霜巨人必须经常在单挑中面对强大的敌人。一些人寻求魔法以帮助它们，但是魔法物品能被夺走或者丢失。真正的强大依赖于自身的力量。面对这个真理，一名霜巨人可能会去谋求来自毁灭者瓦普拉克的神之馈赠。
+吞噬巨魔者。出于绝望，霜巨人主要转向于瓦普拉克，一位被食人魔和巨魔崇拜的强大又饥饿的贪婪神祇。瓦普拉克喜欢以荣耀的幻梦引诱霜巨人，其次是自相残杀的血腥噩梦。那些不会因为这样的梦而退缩或者报告给它们的索列姆牧师的人会承受更多同样的。如果一名霜巨人来享受起这些梦境与噩梦，像某些人一样，瓦普拉克会安排一只巨魔进行寻找这名霜巨人并与之秘密见面的宗教任务。这只巨魔提供了自己的身体，以瓦普拉克的名义啃噬吃下。只有最勇敢和最坚定的霜巨人能吃完这血淋淋的盛宴。
+瓦普拉克的祝福。吃完这只瓦普拉克派来的巨魔的骨头及一切后，一名霜巨人成为一名永恒者，获得了惊人的力量，暴躁的脾气，以及巨魔的再生能力。依靠这些馈赠，这名霜巨人可以迅速要求得到首领称号并在几十年内内轻易对付竞争者。然而，如果这名霜巨人没有给予瓦普拉克足够的敬意或者没有理会瓦普拉克的梦景，这霜巨人的伤处将长期难以治愈，时常导致皮肤变色，瘤状伤痕，以及身体部位退化，例如额外的手指，肢体，甚至额外的头颅。与瓦普拉克的接触将不能再被隐瞒，永恒者要么被杀死，要么被从它的氏族中流放。有时永恒者的小群体会聚在一起甚至繁衍起来，将“祝福”和对瓦普拉克的崇拜从一代传到下一代。</t>
+  </si>
+  <si>
+    <t>霜巨人永恒者</t>
+  </si>
+  <si>
+    <t>霜巨人永恒者 Frost Giant Everlasting One
+巨型巨人（霜巨人），混乱邪恶 
+AC 15（拼凑甲） 
+HP 189（4d12+98）
+速度 40尺
+力量25（+7），敏捷9（-1），体质24（+7） 
+智力9（-1），感知10（+0），魅力12（+1）
+豁免 力量+11，体质+11，感知+4
+技能 运动+11，察觉+4
+伤害免疫 寒冷
+感官 黑暗视觉60尺，被动察觉14
+语言 巨人语
+挑战等级 12（8400XP）
+额外头颅。巨人有25%的概率拥有一个以上的头颅。如果有多个头颅，它在感知（察觉）检定和在目盲，耳聋，恐慌，震慑和昏迷的豁免上有优势。
+再生。巨人在它的回合开始时回复10点生命值。如果巨人受到强酸或者火焰伤害，这个特性在下一回合开始时不起作用。只有在它0生命值时开始回合并且无法再生时，巨人才会死亡。
+瓦普拉克之怒（在短休息或者长休息后充能）。以一个附赠动作，巨人可以在它的回合开始时进入狂怒。狂怒持续1分钟或者直到巨人失能。在狂怒时，巨人获得以下好处：
+·巨人在力量检定和力量豁免上有优势
+·当它进行近战武器攻击时，巨人在伤害检定上获得+4加值
+·巨人得到钝击，穿刺和挥砍抗力。
+动作
+多重攻击。巨人用它的巨斧进行两次攻击。
+巨斧。近战武器攻击：命中+11，触及10尺，单一目标。命中：26（3d12+7）挥砍伤害，或者在狂怒时的30（3d12+11）挥砍伤害。
+投石。远程武器攻击：命中+11，射程60/240尺，单一目标。命中：29（4d10+7）钝击伤害。</t>
+  </si>
+  <si>
+    <t>格洛兰托之口:简述</t>
+  </si>
+  <si>
+    <t>格洛兰托之口 Mouth of Grolantor
+山丘巨人知道各种各样的食物能让它们长胖，也知道用力过头会使它们变瘦。这些懒惰的粗鲁者不能理解的是那些让它们生病的东西。它们吞吃变质的食物和患病的尸体，就像小孩子吃甜点一样热情。山丘巨人幸运的是，它们有着秃鹫的体质以及很少有这样的饮食习惯。当它们的同族一员生病并且无法继续进食时，这对它们来说就更加神秘了。呕吐的山丘巨人被视为受到格洛兰托的启示之人。
+氏族将生病的巨人与其他巨人分离开，通常是把这名巨人关在笼子里或者把它拴在柱子上。一位格洛兰托的牧师或者氏族首领每天都会探望这名受饿的巨人，试图从这名山丘巨人干呕出的胆汁坑中读出预兆。如果疾病很快就过去了，这名山丘巨人能够重返群体。不然，这名山丘巨人反而将会饥饿到疯狂的临界点，以至格洛兰托的饥渴在这个世界上得到一处宣泄口。
+饥饿与疯狂。格洛兰托之口是非常耻辱的，它不再是一个人，而是成为一件物品。荒谬的是，这件物品被尊为格洛兰托之不朽，痛苦的饥饿——的神圣化身。不像一名典型的笨重，懒散，半睡半醒的山丘巨人，一名格洛兰托之口瘦得像只惠比特犬，警觉得像只鸟，并且不断在边界抽搐着。一名格洛兰托之口永远都保持着被囚禁或者束缚的状态；如果它打破拘束自由了，在它停下脚步或者在杀戮狂欢中跑远之前，它一定会杀死几名山丘巨人。唯一一次让格洛兰托之口自由是在战争期间，突袭敌人的聚居处，或者作为氏族驻地最后的防线。当格洛兰托之口已经杀光并吃够了它的氏族的敌人时，它从受害者血淋淋的残骸中走出，使它很容易被重新捕获。</t>
+  </si>
+  <si>
+    <t>格洛兰托之口</t>
+  </si>
+  <si>
+    <t>格洛兰托之口 Mouth of Grolantor
+巨型巨人（山丘巨人），混乱邪恶 
+AC 14（天生护甲） 
+HP 105（10d12+40） 
+速度 50尺 
+力量21（+5），敏捷10（+0），体质18（+4） 
+智力5（-3），感知7（-2），魅力5（-3）
+技能 察觉+1
+状态免疫 恐慌 
+感官 被动察觉11
+语言 巨人语
+挑战等级 6（2300XP）
+疯狂之口。巨人免疫困惑术以及类似法术。
+在它的每个回合，巨人使用它全部的移动力向最近的生物或者任何它可能视为食物的东西移动。在巨人回合开始时投掷一次d10以确定它的行动：
+    1-3。巨人用它的拳头对它触及范围内的随机一个目标进行三次攻击。如果没有其他生物在其触及范围内，巨人迅速进入狂怒并在所有攻击检定上获得优势，直到它的下个回合结束。
+    4-5。巨人用它的拳头对它触及范围内的所有生物都进行一次攻击。如果没有其他生物在其触及范围内，巨人对自己进行一次拳击攻击。
+    6-7。巨人用它的啮咬对它触及范围内的随机一个目标进行一次攻击。如果没有其他生物在其触及范围内，它的眼睛变得呆滞，并且它陷入震慑状态，直到它的下个回合开始。
+    8-10。巨人对它触及范围内的随机一个目标进行三次攻击：一次啮咬，两次拳击。如果没有其他生物在其触及范围内，巨人迅速进入狂怒并在所有攻击检定上获得优势，直到它的下个回合结束。
+动作
+啮咬。近战武器攻击：命中+8，触及5尺，单一目标。命中：15（3d6+5）穿刺伤害，巨人如魔法般恢复等同于伤害的生命值。
+拳击。近战武器攻击：命中+8，触及10尺，单一目标。命中：18（3d8+5）钝击伤害。</t>
+  </si>
+  <si>
+    <t>石巨人梦行者:简述</t>
+  </si>
+  <si>
+    <t>石巨人梦行者 Stone Giant Dreamwalker
+对石巨人而言，地表世界是一个陌生的世界：千变万化，须臾即逝，任风吹雨打。它如梦般多变，这就是它们如何看待它的方式——作为梦境。因无永恒之物，亦无真实之物。在地表发生什么并不重要。承诺和协议也无需兑现。在那，生命乃至艺术并无多少价值。
+梦境住民。石巨人有时会在地表世界进行梦境探索，寻求它们艺术的灵感，打破数十年来的无聊，或者只是出于好奇。有些人进行着这些探索使得自己迷失在梦中。其他石巨人被放逐到地表作为惩罚。无论如何，如果它们不在石下安身，这样的人就能成为梦行者。
+梦行者在石巨人的序位中占据一个奇怪的地位。它们被视作被抛弃者，但它们对地表世界的熟悉使它们成为了有价值的引导者，它们的见解能够帮助其他石巨人了解梦中生活的危险。
+疯狂流浪者。 梦行者被孤独，耻辱，以及它们无止境的陌生环境弄得疯狂，这样的疯狂寄生进了它们周围的世界，影响了其他靠得太近的生物。相信它们生活在一片梦境中，它们的行为没有真正的后果，梦行者随意乱来，成为混乱的力量。当它们漫游世界时，它们收集在它们疯狂的心看来特别重要的物品和生物。随着时间的推移，这些收集的东西附着在它们身上，成为石头上的包装。</t>
+  </si>
+  <si>
+    <t>石巨人梦行者</t>
+  </si>
+  <si>
+    <t>石巨人梦行者 Stone Giant Dreamwalker
+巨型巨人（石巨人），混乱中立 
+AC 18（天生护甲）
+HP 161（14d12+10）
+速度 40尺 
+力量23（+6），敏捷14（+2），体质21（+5）
+智力10（+0），感知8（-1），魅力12（+1）
+豁免 敏捷+6，体质+9，感知+3
+技能 运动+14，察觉+3
+状态免疫 魅惑，恐慌
+感官 黑暗视觉60尺，被动察觉13
+语言 通用语，巨人语
+挑战等级 10（5900XP）
+梦行者之惑。如果巨人没有失能，在距离巨人30尺内开始回合的敌人必须进行一次DC13的魅力豁免。如果豁免失败，该生物被巨人魅惑。以此方式被魅惑的生物可以在它的每个回合开始时重复豁免，成功则结束对自己的影响。一旦它在豁免上成功，该生物在24小时内免疫这名巨人的梦行者之惑。
+动作
+多重攻击。巨人用它的巨木棒进行两次攻击。
+巨木棒。近战武器攻击：命中+10，触及15尺，单一目标。命中：19（3d8+6）钝击伤害。
+石化之触。巨人触碰一名距离它10尺内的被它魅惑的中型或者更小的生物。目标必须通过DC17的体质豁免。若豁免失败，目标陷入石化，并且巨人能够粘附住目标被石化的身体。高等复原术或其他能够解除石化的法术对在石巨人身上的石化生物无效，除非巨人已经死亡，在这种情况下，法术正常起效，使被石化的生物摆脱石化并结束其石化状态。
+投石。远程武器攻击：命中+10，射程60/240尺，单一目标。命中：28（4d10+6）钝击伤害，如果目标是一个生物，它必须成功通过一次DC17的力量豁免否则被击倒。</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者:简述</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者 Storm Giant Quintessent
+为了阻止必然之事，一些风暴巨人在它们的自然生命的尽头逼近时寻求逃离死亡之法。它们将它们与元素的强大连接将至最低点，并把自己散入大自然中，真正化作半清醒的风暴。一座山峰周围无休止肆虐地暴风雪，一处偏远岛屿附近转动的漩涡，或者一条崎岖海岸线上不停咆哮的雷暴雨，实际上，是一名成为永恒形态的风暴巨人依附的存在实体。 
+元素武器。一名风暴巨人升华者脱下了它的盔甲和武器，但是获得了凭空生成临时武器的能力。当巨人不再使用它们，或者当巨人死亡时，它的元素武器消失。
+被弃之形。一名风暴巨人在它心血来潮时可以回到它真正的巨人形态。这种变化是暂时的，但是可以持续足够长的时间，例如在这名巨人与凡人交流，完成一个简短的工作，或者迎击侵略者以捍卫其家园时。</t>
+  </si>
+  <si>
+    <t>升华者的巢穴</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者的巢穴</t>
+  </si>
+  <si>
+    <t>升华者的巢穴
+一名风暴巨人升华者不需要例如城堡或者地下城之类的巢穴。它的巢穴通常是一处偏僻之地或者著名的地理特征，诸如一座山峰，一片大瀑布，一座偏远岛屿，一处大雾笼罩的湖泊，一处美丽的珊瑚礁，或者一处暴风呼啸的沙漠悬崖。只要环境合适，生活在其中的风暴巨人可能是一场暴风雪，一场台风，一场雷暴，或者一场沙尘暴。
+巢穴动作。风暴巨人可以在巨人形态或者转化为风暴时使用巢穴动作。先攻检定取值20（不涉及先攻关系），巨人可以用巢穴动作造成下列效果之一；巨人不能连续两轮使用同样的效果：
+·巨人以其巢穴中的任何一点为中心生成一次雷鸣。距离该点20尺内的每个生物都必须成功通过一个DC18的体质豁免否则耳聋到它的下一回合结束。
+·巨人以其巢穴的任何一点为中心创造一个半径20尺的雾气球体（在水中则为浊水）。球体会扩散到角落里，它覆盖的区域被严重遮蔽。雾气持续到巨人驱散它（无需动作），它不能被风吹散。
+·巨人从其巢穴的任何一点为起点生成一道60尺长，10尺宽的线形强风（在水中则为强电流），这条线上的每个生物都必须成功通过DC18的力量豁免，否则在风吹的方向上被推开15尺。这阵风吹散气体或者蒸汽，并吹熄范围内的蜡烛，火把以及其他类似的未受保护的火焰。受保护的火焰，例如灯笼，有50%概率被熄灭。
+区域效果。包含一处风暴巨人升华者的巢穴的地区被巨人的存在所扭曲，这产生了一个或多个下列效果：
+·距离巢穴1英里范围内吹着大风，除非生火的位置受到风的保护，否则无法生起。
+·距离巢穴1英里范围内持续着降雨，降雪，或者扬尘或扬沙（最合适的）。雨使得江河与溪流水满或者溢出河岸；雪，灰尘或者沙粒形成厚堆或者沙丘。
+·距离巢穴5英里范围内耀眼的闪电和隆隆的雷鸣日日夜夜从不停歇。
+如果巨人死亡，闪电，雷鸣和强风区域效果立即结束。降雨，降雪，以及扬尘在1d8天内逐渐减弱。</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者</t>
+  </si>
+  <si>
+    <t>风暴巨人升华者
+巨型巨人（风暴巨人），混乱善良
+AC 12
+HP 230（20d12+100）
+速度 50尺，飞行50尺（悬浮），游泳50尺
+力量29（+9），敏捷14（+2），体质20（+5）
+智力17（+3），感知20（+5），魅力19（+4）
+豁免 力量+14，体质+10，感知+10，魅力+9
+技能 奥秘+8，历史+8，察觉+10
+伤害抗力 寒冷；来自非魔法攻击的钝击，挥砍和穿刺
+伤害免疫 闪电，雷鸣
+感官 真实视觉60尺，被动察觉20
+语言 通用语，巨人语
+挑战等级 16（15000XP）
+两栖。巨人可以在空气和水中呼吸。
+动作
+多重攻击。巨人进行两次闪电之剑攻击或者使用两次风之投枪。
+闪电之剑。近战武器攻击：命中+14，触及15尺，单一目标。命中：40（9d6+9）闪电伤害。
+风之投枪。巨人将风汇聚成标枪般的形态，并将其投向位于600尺内它能看到的一个生物。标枪被视作魔法武器，并对目标造成19（3d6+9）穿刺伤害，必定命中。标枪在它命中后消失。
+传奇动作
+巨人可进行3个传奇动作，从下列选项中选择。一次只能使用一个传奇动作选项，并且只能在另一个生物的回合结束时使用，巨人在其回合开始时恢复其消耗的传奇动作。
+烈风骤起。巨人瞄准位于60尺内它能看到的一个生物，并在它身边创造一道魔法阵风。目标必须成功通过一个DC18的力量豁免否则朝巨人选择的任何水平方向上被推开20尺。
+狂雷突降（2个动作）。巨人朝位于600尺内它能看到的一个生物投出一道雷电。目标必须进行一个DC18的敏捷豁免，豁免失败受到22（4d10）雷鸣伤害，成功则受一半伤害。
+风暴合一（3个动作）。巨人消失，自身散入其巢穴周围的风暴中。巨人可以在任何它的回合开始时结束这个效果，再次成为一名巨人并出现在它所选择的其巢穴的任何位置。在分散期间，除了巢穴动作外巨人不能进行任何动作，它不能成为攻击，法术，或者其他效果的目标。巨人不能在它的巢穴外使用该能力，如果别的生物使用了操控天气法术或者类似的法术来平息风暴，巨人也不能使用该能力。</t>
+  </si>
+  <si>
+    <t>深渊子嗣:简述</t>
+  </si>
+  <si>
+    <t>深渊子嗣 Deep Scion
+深渊子嗣的生命开始于那些被从海难或从沉船救出的人，并提供了一个可怕的讨价还价的深海力量: 投降并献出身体和灵魂，或被淹死。那些屈服的人要接受一种古老的仪式，这种仪式在邪恶的水生生物中广泛存在。它的方法是痛苦的，结果永远不会确定，但当它起作用的时候，神奇的把一个呼吸空气的人变成了一个可以在海浪下完全自由行动的形态。
+深海来的间谍。一个深渊子嗣从深处出现，为它的水下主人服务，这可能是北海巨妖或其他远古深海生物。 虽然戴着它曾经是的人的思想和身体的面具，这种生物内心深处满是满足它主人的愿望。 有时一个深渊子嗣回到它的故乡，受到英雄般的欢迎——人们意外地发现当所有的希望都失去时它还活着。在其他时候，这个深渊子嗣会有一个新的身份。无论如何，这个深渊子嗣的职责就是潜入呼吸空气的世界，并向它的主人汇报情况。 一旦开始它的任务，一个深渊子嗣会像蠕虫般悄然进入毫无防备的敌人的生活，作为一个新的最好的朋友，一个不可抗拒的爱人，一个完美的工作候选人，或者其他一些角色，从而能够执行它主人的命令。
+冷血杀手。 一个深渊子嗣所受的训练，使它对它所监视的人失去了同情心。 尽管它可能表现得像是被迷住了，被朋友的玩笑逗乐了，或者被不公正激怒了，但这些行为对于深渊子嗣来说都是刻意人为的，是为达到目的手段。它相信它的真实形态，是它回到它认为是家的海洋时所呈现的形态。然而讽刺的是，当一个深渊子嗣以鱼的形态被杀死时，剥夺了它情感的魔法失去了，留下了只是曾经人类形态的尸体。如果你遇到一个散发着鱼腥味的人，他有可能是一个深渊子嗣。</t>
+  </si>
+  <si>
+    <t>深渊子嗣</t>
+  </si>
+  <si>
+    <t>深渊子嗣 Deep Scion
+中型类人（变形生物），中立邪恶
+AC 11
+HP 67（9d8+27）
+速度 30尺（混合形态下为20尺，外加40尺游泳速度）
+力量 18（+4）敏捷13（+1） 体质16（+3）
+智力10（+0） 感知12（+1） 魅力14（+2）
+豁免：感知+3，魅力+4
+技能：欺骗+6，洞悉+3，巧手+3，隐匿+3
+感官：黑暗视觉120尺，被动察觉11
+语言：深渊语，通用语，
+挑战等级：3（700xp）
+变形者：深渊子嗣可以利用其动作变形，变成一个人-鱼的混合形态，或回到它的真实形态。它的数据，除了速度以外，在每一种形态下都是相同的。此外，它的任何装备或携带的物品都不会随之变化。如果深渊子嗣死了，它恢复到其真实形态。
+两栖（仅限混合形态）：深渊子嗣可以在水中或空气中呼吸。
+动作Actions
+多重攻击。在人形形态下，深渊子嗣会进行两次巨斧攻击。在混合形态下，深渊子嗣造成三次攻击。一次啃咬，两次爪击。
+战斧（限人形形态）。近战武器攻击：+6命中，触及5尺，一个目标。命中：8（1d8+4）挥砍伤害，或9（1d10+4）挥砍伤害（如果用双手攻击）。
+啃咬（限混合形态）。近战武器攻击：+6命中，触及5尺，一个生物。命中：6（1d4+ 4）穿刺伤害。
+爪击（限混合形态）。近战武器攻击：+6命中，触及5尺，一个目标。命中：7（1d6 + 4）挥砍伤害。
+心灵尖啸（限混合形式；短或长休后充能）。深渊子嗣发出可怕的尖叫声，300尺以内都能听到。深渊子嗣30尺以内的生物必须通过DC13的感知豁免，否则震慑直到深渊子嗣的下一回合结束。在水中，心灵尖啸也能如心灵感应般传送其24小时内的记忆，无论距离远近，只要它和目标位于同一个水域中即可。</t>
+  </si>
+  <si>
+    <t>火蝾螈人:简述</t>
+  </si>
+  <si>
+    <t>火蝾螈人 Firenewts
+在包含有温泉，火山，或类似的温热与潮湿并存的环境条件的地区，或许能找到火蝾螈人存在的踪迹。这些人形的两栖动物生活在一个狂热地崇敬火元素破坏面的军国主义神权政治国家之中。
+炎热探寻者。火蝾螈人需要热水来生活并繁殖。一个火蝾螈人如果离开了湿热的源头超过一周将会在精神和肉体上变得惫怠。长期缺乏热度可以使一个火蝾螈人社会陷入停滞，使他们纷纷进入类似冬眠的状态，并且他们的卵也会停止孵化。
+火蝾螈人们会深入挖掘地表上的灼热源头，例如沸腾的泥浆或者是温泉，对于他们而言这些地方是理想的定居地点。通过对这片区域的发掘和开采，他们做出可以居住的空间并且得到充足的矿物供应用于各种方面，例如熔炼、锻造和炼金学。在火蝾螈人的巢穴中有渠道和闸门组成的网络保证热流循环。
+火蝾螈人精通于有关火焰的炼金术。他们最喜欢的一种混合物是用硫磺、矿石、盐和油糊成的团状物。火蝾螈人们习惯性地咀嚼这种混合物，因为这么做会使他们内部产生愉快起来的热量并使他们能吐出一个小火球。大多数火蝾螈人会随身携带容器用于混合这种东西。
+宗教武装。火蝾螈人的社会和文化基于对邪恶火元素王子伊米希的崇拜。这种对伊米希的尊敬引导火蝾螈人变得愤怒，残酷，充满了侵略性。与伊米希签订契约的火蝾螈人邪术师通过亲身演示这种特质来教导他的同族，而一名火蝾螈人武者在战斗中能通过“火焰之主的碰触”来进入一种几乎不可阻挡的战斗狂怒。
+伊米希的邪术师命令武者通过袭击带回财富和俘虏从而证明自己的价值。邪术师们收取最好的战利品献给伊米希，剩下的则由那些参与袭击的武者论功行赏。那些看起来没有明显价值的俘虏将会被献祭给伊米希随后被吃掉。那些被认为有能力采矿或履行其他巢穴杂务的则会被保留作为奴隶直到他们遇到相同的命运之前。
+如果火蝾螈人决定战争，而非只是进行偶然而至的突袭，他们将不会保留俘虏。他们的目标不会低于把他们的敌人彻底灭绝——并且他们对其他同族保留有最大的仇恨。倘若两组火蝾螈人偶遇彼此，他们很有可能争夺同一块领土的主权，往往一场血战是最终的结果。
+巨型阔步鸟。火蝾螈人与一种可怕野兽保有亲近的联系，他们相信它们是伊米希派来的援兵——证据是这种生物能喷吐出一团火焰来消灭远方的敌人。这种被称为巨型阔步鸟的怪物同时具有鸟类和爬行动物的特征，但它们并非两者其一。火蝾螈人在他们的巢穴里为巨型阔步鸟提供住所、食物和繁殖地，并且阔步鸟们主动成为那些精英火蝾螈人士兵的坐骑。</t>
+  </si>
+  <si>
+    <t>火蝾螈人武者</t>
+  </si>
+  <si>
+    <t>火蝾螈人武者
+中型类人生物（火蝾螈人），中立邪恶
+AC 16（链甲衫，盾牌）
+HP 22（4d8+4）
+速度 30尺
+力量10（+0） 敏捷13（+1） 体质12（+1）
+智力7（-2） 感知11（+0） 魅力8（-1）
+伤害免疫 火焰
+感官 被动察觉10
+语言 龙语，火族语
+挑战等级 1/2（100XP）
+两栖。火蝾螈人可以在水和空气中呼吸。
+动作
+多重攻击。火蝾螈人可以用他的弯刀进行2次攻击。
+弯刀。近战武器攻击：命中+3，触及5尺，单一目标。命中：4（1d6+1）挥砍伤害。
+喷火（在短休或长休后充能）。火蝾螈人向他10尺内的一个生物喷火。生物必须进行一次DC11的敏捷豁免检定，若失败将承受9（2d8）点火焰伤害，成功则伤害减半。</t>
+  </si>
+  <si>
+    <t>巨型阔步鸟</t>
+  </si>
+  <si>
+    <t>巨型阔步鸟
+大型怪物，中立邪恶
+AC 14（天生护甲）
+HP 22（3d10+6）
+速度 50尺
+力量18（+4） 敏捷13（+1） 体质14（+2）
+智力4（-3） 感知12（+1） 魅力6（-2）
+伤害免疫 火焰
+感官 被动察觉11
+语言 —
+挑战等级 1（200XP）
+火焰吸收。每当巨型阔步鸟受到火焰伤害，它将不受到任何伤害并且恢复等于那个伤害结果一半的生命值。
+动作
+啃咬。近战武器攻击：命中+6，触及5尺，单一目标。命中：8（1d8+4）穿刺伤害。
+火焰爆发（充能5-6）。巨型阔步鸟向它60尺内可见的一点投掷出一团火焰。在以投掷点为中心10尺半径的球形区域内的每一个生物必须进行一次DC12的敏捷豁免检定，若失败将承受14（4d6）点火焰伤害，成功则伤害减半。火焰会扩散过转角，点燃范围内没有被穿戴或携带的可燃物。</t>
+  </si>
+  <si>
+    <t>火蝾螈人伊米希邪术师</t>
+  </si>
+  <si>
+    <t>火蝾螈人伊米希邪术师
+中型类人生物（火蝾螈人），中立邪恶
+AC 10（施展法师护甲时为13）
+HP 33（6d8+6）
+速度 30尺
+力量13（+1） 敏捷11（+0） 体质12（+1）
+智力9（-1） 感知11（+0） 魅力14（+2）
+伤害免疫 火焰
+感官 黑暗视觉 120尺（穿透魔法黑暗），被动察觉10
+语言 龙语，火族语
+挑战等级 1（200XP）
+两栖。火蝾螈人可以在水和空气中呼吸。
+天生施法。火蝾螈人的天生施法能力基于魅力。他可以任意施展法师护甲（只限自己）并且无需任何材料成分。
+施法。火蝾螈人是3级施法者。他的施法能力基于魅力（法术豁免DC12，法术攻击检定+4）。在他完成一次长休或短休之后被消耗的法术位会恢复。他知晓以下邪术师法术：
+戏法（随意施展）：火焰箭，神导术，光亮术，法师之手，魔法伎俩
+一环或二环法术（2个二环法术位）：燃烧之手，炽焰法球，炼狱喝斥，灼热射线
+伊米西的赐福。每当火蝾螈人把一名敌对生物的生命值下降到0点，他将获得5点临时生命。
+动作
+钉头锤。近战武器攻击：命中+3，触及5尺，单一目标。命中：5（1d8+1）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>豺狼人:简述</t>
+  </si>
+  <si>
+    <t>豺狼人 Gnolls
+一支豺狼人战团可能包含一种或多种在本节中描述的特殊种类的豺狼人。</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人:简述</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人 Flind
+作为掌控和指挥战团的角色，弗林德豺狼人是一只异常强大而恶毒的豺狼人。它挥舞着一把由耶诺古亲自灌入了强大魔力的连枷。
+一支战团只能有一只弗林德豺狼人，这生物安排战团的路线。由于它与耶诺古的特殊联系，一只弗林德豺狼人利用神赐的预兆与恶魔般的洞察力来指引豺狼人在时机成熟时向弱小的猎物进行屠杀。
+不像其他类人生物的领导者那样可能躲在他们的爪牙身后，一只弗林德豺狼人在战斗中身先士卒。被它击中的人因为它连枷的缘故会遭受剧痛，麻痹，以及迷惑。</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人</t>
+  </si>
+  <si>
+    <t>弗林德豺狼人 Flind
+中型类人生物（豺狼人），混乱邪恶
+AC 16（链甲）
+HP 127（15d8+60）
+速度 30尺
+力量20（+5），敏捷10（+0），体质19（+4），智力11（+0），感知13（+1），魅力12（+1）
+豁免 体质+8，感知+5
+技能 威吓+5，察觉+5
+感官 黑暗视觉60尺，被动察觉15
+语言 豺狼人语，深渊语
+挑战等级 9（5000XP）
+嗜血光环。如果弗林德豺狼人没有失能，在距离弗林德豺狼人10尺范围内的任何拥有横冲直撞特性的生物能够以一个附赠动作进行一次啮咬攻击。
+动作
+多重攻击。弗林德豺狼人进行三次攻击：用每种不同的连枷攻击一次或者三次长弓。
+疯狂连枷。近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d10+5）钝击伤害，并且目标必须进行一次DC16的感知豁免。豁免失败，目标必须在它的下一回合中对它触及范围内随机一个目标进行一次近战攻击。如果在它移动后没有目标在它的触及范围内，它失去它这回合的动作。 
+痛苦连枷。 近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d10+5）钝击伤害加上22（4d10）心灵伤害。 
+麻痹连枷。近战武器攻击：命中+9，触及5尺，单一目标。命中：10（1d10+5）钝击伤害，目标必须成功通过DC16的体质豁免否则麻痹直到它的下一回合结束。 
+长弓。远程武器攻击：命中+4，射程150/600尺，单一目标。命中：4（1d8）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者:简述</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者 Gnoll Flesh Gnawer
+如果有任何一群豺狼人能够说是比其他同类更加凶悍，那份荣誉大概会属于食腐者。这些豺狼人避免使用远程武器，取而代之的是它们挥舞短剑时的速度与效率。在战斗白热化时，它们能够冲过战场，朝它们撞倒的掉队者又砍又吼，并杀光吃掉受伤的敌人。</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者</t>
+  </si>
+  <si>
+    <t>豺狼人食腐者 Gnoll Flesh Gnawer 
+中型类人生物（豺狼人），混乱邪恶 
+AC 14（镶嵌皮甲） 
+HP 22（4d8+4） 
+速度 30尺
+力量12（+1），敏捷14（+2），体质12（+1） 
+智力8（-1），感知10（+0），魅力8（-1）
+豁免 敏捷+4
+感官 黑暗视觉60尺，被动察觉10
+语言 豺狼人语
+挑战等级 1（200XP）
+横冲直撞。当豺狼人在它的回合以一次近战攻击使一个生物降为0生命值时，豺狼人能以一个附赠动作进行半速移动以及进行一次啮咬攻击。
+动作
+多重攻击。豺狼人进行三次攻击：一次啮咬和两次短剑。
+啮咬。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+短剑。近战武器攻击：命中+4，触及5尺，单一目标。命中：5（1d6+2）穿刺伤害。
+急速冲刺。直到回合结束，豺狼人的速度增加60尺，并且它不会引发借机攻击。</t>
+  </si>
+  <si>
+    <t>豺狼人猎手:简述</t>
+  </si>
+  <si>
+    <t>豺狼人猎手 Gnoll Hunter
+在战团中，猎手是最隐秘的豺狼人，它们把它们的天赋应用在战场上的许多方面。作为战团的先锋，猎手在四周匍匐行进，在为其余的部队行进踏平敌人的领土时除掉单独的抵抗者。
+猎人特别熟练于长弓，它们射出满载恶意的钩头箭。即使猎手的第一箭没有杀死目标，这箭的攻击带来了偌大的痛苦以至于受害者只能在它试图逃跑时一瘸一拐地行走。当猎手在潜行中寻找猎物并且不担心维持隐匿时，它会吹响一只骨制号角产生一阵类似女妖之嚎的哀哭号叫。</t>
+  </si>
+  <si>
+    <t>豺狼人猎手</t>
+  </si>
+  <si>
+    <t>豺狼人猎手 Gnoll Hunter
+中型类人生物（豺狼人），混乱邪恶
+AC 13（皮甲）
+HP 22（4d8+4）
+速度 30尺
+力量14（+2），敏捷14（+2），体质12（+1）
+智力8（-1），感知12（+1），魅力8（-1）
+技能 察觉+3，隐匿+4
+感官 黑暗视觉60尺，被动察觉13
+语言 豺狼人语
+挑战等级 1/2（100XP）
+横冲直撞。当豺狼人在它的回合以一次近战攻击使一个生物降为0生命值时，豺狼人能以一个附赠动作进行半速移动以及进行一次啮咬攻击。
+动作
+多重攻击。豺狼人用矛进行两次近战武器攻击或者用长弓进行两次远程攻击。
+啮咬。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+矛。近战或者远程武器攻击：命中+4，触及5尺，或者射程20/60尺，单一目标。命中：5（1d6+2）穿刺伤害或者当它使用双手进行一次近战攻击时的6（1d8+2）穿刺伤害。
+长弓。远程武器攻击：命中+4，射程150/600尺，单一目标。命中：6（1d8+2）穿刺伤害，并且目标的速度降低10尺直到它的下一回合结束。</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者:简述</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者 Gnoll Witherling
+有时豺狼人互相敌对，也许是要决定谁掌控战团或者是因为极度的饥饿。即使在一般情况下，豺狼人成为被剥夺的受害者时间太久而无法控制自己的饥饿与暴虐冲动。最后，它们互相残杀。
+幸存者狼吞虎咽地吃光它们被杀同伴的肉体，但保留了骨骸。然后，通过祈求耶诺古的仪式，它们将遗骨以一只豺狼人凋零者的形态变回活着时的外表。
+凋零者的行为就像一只活着的豺狼人，与它们的同伴同行并试图杀死它们道路上的任何东西。它们不吃东西也不受饥饿的驱使，留下更多的肉给战团中其余的人。豺狼人凋零者不能使用比简单的木棒更复杂的武器。
+不死本质。一只豺狼人凋零者不需要空气，食物，水，或者睡眠。</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者</t>
+  </si>
+  <si>
+    <t>豺狼人凋零者 Gnoll Witherling
+中型不死生物，混乱邪恶
+AC 12（天生护甲）
+HP 11（2d8+2）
+速度 30尺
+力量14（+2），敏捷8（-1），体质12（+1）
+智力5（-3），感知5（-3），魅力5（-3）
+伤害免疫 毒素
+状态免疫 力竭，中毒
+感官 黑暗视觉60尺，被动察觉7
+语言 懂豺狼人语但是不会说
+挑战等级 1/4（50XP）
+横冲直撞。当凋零者在它的回合以一次近战攻击使一个生物降为0生命值时，豺狼人能以一个附赠动作进行半速移动以及进行一次啮咬攻击。
+动作
+多重攻击。凋零者进行两次攻击：一次啮咬和一次木棒，或者两次木棒。
+啮咬。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+木棒。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）钝击伤害。
+反应
+报复打击。在距离凋零者30尺范围内回应一只豺狼人被减少到0生命值，凋零者进行一次近战攻击。</t>
+  </si>
+  <si>
+    <t>格龙蛙人:简述</t>
+  </si>
+  <si>
+    <t>格龙蛙人 Grungs
+格龙蛙人是一个生活在雨林和热带森林中好斗蛙型类人生物，它们有很强的领地意识且总觉得自己优于其他生物。
+树栖两栖动物（Tree-Dwelling Amphibians）：格龙蛙人世代居住在树上，尤其偏好树荫处。一只格龙蛙人通常在守卫森严的地平面池塘孵化，经过约3个月左右的孵化，一只格龙蛙人蝌蚪变态发育后变成成体状态。它还要生长六到9个月才能成长为一只年轻格龙蛙人并逐渐发育成熟。
+等级和颜色（Castes and Colors.）：格龙蛙人的社会是一个等级森严的系统。每种阶级都会在单独的孵化池产卵。孵化出年青的格龙蛙人随即加入他们的阶层。每个格龙蛙人出生后体色都是灰绿色的，但随着他们成长为成体，它们都会有自己的等级颜色。
+绿色的格龙蛙人通常是部落的战士、猎人及劳动者，而蓝色的格龙蛙人通常是工匠或是为其他格龙蛙人的仆役；监督和指挥团体则是由紫色格龙蛙人组成，它们通常是作为管理者和指挥官。（这些格龙蛙人使用图鉴里格龙蛙人模块，来代表绿色、蓝色和紫色种姓的成员）
+红色格龙蛙人通常是部落里的学者和施法者，它们作为绿色、蓝色和紫色种姓格龙蛙人的上级，即使地位较高的成员都要给予它们一定的尊重。（使用图鉴里格龙蛙人外化者模块，来代表红色种姓的成员）
+高级的种姓包含如橘色格龙蛙人，那些作为部落精英武者的成员统治其他弱小的格龙蛙人，还有稀少的金色格龙蛙人，它们拥有至高的统治力，一个部落的统治者总是金色的格龙蛙人（以上格龙蛙人使用图鉴里格龙精英武者的模块，来代表橘色和金色种姓的格龙蛙人）
+格龙蛙人的种姓通常伴随其一生，在极少数情况下，一个以伟大事迹而闻名的格龙蛙人可以赢得加入更高种姓的邀请，通过草药补品和仪式魔法的结合，一个提高等级的格龙蛙人改变了颜色，并以同样的方式被引入它的新种姓，从那一刻以后，这只格龙蛙人和它的后代都是高等种姓的成员。
+天然毒性（Naturally Toxic）：格龙蛙人体表分泌一种对它们来说无害但是对其他生物有毒的分泌物。格龙蛙人会用它们的有毒分泌物来给武器涂毒。
+蓄奴者（Slavers）：格龙蛙人们经常注目着那些它们可以捕获并奴役的生物。格龙蛙人让奴隶们从事各种卑微的工作，但大多数情况下，它们只是喜欢发号施令。奴隶们被喂食轻度有毒的食物以保持昏睡和顺从，一个被这样折磨了很长一段时间的生物变成了只有其外貌的空壳，只有通过魔法才能恢复正常。
+依赖水源（Water Dependency）：如果一只格龙蛙人在一年内没有在水中浸泡至少1小时，那么它在该天结束时就会处于一级力竭状态。该格龙蛙人只能通过魔法或在水中浸泡至少1小时来恢复体力。</t>
+  </si>
+  <si>
+    <t>格龙蛙人</t>
+  </si>
+  <si>
+    <t>格龙蛙人GRUNG
+小型类人生物（格龙蛙人），守序邪恶
+AC：12
+HP：11（2d6+4）
+速度：25尺，攀爬25尺
+力量7（-2）   敏捷14（+2）   体质15（+2）智力10（+0）   感知11（+0）   魅力10（+0）
+豁免：敏捷+4
+技能：运动+2；察觉+2；隐匿+4；生存+2
+伤害免疫：毒素
+状态免疫：中毒
+感官：被动察觉12尺
+语言：格龙蛙语
+挑战等级：1/4（50 XP）
+水陆两栖 Amphibious： 格龙蛙人可以在空气和水中呼吸
+毒性皮肤 Poisonous  Skin： 任何抓取或其他原因直接触碰到格龙蛙人皮肤的生物必须成功通过DC 12的体质豁免否则在接下来一分钟内处于中毒状态，该中毒生物在不直接接触格龙蛙人的情况下在其每个回合结束时重复该豁免，如果成功则结束该毒素影响。
+站立起跳 Standing Leap： 格龙蛙人起跳时最远可以跳25尺，最高 15 尺，不需要任何助跑。
+动作
+匕首 Dagger： 近战或远程武器攻击：命中+4，触及5尺，或是射程20/60尺，单一生物。命中：4（1d4+2）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+变体：格龙蛙人毒素
+格龙蛙人的毒素会在离开其体表一分钟后失效，如果格龙蛙人死亡则毒液同样失效。
+当一个生物沾染格龙蛙人毒液会产生各种不同的附加影响，而这种影响取决于格龙蛙人的肤色。这种不良影响会持续到该生物不再被格龙蛙人毒素作用。
+绿色格龙蛙人：该中毒生物除了攀爬和做立定跳以外无法移动，如果该生物为飞行生物，则其无法完成任何动作或反应除非其着陆。
+蓝色格龙蛙人：该中毒生物必须站立着大声呼喊或是做些其他弄出巨大噪音的动作，并以此结束该回合。
+紫色格龙蛙人：该中毒生物迫切将自己浸泡在液体或泥浆中，该生物必须保持身体接触液体和泥浆，不能完成任何动作或移动。
+红色格龙蛙人：该中毒生物必须使用其动作来进食其可触范围内的食物。
+橘色格龙蛙人：该中毒生物对其队友产生恐惧。
+金色格龙蛙人：该中毒生物被魅惑并会说格龙蛙人语。</t>
+  </si>
+  <si>
+    <t>格龙蛙人精英战士</t>
+  </si>
+  <si>
+    <t>格龙蛙人精英战士 GRUNG ELITE WARRIOR
+小型类人生物（格龙蛙人），守序邪恶
+AC：13
+HP：49（9d6+18）
+速度：25尺，攀爬25尺
+力量7（-2）   敏捷16（+3）   体质15（+2） 智力10（+0）   感知11（+0）   魅力12（+1）
+豁免：敏捷+5
+技能：运动+2；察觉+2；隐匿+5；生存+2
+伤害免疫：毒素
+状态免疫：中毒
+感官：被动察觉12尺
+语言：格龙蛙语
+挑战等级：2（450 XP）
+水陆两栖 Amphibious： 格龙蛙人可以在空气和水中呼吸
+毒性皮肤 Poisonous  Skin： 任何抓取或其他原因直接触碰到格龙蛙人皮肤的生物必须成功通过DC 12的体质豁免否则在接下来一分钟内处于中毒状态，该中毒生物在不直接接触格龙蛙人的情况下在其每个回合结束时重复该豁免，如果成功则结束该毒素影响。
+站立起跳 Standing Leap： 格龙蛙人起跳时最远可以跳25尺，最高 15 尺，不需要任何助跑。
+动作
+匕首 Dagger： 近战或远程武器攻击：命中+5，触及5尺，或是射程20/60尺，单一生物。命中：5（1d4+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+短弓 Shortbow： 远程武器攻击：命中+5，射程80/320尺，单一生物。伤害6（1d6+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+迷惑唧叫 Mesmerizing  Chirr （充能6）： 格龙蛙人精英战士可以发出一种格龙蛙人免疫的唧唧叫声。任何在该格龙蛙人附近15尺，且可以听到叫声的类人生物或是野兽必须成功通过DC 12的感知豁免否则将被震慑直至格龙蛙人下个回合结束。
+变体：格龙蛙人毒素
+格龙蛙人的毒素会在离开其体表一分钟后失效，如果格龙蛙人死亡则毒液同样失效。
+当一个生物沾染格龙蛙人毒液会产生各种不同的附加影响，而这种影响取决于格龙蛙人的肤色。这种不良影响会持续到该生物不再被格龙蛙人毒素作用。
+绿色格龙蛙人：该中毒生物除了攀爬和做立定跳以外无法移动，如果该生物为飞行生物，则其无法完成任何动作或反应除非其着陆。
+蓝色格龙蛙人：该中毒生物必须站立着大声呼喊或是做些其他弄出巨大噪音的动作，并以此结束该回合。
+紫色格龙蛙人：该中毒生物迫切将自己浸泡在液体或泥浆中，该生物必须保持身体接触液体和泥浆，不能完成任何动作或移动。
+红色格龙蛙人：该中毒生物必须使用其动作来进食其可触范围内的食物。
+橘色格龙蛙人：该中毒生物对其队友产生恐惧。
+金色格龙蛙人：该中毒生物被魅惑并会说格龙蛙人语。</t>
+  </si>
+  <si>
+    <t>格龙蛙人外化者</t>
+  </si>
+  <si>
+    <t>格龙蛙人外化者 GRUNG  WILDLING
+小型类人生物（格龙蛙人），守序邪恶
+AC：13（在树肤术下16）
+HP：27（5d6+10）
+速度：25尺，攀爬25尺
+力量7（-2）   敏捷16（+3）   体质15（+2）
+智力10（+0）   感知15（+2）   魅力11（+0）
+豁免：敏捷+5
+技能：运动+2；察觉+4；隐匿+5；生存+4
+伤害免疫：毒素
+状态免疫：中毒
+感官：被动察觉14尺
+语言：格龙蛙语
+挑战等级：1（200 XP）
+水陆两栖 Amphibious：格龙蛙人可以在空气和水中呼吸
+毒性皮肤 Poisonous  Skin：任何抓取或其他原因直接触碰到格龙蛙人皮肤的生物必须成功通过DC 12的体质豁免否则在接下来一分钟内处于中毒状态，该中毒生物在不直接接触格龙蛙人的情况下在其每个回合结束时重复该豁免，如果成功则结束该毒素影响。
+施法 Spellcasting.：该格龙蛙人是9级施法者，其施法能力基于感知属性（施法豁免 DC 12,法术攻击+4命中）其知晓以下游侠法术：
+1级法术（4法术位）：疗伤术，跳跃术
+2级法术（3法术位）：树肤术，荆棘丛生
+3级法术（2法术位）：植物滋长
+站立起跳 Standing Leap：格龙蛙人起跳时最远可以跳25尺，最高 15 尺，不需要任何助跑。
+动作
+匕首 Dagger：近战或远程武器攻击：命中+5，触及5尺，或是射程20/60尺，单一生物。命中：5（1d4+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+短弓 Shortbow：远程武器攻击：命中+5，射程80/320尺，单一生物。伤害6（1d6+3）的穿刺伤害并且该生物必须成功通过DC 12的体质豁免否则要承受5（2d4）点毒素伤害。
+变体：格龙蛙人毒素
+格龙蛙人的毒素会在离开其体表一分钟后失效，如果格龙蛙人死亡则毒液同样失效。
+当一个生物沾染格龙蛙人毒液会产生各种不同的附加影响，而这种影响取决于格龙蛙人的肤色。这种不良影响会持续到该生物不再被格龙蛙人毒素作用。
+绿色格龙蛙人：该中毒生物除了攀爬和做立定跳以外无法移动，如果该生物为飞行生物，则其无法完成任何动作或反应除非其着陆。
+蓝色格龙蛙人：该中毒生物必须站立着大声呼喊或是做些其他弄出巨大噪音的动作，并以此结束该回合。
+紫色格龙蛙人：该中毒生物迫切将自己浸泡在液体或泥浆中，该生物必须保持身体接触液体和泥浆，不能完成任何动作或移动。
+红色格龙蛙人：该中毒生物必须使用其动作来进食其可触范围内的食物。
+橘色格龙蛙人：该中毒生物对其队友产生恐惧。
+金色格龙蛙人：该中毒生物被魅惑并会说格龙蛙人语。</t>
+  </si>
+  <si>
+    <t>狗头人:简述</t>
+  </si>
+  <si>
+    <t>狗头人 Kobolds
+一些狗头人有着由龙或者神给它们留下的恩赐，使它们能够超越它们的同族。另一些生来具有残酷的创造力，少有人能匹敌。</t>
+  </si>
+  <si>
+    <t>狗头人龙盾护卫:简述</t>
+  </si>
+  <si>
+    <t>狗头人龙盾护卫 Kobolds Dragonshield
+一名狗头人龙盾护卫是它族中的勇士。几乎所有的龙盾护卫起初都像正常的狗头人一样生活，然后被龙选中，投入大量精力来保护龙蛋，不过每隔几年就会有一只天生具有龙盾护卫能力的狗头人孵化出来。擅长于肉搏战，它身负许多来自绝望的战斗的伤痕，并佩有一面由褪下的龙鳞制成的盾牌。
+非凡的勇气。一名龙盾护卫知道它在部落中有着荣耀的地位，但在狗头人心里大多认为自己愧对于它们的地位，因此急于证明它是自己应得的。一名龙盾护卫的体内仍然存在着天生的狗头人的怯弱，因此它仍有可能会逃避威胁。但是在面临生死关头时，它也有着重整旗鼓的力量，激励其他狗头人跟随它对抗它们洞穴中的入侵者。</t>
+  </si>
+  <si>
+    <t>狗头人龙盾护卫</t>
+  </si>
+  <si>
+    <t>狗头人龙盾护卫 Kobolds Dragonshield
+小型类人生物（狗头人），守序邪恶
+AC 15（皮甲，盾牌）
+HP 44（8d6+16）
+速度 20尺
+力量12（+1），敏捷15（+2），体质14（+2）
+智力8（-1），感知9（-1），魅力10（+0）
+技能 察觉+1
+伤害抗性 见下列的龙之抗力
+感官 黑暗视觉60尺，被动察觉11
+语言 通用语，龙语
+挑战等级 1（200XP）
+龙之抗力。基于给予它力量的龙的颜色，狗头人获得对应伤害类型的抗性（选择或者投掷d10）：
+    1-2，强酸（黑）；
+    3，寒冷（白）；
+    5-6，火焰（红）；
+    7-8，闪电（蓝）；
+    9-10，毒素（绿）。
+龙之心。如果狗头人被允许豁免的效果使得陷入恐慌或者麻痹，它可以在它的回合开始时重复该豁免以结束对自己和所有距离它30尺范围内的狗头人的影响。任何从该特性中受益的狗头人（包括龙盾护卫）在下一次攻击检定上都获得优势。
+集群战术。如果狗头人有至少一个盟友在目标生物5尺范围内且非乏力，则狗头人在对该生物的攻击检定上有优势。
+日光敏感。在阳光下，狗头人在攻击检定和依靠视力的感知（观察）检定上承受劣势。
+动作
+多重攻击。狗头人进行两次近战攻击。
+矛。近战或远程武器攻击：命中+3，触及5尺，或射程20/60尺，单一目标。命中：4（1d6+1）穿刺伤害，或5（1d8+1）穿刺伤害，如果使用两只手做一次近战攻击。</t>
+  </si>
+  <si>
+    <t>狗头人发明家:简述</t>
+  </si>
+  <si>
+    <t>狗头人发明家 Kobold Inventor
+一名狗头人发明家狡猾又手巧，希望在战斗中获取一些优势时便会制造临时的武器。一名发明家捕捉虫子，挖出奇异的地下城泥土，以及拿走最好的赃物作为它试验的原料。它的作品有时在外观上分外滑稽，但是——就像狗头人的陷阱一样——它们的工作比它们的原材料所能达到的程度要好出许多。
+物尽其用。一件发明家的新武器在它们损坏之前只能持续一两次攻击，但在此期间可能会意外地有效。大多数发明家都足够熟悉它们的临时武器以至不会让它反伤其身，不过其他使用者可能就不会这么幸运。武器未必是致命的——在许多情况下，如果它使一个生物分心，惊恐，或者迷惑足够长的时间而让其他狗头人能够杀死这个敌人，那它的目的就达到了。在任何特定的遭遇中，一名发明家通常有一两件临时的武器在它的掌握中。</t>
+  </si>
+  <si>
+    <t>狗头人发明家</t>
+  </si>
+  <si>
+    <t>狗头人发明家 Kobold Inventor
+小型类人生物（狗头人），守序邪恶
+AC 12
+HP 13（3d6+3）
+速度 30尺
+力量7（-2），敏捷15（+2），体质12（+1）
+智力8（-1），感知7（-2），魅力8（-1）
+技能 察觉+0
+感官 黑暗视觉60尺，被动察觉10
+语言 通用语，龙语
+挑战等级 1/4（50XP）
+集群战术。如果狗头人有至少一个盟友在目标生物5尺范围内且非乏力，则狗头人在对该生物的攻击检定上有优势。
+日光敏感。在阳光下，狗头人在攻击检定和依靠视力的感知（观察）检定上承受劣势。
+动作
+匕首。近战或远程武器攻击：命中+4，触及5尺，或射程20/60尺，单一目标。命中：4（1d4+2）穿刺伤害。
+投石索。远程武器攻击：命中+4，射程30/120尺，单一目标。命中：4（1d4+2）钝击伤害。
+武器发明。狗头人使用下列选项之一（骰一个d8或者选择一个）；狗头人可以使用每种不超过每天一次：
+    1.强酸。狗头人投出一瓶强酸。远程武器攻击：命中+4，射程5/20尺，单一目标。命中：7（2d6）强酸伤害。
+    2.炽火胶。狗头人扔出一瓶炽火胶。远程武器攻击：命中+4，射程5/20尺，单一目标。命中：在每个目标的回合开始时受到2（1d4）火焰伤害。一个生物可以通过使用它的动作进行DC10的敏捷豁免检定以扑灭火焰。从而结束该伤害。
+    3.蜈蚣篮。狗头人朝它20尺内的一处5尺见方的空间抛出一个小篮子。一个拥有11点HP的昆虫（蜈蚣）集群会从篮子中主动出现。在每个集群的回合结束时，集群有50%概率分散。
+    4.绿软泥罐。狗头人朝目标扔出一个装满绿软泥的陶罐，并且它会在撞击时破裂。远程武器攻击：命中+4，射程5/20尺，单一目标。命中：目标被一片绿软泥覆盖（见DMG第5章）。打失：一块绿软泥覆盖住目标5尺距离内随机一块5尺见方的墙壁或者地板。
+    5.腐蛆罐。狗头人朝它20尺内的一块5尺见方的空间扔出一个陶罐，并且它会在撞击时破裂。一个腐蛆集群（见附录A）会从碎裂的罐中出现，并在那片空间形成威胁。
+    6.棍上蝎。狗头人把一只蝎子绑在一根5尺长的木棍顶端进行近战攻击。近战武器攻击：命中+4，触及5尺，单一目标。命中：1穿刺伤害，目标必须通过一个DC9的体质豁免检定，豁免失败受到4（1d8）毒素伤害，成功则受一半伤害。
+    7.笼中臭鼬。狗头人在它5尺内的一处未被占据的空间内放出一只臭鼬。臭鼬的基础步行速度为20尺，AC10，1点HP，无有效攻击。它会自主爬动，并在它的回合使用它的动作朝5尺内的随机一个生物喷射麝香。目标必须通过DC9的体质豁免检定。如果豁免失败，目标在1分钟内会呕吐和无法采取行动。目标可以在他的每个回合结束时重复该豁免，成功则结束其效果。不需要呼吸以及免疫毒素的生物在该豁免检定上自动成功。一旦臭鼬喷射了麝香，直到它完成一次短休息或长休息前，它不能再这么做。
+    8.袋里蜂巢。狗头人朝它20尺内的一处5尺见方的空间抛出一个小口袋。一个拥有11点HP的昆虫（黄蜂）集群会从口袋中主动出现。在每个集群的回合结束时，集群有50%概率分散。</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士:简述</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士 Kobold Scale Sorcerer
+一名狗头人鳞术士有着与生俱来的奥术天赋，有数个原因使它成为部落中极具价值的成员。因为狗头人的神祇仍被囚禁着，大部分部落缺少能够运用神术的个人，所以鳞术士充当了指引者和历史学家的角色。在和平时期，它们使用自己的法术来巩固和强化巢穴以及帮助部落休养生息。当部落受到威胁时，一名鳞术士挥舞着火焰与毒素对抗敌人，为自己节省些许法术以防需要逃跑或者利用俘虏。
+为龙尽责。在与一条龙有关联的狗头人部落中，通常有一个鳞术士居住在附近的龙巢中，作为外交官和代言人——预料到龙的需要，代表龙向其他狗头人发号施令，以及将报告的信息反馈给龙。如同普通的狗头人一样，鳞术士同样对龙充满敬畏，恭谨有加，但是它知道它的职责要求它不能在任何时候都去讨好它的主人。它也明白如果它的主人生气或者不满的话，频繁的接近龙意味着它有可能第一个死去。所以它在对龙的态度上疯狂地保持着崇拜与恐惧之间的平衡。</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士</t>
+  </si>
+  <si>
+    <t>狗头人鳞术士 Kobold Scale Sorcerer
+小型类人生物（狗头人），守序邪恶
+AC 15（天生护甲）
+HP 27（5d6+10）
+速度 30尺
+力量7（-2），敏捷15（+2），体质14（+2）
+智力10（+0），感知9（-1），魅力14（+2）
+技能 奥秘+2，医药+1
+感官 黑暗视觉60尺，被动察觉9
+语言 通用语，龙语
+挑战等级 1（200XP）
+施法。这只狗头人是一名3级施法者，它的施法能力基于魅力（法术豁免DC12，法术攻击加值+4）。它准备了以下术士法术：
+戏法（随意）：火焰箭，法师之手，修复术，毒气喷射
+1环（4法术位）：魅惑人类，多彩球，脚底抹油
+2环（2法术位）：灼热射线
+术法点。这只狗头人拥有3点术法点。在它完成一次长休后已消耗的术法点将全数恢复。狗头人可以在以下选项中使用术法点：
+升阶法术：当它施展一个强迫其他生物进行豁免检定以抵抗法术效果的法术时，狗头人可以消耗3个术法点，使单一目标生物对此法术的首次豁免检定获得劣势。
+精妙法术：当狗头人施展一个法术时，它可以消耗1点术法点，以忽略法术的任何语言成分或者姿势成分。
+集群战术。如果狗头人有至少一个盟友在目标生物5尺范围内且非乏力，则狗头人在对该生物的攻击检定上有优势。
+日光敏感。在阳光下，狗头人在攻击检定和依靠视力的感知（观察）检定上承受劣势。
+动作
+匕首。近战或远程武器攻击：命中+4，触及5尺，或者射程20/60尺，单一目标。命中：4（1d4+2）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>大地精:简述</t>
+  </si>
+  <si>
+    <t>大地精 Hobgoblins
+具有最残酷决心的大地精能获准进入精英组织，这些精英组织提供的特殊训练远强于服兵役所给予的。破坏学院与铁影学院便是两个这样的组织，它们的毕业生在地精的行列中是被畏惧的。</t>
+  </si>
+  <si>
+    <t>大地精破坏者:简述</t>
+  </si>
+  <si>
+    <t>大地精破坏者 Hobgoblin devastator
+在大地精的社会中，破坏学院辨认出具有魔法天赋的大地精，并使它们经由艰苦的训练计划后在主人的支持下赋予它们召唤火球与其他破坏性法术的能力。一名大地精破坏者在战场上对它的所有盟友来说都是一个福音，对它周围的每个敌人都是一种威胁。
+进入战斗。在其他的文明认为他们的法师如同隐居的学者时，大地精们期望着它们的施法者战斗。破坏者学习武器使用的基础技术，以及它们通过使用它们的法术击败敌人来估量自己的行为。
+破坏者受到其主人的其他成员的尊敬，并且它们获得来自许多方面的服从与尊重。它们使用一次单一的法术便能摧毁整个编队的能力让它们在战斗中取得的荣耀比一个单纯的战士要更多。
+其他文明可能会把这种能力的使用看作是一条通往荣耀的捷径，但是对大地精来说，魔法的馈赠作为一条强健的持剑之臂或在战略才华中是有价值和有用的。它们都是来自马格鲁比耶的恩赐，必须被培养并释放在敌人身上。
+结果为重。破坏者研究一种塑能魔法的简化形式。它们的训练缺乏理论与其他民间研究的环境。它们在战斗中熟练，但是在它们的法术工作如何及为何的细节上相对无知。
+破坏学院认为在魔法上的学术研究是软弱而无能的表现。一名战士不需要了解冶金学来使用一柄剑，那么为什么法师要关心魔法来自何处呢？破坏者喜欢通过寻找敌方施法者并消灭他们来证明它们自己在战斗中的优势。</t>
+  </si>
+  <si>
+    <t>大地精破坏者</t>
+  </si>
+  <si>
+    <t>大地精破坏者 Hobgoblin devastator
+中型类人生物（类地精），守序邪恶
+AC 13（镶嵌皮甲）
+HP 45（7d8+14）
+速度 30尺
+力量13（+1），敏捷12（+1），体质14（+2），智力16（+3），感知13（+1），魅力11（+0）
+技能 奥秘+5
+感官 黑暗视觉60尺，被动察觉11
+语言 通用语，地精语
+挑战等级 4（1100XP）
+奥秘优势。一回合一次，如果目标位于大地精盟友5尺范围内，并且盟友没有失能，那么大地精可以对被它的伤害性法术攻击命中的生物造成额外7（2d6）伤害。
+军之奥秘。当大地精施放造成伤害的法术或强迫其他生物进行豁免时，它可以选择它自己和任意数量的盟友免受法术造成的伤害，以及在所需的豁免上成功。
+施法。大地精是一名7级施法者。它的施法属性是智力（法术豁免DC13，法术攻击加值+5）。它准备了以下法师法术：
+戏法（随意）：酸液飞溅，火焰箭，寒冰射线，电爪
+1环（4法术位）：云雾术，魔法飞弹，雷鸣波
+2环（3法术位）：造风术，马友夫强酸箭，灼热射线
+3环（3法术位）：火球术，闪电束
+4环（1法术位）：冰风暴
+动作
+木杖。近战武器攻击：命中+3，触及5尺，单一目标。命中：4（1d6+1）钝击伤害，或者如果双手使用时的5（1d8+1）钝击伤害。</t>
+  </si>
+  <si>
+    <t>大地精铁影:简述</t>
+  </si>
+  <si>
+    <t>大地精忍者:简述</t>
+  </si>
+  <si>
+    <t>大地精铁影 Hobgoblin Iron Shadow
+铁影是担任秘密警察，侦察兵，以及刺客的大地精武僧。在其他大地精中，它们暗中搜寻查出背叛，谋反，和泄密。
+秘密训练。铁影招募于来自各地的大地精队伍。每个成员都对潜在的新兵睁大了她的眼睛，那些敏捷与耐力能通过对马格鲁比耶不可动摇的承诺的人。
+一名考生入场进行一系列旨在揭示任何潜在背叛的测试。失败者被杀，而那些通过者接受魔法与武术的秘密训练。这种教导是一个漫长而艰苦的过程；许多渴望者无法完成它，在这些年过去期间，铁影不欢迎新成员加入它们的行列。当新兵在训练时，它通过寻找和报告可疑行为服务于铁影。
+影与拳的大师。当新兵的训练完成后，她准备好使用徒手格斗技巧与阴影魔法的致命组合来欺骗和击败她的敌人。她继续监视其他大地精，但现在也有权进行暗杀和间谍任务，不仅针对敌人，也有大地精。这些任务由马格鲁比耶的牧师发布，它们谨慎地留意大地精的社会，以确保它的功能依照马格鲁比耶的意志所行。
+蒙面魔鬼。执行隐秘任务中的铁影戴着制作得形如魔鬼的面具，既隐藏了自己的身份，又让它们的敌人陷入恐惧之中。
+它们的面具也意味着它们的战斗技巧的起源。马格鲁比耶的牧师教导伟大者从一位大魔鬼那窃取了阴影之秘，允许他的追随者隐其真身，行于影中，以假惑人，乱其大敌。</t>
+  </si>
+  <si>
+    <t>大地精铁影</t>
+  </si>
+  <si>
+    <t>大地精忍者</t>
+  </si>
+  <si>
+    <t>大地精铁影
+中型类人生物（类地精），守序邪恶
+AC 15
+HP 32（5d8+10）
+速度 40尺
+力量14（+2），敏捷16（+3），体质15（+2）
+智力14（+2），感知15（+2），魅力11（+0）
+技能 特技+5，运动+4，隐匿+5
+感官 黑暗视觉60尺，被动察觉12
+语言 通用语 地精语
+挑战等级 2（450XP）
+施法。大地精是一名2级施法者，它的施法属性是智力（法术豁免DC12，法术攻击加值+4）。它准备了以下法师法术：
+戏法（随意）：弱效幻影，魔法伎俩，克敌机先
+1环（3法术位）：魅惑人类，易容术，脚底抹油，无声幻影
+无甲防御。当大地精没有穿戴盔甲以及没有持握盾牌时，它的AC包含感知调整值。
+动作
+多重攻击。大地精进行四次攻击，每一次都可以是一次徒手攻击或者一次飞镖攻击。它也可以使用一次暗影步，在一次攻击之前或者之后。
+徒手攻击。近战武器攻击：命中+5，触及5尺，单一目标。命中：5（1d4+3）钝击伤害。
+飞镖。远程武器攻击：命中+5，射程20/60尺，单一目标。命中：5（1d4+3）穿刺伤害。
+暗影步。大地精与它所穿戴或者携带的任何装备一道如魔法般传送到它能看见的30尺范围内一个未被占据的空间。它离开的空间和它的目的地必须处于微光或者黑暗内。</t>
+  </si>
+  <si>
+    <t>林布哥:简述</t>
+  </si>
+  <si>
+    <t>倒写地精:简述</t>
+  </si>
+  <si>
+    <t>林布哥（倒写地精） Nilbog
+当玛格鲁比耶特Maglubiyet征服了地精的众神后，他打算只留下库戈尔拜亚格Khurgorbaeyag活着，作为一个严厉的监工，让地精受他的控制。但地精的万神殿中有一个欺诈之神，他决心要笑到最后。虽然它的本体被玛格鲁比耶特粉碎，但这个欺诈之神以一种分裂的精魂形式存在，当地精成为它们的宿主时，它就会出现，除非它被驱散，否则就会在其中制造混乱。地精不知道这个神的名字，也不敢给它起名字，唯恐玛格鲁比耶特用它的名字来诱捕和粉碎它，就像他对待其他神一样。他们把拥有的精魂和被它附身的地精称为“林布哥”(倒着拼写的“哥布林goblin”（哥布林=地精）)，他们被恐惧支配，害怕林布哥会在地精大军之间蔓延扩散。
+地精的报复 Goblins' Revenge。当地精形成一个宿主时，地精有可能会被林布哥附身，特别是当地精被它的敌人虐待时。这种附身使地精变成了一个爱说俏皮话、不怕报复的顽皮生物。它给了地精一种奇怪的力量，驱使其他人做他们想做的相反的事情。攻击一个被林布哥附身的地精是鲁莽的，杀死它只会让精魂附身另一个地精。防止林布哥造成破坏的唯一方法就是善待它，给予它尊重和赞扬。
+不开玩笑 No joking Matter. 林布哥在宿主中的可能存在，导致了类地精族中产生了一种做法，即每个宿主至少包括一个地精小丑。这个小丑可以去任何地方，做任何他想做的事。小丑这一职位在精魂中很吃香，因为即使小丑显然不是林布哥，大地精和熊地精也会沉迷于它的疯狂行为。
+边栏：林布哥主义 Nilbogism
+林布哥是一种只依凭地精而存在的无形的精魂。失去了宿主，该精魂的飞行速度只有30英尺，既不会说话也不会被攻击。它所能采取的唯一行动就是试图控制一个在它5尺范围之内的地精。
+被精魂瞄准的地精必须在DC15的魅力豁免检定中获得成功，否则将被附身。当被精魂附体时，该地精的阵营变为混乱邪恶，它的魅力变为15（除非它已经大于等于15），并且它获得了林布哥的天生施法和林布哥主义的特征，以及它的命运反转能力。如果豁免成功，精魂不可在接下来的24小时内控制那个地精。如果它的主人被杀了，或者被圣居hallow、防护法阵magic circle或防护善恶protection from evil and good之类的咒语终结了，精魂就会寻找另一个地精来拥有它。精魂可以随时离开它的寄主，但除非它知道附近有另一个潜在的宿主，否则它是不会愿意离开的。一个被剥夺了林布哥精魂的地精恢复到正常的数据，并失去了它在拥有时获得的特性。</t>
+  </si>
+  <si>
+    <t>林布哥</t>
+  </si>
+  <si>
+    <t>倒写地精</t>
+  </si>
+  <si>
+    <t>林布哥 Nilbog
+小型类人生物（类地精)
+护甲等级 13（皮甲）
+生命值 7（6d6）
+速度 30尺
+力量8（-1） 敏捷14（+2） 体质10（+0）
+智力10（+0） 感知8（-1） 魅力15（+2）
+技能：隐匿+6
+感官：黑暗视觉 60ft，被动察觉 9
+语言：通用语、地精语
+挑战等级：1（200xp）
+天生施法 Innate  Spellcasting。林布哥的施法能力基于魅力（法术豁免DC12）。林布哥具有以下法术的施法能力，且不需要任何施法构材：
+任意：法师之手Mage Hand、塔莎狂笑术Tasha’s Hideous Laughter、恶毒嘲笑Vicious Mockery
+1/日：困惑术Confusion
+林布哥主义 Nilbogism。任何试图伤害林布哥的生物必须成功于 DC 12 魅力豁免检定，否则将陷入魅惑，直到该生物的下一个回合结束。以此被魅惑的生物必须用它的行动来赞美林布哥。
+林布哥不能重获生命值，包括通过魔法治疗，除非通过它的反应 逆转命运 Reversal  of  Fortune。
+迅捷逃窜 Nimble  Escape. 每回合一次，林布哥可以使用一个附赠动作，进行一次 撤离 或 躲藏 。
+行动 Actions.
+傻瓜权杖 Fool's  Scepter。近战武器攻击：+4命中，触及5尺，单一目标。
+伤害：5（1d6+2）钝击伤害。
+短弓 Shortbow。远程武器攻击：+4命中，距离 80/320尺，单一目标。
+伤害：5（1d6+2）穿刺伤害。
+反应 Reactions
+逆转命运 Reversal  of  Fortune.当另一个生物对林布哥造成伤害时，林布哥将本次伤害值降低至0 并恢复1d6生命值。</t>
+  </si>
+  <si>
+    <t>兽人:简述</t>
+  </si>
+  <si>
+    <t>兽人 Orcs
+对世上的普罗大众来说，兽人就是兽人。他们知道这些野蛮人中的任何一个都能将一个普通人撕成碎片，所以没有必要再加以区分了。
+兽人则更了解事实。一个部族里存在着不同的兽人群体，他们的行为依其侍奉的神灵而定。与各种在乡野劫掠的兽人战士相对应的是另一批终日逗留在巢穴深处部落成员，甚少看到其黑暗巢穴外的事物。
+此外，兽人与两种生物有着特殊的关系，这两种生物有时会和兽人一起出现：原牛 Aurochs 是一种大公牛，它是敬畏巴格杵 Bahgtru 的战士的坐骑；塔那罗克 Tanarukk 是恶魔和兽人的混血物种，它极其堕落且充满毁坏性，甚至兽人也会试图杀死它。原牛在附录A中描述，塔那罗克在下面描述。</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃:简述</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃 ORC BLADE OF ILNEVAL
+依那伏 Ilneval 是格乌什 Gruumsh 的战斗队长，一个狡猾的战略家，祂大胆地指挥着格乌什 Gruumsh的士兵。在兽人中，战士们会崇敬 依那伏 Ilneval ，并效仿其神灵。这些兽人学会以一种不可预料的方式指挥他们的同伴，但却有助于确保他们的胜利。
+这些领袖中最具智慧的会获得依那伏 Ilneval的恩泽，并被称为 “刃”，他们是在战争事宜上为他们的酋长提供建议的战术专家。“刃” 会在前线领导，无畏地进入战斗，同时向低阶士兵发出命令。“刃”们知道如何使兽人的凶性发挥最大作用，并帮助普通的战士合力对抗敌人。</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃</t>
+  </si>
+  <si>
+    <t>兽人·依那伏之刃 ORC BLADE OF ILNEVAL
+中型类人（兽人），混乱邪恶
+AC 18 (链甲，盾牌)
+HP 60 (8d8 + 24)
+速度30 尺
+力量    敏捷    体质
+17 (+3) 11 (+0) 17 (+3)
+智力    感知    魅力
+10 (+0) 12(+1)  14 (+2）
+豁免：感知+3
+技能：察觉 +3，洞悉+3，威吓+4
+感官：黑暗视觉 60尺 ，被动察觉13
+语言：通用语，兽人语
+挑战等级 4 (1,100 XP)
+好斗 Aggressive。作为一个附赠动作，兽?可以向?个它能看见的敌对生物移动至多相当于其速度的距离。
+依那伏破敌者 Foe Smiter of llneval。 该兽人以长剑攻击命中时造成一个额外骰子的伤害（已包含在攻击中）。
+动作
+多重攻击 Multiattack。 该兽人以长剑发动2次近战攻击或以标枪发动2次远程攻击。如果依那伏的号令可用，该兽人能在这些攻击后能使用它。
+长剑 Longsword。 近战武器攻击: 命中+5，触及 5尺 ，单一目标。伤害: 12 (2d8+3)挥砍伤害 ，双手使用时为 14 (2d10+3) 挥砍伤害。
+标枪 Javelin。 近战或远程武器攻击:命中+5 ，触及5尺或射程30/120 尺，单一目标。伤害: 6 (1d6+3)穿刺伤害。
+依那伏的号令 Ilneval's Command (充能4-6)。至多3个在该兽人120尺范围内并能听到其声音的兽人盟友能使用他们的反应各发动一次武器攻击。</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪:简述</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪 ORC CLAW OF LUTHIC
+茹赛可 Luthic是乌格什 Gruumsh的妻子，也是所有兽人的母道典范。祂是洞穴母亲，一个在黑暗中凶猛的居住者，他养育了新的兽人，使他们变得邪恶和强壮。祂的象征是洞穴熊，雌性兽人会将这些熊与兽人幼崽一起饲养。特别受茹赛可 Luthic吸引的雌性兽人会留长指甲并为它们涂漆，她们学习使用这些利爪作为武器，就像茹赛可 Luthic使用自己的一样。
+侍奉茹赛可 Luthic雌性兽人负责加强和维持兽人的据点。她们有助于保证部落的生存，而且大多数人擅长于治疗技艺。在茹赛可 Luthic的门徒中，最强大的是茹赛可之爪，它可以使用洞穴母亲的魔法来治疗、保护和诅咒。</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪</t>
+  </si>
+  <si>
+    <t>兽人·茹赛可之爪 ORC CLAW OF LUTHIC
+中型类人(兽人)，混乱邪恶
+AC 14 (兽皮甲)
+HP 45 (6d8+18)
+速度 30尺
+力量    敏捷    体质
+14 (+2) 15 (+2) 16 (+3) 
+智力    感知    魅力 
+10 (+0) 15 (+2) 11 (+0) 
+技能：运动 +2，医药 +4，求生+4 
+感官：黑暗视觉60尺，被动察觉12 
+语言：通用语，兽人语 
+挑战等级2 (450 XP)
+好斗 Aggressive。作为一个附赠动作，兽人可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+施法 Spellcasting。 该兽人是5级施法者。它的施法属性是感知（法术豁免DC12，法术攻击命中+4）。该兽人准备了以下牧师法术：
+戏法（随意）:神导术 guidance，修复术 mending, 提升抗性 resistance，奇术 thaumaturgy
+1环(4法术位 ): 灾祸术 bane，疗伤术 cure wounds，光导箭 guiding bolt
+2环(3 法术位): 卜筮术 augury，守护链接 warding bond
+3环(2 法术位): 降咒术 bestow curse，造粮术 create food and water
+动作
+多重攻击 Multiattack。 该兽人发动2次爪击，其生命值少过一半时发动4次爪击。
+爪击 Claw。 近战武器攻击: 命中+4 ，触及5 尺， 单一目标。命中：6 (1d8+2)挥砍伤害。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌:简述</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌 ORC HAND OF YURTRUS
+约卓斯 Yurtrus是兽人的死亡和疾病之神。除了其完美、光滑和苍白的双手，祂是一个覆盖满腐烂和感染的可怕憎恶。
+在部族中，监督生死界线的兽人祭司被称为约卓斯之掌。它们栖息在兽人巢穴的边缘，通常是通过那些追随茹赛可 Luthic的信徒与其他兽人交流。约卓斯之掌 穿戴其他类人(最好是精灵)的漂白皮肤制成的手套，象征着他们与约卓斯 Yurtrus的联系，因此有时被称为 “白手”。
+每个兽人都知道约卓斯之掌是部族通往其先祖的大门。为部族做出贡献的兽人在死后会为其举行仪式，将他们送到格乌什 Gruumsh的国度。作为一个不说话的神的追随者，约卓斯之掌会移除其舌头来效仿他们的神灵，其原因类似于格乌什之眼 Eye of Gruumsh。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯之掌 ORC HAND OF YURTRUS
+中型类人(兽人)，混乱邪恶
+AC 12 (兽皮甲)
+HP 30 (4d8+12)
+速度 30尺
+力量   敏捷     体质
+12(+1) 11 (+0) 16 (+3)
+智力   感知    魅力
+11(+0) 14 (+2) 9 (-1)
+技能：奥秘+2，威吓+1，医药+4， 宗教+2
+感官：黑暗视觉 60 尺， 被动察觉12 
+语言：理解通用语和兽人语但不能说。 
+挑战等级 2 (450 XP) 
+好斗Aggressive。作为一个附赠动作，兽人可以向一个它能看见的敌对生物移动至多相当于其速度的距离。 
+施法Spellcasting。 该兽人是4级施法者。它的施法属性是感知（法术豁免DC12，法术攻击命中+4）。它施展法术时不需要言语构材。该兽人准备了以下牧师法术: 
+戏法 (随意): 神导术 guidance，修复术 mending，提升抗性 resistance，奇术 thaumaturgy
+1环 (4 法术位): 灾祸术 bane， 侦测魔法 detect magic，致伤术 inflict wounds，防护善恶 protection from evil and good
+2环 (3 法术位): 目盲/耳聋术 blindness/deafness, 沉默术 silence 
+动作
+白手之触。 近战武器攻击: 命中+3，触及5尺，单一目标。伤害: 9 (2d8) 黯蚀伤害。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者:简述</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者 ORC NURTURED ONE OF YURTRUS
+当瘟疫袭击一个部落时，约卓斯之掌 就会隔离病人。祭司会照料那些能活下来，却不能被治好的人。"手"们会培养他们的疾病，使他们成为防御工具和战争武器。当兽人投入战斗时，一队育疫者会首先冲入战场——在敌人的队伍中传播 约卓斯 Yurtrus 的邪恶祝福，在弱化敌人的同时牺牲自己性命。</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者</t>
+  </si>
+  <si>
+    <t>兽人·约卓斯育疫者 ORC NURTURED ONE OF YURTRUS
+中型类人(兽人)，混乱邪恶
+AC 9
+HP 30 (4d8+12)
+速度30尺
+力量    敏捷    体质
+15 (+2) 8(-1)   16 (+3)
+智力    感知    魅力
+7 (-2)  11 (+0) 7 (-2)
+感官：黑暗视觉 60 尺， 被动察觉10
+语言：通用语，兽人语
+挑战等级 1/2 (100 XP)
+好斗 Aggressive。作为一个附赠动作，兽人可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+腐化载体 Corrupted Carrier。当该兽人的生命值降至0时，它会引爆并迫使在其10尺范围内的任何生物进行一次DC 13 体质豁免检定。豁免失败的生物承受 14 (4d6)毒素伤害和陷入中毒状态，豁免成功则伤害减半，且不会中毒。因该效应中毒的生物能在其每回合结束时重复该豁免，并在豁免成功时终止该效应。因该效应中毒的生物在中毒期间不能恢复生命值。
+约卓斯育疫者 Nurtured One of Yurtrus。该兽人在对抗毒素和疫病的豁免上具有优势。
+动作
+爪击 Claws. 近战武器攻击: 命中+4， 触及5 尺，单一目标。伤害: 4 (1d4 + 2) 挥砍伤害，外加 2 (1d4)黯蚀伤害
+腐化复仇 Corrupted Vengeance。 该兽人将自己的生命值降至0并触发它的腐化载体特质。</t>
+  </si>
+  <si>
+    <t>兽人·沙葛司红牙:简述</t>
+  </si>
+  <si>
+    <t>兽人·沙葛司红牙 ORC RED FANG OF SHARGAAS 
+沙葛司是黑暗和鬼祟的兽人之神，一个凶残的神，憎恨任何不是兽人的生命。兽人认为沙葛司是适合被排斥者和弱者的神灵，他们都不适合在部族生活中扮演真正重要的角色。这些边缘兽人生活在部落领地最偏远、最深入的部分。 
+沙葛司的追随者中的精英是红牙教派的刺客和盗贼。他们为其部落进行暗杀、偷袭和其他秘密行动。他们依赖于自身刻苦的训练和沙葛司给予的魔法。大多数红牙领地饲养和培育巨蝠 Giant Bat，这是沙葛司的神圣生物。红牙骑着这些蝙蝠进入战斗或在敌人的领土内进行秘密突袭和暗杀任务。</t>
+  </si>
+  <si>
+    <t>兽人·沙葛司红牙</t>
+  </si>
+  <si>
+    <t>兽人·沙葛司红牙 ORC RED FANG OF SHARGAAS
+中型类人(兽人)，混乱邪恶
+AC 15 (镶钉皮甲)
+HP 52 (8d8+16)
+速度 30 尺
+力量    敏捷    体质
+11 (+0) 16 (+3) 15(+2)
+智力    感知    魅力
+9 (-1)  11 (+0) 9(-1)
+技能：威吓+1，察觉+2，隐匿+5
+感官：黑暗视觉 60 尺， 被动察觉12
+语言：通用语，兽人语
+挑战等级 3 (700 XP)
+灵巧动作 Cunning Action。该兽人能在其每回合中以一个附赠动作执行疾走、撤离或躲藏动作。
+沙葛司之手 Hand of Shargaas。该兽人武器攻击命中目标时造成额外两粒骰子的伤害（已包含在攻击中）。
+沙葛司视界 Shargaas's Sight。魔法黑暗不妨碍该兽人的黑暗视觉。
+杀手 Slayer。在战斗的第一轮，该兽人对任何还未开始其回合的生物发动攻击检定时具有优势。若该兽人该轮内命中被突袭的生物，命中的攻击将造成重击。
+动作
+多重攻击 Multiattack。该兽人发动2次弯刀或飞镖攻击
+弯刀 Scimitar。 近战武器攻击: 命中+5， 触及5 尺，单一目标。伤害: 13 (3d6+3) 挥砍伤害。
+飞镖 Dart。远程武器攻击: 命中+5 ，射程 20/60 尺，单一目标。伤害: 10 (3d4 + 3) 穿刺伤害
+沙葛司的罩幕 Veil of Shargaas。 (短休或长休后充能）。 该兽人施展黑暗术darkness且不需任何成分。它的施法属性是感知。</t>
+  </si>
+  <si>
+    <t>海恶灵:简述</t>
+  </si>
+  <si>
+    <t>海恶灵 Sea Spawn
+许多在海边棚屋里传唱的故事和流传在码头酒馆中的传说里谈到了迷失于大海的人们——但不仅仅是淹死了而已。这些不幸者被海洋带走，并作为海恶灵继续生存着。关于他们往日自我的痛苦思考有如困绕心头的海浪一样。珊瑚裹住了他们。藤壶紧附着他们冰冷的皮肤。曾经充满空气的肺如今也能在水中呼吸。
+传说故事为这些诡异古怪的转化提供了无数种理由。“小心与一位海精灵或者人鱼坠入爱河，”有的人说，“要在风暴来临前回港，无论那渔获多么诱人。”“尊敬海神的请求，但绝不要向祂们允诺你的心。”这样的警示故事掩盖住了更深层的真相：某物潜藏于波涛之下，力图索取陆上住民们的心灵。
+深海奴仆。克拉肯，莫克鱼怪，海鬼婆，水巨灵，风暴巨人，龙龟——所有这些海洋生物以及更多的存在都可能将凡人标为自己所有并声称他们作为奴隶。这样的人可能经由一个惨淡的契约变得有责于他们的主人，或者他们可能会发现他们被这样的生物所诅咒。一旦被扭曲成一副鱼形，这个人便无法离开海洋太久，除非是在寻死。
+结构多样性。海恶灵有着各种各样的形态。一个个体可能有着一根触手手臂，鲨鱼口，海胆刺，鲸鱼鳍，章鱼眼，海藻头发，或者这些特点的任何组合。一些海恶灵拥有鱼类的身体部位来提供给它们特殊的能力以超越那些普通的类人生物。
+边栏：紫岩礁的海恶灵
+游访一列被称为紫岩礁的岛屿（在被遗忘的国度背景下）可能会注意到一个关于岛上人类居民的奇怪事实：他们之中没有婴儿或者老人。这是因为出生于洛克兰德（Rocklanders）的婴儿被扔进了大海，并被名为斯拉克雷特（Slarkrethel）的克拉肯夺走了。这经历改变了孩子们并使之变成了献身于这只克拉肯的狂热分子。他们作为人类自海中返回，但是当他们到达老年时，他们转变为了海恶灵并于黑暗深处与他们的主人再度会合。一些孩子只受到部分转变后回来，直到他们老年的时候他们才能完全变形脱离半野蛮的状态。这些不幸者隐藏着直到他们最后的转变，以保守紫岩礁的秘密。
+克拉肯牧师（在附录B中记述）是克拉肯的羊群的牧羊者。大多数牧师是岛屿原住民，不过一些是人鱼，美洛人鱼，或者居住在紫岩礁周围水域里的海精灵。</t>
+  </si>
+  <si>
+    <t>海恶灵</t>
+  </si>
+  <si>
+    <t>海恶灵 Sea Spawn
+中型类人生物，中立邪恶
+AC 11（天生护甲）
+HP 32（5d8+10）
+速度 20尺，游泳30尺
+力量15（+2），敏捷8（-1），体质15（+2）
+智力6（-2），感知10（+0），魅力8（-1）
+感官 黑暗视觉120尺，被动观察10
+语言 懂得水族语和通用语但是不会说
+挑战等级 1（200XP）
+有限两栖。海恶灵可以在空气中或水中呼吸，但是需要每天完全淹没在海中至少1分钟以避免窒息。
+动作
+多重攻击。海恶灵进行三次攻击：两次徒手攻击和一次使用它的鱼类部位。
+徒手攻击。近战武器攻击：命中+4，触及5尺，单一目标。命中：4（1d4+2）钝击伤害。
+鱼类部位。海恶灵有一个或多个下列攻击选项，只要它拥有合适的部位。
+啮咬。近战武器攻击：命中+5，触及5尺，单一目标。命中：4（1d4+2）穿刺伤害。
+毒刺。近战武器攻击：命中+5，触及5尺，单一目标。命中：3（1d6）毒素伤害，以及目标必须成功通过一个DC12的体质豁免检定否则中毒1分钟。目标可以在每个它的回合结束时重复该豁免检定，成功则结束它身上的效果。
+触手。近战武器攻击：命中+5，触及10尺，单一目标。命中：5（1d6+2）钝击伤害，以及目标被擒抱（逃脱DC12）如果它的体型是中型或者更小。直到这次擒抱结束前，海恶灵无法向另一个目标使用这条触手。</t>
+  </si>
+  <si>
+    <t>法特怪:简述</t>
+  </si>
+  <si>
+    <t>法特怪 Xvarts
+法特怪是莱兹爱渥—一位怯懦和叛逆的半神所产生的生物。他们有蓝色的表皮，鲜明的橘色眼睛，头部如同谢顶般，而且如镜像般反映出其创造者的形象，这些小怪物站起来只有3尺高。 
+法特怪通常住在偏远的远山、森林和洞穴。每个部落都有一个话语者——通常都是部落中最具智慧的那个——作为领袖。法特怪话语者通常担任部落的顾问，并且它们常用短的木质支撑物或是穿上长袍来使得它们看起来比部落的其他法特怪更高更傲慢。部落的其他成员负责狩猎食物、并在狩猎匮乏时掠劫附近农场的农作物及家畜。法特怪通常不太会威胁城市里的居民因为它们有些惧怕人类、矮人和精灵。
+莱兹爱渥的背叛：所有的法特怪都是莱兹爱渥堕落腐化的后代，莱兹爱渥曾是黑暗王子格拉兹特的司库，它曾经耗费几个世纪来守护格拉兹特的宝库，但随着时间的推移，它开始贪求其主人的宝库。在一次大胆的行动中，莱兹爱渥掠夺了宝库并逃到主物质位面。他发现在掠劫的宝物其中之一是无限之轴——这枚曾经是久远时代多元宇宙的水晶碎片具有将任意生物甚至是像莱兹爱渥这样的低等生物转变为半神的神器。
+在具有神格后，莱兹爱渥创造了一个叫做“黑色下水道”的领域，而它就在这个混乱魔域的最顶层。但在格拉兹特复仇之前，莱兹爱渥只是短暂享受它的神格提升，其实黑暗王子并不需要收回这件神器，因为他拥有的力量已经远超于神器所能赋予他的力量。相反，格拉兹特派遣他的密探们在世界各处散播无限制轴这件神器的威能及莱兹爱渥那个可怜虫宣称其对神器的所有权。很快，莱兹爱渥就会被那些渴求拥有神器的多种多样的敌人追击而应接不暇。
+面对这些即将到来的威胁，莱兹爱渥想到了一个计划。在它逃离主物质位面时，它开始穿梭于多个位面世界，并留下他创造的和其一模一样的一种繁衍生物——法特怪，这些生物不仅长得和莱兹爱渥一模一样，而且具有阻碍追踪其魔法的特性。咒符、仪式及其他能力可能会将指向莱兹爱渥的位置转为指向距离最近的法特怪。
+尽管初期如潮水般袭击的敌人攻势已经平静下来，莱兹爱渥深知平衡这些力量需要许久的耐心，因此这个可怜的半神依旧在位面之间游荡躲藏着。同时，为了确保它的安全，莱兹爱渥还会创造出更多的法特怪。
+贪婪的暴徒：法特怪具有它们创造者所有的缺陷且几乎无法弥补这些恶心的特性，在它们的居住地缺乏劳作的生产工具，而且它们也不屑于劳作。法特怪们贪婪、放纵、并且沉迷于获得贵重物品——越华丽越古怪、越好。他们知道自己是有缺陷的，而这种微小的自我意识只会放大他们的其他缺点，他们憎恨几乎任何他们认为比他们更好的生物——这基本包括所有生物。但大多数时候，这些小怪兽缺乏行动的动力和勇气，它们的恐惧使得它们徘徊于文明之地外或是被强者们遗忘的偏远地域。换而言之，法特怪就是生活在那些害虫繁衍生长的地方。
+尽管本性混乱，但是法特怪对莱兹爱渥有着不可动摇的忠诚。它们希望通过取悦莱兹爱渥来对他们的重大决策有重要影响。当事情向着不好的方向发展，它们就会假想到莱兹爱渥对他们表示愤怒。为安抚它们那麻烦缠身的神，它们时不时会绑架生物。法特怪们用捕网捕捉敌人，并把他们拖回巢穴安置在临时的祭坛上进行献祭。莱兹爱渥能听到它信徒的诉求但是他害怕被仇敌发现，大部分时候不敢现身。偶尔，他会以一个9英尺高的法特怪形象出现在一个礼拜者的部落里，背着一个空袋子。在每一个这样的例子中，莱兹爱渥都会拿走部落所积累的所有财富，把财物塞进他的口袋里，在留下任何补偿前消失了。
+害虫之主：老鼠和蝙蝠（包括巨型种类）都会天然地亲近法特怪，法特怪们也会驯化这些动物作为战斗伙伴和食物。法特怪也会和鼠人结盟-尽管这些兽化人更容易占据统治地位。这些关系可以追溯为莱兹爱渥的神性本源。尽管法特怪继承了莱兹爱渥的贪婪和怯懦，但是他们也获得了与这种生物形成联系的能力。
+法特怪邪术师：一个法特怪可以通过仪式：比如偷窃一件非常昂贵的珍品来向莱兹爱渥献祭，并在半神亲自现身前要求同其达成协议。仪式时将该贵重的珍宝献给莱兹爱渥，这名法特怪向其恳求魔法能力以便于其能发现更多的珍宝并献给它的半神，如果莱兹爱渥认同了它的观点，他在回归其混乱领域前将赋予这名法特怪极大的智慧和魅力，以及邪术师般的施法能力。在法特怪的社会中，莱兹爱渥邪术士是受人尊敬和敬畏的，但他们对政治方面没有什么兴趣。他们在荒野、古老的废墟和地牢里寻找宝藏，常常带着一些法特怪奉承者和一只巨鼠保镖。</t>
+  </si>
+  <si>
+    <t>法特怪</t>
+  </si>
+  <si>
+    <t>法特怪 
+小型类人生物（法特怪），混乱邪恶
+AC：13（皮护甲）
+HP：7（2d6）
+速度：30尺
+力量8（-1）   敏捷14（+2）   体质10（+0）
+智力8（-1）   感知7（-2）   魅力7（-2）
+技能：隐匿+4
+感官：黑暗视觉30尺，被动察觉8尺
+语言：深渊语
+挑战等级：1/8（25 XP）
+卑劣的狡诈：法特怪可以在其每个回合进行一次脱离战斗动作，该动作视为一次附赠动作。
+傲慢的群落：法特怪对一名生物进行撞击，当至少有一名法特怪存活并距离该生物5尺内，且它的法特怪盟友未失能的情况下，法特怪在力量（竞技）鉴定上具有优势。
+莱兹爱渥之舌：法特怪能与普通的蝙蝠和老鼠，甚至是巨鼠和巨型蝙蝠沟通。
+动作
+短剑：近战武器攻击：命中+4，触及5尺，单一生物。命中：5（1d6+2）的穿刺伤害。
+投石索：远程武器攻击：命中+4，射程30/120尺，单一生物。伤害4（1d4+2）的钝击伤害。
+变体：法特怪话语者
+每个法特怪部落都有一个话语者作为它们的领袖，话语者具有普通法特怪的数据，仅是在其智力值为13（+1），且它能听懂额外的语言（通常是通用语和地精语）</t>
+  </si>
+  <si>
+    <t>法特怪莱兹爱渥邪术师</t>
+  </si>
+  <si>
+    <t>法特怪莱兹爱渥邪术师 
+小型类人生物（法特怪），混乱邪恶
+AC：12（15在处于魔法护甲下）
+HP：22（5d6+5）
+速度：30尺
+力量8（-1）   敏捷14（+2）   体质12（+1）
+智力8（-1）   感知11（+0）   魅力12（+1）
+技能：隐匿+3
+感官：黑暗视觉30尺，被动察觉10尺
+语言：深渊语
+挑战等级：1（200 XP）
+天生施法：法特怪邪术师天生施法的能力基于其魅力。它可以施放以下法术且不需要任何施法材料：
+随意：侦测法术、魔法护甲（仅对自己生效）
+施法：法特怪莱兹爱渥邪术师是一名3级施法者，它的施法的能力基于其魅力（技能鉴定 DC11，法术攻击命中+3）。当法特怪莱兹爱渥邪术师进行一次短休息或长休整后它将重新恢复其消耗的法术槽。它知晓以下邪术师法术：
+戏法：魔能爆、法师之手、次级幻影、毒液飞溅、魔法伎俩。
+一至二级法术（二级两个法术槽）：燃烧之手、脚底抹油、隐形术、灼热射线。
+卑劣的狡诈：法特怪邪术师可以在其每个回合进行一次脱离战斗动作，该动作视为一次附赠动作。
+莱兹爱渥的祝福：当该法特怪使一个敌人的HP降至0点时，法特怪邪术师获得4点临时生命。
+莱兹爱渥之舌：法特怪能与普通的蝙蝠和老鼠，甚至是巨鼠和巨型蝙蝠沟通。
+动作
+短弯刀：近战武器攻击：命中+4，触及5尺，单一生物。命中：5（1d6+2）的挥砍伤害。</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙:简述</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙 Banderhobb
+每一只绑匪怪蛙都是阴影和血肉的混合体。通过黑暗魔法，这个混合物呈现出一种巨大而简陋的类人形态，就好像是双足站立的蟾蜍。在这种形态下，绑匪怪蛙作为一名恶棍，小偷和绑架者短暂地为它的造物主服务。
+鬼婆的造物Birthed by hags。 这个世界最远古的那些日子里，一个夜鬼婆集会设计了一个仪式，创造出了第一只绑匪怪蛙。一只知晓这个仪式的鬼婆可能愿意以一个合适的价格教导这个仪式。一些其他的黑暗精类和强大邪魔也知晓这个仪式过程，而也有极少的凡人法师同样知晓该过程。该知识也可能在一本致力于堕落法术的法术书上找到。
+沉默而致命Silence and Deadly。 当创造一个绑匪怪蛙的仪式完成时，血肉，灵魂和阴影就结合起来创造了一个如同食人魔巨大的生物。这个新形成的怪物拥有着与其巨大力量不符的细长四肢。它的宽大下巴里有着长长的舌头和层层叠叠的尖牙，用来抓住和吞咽一个生物或者一件绑匪怪蛙想偷的物品。尽管它的体型庞大，但绑匪怪蛙几乎不会发出声响，像它注入的阴影一样静悄悄地移动。绑匪怪蛙不会说话，但它能够听得懂其造物主的命令，并且以心灵感应的方式和附近的绑匪怪蛙沟通交流。
+邪恶代理人Asents of Evil。 在它短暂的存在时间里，一只绑匪怪蛙会尽全力尝试完成它的创造者的命令。它只关心完成它的使命而丝毫不在乎任何伤害，无论是它所遭受的还是它所制造的。(资本家梦寐以求的员工啊)它唯一的愿望就是服务和成功。当一只怪蛙被指派去追猎目标并且被提供一缕头发，或一件个人物品或者任何与目标有联系的其他物品时，它将是特别危险的。拥有这样的物品，怪蛙它可以在一里之外感应到目标的位置。
+一只绑匪怪蛙会履行使命直到它的存在终结。当它死亡时，这常常就是在它诞生的几天之后，它只会留下柏油般的黏性物和几缕阴影。传说中幽影平原的黑暗塔，在那儿，阴影有时会重组改造以及绑匪怪蛙的漫游。</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙</t>
+  </si>
+  <si>
+    <t>绑匪怪蛙 Banderhobb
+大型怪兽，中立邪恶
+AC：15（天生护甲）
+HP：84（8d10+40）
+速度：30尺
+力量20（+5）  敏捷12（+1）  体质20（+5）
+智力11（+0）  感知14（+2）  魅力8 （-1）
+技能：运动+8，隐匿+7
+状态免疫：魅惑，恐慌
+感官：黑暗视觉120尺，被动察觉12
+语言：绑匪怪蛙理解通用语和其创造者掌握的语言，但不会说
+挑战等级：5（1,800XP）
+共鸣联结Resonant Connection。如果绑匪怪蛙持有某个生物或物品的一小部分，比如一缕头发或一小片木头，并且该生物或物品在绑匪怪蛙的一里范围之内，那么怪蛙将知晓通往该生物或物品的最直接的路线。
+阴影隐匿Shadow Stealth。在微光光照或黑暗环境下，绑匪怪蛙能够以附赠动作来执行躲藏Hide动作。
+动作
+啃咬bite。近战武器攻击：命中+8，触及5尺，单一目标。命中：22（5d6+5）的穿刺伤害，且如果目标是大型或者更小体型，则其被擒抱（逃脱DC15）。直到擒抱终止前，该目标被束缚，且绑匪怪蛙无法再对另一目标使用啃咬攻击和弹舌攻击。
+弹舌tongue。近战武器攻击：命中+8，触及15尺，单一生物。命中：10（3d6）黯蚀伤害，且目标必须进行一次DC15的力量豁免。豁免失败则将被拉至绑匪怪蛙的五尺范围内，且绑匪怪蛙能够使用附赠动作对该目标进行一次啃咬攻击。
+吞咽swallow。绑匪怪蛙对它正在擒抱的中型或者更小体型生物发动一次啃咬攻击。如果该攻击命中，则目标被吞下，并结束其擒抱状态。被吞下的目标陷入目盲且被束缚，其对于绑匪怪蛙身体外的攻击或效应视为处于全掩护，并在每次绑匪怪蛙的回合开始时受 10(3d6)的黯蚀伤害。生命值以这种方式降至0的生物将不再受到黯蚀伤害并且伤势转为稳定。
+绑匪怪蛙不能同时吞下多于一个的生物。当绑匪怪蛙没有处于失能时，它可以在任意时间在它周围五尺的任意区域吐出该生物（不耗费动作）。且该生物陷入倒地状态。如果绑匪怪蛙死亡，它也将同样地吐出被吞咽的生物。
+阴影步Shadow Step。绑匪怪蛙能够神奇地传送至至多30尺内一个它能看见且未被占据并且处于微光光照或黑暗的位置。在传送前或传送后，它可以进行一次啃咬攻击或者弹舌攻击。</t>
+  </si>
+  <si>
+    <t>卡托伯湿沼怪:简述</t>
+  </si>
+  <si>
+    <t>卡托伯湿沼怪 Catoblepas
+卡托布湿沼怪是一种令人憎恶的生物就如同它生活的腐败沼泽地一般。在那些废土上，聚集了如同臃肿水牛、恐龙、疣猪以及河马等几乎无任何可取之处的生物群落，但很少有旅行者愿意穿越卡托布湿沼怪所在的领地。
+野兽天性（Animalistic Nature）：尽管这些怪物生性笨拙不堪，但卡托布湿沼怪同自然的野兽一般，他的行为举止也于普通野兽非常相像，就像它漫步在它泥泞不堪的沼泽地的窝旁，咀嚼它喜欢的植被，偶尔也会吃一顿腐肉，并沉溺于在污泥中打滚。一只卡托布湿沼怪可能寻找一只伴侣与其共度终生，并在必要时产下幼崽。尤其当卡托布湿沼怪保护它的幼崽时，它会攻击任何靠近它的人。
+死物般的恶臭（Stench of Death）：卡托布湿沼怪身体的恶臭味，就像死物混合着沼泽的毒气和臭鼬的麝香气，让人觉得它的体味比它的外表更可怕。当卡托布湿沼怪发动攻击时，它暴露出恐怖的自然天性，这个怪物蛇形般的长脖子很麻烦地抬起他的头，但它那充血的眼睛可以发出令肉体腐败的射线，在它尾部的末端是一个锤状物，若果被它实在击中，将会震慑受害者身体和灵魂，并使其不能行动。如果攻击的目标死亡，那卡托布湿沼怪将会享用那新鲜的遗骸。
+枯萎的领土（Blighted Territory）：卡托布湿沼怪作为一种疾病和腐烂的生物，在其栖息的沼泽地也具有类似的特性。这样的一片湿地会变得阴郁、杂乱，比以前更加恶臭。卡托布湿沼怪的居住地对环境的增益性影响，如治疗药草和清洁水，在该地域就会减少。沼泽气体有一丝卡托布湿沼怪的污秽。该地区的动物更具攻击性且容易患病。退化的生物很可能在卡托布湿沼怪的领地附近定居，就像它们不希望被他人注意到一样。
+邪恶的民间传说：普通乡民很少有机会见到卡托布湿沼怪，但是这个生物的恐怖传说却在主流文化中根深蒂固，任何关于卡托布湿沼怪在附近定居的谣言都被认为是坏兆头，即使谣言被证明是假的。卡塔布尔帕的剪影，尾巴在身体后方延展，头低垂着，是一个预示死亡或厄运的凶恶的纹章。
+圣人说，瘟疫和腐烂的神创造了卡托布湿沼怪的影响的化身。无论这种生物的起源是什么，故事都将卡托布湿沼怪与不幸联系在一起，而这些故事中有很多都有真实的成分。一些这样的故事声称，卡托布湿沼怪喜欢像牛一样的哞哞地叫，而一个沼泽里有卡托布湿沼怪地方，也可能是喝怪兽牛奶的鬼婆的家。虽然具体一只卡托布湿沼怪可能不会和鬼婆联系在一起，但是一个鬼婆集会可能会把这些动物中的一个或多个作为监护人或宠物。其他传说说那些邪恶的心可以驯服一个卡托布湿沼怪。确实，有一些关于恶毒的邪术士和黑暗骑士的传说，他们发现了如何驯养这些野兽并把它们当做坐骑使用。</t>
+  </si>
+  <si>
+    <t>卡托伯湿沼怪</t>
+  </si>
+  <si>
+    <t>卡托布湿沼怪 Catoblepas
+大型怪兽，无阵营
+AC：14（天生护甲）
+HP：84（8d10+40）
+速度：30尺
+力量19（+4）   敏捷12（+1）   体质21（+5）
+智力3（-4）   感知14（+2）   魅力8（-1）
+感官：黑暗视觉60尺，被动察觉12尺
+语言：——
+挑战等级：5（1800 XP）
+敏锐嗅觉：卡托布湿沼怪依靠其敏锐嗅觉在感知（察觉）检定上具有优势。
+恶臭：其他任何非卡托布湿沼怪的生物，如果在其回合开始时处于卡托布湿沼怪周围10尺位置的地方，该生物必须成功通过DC 16的体质豁免鉴定，否则会持续中毒到该生物下一轮回合开始。如果成功通过豁免鉴定则该生物在一小时内免疫任何卡托布湿沼怪的恶臭。
+动作
+尾击 Tail：近战武器攻击：命中+7，触及10尺，单一生物。命中：21（5d6+4）的钝击伤害。而且该目标生物必须通过一次DC 16的体质豁免鉴定，豁免失败则该生物会被震慑直到卡托布湿沼怪开始其下一轮回合。
+死亡射线 Death  Ray （充能5~6）：卡托布湿沼怪选择其视野范围内30尺一个可视的目标生物。该生物必须进行一次DC 16的体质豁免鉴定，豁免失败则该生物承受38（8d8）点黯蚀伤害，如果成功豁免则伤害减半。如果此次豁免鉴定值低于5或是更低，则该目标生物代替伤害数值为64点黯蚀伤害，射线攻击的目标生命值减少到0点时死亡。</t>
+  </si>
+  <si>
+    <t>穴钓蟹:简述</t>
+  </si>
+  <si>
+    <t>穴钓蟹 Cave Fisher
+穴钓蟹是一种在长长的鼻子里装有吐丝器，生活在地下的蜘蛛形生物，利用这工具产生黏性丝线，非常像是一股蛛网索，并使用它来捕捉猎物。
+伏击者。穴钓蟹一般狩猎小动物，尤其喜欢蝙蝠，所以它将长丝伸展在一处这样的猎物可能经过的开口处上方。接着它爬到一处藏身之地，并把自己黏附在上面休息等待。当猎物误入其丝中时，穴钓蟹就会把它的美餐一把卷起。一群穴钓蟹可能会在一起行动以让丝线覆盖住一大片区域，但只要一抓住潜在的食物，所有在这片区域里的穴钓蟹会互相争夺这份战利品。如果一个受害者从最初的伏击中逃脱，一只穴钓蟹能够射出一根长丝来再次捕获它的猎物。
+在世界中上移。稀缺的食物可能会使得一群穴钓蟹上到地面上，进入一处幽暗的峡谷或者一片阴暗的森林，不仅捕食当地的动物，也包括偶尔穿过该地区的探险家和旅行者等人。
+一只穴钓蟹本能地知道更大的目标，如类人生物是更难以击败的，所以这生物会避免攻击这样的的猎物，除非它们碰到个孤身一人的目标。它们可能会试图选择一个走在一群旅行者前面的侦察手，或者一个落后的掉队者，而不是吸引整支队伍的注意。
+宝贵的财富。穴钓蟹的几乎每一个部分在这生物被杀死后都是有用的。它的血液含有酒精，味道就像烈酒。几种矮人烈酒就包括了穴钓蟹的血液作为配方的一部分，而且一些矮人，特别是狂战士，直接生喝这种血液。如果它们在聚拢后被压制，穴钓蟹的丝能被编织成细薄，坚韧，又近乎无形的绳子。穴钓蟹的肉可以食用，吃起来很像在高度果酒中煮熟的螃蟹。这种生物的外壳能被用于制造工具，盔甲，以及首饰珠宝。
+不情愿的仆从。在一些人捕猎穴钓蟹为了它们的丝和血液而杀死它们时，另一些人猎取穴钓蟹的蛋以及饲育幼仔。穴钓蟹天生厌火，因为它们的血液是可燃的。因此半蛛人和大地精有时使用火焰的威胁来训练穴钓蟹，然后利用它们看守通路或者用作战兽。</t>
+  </si>
+  <si>
+    <t>穴钓蟹</t>
+  </si>
+  <si>
+    <t>穴钓蟹 Cave Fisher
+中型怪兽，无阵营
+AC 16（天生护甲）
+HP 58（9d8+18）
+速度 20尺，攀爬20尺
+力量16（+3），敏捷13（+1），体质14（+2）
+智力3（-4），感知10（+0），魅力3（-4）
+技能 观察+2，隐匿+5
+感官 盲视60尺，被动察觉12
+语言 ——
+挑战等级 3（700XP）
+黏胶长丝。穴钓蟹可以使用它的动作来伸长黏性长丝最多60尺，长丝会黏附上接触到它的任何东西。被长丝黏住的生物将会被穴钓蟹擒抱（逃脱DC13），并且在逃脱这次擒抱的能力检定上有劣势。长丝可以被攻击（AC15；5HP；免疫毒素和精神伤害），但是一件没有成功切断它的武器将会被缠住，需要一个动作和一次成功的DC13的力量检定才能拉出来。破坏长丝不会对穴钓蟹造成伤害，在它的下一轮可以吐出替代的长丝。
+可燃血液。如果穴钓蟹的HP减少到一半或更少，它获得火焰易伤。
+蛛行。穴钓蟹可以攀爬困难的表面，包括倒行在天花板上，而不需要进行能力检定。
+动作
+多重攻击。穴钓蟹进行两次爪抓攻击。
+爪抓。近战武器攻击：命中+5，触及5尺，单一目标。命中：10（2d6+3）挥砍伤害。
+长丝。被穴钓蟹的黏胶长丝抓住的一个生物必须通过DC13的力量豁免检定，该生物的重量必须不超过200磅。失败时，目标被拉入距离穴钓蟹5尺内的未被占据的空间，并且穴钓蟹能以它的附赠动作对目标进行一次爪抓攻击。卷起目标会放开其他任何被长丝黏附的人。在对该目标的擒抱结束以前，穴钓蟹不能再吐出长丝。</t>
+  </si>
+  <si>
+    <t>半蛛人:简述</t>
+  </si>
+  <si>
+    <t>半蛛人 Chitines
+半蛛人是侍奉罗丝的、带有蛛形状纲特征的多臂人形生物。她们组成有条理的群落，并在对抗蛛后敌人的战争中作为有效的战士。偶尔，罗丝会让半蛛人对抗黑暗精灵——尽管两边都崇拜她——作为一种惩罚的卓尔的方式，他们创造出半蛛人，但却因此触怒了女王。
+非自然起源Unnatural Origin。很久以前，卓尔首先通过用精灵囚犯进行可怕的仪式，将俘虏转变为具有人形和蜘蛛特征的生物，她们的创造者将之称为“半蛛人”。黑暗精灵的意图是首先创造出为卓尔服务的奴隶，然后通过与他们的联系为罗丝服务。正如卓尔们最终发现的那样，女神并不接受这样的安排。创造过程需要魔法学科之间的合作。卓尔法师和邪术师用上了奥术魔法和恶魔的力量，而卓尔女祭司则依靠罗丝的帮助来获取确保接受仪式者从中幸存所必须的神圣火花。罗丝观看着，期待着过程的某些部分能将这些新的可憎之物献给她，但这样的仪式并没有被执行。
+作为对这种缺乏尊重的报复，蛛后扭曲了卓尔的创造仪式，让其为她自己的目的服务。
+罗丝的报复Lolth's Revenge。当卓尔们继续进行仪式的时候，过程通常会将试验品转化为 他们所预想的那样蜘蛛一般的，矮小的生物。不过偶尔，精灵会被转化为比起精灵更像蜘蛛的生物，与罗丝的蜘蛛形态相近，比半蛛人更加狡猾。卓尔将他们称为半蛛神眷。
+起初，卓尔并没有意识到这些新的生物是罗丝对他们不满的迹象。相反，他们十分高兴。因为半蛛神眷可以产下能生出更多半蛛人（以及少部分神眷）的卵，并能在工作中引导半蛛人。但随即，黑暗精灵们就意识到了他们的错误——半蛛神眷的身体和灵魂都属于罗丝。她们向半蛛人低语她们对蛛后的崇拜和她们对卓尔的敌意，而叛乱的种子生根发芽。半蛛人和半蛛神眷奋起反抗她们过去的主人；不久之后她们中的大部分都获得了自由，而许多帮助生产和照料她们的卓尔失去了性命。
+如今，卓尔仍然会在他们需要的时候制造半蛛人。在没有神眷的情况下，半蛛人能够很好的为卓尔工作，如果卓尔发现一个独立的半蛛人群体并想要渗入其中，半蛛人就能十分有用。然而，一旦制造的过程中产生了半蛛神眷，卓尔就会立即摧毁这个生物。
+罗丝的选民Lolth's Chosen。半蛛神眷生来就对罗丝有着狂热的信仰，这让她们具备一些神术上的能力。她们宣扬说，半蛛人是罗丝的宠儿，而半蛛神眷是蛛后在世界上正当的代表，来将半蛛人从奴役中释放。尽管神眷和半蛛人都不具备性征，而半蛛神眷不需要交配就能产卵，这些生物还是选择了自己女神的性别身份。神眷们也相信并教导罗丝的蜘蛛形态，就像神眷的形态一样，是她真正的形态。任何半蛛人聚集地的偶像都是这样描述罗丝的。
+作为罗丝的仆从，半蛛神眷和半蛛人热爱蜘蛛和其他类似蜘蛛的生物。她们饲养蜘蛛和类似的节肢动物，比如穴钓蟹。半蛛人群落将罗丝像灯塔一样供奉在神龛内，吸引蜘蛛和其他侍奉她的邪恶野性的存在。任何半蛛人建立了群落的地方，都会很快成为一个蛛网遍布、阴森和危险之地。
+社群蜘蛛Communal  Spiders。半蛛人和半蛛神眷与蜘蛛相似，但她们表现得则更像群居性的昆虫，比如蚂蚁。半蛛人分为工人和战士阶级，而神眷则占据了群落阶级的顶层。每一个半蛛人都有一个社会地位，伴随着与之相关的职责，所有的半蛛人都愿意牺牲自己来保护神眷。每个半蛛人都有喷丝器官，并缓慢地产生用于建造地板、墙壁、结构、物体和陷阱的网状物，这些都有利于保护群落。一个战士可能要负责制作网甲（像兽皮或皮革一样坚硬），而一群工人可能会挖掘陷阱，用易碎的带子盖住它，伪装成松散的泥土，看起来像一个坚实的表面。
+一个群落可以支持许多神眷，作为指挥官，牧师和管理者。神眷不断争夺地位，尽管她们很少以会将群落至于险地的方式彼此对抗。群落由一位君主统治，她决定群落成员进行何种任务，包括她和其他神眷是否允许产卵。如果这位至高的统治者从罗丝那里收到一个愿景，她可能会改变群落的整体行动安排。那时，半蛛人会从幽暗地域迁出，定居在遥远的，阴暗的地表，在那里他们能够和其他的物种，尤其是卓尔精灵和精灵开战。</t>
+  </si>
+  <si>
+    <t>半蛛人</t>
+  </si>
+  <si>
+    <t>半蛛人CHITINE
+小型怪兽，混乱邪恶
+AC  14  (兽皮甲)
+生命值  18  (4d6 +  4)
+速度  30 尺.,  攀爬  30  尺.
+力量10  (+0) 敏捷14  (+2)体质12  (+1) 智力10 (+0）感知10 (+0) 魅力7(-2)
+技能  运动 +4, 隐匿 +4 
+黑暗视觉 60 尺.,  被动感知 10
+语言 地底通用语
+CR  1/2 (100  XP)
+精类血统 Fey Ancestry .半蛛人进行对抗魅惑的豁免检定时具有优势，且魔法效应无法使半蛛人陷入睡眠。
+日照敏感 Sunlight Sensitivity .在日光照射下，半蛛人的攻击检定具有劣势，其依靠视力的感知（察觉）检定也具有劣势。
+蛛行 Spider Climb .半蛛人可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+蛛网感知 Web Sense .与蛛网接触时，半蛛人可以知晓其他与该蛛网接触生物的准确位置。
+蛛网行者 Web Walker .半蛛人在蛛网上移动时无视蛛网造成的移动限制。
+动作ACTIONS
+多重攻击.半蛛人用匕首进行三次攻击。
+匕首Dagger.近战或远程武器攻击：命中+4，触及5尺或射程20/60尺，单一目标
+伤害：4（1d4+2）穿刺伤害</t>
+  </si>
+  <si>
+    <t>半蛛神眷</t>
+  </si>
+  <si>
+    <t>半蛛神眷CHOLDIRTH
+中型怪兽，混乱邪恶
+AC  15 (镶嵌皮甲 )
+生命值  66  (12d8 + 12)
+速度  30 尺.,  攀爬  30  尺.
+力量12 (+1)  敏捷16  (+3) 体质12  (+1) 
+智力 11(+0）感知14(+2)  魅力10(+0)
+技能：运动 +5，宗教+2， 隐匿+5
+感官：黑暗视觉 60 尺.,  被动察觉 12
+语言 地底通用语
+CR  3 (700  XP)
+精类血统 Fey Ancestry.半蛛神眷进行对抗魅惑的豁免检定时具有优势，且魔法效应无法使半蛛人陷入睡眠。
+日照敏感 Sunlight Sensitivity .在日光照射下，半蛛神眷的攻击检定具有劣势，其依靠视力的感知（察觉）检定也具有劣势。
+施法Spellcasting.半蛛神眷为四级施法者，其施法属性为感知（豁免DC12，法术攻击命中+4）。半蛛神眷准备了如下牧师法术：
+戏法（任意）：神导术guidance，修复术mending，提升抗力resistance，奇术thaumaturgy
+一环（4法术位）：灾祸术bane，治愈真言healing word，庇护术  sanctuary,  虔诚护盾shield  of  faith
+二环（3法术位）：人类定身术hold person，灵体武器（匕首）spiritual  weapon  (dagger)
+蛛行 Spider Climb .半蛛神眷可以在困难地形的表面攀爬，包括倒吊在天花板上，且不需要进行属性检定。
+蛛网感知 Web Sense .与蛛网接触时，半蛛神眷可以知晓其他与该蛛网接触生物的准确位置。
+蛛网行者 Web Walker .半蛛神眷在蛛网上移动时无视蛛网造成的移动限制。
+动作ACTIONS
+匕首Dagger.近战或远程武器攻击：命中+5，触及5尺或射程20/60尺，单一目标
+伤害：5（1d4+3）穿刺伤害加10（3d6）毒素伤害
+蛛网 Web（充能 5~6）  . 远程武器攻击：命中+5，射程 30/60尺，单一大型或更小体型的生物。
+伤害： 该生物被蛛网束缚。该被束缚生物可以用一个动作进行一次 DC 11 的力量检定，并以此挣脱蛛网。攻击并摧毁蛛网也可以结束该效应，这些蛛网拥有 AC10，5 点生命值，火焰伤害易伤，并且免疫钝击、毒素和心灵伤害。</t>
+  </si>
+  <si>
+    <t>沼喉怪:简述</t>
+  </si>
+  <si>
+    <t>沼喉怪 Froghemoth
+沼喉怪是一种像大象一样大的两栖捕食者。它栖息在沼泽中，有四条触手，厚实的胶质皮肤，带着一条能抓物的舌头的充满尖牙的口器，及一根可伸展的肉茎上朝向不同方向运动的三个眼球。
+异世界存在 Otherworldly Entities。沼喉怪是不属于这个世界的生物。一本据说是很久以前由巫师疯子卢姆（Lum the Mad）写的日记里，描述了埋藏在地下的奇怪的圆柱形金属庭室/房间/腔室（cylindrical chambers），从那里出现了沼喉怪，但是没有关于这些地方位置的可靠报告。
+生来饥饿 Hungry from Birth。每隔几年，一头沼喉怪就可以在不交配的情况下产下一颗受精卵。沼喉怪不关心它的卵，也可能把它吃掉。一头年幼的沼喉怪的生存通常是建立在它的父母在冷漠中离弃了它。一头新生的沼喉怪通过不加选择的捕食它沼泽领地里的其他生物在一个月时间里成长为完全的大小。他学会了把它巨大的躯体隐藏在浑浊的水塘里，只把它的眼睛露在水面上以观察路过的生物。当食物触手可及时，沼喉怪就会从它的水塘里射出（erupt）触须和舌鞭。它可以同时攫取多个目标，使它们陷入绝境，在它用舌头卷起另一个目标并把它拉过来吞下时。
+受狂蛙人崇拜Revered byBullywugs。如果一个狂蛙人部落遇到了一头沼喉怪，狂蛙人会把沼喉怪当做神明看待，竭尽所能把这怪物哄诱进他们的巢穴。一头沼喉怪可以通过提供食物来被驯服（勉强的）而狂蛙人可以与它进行基本的沟通。所以这生物在剩余的崇拜者前可能只吃掉了少量的狂蛙人。狂蛙人收集食物作为给它的贡品，为它提供一个舒适的巢穴，狂热的保护它免受伤害，并努力确保任何年幼的沼喉怪都能发育成熟。</t>
+  </si>
+  <si>
+    <t>沼喉怪</t>
+  </si>
+  <si>
+    <t>沼喉怪 Froghemoth
+巨型怪兽，无阵营
+AC:14 (天生护甲)
+HP：184(l6dl2+80)
+速度：30尺, 游泳30尺.
+力量23 (+6)  敏捷13 (+l)  体质20 (+5)
+智力 2 (-4)  感知12（+1） 魅力 5（-3）  
+豁免：体质+9, 感知+5
+技能：察觉+9 隐匿+5
+伤害抗性：火焰，闪电
+感官：黑暗视觉60尺，被动察觉19
+语言：—
+挑战等级：10 (5,900 XP)
+水陆两栖Amphibious. 沼喉怪可以在空气和水中呼吸。
+电敏Shock Susceptibility.如果沼喉怪受到闪电伤害，直到它的下一个回合结束它遭受数种效果: 它的速度减半, 它在AC和敏捷豁免上受到一个-2的罚值, 它不能使用反应或多重攻击,在它的回合, 可以执行一个动作或一个附赠动作，但不能同时执行以上两者。
+动作
+多重攻击Multiattack。 沼喉怪发动两次触须攻击. 它还可以用舌卷或啃咬。
+触须Tentacle。 近战武器攻击：命中+10,触及20尺,单一目标。 伤害：19(3d8 + 6) 钝击伤害,如果目标是巨型或更小的生物则被擒抱(逃脱DC 16)。直到擒抱结束, 沼喉怪不能对另一个目标使用这条触手。沼喉怪有四条触手。
+啃咬 Bite。 近战武器攻击：命中+10,触及5尺,单一目标。命中：22（3d10+6）穿刺伤害，如果目标是一个中型或更小的生物则被吞下。一个被吞下的目标陷入目盲且被束缚，其对于沼喉怪身体外的攻击或效应视为处于全掩护，并在每次该沼喉怪的回合开始时受到10（3d6）的强酸伤害。沼喉怪的食道一次可以容纳两个生物。如果沼喉怪在同一回合受到20点或更多来自其体内的伤害，则该沼喉怪在该回合结束时必须成功通过一次DC 20的体质豁免否则将吐出所有被吞下的生物，每个都摔下倒地于沼喉怪周边10尺范围内。如果该沼喉怪死亡，则被吞下的生物将不再受束缚，且可以消耗10尺移动力逃出，然后在尸体旁现身并陷入倒地状态。
+舌卷Tongue。沼喉怪选择一个20尺内他能看见的中型或更小的生物。目标必须成功通过一个DC 18的力量豁免。若豁免失败，目标被拉进沼喉怪5尺内一个未被占用的空间，且沼喉怪能以附赠动作对他发动一次啃咬攻击。</t>
+  </si>
+  <si>
+    <t>四臂猩猩:简述</t>
+  </si>
+  <si>
+    <t>四臂猩猩 Girallon
+一头四臂猩猩看上去像一只体型超大有着灰色皮肤和白色毛发的四臂猿猴。它的尖牙和利爪把它和普通的猿猴区分开，显示出它是一头猎食巨兽。
+森林猎手 Forest Hunters。四臂猩猩在温带或生机盎然（abundant with life 充满生灵？）的暖林环境里最常见。他们和猿猴一样善于攀爬，虽然这些半吨重的生物会避开那些无法支撑其体重的树。相反，他们潜伏在森林的地面，潜藏在狭窄的沟壑或浅浅的洞穴中，或躲藏在废墟遗迹里等待猎物靠近。一头四臂猩猩出人意料的行动隐秘，考虑到它的大小及缺乏伪装。
+四臂猩猩们会形成由数个个体和它们的后代组成的松散群体，通常是由一头占主导地位的成年体领导，也往往是该群体中最年长的成员。当他们离开巢穴狩猎时，四臂猩猩用吼叫和肢体语言来进行远距离的交流。每个个体通常独自狩猎并与其他人离得很远，以确保每个人都能得到足够的食料。首领可能会组织成员们共同行动来进行一次大型猎杀。如果他们成功了，群体中的每个成员都能分享这些战利品，其中最好的部分将留给照顾幼崽的母亲们。
+墙壁攀爬者 Wall Climbers。类人生物居住过的废墟，尤其是在森林深处或丛林中的，似乎吸引着四臂猩猩们。他们沿着楼梯和阳台以及倾斜的屋顶和扶壁这样的结构轻松的移动。对一头四臂猩猩而言，一个城市的建筑只是另一种森林——更好的是，它最上面的“树枝”能很容易的支撑这些生物。在这样的环境中，四臂猩猩们充分的利用了他们的攀爬技巧。这些生物能很容易的攀登墙壁和城垛，它们栖息在塔顶和其他有利的高处以留意周围区域。
+魔法起源 Magical Origin。野生四臂猩猩的社会习性对于猿类来说是不寻常的，例如它们本能的被类人生物建筑物所吸引。这些事实，连同四臂猩猩的外貌，使贤者们相信四臂猩猩是通过魔法创造的，作为守护者为某个失落的帝国服务。当这个帝国很久以前灭亡时，四臂猩猩变成了野生的并遍布世界各地。
+从那时起，无数的生物都试图驯服、征服或与这些怪物合作。比如，蛇人（Yuan-ti）奴役四臂猩猩，把它们变成他们毒蛇王国的边境哨兵。因为四臂猩猩们知道它们自身的天性是愿和平共处的，（所以）某些类人生物学会了如何接近一个群体的首领，提供食物和其他礼物，以希望与这些生物建立一个同盟。
+受到良好对待的四臂猩猩可能愿意充当守卫，尽管他们缺乏智力来执行比攻击进入自己领地的陌生人更复杂的任务。如果是一头从小接受了适当训练的四臂猩猩，它可能会出现在一个看似不可能的地方，比如守卫在一个城市的盗贼行会的入口处。把四臂猩猩当做宠物的人必须时刻保持警惕，因为这种生物随时都可能恢复它的猎食天性。</t>
+  </si>
+  <si>
+    <t>四臂猩猩</t>
+  </si>
+  <si>
+    <t>四臂猩猩 GIRALLON
+大型怪兽，无阵营
+AC：13
+HP：59(7dl0+21)
+速度：40尺, 攀爬40尺.
+力量18(+4)  敏捷16(+3)  体质16(+3)
+智力 5(-3)  感知12（+1） 魅力7（-2）   
+技能：察觉+3、隐匿+5
+感官：黑暗视觉60尺，被动察觉13
+语言：—
+挑战等级：4 (1,100 XP)
+好斗 Aggressive。 作为一个附赠动作项，四臂猩猩可以向一个它能看见的敌对生物移动至多相当于其速度的距离。
+敏锐嗅觉 Keen Smell。 四臂猩猩依赖嗅觉进行的感知（察觉）检定具有优势。
+动作
+多重攻击Multiattack。 四臂猩猩发动五次攻击：一次啃咬和四次爪击。
+啃咬 Bite。 近战武器攻击：命中+6,触及5尺,单一生物。命中：7（1d6+4）穿刺伤害。
+爪击 Claw。 近战武器攻击：命中+6,触及10尺,单一目标。命中：7（1d6+4）挥砍伤害。</t>
+  </si>
+  <si>
+    <t>血糜兽:简述</t>
+  </si>
+  <si>
+    <t>血糜兽 Leucrotta
+血糜兽是一种组合了巨型獾的头部、里面有一个似人的头脑，只喜欢折磨和吞食人类，鹿一样的腿部和如巨型鬣狗般的身躯，把这些部分用恶魔脓水粘合在一起，然后复生这个怪物并不必担心掩盖那死亡般的臭味。
+耶诺古的产物：第一只血糜兽出现在豺狼人部落并与之并肩作战是豺狼人之王耶诺古暴怒的凌虐在主物质位面时。当时鬣狗们跟在豺狼人之王身后并吞食其杀戮的残骸，其中有的转化为血糜兽，相反的则转化为豺狼人。而这奇怪的结果是，血糜兽占其中的多数。
+血糜兽狡诈机智且残酷，它酷爱欺骗、折磨和杀戮。因为血糜兽比起一般的豺狼人更聪明且更坚韧，所以一只血糜兽通常在豺狼人部落中占据较高的地位。即便是血糜兽不喜欢领导一队豺狼人组团，但是它可以影响组团的领导，并且它也会同意协助豺狼人领袖参与战争并在战斗中给予建议。
+豺狼人通常视血糜兽为一种部落娱乐的形式，一部分原因是血糜兽可以模仿受害者的尖叫——一种通常能给豺狼人带来愉悦的声音——即使当时没有受害者可以吃。另外，豺狼人通常都是嗜血和虐待狂，但是它们的天性使得它们不能从杀戮后持续较长时间的愉悦。而多数血糜兽则是天生残忍的生物，它们的野蛮行径如果一丝不苟的描绘出将是把屠杀变为一场更愉悦、更持久的运动。豺狼人们享受观看血糜兽的行为就如同他们亲自参与屠杀一样。
+卑劣的体现：血糜兽是如此令人憎恶，只有豺狼人和它的其他同类能在其周围停留较长时间。它那可怕的、令人毛骨悚然的身体散发出一种恶臭，并且这种恶臭污染了这种怪物身体的每个部分。这种恶臭随着血糜兽的呼吸散发出体外，同时还从口中流出一种具有腐败味的腐蚀性液体。代替其尖牙的位置，是坚硬如钢铁般的骨刺，能轻易碾碎生物的骨头和撕裂血肉。具有如此全副武装的牙齿，血糜兽可以运用它们轻易破坏一名骑士的铠甲并杀死他。
+血糜兽的恶臭通常是其在攻击前对猎物的一种警告，然而，这种怪物具有两种天然能力，并使得血糜兽在攻击前具有优势。首先，一只血糜兽的行迹如同普通鹿的行迹一般难以区分。其次，血糜兽可以模仿任何它曾经听到过的生物的叫声或是声音表达方式。这个怪物充分利用它们的模仿能力吸引潜在的猎物，并在猎物麻痹且未察觉到威胁时发动进攻。</t>
+  </si>
+  <si>
+    <t>血糜兽</t>
+  </si>
+  <si>
+    <t>血糜兽 Leucrotta
+大型怪兽，混乱邪恶
+AC：14（天生护甲）
+HP：67（9d10+18）
+速度：50尺
+力量18（+4）   敏捷14（+2）   体质15（+2）
+智力9（-1）   感知12（+1）   魅力6（-2）
+技能：欺瞒 +2；察觉+3
+感官：黑暗视觉60尺，被动察觉13
+语言：深渊语、豺狼人语
+挑战等级：3（700 XP）
+敏锐嗅觉：血糜兽进行的依赖嗅觉的感知（察觉）检定具有优势。
+撤退回踢：如果一只血糜兽用它的蹄子攻击，那它可以用附赠动作执行撤离动作。
+模仿：血糜兽可以模仿动物的叫声或是类人生物的声音，一个听到该声音的生物如果成功通过DC 14的智力（调查）检定就可以辨别出它们是模仿的。
+狂暴：当一只血糜兽在它的回合内以一次近战攻击使一个生物降为0生命值时，那么它能以一个附赠动作进行半速移动以及进行一次蹄攻击。
+动作
+多重攻击：血糜兽进行两次攻击：一次啃咬和一次蹄击。
+啃咬：近战武器攻击：命中+6，触及5尺，单一目标。命中：8（1d8+4）穿刺伤害。如果血糜兽掷出了重击，那么它将投掷三颗伤害骰，而非两颗。
+蹄击：近战武器攻击：命中+6，触及5尺，单一目标。命中：11（2d6+4）的钝击伤害。</t>
+  </si>
+  <si>
+    <t>蠕行追迹者:简述</t>
+  </si>
+  <si>
+    <t>蠕行追迹者 Slithering Tracker
+那些寻求复仇的人有时会选择经受一次仪式，仪式使他们的身体变成被称为蠕行追迹者的半流质状态。
+蠕行追迹者，看似无害而又阴险狡猾，一个追迹者流淌进入那些普通生物所无法到达的地方，并且在它的猎物身上留下它湿漉漉的死亡烙印。
+不惜任何代价的复仇。创建一个蠕行追迹者的仪式，只有祭祀复仇之神的鬼婆、巫妖和祭司才知晓。该仪式只能在对一个渴望复仇的自愿生物施展。魔法将从人的身体吸走所有的水分，在这个过程中杀死它。然而，思想仍存在于从尸骸流出的液体泥浆里，着手进行它无止境的报复。
+隐形刺客。一个蠕行追迹者通过感受地面上（的气味）来寻找猎物的踪迹。猎杀时，一个蠕行追迹者会缠住对方并且紧紧包裹，这样做是为了试图淹死猎物的同时也吸干猎物的鲜血。一个刚进行过猎杀的追迹者会在一段时间内变得更容易找到，因为它的液态身体被血微微染色。在身后留下一条明显的痕迹。</t>
+  </si>
+  <si>
+    <t>蠕行追迹者</t>
+  </si>
+  <si>
+    <t>蠕行追迹者 Slithering Tracker
+中型泥怪，混乱邪恶
+AC 14
+HP 32（5d8+10）
+速度 30尺，攀爬30尺，游泳30尺
+力量16（+3） 敏捷19（+4） 体质15（+2）
+智力10（+0） 感知14（+2） 魅力11（+0）
+技能：隐匿+8
+伤害易受：火焰，寒冷
+伤害抵抗：非魔法武器的钝击、挥砍和穿刺
+状态免疫：目盲，耳聋，力竭，擒抱，麻痹，石化，倒地，束缚，昏迷
+感官：盲视120尺，黑暗视觉120尺，被动察觉12
+语言：理解生前掌握的语言但不能说
+挑战等级：3（700xp）
+伏击专家。在战斗的第一轮，追迹者对被它突袭（原文为：对它感到惊讶）的任何生物有命中骰上的优势。
+伤害转移。当追迹者擒抱一个生物时，它只受到对它造成伤害的一半，被擒抱的生物承受另一半。
+敏锐跟踪。追迹者在追踪猎物的感知检查中具有优势。
+伪装外表。当蠕行追迹者保持静止时，除非是观察者在DC18的智能（调查）检定中成功，否则无法区别它与普通水坑的差异。
+液体形式。蠕行追迹者可以进入敌人的空间然后停在那里。它也可以挤过一个1英寸宽的缝隙。
+蛛行。追迹者可以爬上困难的表面，包括倒吊在天花板上，而不需要做能力检定。
+隐于水中。在水下环境中的追迹者在为隐藏而进行的敏捷（隐匿）检定上有优势，以一个附赠动作它可以进行躲藏动作。
+动作
+猛击。近战武器攻击：+5命中，触及5英尺，一个目标。命中：8（1d10+3）钝击伤害。
+生命榨取。蠕行追迹者可以看到的、5英尺内的一个大型或更小的生物必须通过DC13的敏捷豁免，否则被追迹者擒抱（逃脱DC13）。直到此擒抱结束前，目标被束缚，且无法呼吸，除非它能在水中呼吸。此外，被擒抱的目标在每个它自己的回合开始时受到16（3dl0）暗蚀伤害，在它的每个回合开始。蠕行追迹者在同一时间只能擒抱一个目标。</t>
+  </si>
+  <si>
+    <t>孢子人:简述</t>
+  </si>
+  <si>
+    <t>孢子人 Vegepygmies
+孢子人是生活在简单的部落单位中的真菌生物。它们的生活主要是寻找食物，以及传播繁殖所需的孢子。
+原始植物。孢子人，也称为霉族或菌丝族，居住在温暖和潮湿的黑暗地区，所以他们最常见于地下或密集的森林，很少有阳光能照射到那里。孢子人本能地感觉到自身与其他植物和真菌生物的亲缘关系，因此孢子人部落总能与像蕈人、尖叫蕈和紫蕈这样的生物很好地共存。
+虽然他们喜欢吃新鲜的肉、骨头和血液，但孢子人可以从土壤和多种有机物中吸收营养，这意味着他们很少挨饿。孢子人可以通过强迫空气通过嘴发出嘶嘶声和其他噪音，但它不能用常规的方式说话。在日常生活中，孢子人通过嘶嘶声、手势和有节奏的敲击身体来交流。孢子人很少进行建筑和制造工作；他们拥有的任何工具都是从其他生物那里获得的，或者是通过复制他们所目睹的简单结构来建造的。
+生于霉菌。孢子人起源于当一个人形生物或巨人被赤霉杀死时留下的遗骸。一天后，尸体上会出现一个或多个孢子人。如果像狗或熊这样的野兽死于赤霉，则会产生一种被称为棘兽的兽类动物，而不是人形的孢子人。棘兽远不如孢子人聪明，但它们的体型更大也更凶猛，而且身上还覆盖着刺。
+随着一个孢子人年龄的增加，它的身体会变得更加坚硬，并在身体上形成孢子簇。能够产生孢子的孢子人被其他同类所尊崇，所以有人把这种孢子人称为领主。孢子领主可以在爆发时释放出孢子，感染附近的生物。如果一个生物在被感染时死亡，它的尸体就会产生孢子人，就像赤霉一样。
+没有人确切地知道孢子人是从哪里来的。有历史记载说，冒险家在一座令人望而生畏的山脉深处找到了一座充满奇特生命的金属地下城，并且在里面发现了赤霉和孢子人。而另一个故事说，探险家在一颗陨石留下的大坑里发现了赤霉，旁边茂密的丛林里到处都是孢子人。
+边栏：赤霉
+这种真菌被称为赤霉，颜色呈红褐色，仅在黑暗、温暖和潮湿的地方才能发现。在这种情况下，附着在金属物体上的赤霉可能会被误认为是一块锈斑，在这种情况下，需要成功的DC15智力(自然)或感知(生存)检定才能准确地识别出它。
+当赤霉喷出一股孢子时，任何在它5英尺以内的生物必须通过DC13的体质豁免，否则该生物会中毒。当以这种方式中毒时，生物在他的每个回合开始时都会受到7(2D6)毒素伤害，当它受到伤害时，表现为他身上长出赤霉。生物可以在每次回合结束时重复豁免，成功则结束对自身的影响。任何能中和毒药或治愈疾病的魔法都会杀死霉菌。当一个生物被减少到O点生命值，则他被霉菌的毒素伤害杀死。如果死亡的生物是野兽、巨人或类人，24小时后，一个或多个新生的孢子人会从它的身体中出现：小型尸体（1个），中型尸体（2个），大型尸体（4个）；巨型尸体（8个），或者超巨型尸体（16个）。
+赤霉很难杀死，因为武器和大多数类型的伤害都不会伤害到它；只有强酸、暗蚀、光耀伤害能够起效，每1点伤害就会摧毁1平方英尺的赤霉。一磅盐、一加仑酒精或者治愈疾病的魔法效果能够摧毁10英尺见方的赤霉，阳光可以杀死照射下的任何一块赤霉。</t>
+  </si>
+  <si>
+    <t>孢子人</t>
+  </si>
+  <si>
+    <t>孢子人
+小型植物,绝对中立
+AC 13 （天生护甲）
+HP 9 (2d6+2)
+速度 30 ft.
+力量7(-2) 敏捷14(+2) 体质13(+1) 
+智力6(-2) 感知11(+0) 魅力7（-2）
+技能：觉察+2, 隐匿+4
+伤害抗力：闪电, 穿刺
+感官：黑暗视觉 60 ft, 被动察觉 12
+语言：孢族语
+挑战：1/4 (50 XP)
+植物伪装：孢子人在任何有充足遮挡植物的地形上进行的敏捷(隐匿)检定上具有优势。
+再生：孢子人在自己回合开始时恢复3点生命值。如果它受到寒冷、火焰或暗蚀伤害，这种特性在孢子人下一轮的回合开始时不会发挥作用。只有当它以0点开始其回合并且不能再生时，孢子人才会死亡。
+动作
+爪击：近战武器攻击，+4 命中, 触及 5 ft.,单一目标。造成 5 (ld6+2) 挥砍伤害。
+投石索：远程武器攻击， +4 命中, 射程 30/120 ft., 单一目标.。造成 4 (ld4+2) 钝击伤害。</t>
+  </si>
+  <si>
+    <t>孢子领主</t>
+  </si>
+  <si>
+    <t>孢子领主
+小型植物,绝对中立
+AC 14 （天生护甲）
+HP 33 (6d6+12)
+速度 30 ft.
+力量14(+2) 敏捷14(+2) 体质14(+2) 
+智力7(-2) 感知12(+1) 魅力9（-1）
+技能：察觉+3, 隐匿+4
+伤害抗力：闪电, 穿刺
+感官：黑暗视觉 60 ft, 被动察觉 13
+语言：孢族语
+挑战：2 (45O XP)
+植物伪装：孢子领主在任何有充足遮挡植物的地形上进行的敏捷(隐匿)检定上具有优势。
+再生：孢子领主在自己回合开始时恢复5点生命值。如果它受到寒冷、火焰或暗蚀伤害，这种特性在孢子人下一轮的回合开始时不会发挥作用。只有当它以0点开始其回合并且不能再生时，孢子人才会死亡。
+动作
+多重攻击。孢子领主用爪子发动两次攻击，或用长矛发动两次近战攻击。
+爪击：近战武器攻击，+4 命中, 触及 5 ft.,单一目标。造成 5 (ld6+2) 挥砍伤害。
+长矛：近战或远程武器攻击，+4 命中，5 ft.或20/60 ft.范围，单个目标。造成5(1d6+2)穿刺伤害，或6(1d8+2)穿刺伤害（如果用两只手进行近战攻击）。
+孢子(1/日)：一朵15英尺半径的有毒孢子云从孢子领主身上弥漫开来。孢子散布在角落里，在这个区域里的每一个非植物的生物都必须通过一个DC12的体质豁免否则中毒。当以这种方式中毒时，一个目标在每个回合开始时都会受到9(2d8)的毒伤害。目标可以在每个自己回合结束时重复豁免，成功则结束对自身的影响。</t>
+  </si>
+  <si>
+    <t>棘兽</t>
+  </si>
+  <si>
+    <t>棘兽 Thorny
+中型植物,绝对中立
+AC 14 （天生护甲）
+HP 27 (5d8+5)
+速度 30 ft.
+力量13(+1) 敏捷12(+1) 体质13（+1) 
+智力4(-2) 感知10(+0) 魅力6（-2）
+技能：察觉+4, 隐匿+3
+伤害抗力：闪电, 穿刺
+感官：黑暗视觉 60 ft, 被动察觉 14
+语言：——
+挑战：1 (20O XP)
+植物伪装：棘兽在任何有充足遮挡植物的地形上进行的敏捷(隐匿)检定上具有优势。
+再生：棘兽在自己回合开始时恢复5点生命值。如果它受到寒冷、火焰或暗蚀伤害，这种特性在孢子人下一轮的回合开始时不会发挥作用。只有当它以0点开始其回合并且不能再生时，孢子人才会死亡。
+荆棘之躯：在它的回合开始，棘兽对任何擒抱它的生物造成2(1d4)穿刺伤害。
+动作
+啃咬。近战武器攻击，+3命中，触及 5 ft.，单一目标。造成 8 (2d6+1)穿刺伤害。</t>
+  </si>
+  <si>
+    <t>菘蓝树人:简述</t>
+  </si>
+  <si>
+    <t>菘蓝树人 Wood woad
+菘蓝树人是一种强大的人形植物，注入了放弃生命之人的灵魂，从而成为了一名永恒的守护者。
+生于牺牲。创造菘蓝树人的仪式是一个在野蛮社会和黑暗德鲁伊之环中世代相传的太古秘密。举行仪式未必是邪恶的行为，如果牺牲者已经达成了需要他做出心甘情愿的牺牲的协议。
+在仪式上，一个活人的胸膛被刺穿，心脏被移除，然后将一粒种子放入心脏，并将其放在一棵树中。任何空洞和树弯都能这么做，但往往是一棵雕刻出特殊空洞的树干。然后用牺牲的受害者的血液冲洗浇灌树，躯体则被埋在树的根部中。三天后，一株新芽从树根部的地面上萌发，并迅速成长为人形。
+这具新的身躯以坚韧树皮作甲，佩着一根粗糙多节的木棒和一面盾牌，随时准备履行其职责。举行仪式的人给菘蓝树人安排任务，这生物会不断地遵循命令。
+无情的保护者。一名菘蓝树人有一个将成为它的心脏所在的洞，正如其之前的身体，深埋于地中。那些成为菘蓝树人的人以他们的自由意志和全部的感情换得了超自然的力量和不死的义务。它们只与那些照料管理它们的人生活于保护的林地中。菘蓝树人的脸是空虚又面无表情的，除了在它们眼窝中充溢的光尘。菘蓝树人极少开口说话，当没有被要求采取行动时，它们扎根在地面上，默默地从中吸取着养料。
+连根拔起的不朽。就像棵树一样，一名菘蓝树人只需要阳光，空气和来自大地的养料以维生。因为它们是不朽的，一些菘蓝树人比它们最初的目的还要长寿。一个地方的菘蓝树人可能会随着时间的流逝或者那些被指定守护的人可能的死亡而失去力量或者意义。如果它从它的具体职责中得到解放，一名菘蓝树人可能会漫游找到另一处自然美景或者监视古怪的影响。
+菘蓝树人被与自然有着密切联系，并保护和尊重大地的生物所吸引，如德鲁伊和树人。一些树人由于和德鲁伊的古老协议或者举行了古怪的仪式而有着菘蓝树人作为仆从，而另一些获得自由的菘蓝树人则在同类守护者的领土中找到了新的目标。</t>
+  </si>
+  <si>
+    <t>菘蓝树人</t>
+  </si>
+  <si>
+    <t>菘蓝树人 Wood woad
+中型植物，守序中立
+AC 18（天生护甲，盾牌）
+HP 75（10d8+30）
+速度 30尺，攀爬30尺
+力量18（+4），敏捷12（+1），体质16（+3）
+智力10（+0），感知13（+1），魅力8（-1）
+技能 运动+7，察觉+4，隐匿+4
+伤害易伤 火焰
+伤害抗力 钝击，穿刺
+状态免疫 魅惑，恐慌
+感官 黑暗视觉60尺，被动察觉14
+语言 木族语
+挑战等级 5（1800XP）
+魔法木棒。在菘蓝树人的手中，木棒是魔法武器并造成7（3d4）额外伤害（已包含在它的攻击中）。
+植物伪装。菘蓝树人处于任何有着足够遮蔽植物的地形时在敏捷（隐匿）检定上有优势。
+再生。如果菘蓝树人与地面相接触，则在其回合开始时回复10点生命值。如果菘蓝树人收到火焰伤害，这个特性在它下一回合开始时不起作用。只有在它0生命值时开始回合并且无法再生时，菘蓝树人才会死亡。
+树之步伐。在它的每个回合内，菘蓝树人可以使用它10尺移动力如同法术一般进入距离它5尺内的一棵活树中并从它能看到的60尺范围内的第二棵活树中浮现，出现在第二棵树5尺范围内未被占据的空间中。两棵树都必须是大型或者更大的。
+动作
+多重攻击。菘蓝树人进行两次木棒攻击。
+木棒。近战武器攻击：命中+7，触及5尺，单一目标。命中：14（4d4+4）钝击伤害。</t>
+  </si>
+  <si>
+    <t>波达尸:简述</t>
+  </si>
+  <si>
+    <t>波达尸 Bodak
+波达尸是一种曾经崇拜奥库斯的生灵不死生物残念，在其失去生命和灵魂后，波达尸存在的唯一意义就是散播死亡。
+奥库斯印记：一名奥库斯的崇拜者往往向不死君主发誓，并在其胸口刻上恶魔领主的标记。奥库斯的邪能剥夺了这个生物的身体，思想和灵魂。只留下一副吸取周围生命力的皮囊。很多波达尸就是通过这种方式产生的，然后它们以奥库斯的名义散播死亡。
+奥库斯创造了第一批波达尸是通过它七个信徒，亦称作圣徒者的毁灭。这七名波达尸如同巴洛炎魔一般强大，拥有自由的意志并直接服务于不死王子奥库斯。这些波达尸中的任意一名都可以通过死亡凝视杀死凡人并将其转化为一只波达尸，就如同当初的圣徒者毁灭仪式一样。每只波达尸的胸口都会有奥库斯的印记，通常印记都会在这个生物胸口心脏的位置。
+奥库斯可以召回任何波达尸看到或听到的事物。 如果奥库斯这样做，那它可以通过这只波达尸立即与它的敌人或者信徒交谈。波达尸是奥库斯邪恶愿望的延展，在深渊之外，波达尸通常服务于恶魔王子的军队或是完成奥库斯的使命任务。
+不洁净的碎片：波达尸有时会回忆起它旧时生活的记忆碎片。它会试图找出它从前的盟友或是从前的敌人，并摧毁他们，就如同它那扭曲的灵魂试图抹去任何曾经和他前世有关的事物。但是奥库斯的使命却是个强制性的例外。一只波达尸可以认知到它同类的灵魂并远离它们的愤怒。任何人如果知道这个人在转化成波达尸之前的特殊习惯或者是其他微妙线索都可以识别出它的原始身份。
+大自然是蔑视波达尸这种生物的，阳光会灼烧它腐败的皮肤。这些生物可怕的凝视会耗费活着的生物的生命力，波达尸运用它的死亡凝视杀死任何活着的生物，而它的脸部凝固着如同扭曲恐怖的面具一样，这种怪物的存在是如此不自然，会使灵魂感到寒冷。没有受过战争训练的野兽或坐骑会在波达尸到来前本能的逃走。
+灵魂掠夺：当一个生物变成波达尸后，他的灵魂会变得破碎不堪以至于很少有合适的魔法复活，只有通过许愿术或是类似的魔法才能唤回这个波达尸曾经的生命。
+不死生物体质：波达尸不需要呼吸、食物、饮水和睡眠。</t>
+  </si>
+  <si>
+    <t>波达尸</t>
+  </si>
+  <si>
+    <t>波达尸 Bodak
+中型不死生物，混乱邪恶
+AC：15（天生护甲）
+HP：58（9d8+18）
+速度：30尺
+力量15（+2）   敏捷16（+3）   体质15（+2）
+智力7（-2）   感知12（+1）   魅力12（+1）
+技能：感知+4，隐匿+6
+伤害抵抗：寒冷、火焰、黯蚀；非魔法的钝击、挥砍、穿刺
+伤害免疫：闪电、毒素
+状态免疫：迷惑、惊恐、中毒
+感官：黑暗视觉120尺，被动觉察13
+语言：深渊语、生前语言
+挑战等级：6（2300 XP）       
+毁灭光环。波达尸可以取消或者激活该能力，作为附赠动作。当毁灭光环激活后，任何在波达尸周围30尺的生物在回合结束后要收到5点黯蚀伤害。但是不死生物和炼狱生物免疫该影响。
+死亡凝视。当一个生物在回合开始时距离波达尸不到30尺，且该生物看到的波达尸的空洞的眼睛。如果该波达尸可以行动且看到该生物，它可以强制该生物进行一次DC 13 的体质豁免鉴定，如果豁免失败为5点或更多，则该生物生命值将至0点，除非他能对这次惊恐状态免疫。否则，该生物将因豁免失败承受16（3D10）精神伤害  。
+除非是突袭，否则这个生物可以在回合开始前转移视线来避免该次豁免。如果该生物如此做，那么他将在对抗波达尸的攻击骰上具有劣势，直到他下一个回合的开始。如果该生物在行动期间看向波达尸，那他必须立刻进行豁免鉴定。
+阳光过敏。如果一只波达尸在开始其回合时处于阳光之下，那它将承受5点光耀伤害。并且在阳光下，波达尸在攻击骰和能力鉴定上都具有劣势。
+动作
+拳击。近战武器攻击：命中+5，触及5尺，单一生物。命中：4（1d4+2）的钝击伤害并附加9点（2d8）的黯蚀伤害。
+枯萎凝视。当一个生物在波达尸60尺内的视线范围内，波达尸可发动凝视。该生物必须进行一次DC 13 的体质豁免鉴定，如果豁免失败则该生物承受22点（4d10）黯蚀伤害，如果成功则要承受一半的伤害值。</t>
+  </si>
+  <si>
+    <t>凯沃斯衍体:简述</t>
+  </si>
+  <si>
+    <t>凯沃斯衍体 Spawn of Kyuss
+凯沃斯是一名奥库斯的高阶祭司，他的得意之作就是在大墓地中掠夺尸体并制造出了第一只凯沃斯衍体。在凯沃斯死后的几个世纪后，他的门徒仍旧执行其创造的可怕仪式。
+蠕虫之灾（Plague  of  Worms）：在远距离或是弱光环境下，凯沃斯衍体看起来和普通的僵尸没什么两样，但当它们进入清晰的视野中，你就会发现大量的蠕虫附在其身上或爬出在体外。这些蠕虫会跳到附近类人生物的身上并钻入他们的体内，蠕虫会贯穿这个类人生物的身体并使用其自己的方式到达寄主的大脑。当寄生于脑部时，蠕虫就会杀死该寄主并利用其尸体转化成一只新的凯沃斯衍体来饲育更多的幼虫。死亡类人生物的灵魂则困于尸骸内，以防止该生物复苏或是或复活，直至这个不死生物的躯体完全被破坏。而更恐怖的是这个囚于不死生物体内的灵魂陷入凯沃斯衍体的疯狂之中。
+无止境的腐坏（Corruption Without End）：凯沃斯衍体完美的表现出不死君王奥库斯希望将所有的生物转化为不死生物的意志。通过起疯狂的设想，凯沃斯衍体就是一个衍生品。如果当凯沃斯衍体偶然发现了一个生物，他就会使蠕虫攻击并寄生来产出更多的蠕虫。无论它们是分散还是聚集在一起，蠕虫的繁衍速度是以指数级。
+不死本质（Undead Nature）：凯沃斯衍体不需要空气、食物、水或睡眠。</t>
+  </si>
+  <si>
+    <t>凯沃斯衍体</t>
+  </si>
+  <si>
+    <t>凯沃斯衍体 Spawn of Kyuss
+中型不死生物，混乱邪恶
+AC：10
+HP：76（9d8+36）
+速度：30尺
+力量16（+3）   敏捷11（+0）   体质18（+4）
+智力5（-3）   感知7（-2）   魅力3（-4）
+豁免：智力+1
+伤害免疫：毒素
+状态免疫：力竭、中毒
+感官：黑暗视觉60尺，被动察觉8
+语言：能听懂其生前所熟知的语言但不会说
+挑战等级：5（1800xp）
+再生（Regeneration）：当凯沃斯衍体处于生命值不少于1点且其身体不暴露在阳光和流水中，则凯沃斯衍体开始其回合时回复10点生命值。如果该幼虫收到强酸、火焰或是光耀伤害时，则该特性在凯沃斯衍体的下一回合开始前无法生效。如果凯沃斯衍体在其回合开始前生命值降到0hp将会被摧毁其无法再生。
+蠕虫（Worms）：如果凯沃斯衍体的卵感染的生物通过治疗疾病或移除诅咒的效果，那么所有感染它的蠕虫都会枯萎，并失去穴居蠕虫的作用。
+动作
+多重攻击：凯沃斯衍体会发动两次攻击：一次爪击，一次蠕虫钻噬攻击。
+蠕虫钻噬（Burrowing  Worm）：当一个类人生物距离凯沃斯衍体可视的十尺之内，其身体内的蠕虫会被射向该类人生物。如果该生物没有通过DC11的敏捷豁免鉴定，蠕虫成功附着在类人生物的皮肤上。这些蠕虫是一种微型不死生物，具有AC6，1HP，在每项技能鉴定上2（-4），且移动速度为1尺的属性。当蠕虫附着在该生物的皮肤上时，它可以用正常的方式杀死或是用行动来刮擦掉（而凯沃斯衍体也可以通过这次动作将体内的蠕虫射向距离其十尺内可视的类人生物）。如果不这样做，则蠕虫们会在该生物下个回合结束后钻入该目标皮肤之下，并对其造成1点穿刺伤害。在那之后的每个回合结束时，在该目标生物体内的蠕虫将造成7（2d6）伤害（最大为10d6）。这个被蠕虫寄生的目标生物生命值降至0点时就会死亡，然后再10分钟后复生成一只新的凯沃斯衍体。如果寄生生物受到治愈疾病和移除诅咒的影响，则其体内的寄生蠕虫都会枯萎死亡。
+爪击Claw。近战武器攻击：命中+6，触及5尺，单一生物。命中：6（1d6+3）的挥砍伤害并附带7（2d6）的黯蚀伤害。</t>
+  </si>
+  <si>
+    <t>原牛:简述</t>
+  </si>
+  <si>
+    <t>原牛 Aurochs
+巴格杵（Bahgtru），格乌什和筎赛可之子，是兽人无与伦比的力量之神。传说巴格杵正在为进行一场战争而寻找适合他凶猛的坐骑，它发现一头强大无比的原牛，并徒手征服了这只生物，将它拖到兽人之土，格乌什的领域。巴格杵命名这只动物为 Kazaht，即兽人之牛。骑在这只强大动物的背上，巴格杵冲向敌人，用原牛的角冲撞敌人，越过牛角落在它敌人的中央。
+敬畏巴格杵的兽人可能会有一群驮着他们进入战场的战争公牛，原牛从幼年时就被训练成凶猛的坐骑，是巴格杵的神圣象征。没有兽人会食用这种动物，直至原牛死亡它们都被当作尊贵的勇士。</t>
+  </si>
+  <si>
+    <t>原牛</t>
+  </si>
+  <si>
+    <t>原牛 Aurochs
+大型野兽，无阵营
+护甲等级 11（天生护甲）
+生命值 38（4d10+16）
+速度 50尺
+力量20（+5） 敏捷10（+0） 体质19（+4）
+智力2（-4） 感知12（+1） 魅力5（-3）
+感官：被动察觉 11
+语言：——
+挑战等级：2  (450 XP)
+冲锋 Charge.如果原牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 9（2d8）钝击伤害。若目标是生物，则该目标必须通过DC15的力量豁免检定，否则将被撞击倒地。
+动作
+角抵Horns。 近战武器攻击：命中+6，触及5英尺，单一目标。命中：13（2d8+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>家牛:简述</t>
+  </si>
+  <si>
+    <t>家牛 Cow
+家牛有很多种，从普通的牛到更不寻常的、神奇的变种。公牛、洛斯兽、恶臭野牛</t>
+  </si>
+  <si>
+    <t>家牛</t>
+  </si>
+  <si>
+    <t>家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>公牛</t>
+  </si>
+  <si>
+    <t>公牛（OX）
+公牛通常是用做农业劳作而不是用做挤奶或肉食，其还有以下特征：
+驮兽（Beast of Burden）：在决定公牛的负重能力时，公牛被视为大一级体型的生物
+家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>洛斯兽</t>
+  </si>
+  <si>
+    <t>洛斯兽（ROTHE）
+普通的洛斯兽很像平常的公牛，但是它们具有30尺的黑暗视觉。深洛斯兽是幽暗地域缩小版的普通洛斯兽变体。它们由中体型代替大体型，具有13点（2d8 + 4）生命值，并且它们通过一种魔法光感来互相联系。它们具有60尺的黑暗视觉及以下特点：
+天生施法：深洛斯兽的施法能力基于其魅力，它可以随心所欲的施展光舞术，并且不需要任何耗材。
+家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>恶臭野牛</t>
+  </si>
+  <si>
+    <t>恶臭野牛（STENCH Kow）
+这些混杂着橙色和绿色体色的畸形野牛原产于下层位面，它们具有寒冷、火焰及毒素抗性，60尺的黑暗视觉以及以下特性：
+恶臭（STENCH）：除了同类以外的任何生物，如果其回合开始时处于恶臭野牛周围5尺则必须通过DC 12的体质豁免检定，如果失败则该生物到自己下个回合开始都处于中毒状态。如果豁免成功，则该生物1个小时内都免疫所有恶臭野牛的恶臭气味。
+家牛 Cow
+大型野兽，无阵营
+护甲等级 10（天生护甲）
+生命值 15（2d10+4）
+速度 30尺
+力量18（+4） 敏捷10（+0） 体质14（+2）
+智力2（-4） 感知10（+0） 魅力4（-3）
+感官：被动察觉 10尺
+语言：-
+挑战等级：1/4  (50 XP)
+冲锋 Charge.
+如果家牛先向目标直线移动至少 20 尺，然后在同一回合里以抵撞攻击命中该目标。此时该目标将受到额外 7（2d6）钝击伤害。
+动作
+角抵 近战武器攻击：命中+6，触及5英尺，单一目标。命中：7（1d6+4）穿刺伤害。</t>
+  </si>
+  <si>
+    <t>海豚:简述</t>
+  </si>
+  <si>
+    <t>海豚 Dolphin
+海豚是聪明、群居的海洋哺乳动物，以小型鱼类和鱿鱼为食。一头成年海豚个体的长度在5到6英尺之间。</t>
+  </si>
+  <si>
+    <t>海豚</t>
+  </si>
+  <si>
+    <t>海豚 Dolphin
+中型野兽，无阵营
+护甲等级 12（天生护甲）
+生命值 11（2d8+2）
+速度 0尺，游泳60尺
+力量14（+2） 敏捷13（+1） 体质13（+1）
+智力6（-2） 感知12（+1） 魅力7（-2）
+技能：察觉+3
+感官：黑暗视觉 60ft，被动察觉 13
+语言：——
+挑战等级：1/8（25xp）
+冲锋 Charge.如果海豚先向目标直线移动至少 30 尺，然后在同一回合以猛击命中该目标。此时该目标将受到额外 3（1d6）钝击伤害。
+屏息Hold  Breath.海豚可以憋气 20 分钟。
+行动 Actions.
+猛击 Slam.近战武器攻击：+4命中，触及5尺，一个目标。
+伤害：5（1d6+2）钝击伤害。</t>
+  </si>
+  <si>
+    <t>食腐蛆集群:简述</t>
+  </si>
+  <si>
+    <t>食腐蛆集群 Swarm of rot grubs
+食腐蛆是手指大小的蛆，以活物或尸体上的肉为食，尽管它们可以依赖植物存活下去。它们会钻入尸体和成堆的腐烂物质中，并攻击任何惊扰它们的生物。在钻入仍然活着的生物血肉后，食腐蛆依照本能向心脏一路高歌猛进，最终杀死它的宿主。
+不论是单个还是集群的食腐蛆都可以构成威胁。集群的属性已给出。单一的食腐蛆没有属性部分。任何与其接触的生物必须通过DC10的敏捷豁免。若豁免失败，食腐蛆钻入生物的血肉中，并在宿主生物的每一个回合开始时造成3(1d6)穿刺伤害。在宿主生物的下一回合结束前，在伤口上点火灼烧，会对宿主造成1点火焰伤害，并杀死入侵的食腐蛆。一旦超过这段时间，食腐蛆就会深入宿主的皮肤下方，火焰无法奏效。如果一个生物被一个或多个食腐蛆寄生，以0点HP结束它的回合，它就会因为食腐蛆钻入心脏而死。任何治疗疾病的效果都会杀死所有寄生目标的食腐蛆。焚烧一具尸体也会杀死任何寄生在它身上的食腐蛆。</t>
+  </si>
+  <si>
+    <t>食腐蛆集群</t>
+  </si>
+  <si>
+    <t>食腐蛆集群 SWARM OF ROT GRUBS 
+微型野兽的中型集群，无阵营
+AC：8（天生护甲）
+HP：22（5d8）
+速度：5 尺，攀爬5 尺
+力量2（-4） 敏捷7（-2） 体质10（+0）
+智力1（-5） 感知2（-4） 魅力1（-5）
+伤害抗性：穿刺、挥砍
+状态免疫：魅惑，恐慌，擒抱，麻痹，石化，倒地，束缚
+感官：盲视10 尺，被动察觉6
+语言：—
+挑战等级：1/2（100 XP）
+集群Swarm。集群可以进驻另一生物身处的空间位置，反之亦然。而且集群可以通过任何足够一只微型蛆通过的通道。集群不能恢复生命值也不能获得临时生命值。
+动作
+啃咬。近战武器攻击：+0命中，触及0英尺，一个位于集群空间之中的生物。命中：目标被1d4的食腐蛆寄生。在每个目标回合开始时，目标体内每有一只食腐蛆就会受到1d6穿刺伤害。在目标的下一回合结束前，在被咬伤处使用火焰灼烧，将会对目标造成1点火焰伤害，同时杀死这些食腐蛆。过了这段时间，这些食腐蛆将会深深钻入血肉之中，以至于无法用上述方法烧死。如果一个被食腐蛆感染的目标以0点HP状态结束其回合，它就会因被食腐蛆钻入心脏而死去。任何治疗疾病的效果都会杀死所有寄生目标的食腐蛆。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1018,34 +4531,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,14 +4547,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,6 +4586,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1159,7 +4651,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,55 +4692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,31 +4716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,6 +4752,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1305,7 +4776,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,7 +4824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,6 +4860,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1370,21 +4883,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1417,6 +4915,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,148 +4986,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1636,52 +5149,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1981,14 +5494,14 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="103.445454545455" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="103.441666666667" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -2019,8 +5532,6 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2033,8 +5544,6 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2047,8 +5556,6 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2061,8 +5568,6 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2075,8 +5580,6 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2089,8 +5592,6 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2103,8 +5604,6 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2117,8 +5616,6 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2131,8 +5628,6 @@
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2145,8 +5640,6 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2159,8 +5652,6 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2173,8 +5664,6 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,8 +5676,6 @@
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2201,8 +5688,6 @@
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -2215,8 +5700,6 @@
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2229,8 +5712,6 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2243,8 +5724,6 @@
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2257,8 +5736,6 @@
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
       <c r="F19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2271,8 +5748,6 @@
       <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2285,8 +5760,6 @@
       <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2299,8 +5772,6 @@
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2313,8 +5784,6 @@
       <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2327,8 +5796,6 @@
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2341,8 +5808,6 @@
       <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2355,8 +5820,6 @@
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2369,8 +5832,6 @@
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,8 +5844,6 @@
       <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
         <v>8</v>
       </c>
@@ -2397,8 +5856,6 @@
       <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2411,8 +5868,6 @@
       <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
         <v>8</v>
       </c>
@@ -2425,8 +5880,6 @@
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="3" t="s">
         <v>8</v>
       </c>
@@ -2439,8 +5892,6 @@
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2453,8 +5904,6 @@
       <c r="C33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2467,8 +5916,6 @@
       <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
       <c r="F34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2481,8 +5928,6 @@
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +5940,6 @@
       <c r="C36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
         <v>8</v>
       </c>
@@ -2509,8 +5952,6 @@
       <c r="C37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
       <c r="F37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2523,8 +5964,6 @@
       <c r="C38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="3" t="s">
         <v>8</v>
       </c>
@@ -2537,8 +5976,6 @@
       <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
       <c r="F39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2551,8 +5988,6 @@
       <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
       <c r="F40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2565,8 +6000,6 @@
       <c r="C41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2579,8 +6012,6 @@
       <c r="C42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2593,8 +6024,6 @@
       <c r="C43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2607,8 +6036,6 @@
       <c r="C44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2621,8 +6048,6 @@
       <c r="C45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2635,8 +6060,6 @@
       <c r="C46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
       <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2649,8 +6072,6 @@
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,8 +6084,6 @@
       <c r="C48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2677,8 +6096,6 @@
       <c r="C49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2691,8 +6108,6 @@
       <c r="C50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
       <c r="F50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2705,8 +6120,6 @@
       <c r="C51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
       <c r="F51" s="3" t="s">
         <v>8</v>
       </c>
@@ -2719,8 +6132,6 @@
       <c r="C52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2733,8 +6144,6 @@
       <c r="C53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
       <c r="F53" s="3" t="s">
         <v>8</v>
       </c>
@@ -2747,8 +6156,6 @@
       <c r="C54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
       <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2761,8 +6168,6 @@
       <c r="C55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
       <c r="F55" s="3" t="s">
         <v>8</v>
       </c>
@@ -2775,8 +6180,6 @@
       <c r="C56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
       <c r="F56" s="3" t="s">
         <v>8</v>
       </c>
@@ -2789,8 +6192,6 @@
       <c r="C57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2803,8 +6204,6 @@
       <c r="C58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2817,8 +6216,6 @@
       <c r="C59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
       <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2831,8 +6228,6 @@
       <c r="C60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2845,8 +6240,6 @@
       <c r="C61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
       <c r="F61" s="3" t="s">
         <v>8</v>
       </c>
@@ -2859,8 +6252,6 @@
       <c r="C62" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2873,8 +6264,6 @@
       <c r="C63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
       <c r="F63" s="3" t="s">
         <v>8</v>
       </c>
@@ -2887,8 +6276,6 @@
       <c r="C64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
       <c r="F64" s="3" t="s">
         <v>8</v>
       </c>
@@ -2901,8 +6288,6 @@
       <c r="C65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
       <c r="F65" s="3" t="s">
         <v>8</v>
       </c>
@@ -2915,8 +6300,6 @@
       <c r="C66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2925,104 +6308,78 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
   </sheetData>
@@ -3038,14 +6395,14 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="14.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="14.725" customWidth="1"/>
+    <col min="2" max="2" width="14.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -3135,6 +6492,1975 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.725" customWidth="1"/>
+    <col min="2" max="2" width="14.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A84" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A90" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A104" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A106" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A108" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A112" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A113" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A114" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A116" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A118" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A120" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A121" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A122" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A123" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A124" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A125" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A126" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A127" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A129" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A130" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A131" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A132" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A133" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A134" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A135" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A138" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A139" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A140" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A141" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A142" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A143" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A144" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A145" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A146" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A147" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A148" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A149" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A150" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A151" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A152" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A153" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A154" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A155" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A156" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A157" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A158" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A159" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A160" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A161" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A162" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A163" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A164" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A165" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A166" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A167" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A168" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A169" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A170" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A171" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A172" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A173" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A174" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A175" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A176" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A177" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A178" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A180" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A181" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A182" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A183" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A184" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A185" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A186" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A187" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A188" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A189" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A190" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A191" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A192" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F192" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
